--- a/Arbeitszeit.xlsx
+++ b/Arbeitszeit.xlsx
@@ -5,13 +5,13 @@
   <workbookPr date1904="1" codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Philipp\Studium\Test-Time-Domain-Adaptation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Philipp\Studium\Molecular-Test-Time-Adaptation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BB496F-7C0D-476D-ABCB-D219D83C2746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D8C0FE-204D-40BD-9164-64D5965F1803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="HCoKw4gRij0gV6dkJfNeqDY8SK+w2PMaLYVl2wyqiuSEdbwXoxG0BpbDJ/qeWfNHoSNSKsH2JW6N7mRDHC8t+w==" workbookSaltValue="AxSev/HzJnlnx2x5wdOaWw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="933" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="933" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voreinstellungen" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="145">
   <si>
     <t>Benutzer-Voreinstellungen</t>
   </si>
@@ -585,6 +585,12 @@
   </si>
   <si>
     <t>Literaturrecherche</t>
+  </si>
+  <si>
+    <t>Literaturrecherche und Coding</t>
+  </si>
+  <si>
+    <t>Coding</t>
   </si>
 </sst>
 </file>
@@ -8587,7 +8593,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8632,7 +8638,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8677,7 +8683,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8722,7 +8728,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8767,7 +8773,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8812,7 +8818,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8857,7 +8863,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8902,7 +8908,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8947,7 +8953,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8992,7 +8998,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9037,7 +9043,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9082,7 +9088,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9127,7 +9133,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9172,7 +9178,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9217,7 +9223,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9262,7 +9268,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9307,7 +9313,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9352,7 +9358,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9397,7 +9403,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9442,7 +9448,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9487,7 +9493,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9532,7 +9538,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9577,7 +9583,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9622,7 +9628,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9667,7 +9673,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9712,7 +9718,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9757,7 +9763,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9802,7 +9808,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9847,7 +9853,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9892,7 +9898,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9937,7 +9943,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -9968,7 +9974,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juli!F40</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -10088,7 +10094,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -10598,7 +10604,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10643,7 +10649,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10688,7 +10694,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10733,7 +10739,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10778,7 +10784,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10823,7 +10829,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10868,7 +10874,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10913,7 +10919,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10958,7 +10964,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11003,7 +11009,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11048,7 +11054,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11093,7 +11099,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11138,7 +11144,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11183,7 +11189,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11228,7 +11234,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11273,7 +11279,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11318,7 +11324,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11363,7 +11369,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11408,7 +11414,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11453,7 +11459,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11498,7 +11504,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11543,7 +11549,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11588,7 +11594,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11633,7 +11639,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11678,7 +11684,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11723,7 +11729,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11768,7 +11774,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11813,7 +11819,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11858,7 +11864,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11903,7 +11909,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11979,7 +11985,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">August!F40</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -12099,7 +12105,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -12609,7 +12615,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12654,7 +12660,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12699,7 +12705,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12744,7 +12750,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12789,7 +12795,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12834,7 +12840,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12879,7 +12885,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12924,7 +12930,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12969,7 +12975,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13014,7 +13020,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13059,7 +13065,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13104,7 +13110,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13149,7 +13155,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13194,7 +13200,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13239,7 +13245,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13284,7 +13290,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13329,7 +13335,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13374,7 +13380,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13419,7 +13425,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13464,7 +13470,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13509,7 +13515,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13554,7 +13560,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13599,7 +13605,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13644,7 +13650,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13689,7 +13695,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13734,7 +13740,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13779,7 +13785,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13824,7 +13830,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13869,7 +13875,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13914,7 +13920,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13959,7 +13965,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -13990,7 +13996,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">September!F40</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -14110,7 +14116,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -14620,7 +14626,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14665,7 +14671,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14710,7 +14716,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14755,7 +14761,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14800,7 +14806,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14845,7 +14851,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14890,7 +14896,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14935,7 +14941,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14980,7 +14986,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15025,7 +15031,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15070,7 +15076,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15115,7 +15121,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15160,7 +15166,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15205,7 +15211,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15250,7 +15256,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15295,7 +15301,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15340,7 +15346,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15385,7 +15391,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15430,7 +15436,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15475,7 +15481,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15520,7 +15526,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15565,7 +15571,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15610,7 +15616,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15655,7 +15661,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15700,7 +15706,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15745,7 +15751,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15790,7 +15796,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15835,7 +15841,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15880,7 +15886,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15925,7 +15931,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16001,7 +16007,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Oktober!F40</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -16121,7 +16127,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -16631,7 +16637,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16676,7 +16682,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16721,7 +16727,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16766,7 +16772,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16811,7 +16817,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16856,7 +16862,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16901,7 +16907,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16946,7 +16952,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16991,7 +16997,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17036,7 +17042,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17081,7 +17087,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17126,7 +17132,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17171,7 +17177,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17216,7 +17222,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17261,7 +17267,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17306,7 +17312,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17351,7 +17357,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17396,7 +17402,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17441,7 +17447,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17486,7 +17492,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17531,7 +17537,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17576,7 +17582,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17621,7 +17627,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17666,7 +17672,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17711,7 +17717,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17756,7 +17762,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17801,7 +17807,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17846,7 +17852,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17891,7 +17897,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17936,7 +17942,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17981,7 +17987,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -18012,7 +18018,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">November!F40</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -18132,7 +18138,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -22204,9 +22210,9 @@
         <f>März!A27</f>
         <v>44278</v>
       </c>
-      <c r="I27" s="134" t="str">
+      <c r="I27" s="134">
         <f>IF(März!K27&gt;0,März!K27,"")</f>
-        <v/>
+        <v>0.10416666666666674</v>
       </c>
       <c r="J27" s="125" t="str">
         <f>IF(OR(März!C27="",März!J27&lt;&gt;""),UPPER(März!J27),"F")</f>
@@ -22964,9 +22970,9 @@
         <f>März!A32</f>
         <v>44283</v>
       </c>
-      <c r="I32" s="134" t="str">
+      <c r="I32" s="134">
         <f>IF(März!K32&gt;0,März!K32,"")</f>
-        <v/>
+        <v>9.375E-2</v>
       </c>
       <c r="J32" s="125" t="str">
         <f>IF(OR(März!C32="",März!J32&lt;&gt;""),UPPER(März!J32),"F")</f>
@@ -23487,7 +23493,7 @@
       <c r="G36" s="264"/>
       <c r="H36" s="414">
         <f>März!F38</f>
-        <v>0.20833333333333337</v>
+        <v>0.40625000000000011</v>
       </c>
       <c r="I36" s="414"/>
       <c r="J36" s="265"/>
@@ -23547,7 +23553,7 @@
       <c r="AK36" s="264"/>
       <c r="AL36" s="266">
         <f t="shared" si="0"/>
-        <v>0.20833333333333337</v>
+        <v>0.40625000000000011</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -23568,7 +23574,7 @@
       <c r="G37" s="82"/>
       <c r="H37" s="409">
         <f ca="1">ROUND(H36-H35,10)</f>
-        <v>-0.41666666670000002</v>
+        <v>-0.21875</v>
       </c>
       <c r="I37" s="409"/>
       <c r="J37" s="83"/>
@@ -23628,7 +23634,7 @@
       <c r="AK37" s="82"/>
       <c r="AL37" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7916666667000001</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
@@ -23649,7 +23655,7 @@
       <c r="G38" s="410"/>
       <c r="H38" s="410">
         <f>März!J40</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I38" s="410"/>
       <c r="J38" s="410"/>
@@ -23709,7 +23715,7 @@
       <c r="AK38" s="410"/>
       <c r="AL38" s="343">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -26064,7 +26070,7 @@
       <c r="D2" s="92"/>
       <c r="E2" s="93">
         <f>Jahresübersicht!AL38</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -30766,10 +30772,10 @@
   </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31950,8 +31956,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D27" s="325"/>
-      <c r="E27" s="325"/>
+      <c r="D27" s="325">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E27" s="325">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="F27" s="325"/>
       <c r="G27" s="325"/>
       <c r="H27" s="326"/>
@@ -31962,7 +31972,7 @@
       <c r="J27" s="163"/>
       <c r="K27" s="319">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.10416666666666674</v>
       </c>
       <c r="L27" s="320">
         <f t="shared" ca="1" si="3"/>
@@ -31970,16 +31980,18 @@
       </c>
       <c r="M27" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.125</v>
+        <v>-2.0833333333330002E-2</v>
       </c>
       <c r="N27" s="360">
         <f t="shared" ca="1" si="5"/>
         <v>0.125</v>
       </c>
-      <c r="O27" s="165"/>
+      <c r="O27" s="165" t="s">
+        <v>143</v>
+      </c>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.29166666666666002</v>
+        <v>-0.18749999999999001</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -32024,7 +32036,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.29166666666666002</v>
+        <v>-0.18749999999999001</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -32069,7 +32081,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.29166666666666002</v>
+        <v>-0.18749999999999001</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -32114,7 +32126,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.29166666666666002</v>
+        <v>-0.18749999999999001</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -32159,7 +32171,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.29166666666666002</v>
+        <v>-0.18749999999999001</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -32175,8 +32187,12 @@
         <f>IF(ISERROR(VLOOKUP(A32,Feiertage,2,FALSE)),"",(VLOOKUP(A32,Feiertage,2,FALSE)))</f>
         <v/>
       </c>
-      <c r="D32" s="325"/>
-      <c r="E32" s="325"/>
+      <c r="D32" s="325">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E32" s="325">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="F32" s="325"/>
       <c r="G32" s="325"/>
       <c r="H32" s="326"/>
@@ -32187,7 +32203,7 @@
       <c r="J32" s="163"/>
       <c r="K32" s="319">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
       <c r="L32" s="320">
         <f t="shared" ca="1" si="3"/>
@@ -32195,16 +32211,18 @@
       </c>
       <c r="M32" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N32" s="360">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="O32" s="165"/>
+      <c r="O32" s="165" t="s">
+        <v>144</v>
+      </c>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.29166666666666002</v>
+        <v>-9.3749999999989994E-2</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -32249,7 +32267,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.29166666666666002</v>
+        <v>-9.3749999999989994E-2</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -32294,7 +32312,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-0.41666666666666002</v>
+        <v>-0.21874999999999001</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -32389,7 +32407,7 @@
       </c>
       <c r="F38" s="171">
         <f>SUM(K4:K34)</f>
-        <v>0.20833333333333337</v>
+        <v>0.40625000000000011</v>
       </c>
       <c r="G38" s="53"/>
       <c r="I38" s="68"/>
@@ -32445,13 +32463,13 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-0.41666666666667002</v>
+        <v>-0.21875</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
       <c r="J40" s="210">
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K40" s="380" t="s">
         <v>91</v>
@@ -32955,7 +32973,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-0.41666666666667002</v>
+        <v>-0.21875</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33000,7 +33018,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-0.41666666666667002</v>
+        <v>-0.21875</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33045,7 +33063,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-0.41666666666667002</v>
+        <v>-0.21875</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33090,7 +33108,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.41666666666667002</v>
+        <v>-0.21875</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33135,7 +33153,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.41666666666667002</v>
+        <v>-0.21875</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33180,7 +33198,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.41666666666667002</v>
+        <v>-0.21875</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33225,7 +33243,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.54166666666666996</v>
+        <v>-0.34375</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33270,7 +33288,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.54166666666666996</v>
+        <v>-0.34375</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33315,7 +33333,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.54166666666666996</v>
+        <v>-0.34375</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33360,7 +33378,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.54166666666666996</v>
+        <v>-0.34375</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33405,7 +33423,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.54166666666666996</v>
+        <v>-0.34375</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33450,7 +33468,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.54166666666666996</v>
+        <v>-0.34375</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33495,7 +33513,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.54166666666666996</v>
+        <v>-0.34375</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33540,7 +33558,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.66666666666666996</v>
+        <v>-0.46875</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33585,7 +33603,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.66666666666666996</v>
+        <v>-0.46875</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33630,7 +33648,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.66666666666666996</v>
+        <v>-0.46875</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33675,7 +33693,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.66666666666666996</v>
+        <v>-0.46875</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33720,7 +33738,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.66666666666666996</v>
+        <v>-0.46875</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33765,7 +33783,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.66666666666666996</v>
+        <v>-0.46875</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33810,7 +33828,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.66666666666666996</v>
+        <v>-0.46875</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33855,7 +33873,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.66666666666666996</v>
+        <v>-0.46875</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33900,7 +33918,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.66666666666666996</v>
+        <v>-0.46875</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33945,7 +33963,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.66666666666666996</v>
+        <v>-0.46875</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33990,7 +34008,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.66666666666666996</v>
+        <v>-0.46875</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34035,7 +34053,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.66666666666666996</v>
+        <v>-0.46875</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34080,7 +34098,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.66666666666666996</v>
+        <v>-0.46875</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34125,7 +34143,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.66666666666666996</v>
+        <v>-0.46875</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34170,7 +34188,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.79166666666666996</v>
+        <v>-0.59375</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34215,7 +34233,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.79166666666666996</v>
+        <v>-0.59375</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34260,7 +34278,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.79166666666666996</v>
+        <v>-0.59375</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34336,7 +34354,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">März!F40</f>
-        <v>-0.41666666666667002</v>
+        <v>-0.21875</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -34456,7 +34474,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-0.79166666666666996</v>
+        <v>-0.59375</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -34966,7 +34984,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-0.79166666666666996</v>
+        <v>-0.59375</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35011,7 +35029,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-0.79166666666666996</v>
+        <v>-0.59375</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35056,7 +35074,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-0.79166666666666996</v>
+        <v>-0.59375</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35101,7 +35119,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.79166666666666996</v>
+        <v>-0.59375</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35146,7 +35164,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.91666666666666996</v>
+        <v>-0.71875</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35191,7 +35209,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.91666666666666996</v>
+        <v>-0.71875</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35236,7 +35254,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.91666666666666996</v>
+        <v>-0.71875</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35281,7 +35299,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.91666666666666996</v>
+        <v>-0.71875</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35326,7 +35344,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.91666666666666996</v>
+        <v>-0.71875</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35371,7 +35389,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.91666666666666996</v>
+        <v>-0.71875</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35416,7 +35434,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.91666666666666996</v>
+        <v>-0.71875</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35461,7 +35479,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.0416666666666701</v>
+        <v>-0.84375</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35506,7 +35524,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.0416666666666701</v>
+        <v>-0.84375</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35551,7 +35569,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.0416666666666701</v>
+        <v>-0.84375</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35596,7 +35614,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.0416666666666701</v>
+        <v>-0.84375</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35641,7 +35659,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.0416666666666701</v>
+        <v>-0.84375</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35686,7 +35704,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.0416666666666701</v>
+        <v>-0.84375</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35731,7 +35749,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.0416666666666701</v>
+        <v>-0.84375</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35776,7 +35794,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1666666666666701</v>
+        <v>-0.96875</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35821,7 +35839,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1666666666666701</v>
+        <v>-0.96875</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35866,7 +35884,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1666666666666701</v>
+        <v>-0.96875</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35911,7 +35929,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1666666666666701</v>
+        <v>-0.96875</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35956,7 +35974,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1666666666666701</v>
+        <v>-0.96875</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36001,7 +36019,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1666666666666701</v>
+        <v>-0.96875</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36046,7 +36064,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1666666666666701</v>
+        <v>-0.96875</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36091,7 +36109,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2916666666666701</v>
+        <v>-1.09375</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36136,7 +36154,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2916666666666701</v>
+        <v>-1.09375</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36181,7 +36199,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2916666666666701</v>
+        <v>-1.09375</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36226,7 +36244,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2916666666666701</v>
+        <v>-1.09375</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36271,7 +36289,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2916666666666701</v>
+        <v>-1.09375</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36316,7 +36334,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.2916666666666701</v>
+        <v>-1.09375</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -36347,7 +36365,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">April!F40</f>
-        <v>-0.79166666666666996</v>
+        <v>-0.59375</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -36467,7 +36485,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.2916666666666701</v>
+        <v>-1.09375</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -36977,7 +36995,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.2916666666666701</v>
+        <v>-1.09375</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37022,7 +37040,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.4166666666666701</v>
+        <v>-1.21875</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37067,7 +37085,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.4166666666666701</v>
+        <v>-1.21875</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37112,7 +37130,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.4166666666666701</v>
+        <v>-1.21875</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37157,7 +37175,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.4166666666666701</v>
+        <v>-1.21875</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37202,7 +37220,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.4166666666666701</v>
+        <v>-1.21875</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37247,7 +37265,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.4166666666666701</v>
+        <v>-1.21875</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37292,7 +37310,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.4166666666666701</v>
+        <v>-1.21875</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37337,7 +37355,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.4166666666666701</v>
+        <v>-1.21875</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37382,7 +37400,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.4166666666666701</v>
+        <v>-1.21875</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37427,7 +37445,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.4166666666666701</v>
+        <v>-1.21875</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37472,7 +37490,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.4166666666666701</v>
+        <v>-1.21875</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37517,7 +37535,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.4166666666666701</v>
+        <v>-1.21875</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37562,7 +37580,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.4166666666666701</v>
+        <v>-1.21875</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37607,7 +37625,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.4166666666666701</v>
+        <v>-1.21875</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37652,7 +37670,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.5416666666666701</v>
+        <v>-1.34375</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37697,7 +37715,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.5416666666666701</v>
+        <v>-1.34375</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37742,7 +37760,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.5416666666666701</v>
+        <v>-1.34375</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37787,7 +37805,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.5416666666666701</v>
+        <v>-1.34375</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37832,7 +37850,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.5416666666666701</v>
+        <v>-1.34375</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37877,7 +37895,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.5416666666666701</v>
+        <v>-1.34375</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37922,7 +37940,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.5416666666666701</v>
+        <v>-1.34375</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37967,7 +37985,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6666666666666701</v>
+        <v>-1.46875</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38012,7 +38030,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6666666666666701</v>
+        <v>-1.46875</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38057,7 +38075,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6666666666666701</v>
+        <v>-1.46875</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38102,7 +38120,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6666666666666701</v>
+        <v>-1.46875</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38147,7 +38165,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6666666666666701</v>
+        <v>-1.46875</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38192,7 +38210,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6666666666666701</v>
+        <v>-1.46875</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38237,7 +38255,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6666666666666701</v>
+        <v>-1.46875</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38282,7 +38300,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38358,7 +38376,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Mai!F40</f>
-        <v>-1.2916666666666701</v>
+        <v>-1.09375</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -38478,7 +38496,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -38828,7 +38846,7 @@
   </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
@@ -38988,7 +39006,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39033,7 +39051,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39078,7 +39096,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39123,7 +39141,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39168,7 +39186,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39213,7 +39231,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39258,7 +39276,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39303,7 +39321,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39348,7 +39366,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39393,7 +39411,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39438,7 +39456,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39483,7 +39501,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39528,7 +39546,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39573,7 +39591,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39618,7 +39636,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39663,7 +39681,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39708,7 +39726,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39753,7 +39771,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39798,7 +39816,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39843,7 +39861,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39888,7 +39906,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39933,7 +39951,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39978,7 +39996,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40023,7 +40041,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40068,7 +40086,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40113,7 +40131,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40158,7 +40176,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40203,7 +40221,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40248,7 +40266,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40293,7 +40311,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40338,7 +40356,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -40369,7 +40387,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juni!F40</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -40489,7 +40507,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.59375</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>

--- a/Arbeitszeit.xlsx
+++ b/Arbeitszeit.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Philipp\Studium\Molecular-Test-Time-Adaptation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D8C0FE-204D-40BD-9164-64D5965F1803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B5E1BB-FFC6-4152-AD67-33D1DD1E849F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="HCoKw4gRij0gV6dkJfNeqDY8SK+w2PMaLYVl2wyqiuSEdbwXoxG0BpbDJ/qeWfNHoSNSKsH2JW6N7mRDHC8t+w==" workbookSaltValue="AxSev/HzJnlnx2x5wdOaWw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="933" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="933" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voreinstellungen" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="145">
   <si>
     <t>Benutzer-Voreinstellungen</t>
   </si>
@@ -8593,7 +8593,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8638,7 +8638,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8683,7 +8683,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8728,7 +8728,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8773,7 +8773,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8818,7 +8818,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8863,7 +8863,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8908,7 +8908,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8953,7 +8953,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8998,7 +8998,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9043,7 +9043,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9088,7 +9088,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9133,7 +9133,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9178,7 +9178,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9223,7 +9223,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9268,7 +9268,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9313,7 +9313,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9358,7 +9358,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9403,7 +9403,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9448,7 +9448,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9493,7 +9493,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9538,7 +9538,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9583,7 +9583,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9628,7 +9628,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9673,7 +9673,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9718,7 +9718,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9763,7 +9763,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9808,7 +9808,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9853,7 +9853,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9898,7 +9898,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9943,7 +9943,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -9974,7 +9974,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juli!F40</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -10604,7 +10604,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10649,7 +10649,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10694,7 +10694,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10739,7 +10739,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10784,7 +10784,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10829,7 +10829,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10874,7 +10874,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10919,7 +10919,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10964,7 +10964,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11009,7 +11009,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11054,7 +11054,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11099,7 +11099,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11144,7 +11144,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11189,7 +11189,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11234,7 +11234,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11279,7 +11279,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11324,7 +11324,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11369,7 +11369,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11414,7 +11414,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11459,7 +11459,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11504,7 +11504,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11549,7 +11549,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11594,7 +11594,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11639,7 +11639,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11684,7 +11684,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11729,7 +11729,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11774,7 +11774,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11819,7 +11819,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11864,7 +11864,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11909,7 +11909,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">August!F40</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -12615,7 +12615,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12660,7 +12660,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12705,7 +12705,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12750,7 +12750,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12795,7 +12795,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12840,7 +12840,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12885,7 +12885,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12930,7 +12930,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12975,7 +12975,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13020,7 +13020,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13065,7 +13065,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13110,7 +13110,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13155,7 +13155,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13200,7 +13200,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13245,7 +13245,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13290,7 +13290,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13335,7 +13335,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13380,7 +13380,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13425,7 +13425,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13470,7 +13470,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13515,7 +13515,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13560,7 +13560,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13605,7 +13605,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13650,7 +13650,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13695,7 +13695,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13740,7 +13740,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13785,7 +13785,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13830,7 +13830,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13875,7 +13875,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13920,7 +13920,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13965,7 +13965,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">September!F40</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -14116,7 +14116,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -14626,7 +14626,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14671,7 +14671,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14716,7 +14716,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14761,7 +14761,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14806,7 +14806,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14851,7 +14851,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14896,7 +14896,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14941,7 +14941,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14986,7 +14986,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15031,7 +15031,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15076,7 +15076,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15121,7 +15121,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15166,7 +15166,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15211,7 +15211,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15256,7 +15256,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15301,7 +15301,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15346,7 +15346,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15391,7 +15391,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15436,7 +15436,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15481,7 +15481,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15526,7 +15526,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15571,7 +15571,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15616,7 +15616,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15661,7 +15661,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15706,7 +15706,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15751,7 +15751,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15796,7 +15796,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15841,7 +15841,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15886,7 +15886,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15931,7 +15931,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16007,7 +16007,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Oktober!F40</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -16637,7 +16637,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16682,7 +16682,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16727,7 +16727,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16772,7 +16772,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16817,7 +16817,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16862,7 +16862,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16907,7 +16907,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16952,7 +16952,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16997,7 +16997,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17042,7 +17042,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17087,7 +17087,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17132,7 +17132,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17177,7 +17177,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17222,7 +17222,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17267,7 +17267,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17312,7 +17312,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17357,7 +17357,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17402,7 +17402,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17447,7 +17447,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17492,7 +17492,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17537,7 +17537,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17582,7 +17582,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17627,7 +17627,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17672,7 +17672,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17717,7 +17717,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17762,7 +17762,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17807,7 +17807,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17852,7 +17852,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17897,7 +17897,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17942,7 +17942,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17987,7 +17987,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">November!F40</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -18138,7 +18138,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -23122,9 +23122,9 @@
         <f>März!A33</f>
         <v>44284</v>
       </c>
-      <c r="I33" s="134" t="str">
+      <c r="I33" s="134">
         <f>IF(März!K33&gt;0,März!K33,"")</f>
-        <v/>
+        <v>0.21875</v>
       </c>
       <c r="J33" s="125" t="str">
         <f>IF(OR(März!C33="",März!J33&lt;&gt;""),UPPER(März!J33),"F")</f>
@@ -23493,7 +23493,7 @@
       <c r="G36" s="264"/>
       <c r="H36" s="414">
         <f>März!F38</f>
-        <v>0.40625000000000011</v>
+        <v>0.62500000000000011</v>
       </c>
       <c r="I36" s="414"/>
       <c r="J36" s="265"/>
@@ -23553,7 +23553,7 @@
       <c r="AK36" s="264"/>
       <c r="AL36" s="266">
         <f t="shared" si="0"/>
-        <v>0.40625000000000011</v>
+        <v>0.62500000000000011</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -23574,7 +23574,7 @@
       <c r="G37" s="82"/>
       <c r="H37" s="409">
         <f ca="1">ROUND(H36-H35,10)</f>
-        <v>-0.21875</v>
+        <v>0</v>
       </c>
       <c r="I37" s="409"/>
       <c r="J37" s="83"/>
@@ -23634,7 +23634,7 @@
       <c r="AK37" s="82"/>
       <c r="AL37" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
@@ -23655,7 +23655,7 @@
       <c r="G38" s="410"/>
       <c r="H38" s="410">
         <f>März!J40</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I38" s="410"/>
       <c r="J38" s="410"/>
@@ -23715,7 +23715,7 @@
       <c r="AK38" s="410"/>
       <c r="AL38" s="343">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -26070,7 +26070,7 @@
       <c r="D2" s="92"/>
       <c r="E2" s="93">
         <f>Jahresübersicht!AL38</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -30772,10 +30772,10 @@
   </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -32238,8 +32238,12 @@
         <f>IF(ISERROR(VLOOKUP(A33,Feiertage,2,FALSE)),"",(VLOOKUP(A33,Feiertage,2,FALSE)))</f>
         <v/>
       </c>
-      <c r="D33" s="325"/>
-      <c r="E33" s="325"/>
+      <c r="D33" s="325">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E33" s="325">
+        <v>0.76041666666666663</v>
+      </c>
       <c r="F33" s="325"/>
       <c r="G33" s="325"/>
       <c r="H33" s="326"/>
@@ -32250,7 +32254,7 @@
       <c r="J33" s="163"/>
       <c r="K33" s="319">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.21875</v>
       </c>
       <c r="L33" s="320">
         <f t="shared" ca="1" si="3"/>
@@ -32258,16 +32262,18 @@
       </c>
       <c r="M33" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>0.21875</v>
       </c>
       <c r="N33" s="360">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="O33" s="165"/>
+      <c r="O33" s="165" t="s">
+        <v>144</v>
+      </c>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.3749999999989994E-2</v>
+        <v>0.12500000000000999</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -32312,7 +32318,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-0.21874999999999001</v>
+        <v>1E-14</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -32407,7 +32413,7 @@
       </c>
       <c r="F38" s="171">
         <f>SUM(K4:K34)</f>
-        <v>0.40625000000000011</v>
+        <v>0.62500000000000011</v>
       </c>
       <c r="G38" s="53"/>
       <c r="I38" s="68"/>
@@ -32463,13 +32469,13 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-0.21875</v>
+        <v>0</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
       <c r="J40" s="210">
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K40" s="380" t="s">
         <v>91</v>
@@ -32973,7 +32979,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-0.21875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33018,7 +33024,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-0.21875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33063,7 +33069,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-0.21875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33108,7 +33114,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.21875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33153,7 +33159,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.21875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33198,7 +33204,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.21875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33243,7 +33249,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.34375</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33288,7 +33294,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.34375</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33333,7 +33339,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.34375</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33378,7 +33384,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.34375</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33423,7 +33429,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.34375</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33468,7 +33474,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.34375</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33513,7 +33519,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.34375</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33558,7 +33564,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.46875</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33603,7 +33609,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.46875</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33648,7 +33654,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.46875</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33693,7 +33699,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.46875</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33738,7 +33744,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.46875</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33783,7 +33789,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.46875</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33828,7 +33834,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.46875</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33873,7 +33879,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.46875</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33918,7 +33924,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.46875</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33963,7 +33969,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.46875</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34008,7 +34014,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.46875</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34053,7 +34059,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.46875</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34098,7 +34104,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.46875</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34143,7 +34149,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.46875</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34188,7 +34194,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.59375</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34233,7 +34239,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.59375</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34278,7 +34284,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.59375</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34354,7 +34360,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">März!F40</f>
-        <v>-0.21875</v>
+        <v>0</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -34474,7 +34480,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-0.59375</v>
+        <v>-0.375</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -34984,7 +34990,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-0.59375</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35029,7 +35035,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-0.59375</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35074,7 +35080,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-0.59375</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35119,7 +35125,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.59375</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35164,7 +35170,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.71875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35209,7 +35215,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.71875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35254,7 +35260,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.71875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35299,7 +35305,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.71875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35344,7 +35350,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.71875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35389,7 +35395,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.71875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35434,7 +35440,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.71875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35479,7 +35485,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.84375</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35524,7 +35530,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.84375</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35569,7 +35575,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.84375</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35614,7 +35620,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.84375</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35659,7 +35665,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.84375</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35704,7 +35710,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.84375</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35749,7 +35755,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.84375</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35794,7 +35800,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.96875</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35839,7 +35845,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.96875</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35884,7 +35890,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.96875</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35929,7 +35935,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.96875</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35974,7 +35980,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.96875</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36019,7 +36025,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.96875</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36064,7 +36070,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.96875</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36109,7 +36115,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.09375</v>
+        <v>-0.875</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36154,7 +36160,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.09375</v>
+        <v>-0.875</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36199,7 +36205,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.09375</v>
+        <v>-0.875</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36244,7 +36250,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.09375</v>
+        <v>-0.875</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36289,7 +36295,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.09375</v>
+        <v>-0.875</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36334,7 +36340,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.09375</v>
+        <v>-0.875</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -36365,7 +36371,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">April!F40</f>
-        <v>-0.59375</v>
+        <v>-0.375</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -36485,7 +36491,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.09375</v>
+        <v>-0.875</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -36995,7 +37001,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.09375</v>
+        <v>-0.875</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37040,7 +37046,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.21875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37085,7 +37091,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.21875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37130,7 +37136,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.21875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37175,7 +37181,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.21875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37220,7 +37226,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.21875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37265,7 +37271,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.21875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37310,7 +37316,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.21875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37355,7 +37361,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.21875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37400,7 +37406,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.21875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37445,7 +37451,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.21875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37490,7 +37496,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.21875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37535,7 +37541,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.21875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37580,7 +37586,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.21875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37625,7 +37631,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.21875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37670,7 +37676,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.34375</v>
+        <v>-1.125</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37715,7 +37721,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.34375</v>
+        <v>-1.125</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37760,7 +37766,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.34375</v>
+        <v>-1.125</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37805,7 +37811,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.34375</v>
+        <v>-1.125</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37850,7 +37856,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.34375</v>
+        <v>-1.125</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37895,7 +37901,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.34375</v>
+        <v>-1.125</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37940,7 +37946,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.34375</v>
+        <v>-1.125</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37985,7 +37991,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.46875</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38030,7 +38036,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.46875</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38075,7 +38081,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.46875</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38120,7 +38126,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.46875</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38165,7 +38171,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.46875</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38210,7 +38216,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.46875</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38255,7 +38261,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.46875</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38300,7 +38306,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38376,7 +38382,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Mai!F40</f>
-        <v>-1.09375</v>
+        <v>-0.875</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -38496,7 +38502,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -38846,7 +38852,7 @@
   </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
@@ -39006,7 +39012,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39051,7 +39057,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39096,7 +39102,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39141,7 +39147,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39186,7 +39192,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39231,7 +39237,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39276,7 +39282,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39321,7 +39327,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39366,7 +39372,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39411,7 +39417,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39456,7 +39462,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39501,7 +39507,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39546,7 +39552,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39591,7 +39597,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39636,7 +39642,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39681,7 +39687,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39726,7 +39732,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39771,7 +39777,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39816,7 +39822,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39861,7 +39867,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39906,7 +39912,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39951,7 +39957,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39996,7 +40002,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40041,7 +40047,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40086,7 +40092,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40131,7 +40137,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40176,7 +40182,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40221,7 +40227,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40266,7 +40272,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40311,7 +40317,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40356,7 +40362,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -40387,7 +40393,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juni!F40</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -40507,7 +40513,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.59375</v>
+        <v>-1.375</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>

--- a/Arbeitszeit.xlsx
+++ b/Arbeitszeit.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Philipp\Studium\Molecular-Test-Time-Adaptation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B5E1BB-FFC6-4152-AD67-33D1DD1E849F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B290E8EB-1909-4A23-98B3-6B695488FC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="HCoKw4gRij0gV6dkJfNeqDY8SK+w2PMaLYVl2wyqiuSEdbwXoxG0BpbDJ/qeWfNHoSNSKsH2JW6N7mRDHC8t+w==" workbookSaltValue="AxSev/HzJnlnx2x5wdOaWw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="933" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="933" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voreinstellungen" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="145">
   <si>
     <t>Benutzer-Voreinstellungen</t>
   </si>
@@ -5206,6 +5206,30 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="168" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -5260,30 +5284,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="168" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="170" fontId="2" fillId="7" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -5292,84 +5292,84 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="2" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="2" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="188" fontId="0" fillId="2" borderId="112" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="2" borderId="113" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="188" fontId="0" fillId="2" borderId="205" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="187" fontId="8" fillId="2" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="2" borderId="113" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="1" fillId="2" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="1" fillId="2" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="1" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="1" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -8458,16 +8458,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,8,1)</f>
         <v>44408</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -8478,20 +8478,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -8499,11 +8499,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -8593,7 +8593,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8638,7 +8638,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8683,7 +8683,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8728,7 +8728,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8773,7 +8773,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8818,7 +8818,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8863,7 +8863,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8908,7 +8908,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8953,7 +8953,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8998,7 +8998,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9043,7 +9043,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9088,7 +9088,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9133,7 +9133,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9178,7 +9178,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9223,7 +9223,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9268,7 +9268,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9313,7 +9313,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9358,7 +9358,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9403,7 +9403,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9448,7 +9448,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9493,7 +9493,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9538,7 +9538,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9583,7 +9583,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9628,7 +9628,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9673,7 +9673,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9718,7 +9718,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9763,7 +9763,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9808,7 +9808,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9853,7 +9853,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9898,7 +9898,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9943,7 +9943,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -9974,7 +9974,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juli!F40</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -9982,14 +9982,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -10014,14 +10014,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -10046,14 +10046,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10078,7 +10078,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -10105,10 +10105,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10120,10 +10120,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10137,14 +10137,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -10161,14 +10161,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -10189,14 +10189,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -10213,14 +10213,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -10237,14 +10237,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -10265,14 +10265,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -10281,6 +10281,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="u9sw9Wp4FxWrrZw2gOfkGI7WDfwQ2wzVzpXiQtTY4/flADuSruZDhtkNpKsXPRieyhxYdM1K4kVDyBMMhvPWXQ==" saltValue="ahMBA+MAYyJY9Z70TI5l7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -10290,13 +10297,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="191" priority="9">
@@ -10469,16 +10469,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,9,1)</f>
         <v>44439</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -10489,20 +10489,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -10510,11 +10510,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -10604,7 +10604,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10649,7 +10649,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10694,7 +10694,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10739,7 +10739,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10784,7 +10784,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10829,7 +10829,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10874,7 +10874,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10919,7 +10919,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10964,7 +10964,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11009,7 +11009,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11054,7 +11054,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11099,7 +11099,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11144,7 +11144,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11189,7 +11189,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11234,7 +11234,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11279,7 +11279,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11324,7 +11324,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11369,7 +11369,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11414,7 +11414,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11459,7 +11459,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11504,7 +11504,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11549,7 +11549,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11594,7 +11594,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11639,7 +11639,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11684,7 +11684,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11729,7 +11729,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11774,7 +11774,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11819,7 +11819,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11864,7 +11864,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11909,7 +11909,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">August!F40</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -11993,14 +11993,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -12025,14 +12025,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -12057,14 +12057,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12089,7 +12089,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -12116,10 +12116,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12131,10 +12131,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12148,14 +12148,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -12172,14 +12172,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -12200,14 +12200,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -12224,14 +12224,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -12248,14 +12248,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -12276,14 +12276,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -12292,6 +12292,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZwadLNizQthu+TvLNfXLzHOxARw83BIKNXnXY+M0ilE4dNWC9Xi45W9RUbnFnWYY/YjuB/TQHV534uE6uxgXzA==" saltValue="AZ6xCuoaQ+vRzuHj27R1+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -12301,13 +12308,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="175" priority="9">
@@ -12480,16 +12480,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,10,1)</f>
         <v>44469</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -12500,20 +12500,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -12521,11 +12521,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -12615,7 +12615,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12660,7 +12660,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12705,7 +12705,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12750,7 +12750,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12795,7 +12795,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12840,7 +12840,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12885,7 +12885,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12930,7 +12930,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12975,7 +12975,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13020,7 +13020,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13065,7 +13065,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13110,7 +13110,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13155,7 +13155,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13200,7 +13200,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13245,7 +13245,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13290,7 +13290,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13335,7 +13335,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13380,7 +13380,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13425,7 +13425,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13470,7 +13470,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13515,7 +13515,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13560,7 +13560,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13605,7 +13605,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13650,7 +13650,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13695,7 +13695,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13740,7 +13740,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13785,7 +13785,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13830,7 +13830,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13875,7 +13875,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13920,7 +13920,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13965,7 +13965,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">September!F40</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -14004,14 +14004,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -14036,14 +14036,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -14068,14 +14068,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14100,7 +14100,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -14116,7 +14116,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -14127,10 +14127,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14142,10 +14142,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14159,14 +14159,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -14183,14 +14183,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -14211,14 +14211,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -14235,14 +14235,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -14259,14 +14259,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -14287,14 +14287,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -14303,6 +14303,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ckjAp3M0inqzooLEfZdc4f/HjPsEfDCTdLAnZaayrnftQ4dctyoJ+NgDJqJCYUgWfqTF5VR9ZwUyJG5krlCuzg==" saltValue="ZTo5PKb7eGW+1GxNqRU9vw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -14312,13 +14319,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="159" priority="9">
@@ -14491,16 +14491,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,11,1)</f>
         <v>44500</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -14511,20 +14511,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -14532,11 +14532,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -14626,7 +14626,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14671,7 +14671,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14716,7 +14716,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14761,7 +14761,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14806,7 +14806,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14851,7 +14851,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14896,7 +14896,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14941,7 +14941,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14986,7 +14986,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15031,7 +15031,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15076,7 +15076,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15121,7 +15121,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15166,7 +15166,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15211,7 +15211,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15256,7 +15256,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15301,7 +15301,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15346,7 +15346,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15391,7 +15391,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15436,7 +15436,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15481,7 +15481,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15526,7 +15526,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15571,7 +15571,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15616,7 +15616,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15661,7 +15661,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15706,7 +15706,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15751,7 +15751,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15796,7 +15796,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15841,7 +15841,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15886,7 +15886,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15931,7 +15931,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16007,7 +16007,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Oktober!F40</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -16015,14 +16015,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -16047,14 +16047,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -16079,14 +16079,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16111,7 +16111,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -16138,10 +16138,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16153,10 +16153,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16170,14 +16170,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -16194,14 +16194,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -16222,14 +16222,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -16246,14 +16246,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -16270,14 +16270,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -16298,14 +16298,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -16314,6 +16314,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yUnueG6AI0b+TwSq9iNG4Cwzf8Hchd7cijzybRrJpWYCHjIcsKNjecErnlKgA/wi+14DH+HiWNKblmoAUs2xWw==" saltValue="QFUx+Ct/5TiVBTgg+aZ9AA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -16323,13 +16330,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="143" priority="9">
@@ -16502,16 +16502,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,12,1)</f>
         <v>44530</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 18</v>
@@ -16522,20 +16522,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -16543,11 +16543,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -16637,7 +16637,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16682,7 +16682,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16727,7 +16727,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16772,7 +16772,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16817,7 +16817,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16862,7 +16862,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16907,7 +16907,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16952,7 +16952,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16997,7 +16997,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17042,7 +17042,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17087,7 +17087,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17132,7 +17132,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17177,7 +17177,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17222,7 +17222,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17267,7 +17267,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17312,7 +17312,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17357,7 +17357,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17402,7 +17402,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17447,7 +17447,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17492,7 +17492,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17537,7 +17537,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17582,7 +17582,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17627,7 +17627,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17672,7 +17672,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17717,7 +17717,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17762,7 +17762,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17807,7 +17807,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17852,7 +17852,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17897,7 +17897,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17942,7 +17942,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17987,7 +17987,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">November!F40</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -18026,14 +18026,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -18058,14 +18058,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -18090,14 +18090,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18122,7 +18122,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -18138,7 +18138,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -18149,10 +18149,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18164,10 +18164,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18181,14 +18181,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -18205,14 +18205,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -18233,14 +18233,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -18257,14 +18257,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -18281,14 +18281,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -18309,14 +18309,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -18325,6 +18325,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="syEdLlnr28ns1fephgrXktWpnwhQWCu/FJXIwINCXvVXUg9m9LaQ/XmkW0xsT7j209xW7Ddhk6QbBT/eb2/MOw==" saltValue="twEufrt+yH545MWin4OFfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -18334,13 +18341,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="127" priority="9">
@@ -18526,158 +18526,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="424"/>
-      <c r="B1" s="422"/>
-      <c r="C1" s="422"/>
-      <c r="D1" s="422"/>
-      <c r="E1" s="421" t="str">
+      <c r="A1" s="414"/>
+      <c r="B1" s="412"/>
+      <c r="C1" s="412"/>
+      <c r="D1" s="412"/>
+      <c r="E1" s="411" t="str">
         <f>"Jahresübersicht "&amp;Jahr</f>
         <v>Jahresübersicht 2025</v>
       </c>
-      <c r="F1" s="422"/>
-      <c r="G1" s="422"/>
-      <c r="H1" s="422"/>
-      <c r="I1" s="422"/>
-      <c r="J1" s="422"/>
-      <c r="K1" s="422"/>
-      <c r="L1" s="422"/>
-      <c r="M1" s="422"/>
-      <c r="N1" s="422"/>
-      <c r="O1" s="422"/>
-      <c r="P1" s="422"/>
-      <c r="Q1" s="422"/>
-      <c r="R1" s="422"/>
-      <c r="S1" s="422"/>
-      <c r="T1" s="422"/>
-      <c r="U1" s="422"/>
-      <c r="V1" s="422"/>
-      <c r="W1" s="422"/>
-      <c r="X1" s="422"/>
-      <c r="Y1" s="422"/>
-      <c r="Z1" s="422"/>
-      <c r="AA1" s="422"/>
-      <c r="AB1" s="422"/>
-      <c r="AC1" s="422"/>
-      <c r="AD1" s="422"/>
-      <c r="AE1" s="422"/>
-      <c r="AF1" s="422"/>
-      <c r="AG1" s="422"/>
-      <c r="AH1" s="422"/>
-      <c r="AI1" s="418" t="str">
+      <c r="F1" s="412"/>
+      <c r="G1" s="412"/>
+      <c r="H1" s="412"/>
+      <c r="I1" s="412"/>
+      <c r="J1" s="412"/>
+      <c r="K1" s="412"/>
+      <c r="L1" s="412"/>
+      <c r="M1" s="412"/>
+      <c r="N1" s="412"/>
+      <c r="O1" s="412"/>
+      <c r="P1" s="412"/>
+      <c r="Q1" s="412"/>
+      <c r="R1" s="412"/>
+      <c r="S1" s="412"/>
+      <c r="T1" s="412"/>
+      <c r="U1" s="412"/>
+      <c r="V1" s="412"/>
+      <c r="W1" s="412"/>
+      <c r="X1" s="412"/>
+      <c r="Y1" s="412"/>
+      <c r="Z1" s="412"/>
+      <c r="AA1" s="412"/>
+      <c r="AB1" s="412"/>
+      <c r="AC1" s="412"/>
+      <c r="AD1" s="412"/>
+      <c r="AE1" s="412"/>
+      <c r="AF1" s="412"/>
+      <c r="AG1" s="412"/>
+      <c r="AH1" s="412"/>
+      <c r="AI1" s="408" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="AJ1" s="419"/>
-      <c r="AK1" s="419"/>
-      <c r="AL1" s="420"/>
+      <c r="AJ1" s="409"/>
+      <c r="AK1" s="409"/>
+      <c r="AL1" s="410"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="425"/>
-      <c r="B2" s="423"/>
-      <c r="C2" s="423"/>
-      <c r="D2" s="423"/>
-      <c r="E2" s="423"/>
-      <c r="F2" s="423"/>
-      <c r="G2" s="423"/>
-      <c r="H2" s="423"/>
-      <c r="I2" s="423"/>
-      <c r="J2" s="423"/>
-      <c r="K2" s="423"/>
-      <c r="L2" s="423"/>
-      <c r="M2" s="423"/>
-      <c r="N2" s="423"/>
-      <c r="O2" s="423"/>
-      <c r="P2" s="423"/>
-      <c r="Q2" s="423"/>
-      <c r="R2" s="423"/>
-      <c r="S2" s="423"/>
-      <c r="T2" s="423"/>
-      <c r="U2" s="423"/>
-      <c r="V2" s="423"/>
-      <c r="W2" s="423"/>
-      <c r="X2" s="423"/>
-      <c r="Y2" s="423"/>
-      <c r="Z2" s="423"/>
-      <c r="AA2" s="423"/>
-      <c r="AB2" s="423"/>
-      <c r="AC2" s="423"/>
-      <c r="AD2" s="423"/>
-      <c r="AE2" s="423"/>
-      <c r="AF2" s="423"/>
-      <c r="AG2" s="423"/>
-      <c r="AH2" s="423"/>
-      <c r="AI2" s="415" t="str">
+      <c r="A2" s="415"/>
+      <c r="B2" s="413"/>
+      <c r="C2" s="413"/>
+      <c r="D2" s="413"/>
+      <c r="E2" s="413"/>
+      <c r="F2" s="413"/>
+      <c r="G2" s="413"/>
+      <c r="H2" s="413"/>
+      <c r="I2" s="413"/>
+      <c r="J2" s="413"/>
+      <c r="K2" s="413"/>
+      <c r="L2" s="413"/>
+      <c r="M2" s="413"/>
+      <c r="N2" s="413"/>
+      <c r="O2" s="413"/>
+      <c r="P2" s="413"/>
+      <c r="Q2" s="413"/>
+      <c r="R2" s="413"/>
+      <c r="S2" s="413"/>
+      <c r="T2" s="413"/>
+      <c r="U2" s="413"/>
+      <c r="V2" s="413"/>
+      <c r="W2" s="413"/>
+      <c r="X2" s="413"/>
+      <c r="Y2" s="413"/>
+      <c r="Z2" s="413"/>
+      <c r="AA2" s="413"/>
+      <c r="AB2" s="413"/>
+      <c r="AC2" s="413"/>
+      <c r="AD2" s="413"/>
+      <c r="AE2" s="413"/>
+      <c r="AF2" s="413"/>
+      <c r="AG2" s="413"/>
+      <c r="AH2" s="413"/>
+      <c r="AI2" s="405" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="AJ2" s="416"/>
-      <c r="AK2" s="416"/>
-      <c r="AL2" s="417"/>
+      <c r="AJ2" s="406"/>
+      <c r="AK2" s="406"/>
+      <c r="AL2" s="407"/>
     </row>
     <row r="3" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="426" t="s">
+      <c r="B3" s="417" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="426"/>
-      <c r="D3" s="426"/>
-      <c r="E3" s="426" t="s">
+      <c r="C3" s="417"/>
+      <c r="D3" s="417"/>
+      <c r="E3" s="417" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="426"/>
-      <c r="G3" s="426"/>
-      <c r="H3" s="426" t="s">
+      <c r="F3" s="417"/>
+      <c r="G3" s="417"/>
+      <c r="H3" s="417" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="426"/>
-      <c r="J3" s="426"/>
-      <c r="K3" s="426" t="s">
+      <c r="I3" s="417"/>
+      <c r="J3" s="417"/>
+      <c r="K3" s="417" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="426"/>
-      <c r="M3" s="426"/>
-      <c r="N3" s="426" t="s">
+      <c r="L3" s="417"/>
+      <c r="M3" s="417"/>
+      <c r="N3" s="417" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="426"/>
-      <c r="P3" s="426"/>
-      <c r="Q3" s="426" t="s">
+      <c r="O3" s="417"/>
+      <c r="P3" s="417"/>
+      <c r="Q3" s="417" t="s">
         <v>99</v>
       </c>
-      <c r="R3" s="426"/>
-      <c r="S3" s="426"/>
-      <c r="T3" s="426" t="s">
+      <c r="R3" s="417"/>
+      <c r="S3" s="417"/>
+      <c r="T3" s="417" t="s">
         <v>100</v>
       </c>
-      <c r="U3" s="426"/>
-      <c r="V3" s="426"/>
-      <c r="W3" s="426" t="s">
+      <c r="U3" s="417"/>
+      <c r="V3" s="417"/>
+      <c r="W3" s="417" t="s">
         <v>101</v>
       </c>
-      <c r="X3" s="426"/>
-      <c r="Y3" s="426"/>
-      <c r="Z3" s="426" t="s">
+      <c r="X3" s="417"/>
+      <c r="Y3" s="417"/>
+      <c r="Z3" s="417" t="s">
         <v>102</v>
       </c>
-      <c r="AA3" s="426"/>
-      <c r="AB3" s="426"/>
-      <c r="AC3" s="426" t="s">
+      <c r="AA3" s="417"/>
+      <c r="AB3" s="417"/>
+      <c r="AC3" s="417" t="s">
         <v>103</v>
       </c>
-      <c r="AD3" s="426"/>
-      <c r="AE3" s="426"/>
-      <c r="AF3" s="426" t="s">
+      <c r="AD3" s="417"/>
+      <c r="AE3" s="417"/>
+      <c r="AF3" s="417" t="s">
         <v>104</v>
       </c>
-      <c r="AG3" s="426"/>
-      <c r="AH3" s="426"/>
-      <c r="AI3" s="426" t="s">
+      <c r="AG3" s="417"/>
+      <c r="AH3" s="417"/>
+      <c r="AI3" s="417" t="s">
         <v>105</v>
       </c>
-      <c r="AJ3" s="426"/>
-      <c r="AK3" s="426"/>
+      <c r="AJ3" s="417"/>
+      <c r="AK3" s="417"/>
       <c r="AL3" s="72" t="s">
         <v>77</v>
       </c>
@@ -23274,9 +23274,9 @@
         <f>März!A34</f>
         <v>44285</v>
       </c>
-      <c r="I34" s="135" t="str">
+      <c r="I34" s="135">
         <f>IF(März!K34&gt;0,März!K34,"")</f>
-        <v/>
+        <v>9.375E-2</v>
       </c>
       <c r="J34" s="131" t="str">
         <f>IF(OR(März!C34="",März!J34&lt;&gt;""),UPPER(März!J34),"F")</f>
@@ -23398,77 +23398,77 @@
       <c r="A35" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="411">
+      <c r="B35" s="419">
         <f ca="1">Januar!F37</f>
         <v>0</v>
       </c>
-      <c r="C35" s="411"/>
+      <c r="C35" s="419"/>
       <c r="D35" s="259"/>
-      <c r="E35" s="411">
+      <c r="E35" s="419">
         <f ca="1">Februar!F37</f>
         <v>0</v>
       </c>
-      <c r="F35" s="411"/>
+      <c r="F35" s="419"/>
       <c r="G35" s="260"/>
-      <c r="H35" s="412">
+      <c r="H35" s="416">
         <f ca="1">März!F37</f>
         <v>0.625</v>
       </c>
-      <c r="I35" s="412"/>
+      <c r="I35" s="416"/>
       <c r="J35" s="261"/>
-      <c r="K35" s="411">
+      <c r="K35" s="419">
         <f ca="1">April!F37</f>
         <v>0.375</v>
       </c>
-      <c r="L35" s="411"/>
+      <c r="L35" s="419"/>
       <c r="M35" s="260"/>
-      <c r="N35" s="412">
+      <c r="N35" s="416">
         <f ca="1">Mai!F37</f>
         <v>0.5</v>
       </c>
-      <c r="O35" s="412"/>
+      <c r="O35" s="416"/>
       <c r="P35" s="261"/>
-      <c r="Q35" s="411">
+      <c r="Q35" s="419">
         <f ca="1">Juni!F37</f>
         <v>0.5</v>
       </c>
-      <c r="R35" s="411"/>
+      <c r="R35" s="419"/>
       <c r="S35" s="260"/>
-      <c r="T35" s="412">
+      <c r="T35" s="416">
         <f ca="1">Juli!F37</f>
         <v>0</v>
       </c>
-      <c r="U35" s="412"/>
+      <c r="U35" s="416"/>
       <c r="V35" s="261"/>
-      <c r="W35" s="411">
+      <c r="W35" s="419">
         <f ca="1">August!F37</f>
         <v>0</v>
       </c>
-      <c r="X35" s="411"/>
+      <c r="X35" s="419"/>
       <c r="Y35" s="260"/>
-      <c r="Z35" s="412">
+      <c r="Z35" s="416">
         <f ca="1">September!F37</f>
         <v>0</v>
       </c>
-      <c r="AA35" s="412"/>
+      <c r="AA35" s="416"/>
       <c r="AB35" s="261"/>
-      <c r="AC35" s="411">
+      <c r="AC35" s="419">
         <f ca="1">Oktober!F37</f>
         <v>0</v>
       </c>
-      <c r="AD35" s="411"/>
+      <c r="AD35" s="419"/>
       <c r="AE35" s="260"/>
-      <c r="AF35" s="412">
+      <c r="AF35" s="416">
         <f ca="1">November!F37</f>
         <v>0</v>
       </c>
-      <c r="AG35" s="412"/>
+      <c r="AG35" s="416"/>
       <c r="AH35" s="261"/>
-      <c r="AI35" s="411">
+      <c r="AI35" s="419">
         <f ca="1">Dezember!F37</f>
         <v>0</v>
       </c>
-      <c r="AJ35" s="411"/>
+      <c r="AJ35" s="419"/>
       <c r="AK35" s="260"/>
       <c r="AL35" s="262">
         <f t="shared" ref="AL35:AL50" ca="1" si="0">SUM(B35:AK35)</f>
@@ -23479,243 +23479,243 @@
       <c r="A36" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="413">
+      <c r="B36" s="420">
         <f>Januar!F38</f>
         <v>0</v>
       </c>
-      <c r="C36" s="413"/>
+      <c r="C36" s="420"/>
       <c r="D36" s="263"/>
-      <c r="E36" s="413">
+      <c r="E36" s="420">
         <f>Februar!F38</f>
         <v>0</v>
       </c>
-      <c r="F36" s="413"/>
+      <c r="F36" s="420"/>
       <c r="G36" s="264"/>
-      <c r="H36" s="414">
+      <c r="H36" s="421">
         <f>März!F38</f>
-        <v>0.62500000000000011</v>
-      </c>
-      <c r="I36" s="414"/>
+        <v>0.71875000000000011</v>
+      </c>
+      <c r="I36" s="421"/>
       <c r="J36" s="265"/>
-      <c r="K36" s="413">
+      <c r="K36" s="420">
         <f>April!F38</f>
         <v>0</v>
       </c>
-      <c r="L36" s="413"/>
+      <c r="L36" s="420"/>
       <c r="M36" s="264"/>
-      <c r="N36" s="414">
+      <c r="N36" s="421">
         <f>Mai!F38</f>
         <v>0</v>
       </c>
-      <c r="O36" s="414"/>
+      <c r="O36" s="421"/>
       <c r="P36" s="265"/>
-      <c r="Q36" s="413">
+      <c r="Q36" s="420">
         <f>Juni!F38</f>
         <v>0</v>
       </c>
-      <c r="R36" s="413"/>
+      <c r="R36" s="420"/>
       <c r="S36" s="264"/>
-      <c r="T36" s="414">
+      <c r="T36" s="421">
         <f>Juli!F38</f>
         <v>0</v>
       </c>
-      <c r="U36" s="414"/>
+      <c r="U36" s="421"/>
       <c r="V36" s="265"/>
-      <c r="W36" s="413">
+      <c r="W36" s="420">
         <f>August!F38</f>
         <v>0</v>
       </c>
-      <c r="X36" s="413"/>
+      <c r="X36" s="420"/>
       <c r="Y36" s="264"/>
-      <c r="Z36" s="414">
+      <c r="Z36" s="421">
         <f>September!F38</f>
         <v>0</v>
       </c>
-      <c r="AA36" s="414"/>
+      <c r="AA36" s="421"/>
       <c r="AB36" s="265"/>
-      <c r="AC36" s="413">
+      <c r="AC36" s="420">
         <f>Oktober!F38</f>
         <v>0</v>
       </c>
-      <c r="AD36" s="413"/>
+      <c r="AD36" s="420"/>
       <c r="AE36" s="264"/>
-      <c r="AF36" s="414">
+      <c r="AF36" s="421">
         <f>November!F38</f>
         <v>0</v>
       </c>
-      <c r="AG36" s="414"/>
+      <c r="AG36" s="421"/>
       <c r="AH36" s="265"/>
-      <c r="AI36" s="413">
+      <c r="AI36" s="420">
         <f>Dezember!F38</f>
         <v>0</v>
       </c>
-      <c r="AJ36" s="413"/>
+      <c r="AJ36" s="420"/>
       <c r="AK36" s="264"/>
       <c r="AL36" s="266">
         <f t="shared" si="0"/>
-        <v>0.62500000000000011</v>
+        <v>0.71875000000000011</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="408">
+      <c r="B37" s="423">
         <f ca="1">ROUND(B36-B35,10)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="408"/>
+      <c r="C37" s="423"/>
       <c r="D37" s="258"/>
-      <c r="E37" s="408">
+      <c r="E37" s="423">
         <f ca="1">ROUND(E36-E35,10)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="408"/>
+      <c r="F37" s="423"/>
       <c r="G37" s="82"/>
-      <c r="H37" s="409">
+      <c r="H37" s="418">
         <f ca="1">ROUND(H36-H35,10)</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="409"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="I37" s="418"/>
       <c r="J37" s="83"/>
-      <c r="K37" s="408">
+      <c r="K37" s="423">
         <f ca="1">ROUND(K36-K35,10)</f>
         <v>-0.375</v>
       </c>
-      <c r="L37" s="408"/>
+      <c r="L37" s="423"/>
       <c r="M37" s="82"/>
-      <c r="N37" s="409">
+      <c r="N37" s="418">
         <f ca="1">ROUND(N36-N35,10)</f>
         <v>-0.5</v>
       </c>
-      <c r="O37" s="409"/>
+      <c r="O37" s="418"/>
       <c r="P37" s="83"/>
-      <c r="Q37" s="408">
+      <c r="Q37" s="423">
         <f ca="1">ROUND(Q36-Q35,10)</f>
         <v>-0.5</v>
       </c>
-      <c r="R37" s="408"/>
+      <c r="R37" s="423"/>
       <c r="S37" s="82"/>
-      <c r="T37" s="409">
+      <c r="T37" s="418">
         <f ca="1">ROUND(T36-T35,10)</f>
         <v>0</v>
       </c>
-      <c r="U37" s="409"/>
+      <c r="U37" s="418"/>
       <c r="V37" s="83"/>
-      <c r="W37" s="408">
+      <c r="W37" s="423">
         <f ca="1">ROUND(W36-W35,10)</f>
         <v>0</v>
       </c>
-      <c r="X37" s="408"/>
+      <c r="X37" s="423"/>
       <c r="Y37" s="82"/>
-      <c r="Z37" s="409">
+      <c r="Z37" s="418">
         <f ca="1">ROUND(Z36-Z35,10)</f>
         <v>0</v>
       </c>
-      <c r="AA37" s="409"/>
+      <c r="AA37" s="418"/>
       <c r="AB37" s="83"/>
-      <c r="AC37" s="408">
+      <c r="AC37" s="423">
         <f ca="1">ROUND(AC36-AC35,10)</f>
         <v>0</v>
       </c>
-      <c r="AD37" s="408"/>
+      <c r="AD37" s="423"/>
       <c r="AE37" s="82"/>
-      <c r="AF37" s="409">
+      <c r="AF37" s="418">
         <f ca="1">ROUND(AF36-AF35,10)</f>
         <v>0</v>
       </c>
-      <c r="AG37" s="409"/>
+      <c r="AG37" s="418"/>
       <c r="AH37" s="83"/>
-      <c r="AI37" s="408">
+      <c r="AI37" s="423">
         <f ca="1">ROUND(AI36-AI35,10)</f>
         <v>0</v>
       </c>
-      <c r="AJ37" s="408"/>
+      <c r="AJ37" s="423"/>
       <c r="AK37" s="82"/>
       <c r="AL37" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="342" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="410">
+      <c r="B38" s="424">
         <f>Januar!J40</f>
         <v>0</v>
       </c>
-      <c r="C38" s="410"/>
-      <c r="D38" s="410"/>
-      <c r="E38" s="410">
+      <c r="C38" s="424"/>
+      <c r="D38" s="424"/>
+      <c r="E38" s="424">
         <f>Februar!J40</f>
         <v>0</v>
       </c>
-      <c r="F38" s="410"/>
-      <c r="G38" s="410"/>
-      <c r="H38" s="410">
+      <c r="F38" s="424"/>
+      <c r="G38" s="424"/>
+      <c r="H38" s="424">
         <f>März!J40</f>
-        <v>6</v>
-      </c>
-      <c r="I38" s="410"/>
-      <c r="J38" s="410"/>
-      <c r="K38" s="410">
+        <v>7</v>
+      </c>
+      <c r="I38" s="424"/>
+      <c r="J38" s="424"/>
+      <c r="K38" s="424">
         <f>April!J40</f>
         <v>0</v>
       </c>
-      <c r="L38" s="410"/>
-      <c r="M38" s="410"/>
-      <c r="N38" s="410">
+      <c r="L38" s="424"/>
+      <c r="M38" s="424"/>
+      <c r="N38" s="424">
         <f>Mai!J40</f>
         <v>0</v>
       </c>
-      <c r="O38" s="410"/>
-      <c r="P38" s="410"/>
-      <c r="Q38" s="410">
+      <c r="O38" s="424"/>
+      <c r="P38" s="424"/>
+      <c r="Q38" s="424">
         <f>Juni!J40</f>
         <v>0</v>
       </c>
-      <c r="R38" s="410"/>
-      <c r="S38" s="410"/>
-      <c r="T38" s="410">
+      <c r="R38" s="424"/>
+      <c r="S38" s="424"/>
+      <c r="T38" s="424">
         <f>Juli!J40</f>
         <v>0</v>
       </c>
-      <c r="U38" s="410"/>
-      <c r="V38" s="410"/>
-      <c r="W38" s="410">
+      <c r="U38" s="424"/>
+      <c r="V38" s="424"/>
+      <c r="W38" s="424">
         <f>August!J40</f>
         <v>0</v>
       </c>
-      <c r="X38" s="410"/>
-      <c r="Y38" s="410"/>
-      <c r="Z38" s="410">
+      <c r="X38" s="424"/>
+      <c r="Y38" s="424"/>
+      <c r="Z38" s="424">
         <f>September!J40</f>
         <v>0</v>
       </c>
-      <c r="AA38" s="410"/>
-      <c r="AB38" s="410"/>
-      <c r="AC38" s="410">
+      <c r="AA38" s="424"/>
+      <c r="AB38" s="424"/>
+      <c r="AC38" s="424">
         <f>Oktober!J40</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="410"/>
-      <c r="AE38" s="410"/>
-      <c r="AF38" s="410">
+      <c r="AD38" s="424"/>
+      <c r="AE38" s="424"/>
+      <c r="AF38" s="424">
         <f>November!J40</f>
         <v>0</v>
       </c>
-      <c r="AG38" s="410"/>
-      <c r="AH38" s="410"/>
-      <c r="AI38" s="410">
+      <c r="AG38" s="424"/>
+      <c r="AH38" s="424"/>
+      <c r="AI38" s="424">
         <f>Dezember!J40</f>
         <v>0</v>
       </c>
-      <c r="AJ38" s="410"/>
-      <c r="AK38" s="410"/>
+      <c r="AJ38" s="424"/>
+      <c r="AK38" s="424"/>
       <c r="AL38" s="343">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -23723,78 +23723,78 @@
         <f>Voreinstellungen!A27&amp;" ("&amp;Voreinstellungen!B27&amp;")"</f>
         <v>Homeoffice (H)</v>
       </c>
-      <c r="B39" s="405">
+      <c r="B39" s="422">
         <f>Januar!J41</f>
         <v>0</v>
       </c>
-      <c r="C39" s="405"/>
-      <c r="D39" s="405"/>
-      <c r="E39" s="405">
+      <c r="C39" s="422"/>
+      <c r="D39" s="422"/>
+      <c r="E39" s="422">
         <f>Februar!J41</f>
         <v>0</v>
       </c>
-      <c r="F39" s="405"/>
-      <c r="G39" s="405"/>
-      <c r="H39" s="405">
+      <c r="F39" s="422"/>
+      <c r="G39" s="422"/>
+      <c r="H39" s="422">
         <f>März!J41</f>
         <v>0</v>
       </c>
-      <c r="I39" s="405"/>
-      <c r="J39" s="405"/>
-      <c r="K39" s="405">
+      <c r="I39" s="422"/>
+      <c r="J39" s="422"/>
+      <c r="K39" s="422">
         <f>April!J41</f>
         <v>0</v>
       </c>
-      <c r="L39" s="405"/>
-      <c r="M39" s="405"/>
-      <c r="N39" s="405">
+      <c r="L39" s="422"/>
+      <c r="M39" s="422"/>
+      <c r="N39" s="422">
         <f>Mai!J41</f>
         <v>0</v>
       </c>
-      <c r="O39" s="405"/>
-      <c r="P39" s="405"/>
-      <c r="Q39" s="405">
+      <c r="O39" s="422"/>
+      <c r="P39" s="422"/>
+      <c r="Q39" s="422">
         <f>Juni!J41</f>
         <v>0</v>
       </c>
-      <c r="R39" s="405"/>
-      <c r="S39" s="405"/>
-      <c r="T39" s="405">
+      <c r="R39" s="422"/>
+      <c r="S39" s="422"/>
+      <c r="T39" s="422">
         <f>Juli!J41</f>
         <v>0</v>
       </c>
-      <c r="U39" s="405"/>
-      <c r="V39" s="405"/>
-      <c r="W39" s="405">
+      <c r="U39" s="422"/>
+      <c r="V39" s="422"/>
+      <c r="W39" s="422">
         <f>August!J41</f>
         <v>0</v>
       </c>
-      <c r="X39" s="405"/>
-      <c r="Y39" s="405"/>
-      <c r="Z39" s="405">
+      <c r="X39" s="422"/>
+      <c r="Y39" s="422"/>
+      <c r="Z39" s="422">
         <f>September!J41</f>
         <v>0</v>
       </c>
-      <c r="AA39" s="405"/>
-      <c r="AB39" s="405"/>
-      <c r="AC39" s="405">
+      <c r="AA39" s="422"/>
+      <c r="AB39" s="422"/>
+      <c r="AC39" s="422">
         <f>Oktober!J41</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="405"/>
-      <c r="AE39" s="405"/>
-      <c r="AF39" s="405">
+      <c r="AD39" s="422"/>
+      <c r="AE39" s="422"/>
+      <c r="AF39" s="422">
         <f>November!J41</f>
         <v>0</v>
       </c>
-      <c r="AG39" s="405"/>
-      <c r="AH39" s="405"/>
-      <c r="AI39" s="405">
+      <c r="AG39" s="422"/>
+      <c r="AH39" s="422"/>
+      <c r="AI39" s="422">
         <f>Dezember!J41</f>
         <v>0</v>
       </c>
-      <c r="AJ39" s="405"/>
-      <c r="AK39" s="405"/>
+      <c r="AJ39" s="422"/>
+      <c r="AK39" s="422"/>
       <c r="AL39" s="256">
         <f t="shared" ref="AL39" si="1">SUM(B39:AK39)</f>
         <v>0</v>
@@ -23805,78 +23805,78 @@
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="B40" s="405">
+      <c r="B40" s="422">
         <f>Januar!J38</f>
         <v>0</v>
       </c>
-      <c r="C40" s="405"/>
-      <c r="D40" s="405"/>
-      <c r="E40" s="405">
+      <c r="C40" s="422"/>
+      <c r="D40" s="422"/>
+      <c r="E40" s="422">
         <f>Februar!J38</f>
         <v>0</v>
       </c>
-      <c r="F40" s="405"/>
-      <c r="G40" s="405"/>
-      <c r="H40" s="405">
+      <c r="F40" s="422"/>
+      <c r="G40" s="422"/>
+      <c r="H40" s="422">
         <f>März!J38</f>
         <v>0</v>
       </c>
-      <c r="I40" s="405"/>
-      <c r="J40" s="405"/>
-      <c r="K40" s="405">
+      <c r="I40" s="422"/>
+      <c r="J40" s="422"/>
+      <c r="K40" s="422">
         <f>April!J38</f>
         <v>0</v>
       </c>
-      <c r="L40" s="405"/>
-      <c r="M40" s="405"/>
-      <c r="N40" s="405">
+      <c r="L40" s="422"/>
+      <c r="M40" s="422"/>
+      <c r="N40" s="422">
         <f>Mai!J38</f>
         <v>0</v>
       </c>
-      <c r="O40" s="405"/>
-      <c r="P40" s="405"/>
-      <c r="Q40" s="405">
+      <c r="O40" s="422"/>
+      <c r="P40" s="422"/>
+      <c r="Q40" s="422">
         <f>Juni!J38</f>
         <v>0</v>
       </c>
-      <c r="R40" s="405"/>
-      <c r="S40" s="405"/>
-      <c r="T40" s="405">
+      <c r="R40" s="422"/>
+      <c r="S40" s="422"/>
+      <c r="T40" s="422">
         <f>Juli!J38</f>
         <v>0</v>
       </c>
-      <c r="U40" s="405"/>
-      <c r="V40" s="405"/>
-      <c r="W40" s="405">
+      <c r="U40" s="422"/>
+      <c r="V40" s="422"/>
+      <c r="W40" s="422">
         <f>August!J38</f>
         <v>0</v>
       </c>
-      <c r="X40" s="405"/>
-      <c r="Y40" s="405"/>
-      <c r="Z40" s="405">
+      <c r="X40" s="422"/>
+      <c r="Y40" s="422"/>
+      <c r="Z40" s="422">
         <f>September!J38</f>
         <v>0</v>
       </c>
-      <c r="AA40" s="405"/>
-      <c r="AB40" s="405"/>
-      <c r="AC40" s="405">
+      <c r="AA40" s="422"/>
+      <c r="AB40" s="422"/>
+      <c r="AC40" s="422">
         <f>Oktober!J38</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="405"/>
-      <c r="AE40" s="405"/>
-      <c r="AF40" s="405">
+      <c r="AD40" s="422"/>
+      <c r="AE40" s="422"/>
+      <c r="AF40" s="422">
         <f>November!J38</f>
         <v>0</v>
       </c>
-      <c r="AG40" s="405"/>
-      <c r="AH40" s="405"/>
-      <c r="AI40" s="405">
+      <c r="AG40" s="422"/>
+      <c r="AH40" s="422"/>
+      <c r="AI40" s="422">
         <f>Dezember!J38</f>
         <v>0</v>
       </c>
-      <c r="AJ40" s="405"/>
-      <c r="AK40" s="405"/>
+      <c r="AJ40" s="422"/>
+      <c r="AK40" s="422"/>
       <c r="AL40" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23887,78 +23887,78 @@
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;")"&amp;"/("&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K)/(KR)</v>
       </c>
-      <c r="B41" s="405">
+      <c r="B41" s="422">
         <f>Januar!J36</f>
         <v>0</v>
       </c>
-      <c r="C41" s="405"/>
-      <c r="D41" s="405"/>
-      <c r="E41" s="405">
+      <c r="C41" s="422"/>
+      <c r="D41" s="422"/>
+      <c r="E41" s="422">
         <f>Februar!J36</f>
         <v>0</v>
       </c>
-      <c r="F41" s="405"/>
-      <c r="G41" s="405"/>
-      <c r="H41" s="405">
+      <c r="F41" s="422"/>
+      <c r="G41" s="422"/>
+      <c r="H41" s="422">
         <f>März!J36</f>
         <v>0</v>
       </c>
-      <c r="I41" s="405"/>
-      <c r="J41" s="405"/>
-      <c r="K41" s="405">
+      <c r="I41" s="422"/>
+      <c r="J41" s="422"/>
+      <c r="K41" s="422">
         <f>April!J36</f>
         <v>0</v>
       </c>
-      <c r="L41" s="405"/>
-      <c r="M41" s="405"/>
-      <c r="N41" s="405">
+      <c r="L41" s="422"/>
+      <c r="M41" s="422"/>
+      <c r="N41" s="422">
         <f>Mai!J36</f>
         <v>0</v>
       </c>
-      <c r="O41" s="405"/>
-      <c r="P41" s="405"/>
-      <c r="Q41" s="405">
+      <c r="O41" s="422"/>
+      <c r="P41" s="422"/>
+      <c r="Q41" s="422">
         <f>Juni!J36</f>
         <v>0</v>
       </c>
-      <c r="R41" s="405"/>
-      <c r="S41" s="405"/>
-      <c r="T41" s="405">
+      <c r="R41" s="422"/>
+      <c r="S41" s="422"/>
+      <c r="T41" s="422">
         <f>Juli!J36</f>
         <v>0</v>
       </c>
-      <c r="U41" s="405"/>
-      <c r="V41" s="405"/>
-      <c r="W41" s="405">
+      <c r="U41" s="422"/>
+      <c r="V41" s="422"/>
+      <c r="W41" s="422">
         <f>August!J36</f>
         <v>0</v>
       </c>
-      <c r="X41" s="405"/>
-      <c r="Y41" s="405"/>
-      <c r="Z41" s="405">
+      <c r="X41" s="422"/>
+      <c r="Y41" s="422"/>
+      <c r="Z41" s="422">
         <f>September!J36</f>
         <v>0</v>
       </c>
-      <c r="AA41" s="405"/>
-      <c r="AB41" s="405"/>
-      <c r="AC41" s="405">
+      <c r="AA41" s="422"/>
+      <c r="AB41" s="422"/>
+      <c r="AC41" s="422">
         <f>Oktober!J36</f>
         <v>0</v>
       </c>
-      <c r="AD41" s="405"/>
-      <c r="AE41" s="405"/>
-      <c r="AF41" s="405">
+      <c r="AD41" s="422"/>
+      <c r="AE41" s="422"/>
+      <c r="AF41" s="422">
         <f>November!J36</f>
         <v>0</v>
       </c>
-      <c r="AG41" s="405"/>
-      <c r="AH41" s="405"/>
-      <c r="AI41" s="405">
+      <c r="AG41" s="422"/>
+      <c r="AH41" s="422"/>
+      <c r="AI41" s="422">
         <f>Dezember!J36</f>
         <v>0</v>
       </c>
-      <c r="AJ41" s="405"/>
-      <c r="AK41" s="405"/>
+      <c r="AJ41" s="422"/>
+      <c r="AK41" s="422"/>
       <c r="AL41" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23969,78 +23969,78 @@
         <f>Voreinstellungen!A23&amp;" ("&amp;Voreinstellungen!B23&amp;")"&amp;"/("&amp;Voreinstellungen!B24&amp;")"</f>
         <v>Kurzarbeit (KU)/(KA)</v>
       </c>
-      <c r="B42" s="405">
+      <c r="B42" s="422">
         <f>Januar!J39</f>
         <v>0</v>
       </c>
-      <c r="C42" s="405"/>
-      <c r="D42" s="405"/>
-      <c r="E42" s="405">
+      <c r="C42" s="422"/>
+      <c r="D42" s="422"/>
+      <c r="E42" s="422">
         <f>Februar!J39</f>
         <v>0</v>
       </c>
-      <c r="F42" s="405"/>
-      <c r="G42" s="405"/>
-      <c r="H42" s="405">
+      <c r="F42" s="422"/>
+      <c r="G42" s="422"/>
+      <c r="H42" s="422">
         <f>März!J39</f>
         <v>0</v>
       </c>
-      <c r="I42" s="405"/>
-      <c r="J42" s="405"/>
-      <c r="K42" s="405">
+      <c r="I42" s="422"/>
+      <c r="J42" s="422"/>
+      <c r="K42" s="422">
         <f>April!J39</f>
         <v>0</v>
       </c>
-      <c r="L42" s="405"/>
-      <c r="M42" s="405"/>
-      <c r="N42" s="405">
+      <c r="L42" s="422"/>
+      <c r="M42" s="422"/>
+      <c r="N42" s="422">
         <f>Mai!J39</f>
         <v>0</v>
       </c>
-      <c r="O42" s="405"/>
-      <c r="P42" s="405"/>
-      <c r="Q42" s="405">
+      <c r="O42" s="422"/>
+      <c r="P42" s="422"/>
+      <c r="Q42" s="422">
         <f>Juni!J39</f>
         <v>0</v>
       </c>
-      <c r="R42" s="405"/>
-      <c r="S42" s="405"/>
-      <c r="T42" s="405">
+      <c r="R42" s="422"/>
+      <c r="S42" s="422"/>
+      <c r="T42" s="422">
         <f>Juli!J39</f>
         <v>0</v>
       </c>
-      <c r="U42" s="405"/>
-      <c r="V42" s="405"/>
-      <c r="W42" s="405">
+      <c r="U42" s="422"/>
+      <c r="V42" s="422"/>
+      <c r="W42" s="422">
         <f>August!J39</f>
         <v>0</v>
       </c>
-      <c r="X42" s="405"/>
-      <c r="Y42" s="405"/>
-      <c r="Z42" s="405">
+      <c r="X42" s="422"/>
+      <c r="Y42" s="422"/>
+      <c r="Z42" s="422">
         <f>September!J39</f>
         <v>0</v>
       </c>
-      <c r="AA42" s="405"/>
-      <c r="AB42" s="405"/>
-      <c r="AC42" s="405">
+      <c r="AA42" s="422"/>
+      <c r="AB42" s="422"/>
+      <c r="AC42" s="422">
         <f>Oktober!J39</f>
         <v>0</v>
       </c>
-      <c r="AD42" s="405"/>
-      <c r="AE42" s="405"/>
-      <c r="AF42" s="405">
+      <c r="AD42" s="422"/>
+      <c r="AE42" s="422"/>
+      <c r="AF42" s="422">
         <f>November!J39</f>
         <v>0</v>
       </c>
-      <c r="AG42" s="405"/>
-      <c r="AH42" s="405"/>
-      <c r="AI42" s="405">
+      <c r="AG42" s="422"/>
+      <c r="AH42" s="422"/>
+      <c r="AI42" s="422">
         <f>Dezember!J39</f>
         <v>0</v>
       </c>
-      <c r="AJ42" s="405"/>
-      <c r="AK42" s="405"/>
+      <c r="AJ42" s="422"/>
+      <c r="AK42" s="422"/>
       <c r="AL42" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24051,78 +24051,78 @@
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;")"&amp;"/("&amp;Voreinstellungen!B26&amp;")"</f>
         <v>Urlaub (U)/(UH)</v>
       </c>
-      <c r="B43" s="405">
+      <c r="B43" s="422">
         <f>Januar!J37</f>
         <v>0</v>
       </c>
-      <c r="C43" s="405"/>
-      <c r="D43" s="405"/>
-      <c r="E43" s="405">
+      <c r="C43" s="422"/>
+      <c r="D43" s="422"/>
+      <c r="E43" s="422">
         <f>Februar!J37</f>
         <v>0</v>
       </c>
-      <c r="F43" s="405"/>
-      <c r="G43" s="405"/>
-      <c r="H43" s="405">
+      <c r="F43" s="422"/>
+      <c r="G43" s="422"/>
+      <c r="H43" s="422">
         <f>März!J37</f>
         <v>0</v>
       </c>
-      <c r="I43" s="405"/>
-      <c r="J43" s="405"/>
-      <c r="K43" s="405">
+      <c r="I43" s="422"/>
+      <c r="J43" s="422"/>
+      <c r="K43" s="422">
         <f>April!J37</f>
         <v>0</v>
       </c>
-      <c r="L43" s="405"/>
-      <c r="M43" s="405"/>
-      <c r="N43" s="405">
+      <c r="L43" s="422"/>
+      <c r="M43" s="422"/>
+      <c r="N43" s="422">
         <f>Mai!J37</f>
         <v>0</v>
       </c>
-      <c r="O43" s="405"/>
-      <c r="P43" s="405"/>
-      <c r="Q43" s="405">
+      <c r="O43" s="422"/>
+      <c r="P43" s="422"/>
+      <c r="Q43" s="422">
         <f>Juni!J37</f>
         <v>0</v>
       </c>
-      <c r="R43" s="405"/>
-      <c r="S43" s="405"/>
-      <c r="T43" s="405">
+      <c r="R43" s="422"/>
+      <c r="S43" s="422"/>
+      <c r="T43" s="422">
         <f>Juli!J37</f>
         <v>0</v>
       </c>
-      <c r="U43" s="405"/>
-      <c r="V43" s="405"/>
-      <c r="W43" s="405">
+      <c r="U43" s="422"/>
+      <c r="V43" s="422"/>
+      <c r="W43" s="422">
         <f>August!J37</f>
         <v>0</v>
       </c>
-      <c r="X43" s="405"/>
-      <c r="Y43" s="405"/>
-      <c r="Z43" s="405">
+      <c r="X43" s="422"/>
+      <c r="Y43" s="422"/>
+      <c r="Z43" s="422">
         <f>September!J37</f>
         <v>0</v>
       </c>
-      <c r="AA43" s="405"/>
-      <c r="AB43" s="405"/>
-      <c r="AC43" s="405">
+      <c r="AA43" s="422"/>
+      <c r="AB43" s="422"/>
+      <c r="AC43" s="422">
         <f>Oktober!J37</f>
         <v>0</v>
       </c>
-      <c r="AD43" s="405"/>
-      <c r="AE43" s="405"/>
-      <c r="AF43" s="405">
+      <c r="AD43" s="422"/>
+      <c r="AE43" s="422"/>
+      <c r="AF43" s="422">
         <f>November!J37</f>
         <v>0</v>
       </c>
-      <c r="AG43" s="405"/>
-      <c r="AH43" s="405"/>
-      <c r="AI43" s="405">
+      <c r="AG43" s="422"/>
+      <c r="AH43" s="422"/>
+      <c r="AI43" s="422">
         <f>Dezember!J37</f>
         <v>0</v>
       </c>
-      <c r="AJ43" s="405"/>
-      <c r="AK43" s="405"/>
+      <c r="AJ43" s="422"/>
+      <c r="AK43" s="422"/>
       <c r="AL43" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24133,78 +24133,78 @@
         <f>IF(Voreinstellungen!A28="","",Voreinstellungen!A28&amp;" ("&amp;Voreinstellungen!B28&amp;")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="B44" s="405">
+      <c r="B44" s="422">
         <f>Januar!J42</f>
         <v>0</v>
       </c>
-      <c r="C44" s="405"/>
-      <c r="D44" s="405"/>
-      <c r="E44" s="405">
+      <c r="C44" s="422"/>
+      <c r="D44" s="422"/>
+      <c r="E44" s="422">
         <f>Februar!J42</f>
         <v>0</v>
       </c>
-      <c r="F44" s="405"/>
-      <c r="G44" s="405"/>
-      <c r="H44" s="405">
+      <c r="F44" s="422"/>
+      <c r="G44" s="422"/>
+      <c r="H44" s="422">
         <f>März!J42</f>
         <v>0</v>
       </c>
-      <c r="I44" s="405"/>
-      <c r="J44" s="405"/>
-      <c r="K44" s="405">
+      <c r="I44" s="422"/>
+      <c r="J44" s="422"/>
+      <c r="K44" s="422">
         <f>April!J42</f>
         <v>0</v>
       </c>
-      <c r="L44" s="405"/>
-      <c r="M44" s="405"/>
-      <c r="N44" s="405">
+      <c r="L44" s="422"/>
+      <c r="M44" s="422"/>
+      <c r="N44" s="422">
         <f>Mai!J42</f>
         <v>0</v>
       </c>
-      <c r="O44" s="405"/>
-      <c r="P44" s="405"/>
-      <c r="Q44" s="405">
+      <c r="O44" s="422"/>
+      <c r="P44" s="422"/>
+      <c r="Q44" s="422">
         <f>Juni!J42</f>
         <v>0</v>
       </c>
-      <c r="R44" s="405"/>
-      <c r="S44" s="405"/>
-      <c r="T44" s="405">
+      <c r="R44" s="422"/>
+      <c r="S44" s="422"/>
+      <c r="T44" s="422">
         <f>Juli!J42</f>
         <v>0</v>
       </c>
-      <c r="U44" s="405"/>
-      <c r="V44" s="405"/>
-      <c r="W44" s="405">
+      <c r="U44" s="422"/>
+      <c r="V44" s="422"/>
+      <c r="W44" s="422">
         <f>August!J42</f>
         <v>0</v>
       </c>
-      <c r="X44" s="405"/>
-      <c r="Y44" s="405"/>
-      <c r="Z44" s="405">
+      <c r="X44" s="422"/>
+      <c r="Y44" s="422"/>
+      <c r="Z44" s="422">
         <f>September!J42</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="405"/>
-      <c r="AB44" s="405"/>
-      <c r="AC44" s="405">
+      <c r="AA44" s="422"/>
+      <c r="AB44" s="422"/>
+      <c r="AC44" s="422">
         <f>Oktober!J42</f>
         <v>0</v>
       </c>
-      <c r="AD44" s="405"/>
-      <c r="AE44" s="405"/>
-      <c r="AF44" s="405">
+      <c r="AD44" s="422"/>
+      <c r="AE44" s="422"/>
+      <c r="AF44" s="422">
         <f>November!J42</f>
         <v>0</v>
       </c>
-      <c r="AG44" s="405"/>
-      <c r="AH44" s="405"/>
-      <c r="AI44" s="405">
+      <c r="AG44" s="422"/>
+      <c r="AH44" s="422"/>
+      <c r="AI44" s="422">
         <f>Dezember!J42</f>
         <v>0</v>
       </c>
-      <c r="AJ44" s="405"/>
-      <c r="AK44" s="405"/>
+      <c r="AJ44" s="422"/>
+      <c r="AK44" s="422"/>
       <c r="AL44" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24215,78 +24215,78 @@
         <f>IF(Voreinstellungen!A29="","",Voreinstellungen!A29&amp;" ("&amp;Voreinstellungen!B29&amp;")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="B45" s="405">
+      <c r="B45" s="422">
         <f>Januar!J43</f>
         <v>0</v>
       </c>
-      <c r="C45" s="405"/>
-      <c r="D45" s="405"/>
-      <c r="E45" s="405">
+      <c r="C45" s="422"/>
+      <c r="D45" s="422"/>
+      <c r="E45" s="422">
         <f>Februar!J43</f>
         <v>0</v>
       </c>
-      <c r="F45" s="405"/>
-      <c r="G45" s="405"/>
-      <c r="H45" s="405">
+      <c r="F45" s="422"/>
+      <c r="G45" s="422"/>
+      <c r="H45" s="422">
         <f>März!J43</f>
         <v>0</v>
       </c>
-      <c r="I45" s="405"/>
-      <c r="J45" s="405"/>
-      <c r="K45" s="405">
+      <c r="I45" s="422"/>
+      <c r="J45" s="422"/>
+      <c r="K45" s="422">
         <f>April!J43</f>
         <v>0</v>
       </c>
-      <c r="L45" s="405"/>
-      <c r="M45" s="405"/>
-      <c r="N45" s="405">
+      <c r="L45" s="422"/>
+      <c r="M45" s="422"/>
+      <c r="N45" s="422">
         <f>Mai!J43</f>
         <v>0</v>
       </c>
-      <c r="O45" s="405"/>
-      <c r="P45" s="405"/>
-      <c r="Q45" s="405">
+      <c r="O45" s="422"/>
+      <c r="P45" s="422"/>
+      <c r="Q45" s="422">
         <f>Juni!J43</f>
         <v>0</v>
       </c>
-      <c r="R45" s="405"/>
-      <c r="S45" s="405"/>
-      <c r="T45" s="405">
+      <c r="R45" s="422"/>
+      <c r="S45" s="422"/>
+      <c r="T45" s="422">
         <f>Juli!J43</f>
         <v>0</v>
       </c>
-      <c r="U45" s="405"/>
-      <c r="V45" s="405"/>
-      <c r="W45" s="405">
+      <c r="U45" s="422"/>
+      <c r="V45" s="422"/>
+      <c r="W45" s="422">
         <f>August!J43</f>
         <v>0</v>
       </c>
-      <c r="X45" s="405"/>
-      <c r="Y45" s="405"/>
-      <c r="Z45" s="405">
+      <c r="X45" s="422"/>
+      <c r="Y45" s="422"/>
+      <c r="Z45" s="422">
         <f>September!J43</f>
         <v>0</v>
       </c>
-      <c r="AA45" s="405"/>
-      <c r="AB45" s="405"/>
-      <c r="AC45" s="405">
+      <c r="AA45" s="422"/>
+      <c r="AB45" s="422"/>
+      <c r="AC45" s="422">
         <f>Oktober!J43</f>
         <v>0</v>
       </c>
-      <c r="AD45" s="405"/>
-      <c r="AE45" s="405"/>
-      <c r="AF45" s="405">
+      <c r="AD45" s="422"/>
+      <c r="AE45" s="422"/>
+      <c r="AF45" s="422">
         <f>November!J43</f>
         <v>0</v>
       </c>
-      <c r="AG45" s="405"/>
-      <c r="AH45" s="405"/>
-      <c r="AI45" s="405">
+      <c r="AG45" s="422"/>
+      <c r="AH45" s="422"/>
+      <c r="AI45" s="422">
         <f>Dezember!J43</f>
         <v>0</v>
       </c>
-      <c r="AJ45" s="405"/>
-      <c r="AK45" s="405"/>
+      <c r="AJ45" s="422"/>
+      <c r="AK45" s="422"/>
       <c r="AL45" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24297,78 +24297,78 @@
         <f>IF(Voreinstellungen!A30="","",Voreinstellungen!A30&amp;" ("&amp;Voreinstellungen!B30&amp;")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="B46" s="405">
+      <c r="B46" s="422">
         <f>Januar!J44</f>
         <v>0</v>
       </c>
-      <c r="C46" s="405"/>
-      <c r="D46" s="405"/>
-      <c r="E46" s="405">
+      <c r="C46" s="422"/>
+      <c r="D46" s="422"/>
+      <c r="E46" s="422">
         <f>Februar!J44</f>
         <v>0</v>
       </c>
-      <c r="F46" s="405"/>
-      <c r="G46" s="405"/>
-      <c r="H46" s="405">
+      <c r="F46" s="422"/>
+      <c r="G46" s="422"/>
+      <c r="H46" s="422">
         <f>März!J44</f>
         <v>0</v>
       </c>
-      <c r="I46" s="405"/>
-      <c r="J46" s="405"/>
-      <c r="K46" s="405">
+      <c r="I46" s="422"/>
+      <c r="J46" s="422"/>
+      <c r="K46" s="422">
         <f>April!J44</f>
         <v>0</v>
       </c>
-      <c r="L46" s="405"/>
-      <c r="M46" s="405"/>
-      <c r="N46" s="405">
+      <c r="L46" s="422"/>
+      <c r="M46" s="422"/>
+      <c r="N46" s="422">
         <f>Mai!J44</f>
         <v>0</v>
       </c>
-      <c r="O46" s="405"/>
-      <c r="P46" s="405"/>
-      <c r="Q46" s="405">
+      <c r="O46" s="422"/>
+      <c r="P46" s="422"/>
+      <c r="Q46" s="422">
         <f>Juni!J44</f>
         <v>0</v>
       </c>
-      <c r="R46" s="405"/>
-      <c r="S46" s="405"/>
-      <c r="T46" s="405">
+      <c r="R46" s="422"/>
+      <c r="S46" s="422"/>
+      <c r="T46" s="422">
         <f>Juli!J44</f>
         <v>0</v>
       </c>
-      <c r="U46" s="405"/>
-      <c r="V46" s="405"/>
-      <c r="W46" s="405">
+      <c r="U46" s="422"/>
+      <c r="V46" s="422"/>
+      <c r="W46" s="422">
         <f>August!J44</f>
         <v>0</v>
       </c>
-      <c r="X46" s="405"/>
-      <c r="Y46" s="405"/>
-      <c r="Z46" s="405">
+      <c r="X46" s="422"/>
+      <c r="Y46" s="422"/>
+      <c r="Z46" s="422">
         <f>September!J44</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="405"/>
-      <c r="AB46" s="405"/>
-      <c r="AC46" s="405">
+      <c r="AA46" s="422"/>
+      <c r="AB46" s="422"/>
+      <c r="AC46" s="422">
         <f>Oktober!J44</f>
         <v>0</v>
       </c>
-      <c r="AD46" s="405"/>
-      <c r="AE46" s="405"/>
-      <c r="AF46" s="405">
+      <c r="AD46" s="422"/>
+      <c r="AE46" s="422"/>
+      <c r="AF46" s="422">
         <f>November!J44</f>
         <v>0</v>
       </c>
-      <c r="AG46" s="405"/>
-      <c r="AH46" s="405"/>
-      <c r="AI46" s="405">
+      <c r="AG46" s="422"/>
+      <c r="AH46" s="422"/>
+      <c r="AI46" s="422">
         <f>Dezember!J44</f>
         <v>0</v>
       </c>
-      <c r="AJ46" s="405"/>
-      <c r="AK46" s="405"/>
+      <c r="AJ46" s="422"/>
+      <c r="AK46" s="422"/>
       <c r="AL46" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24379,78 +24379,78 @@
         <f>IF(Voreinstellungen!A31="","",Voreinstellungen!A31&amp;" ("&amp;Voreinstellungen!B31&amp;")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="B47" s="405">
+      <c r="B47" s="422">
         <f>Januar!J45</f>
         <v>0</v>
       </c>
-      <c r="C47" s="405"/>
-      <c r="D47" s="405"/>
-      <c r="E47" s="405">
+      <c r="C47" s="422"/>
+      <c r="D47" s="422"/>
+      <c r="E47" s="422">
         <f>Februar!J45</f>
         <v>0</v>
       </c>
-      <c r="F47" s="405"/>
-      <c r="G47" s="405"/>
-      <c r="H47" s="405">
+      <c r="F47" s="422"/>
+      <c r="G47" s="422"/>
+      <c r="H47" s="422">
         <f>März!J45</f>
         <v>0</v>
       </c>
-      <c r="I47" s="405"/>
-      <c r="J47" s="405"/>
-      <c r="K47" s="405">
+      <c r="I47" s="422"/>
+      <c r="J47" s="422"/>
+      <c r="K47" s="422">
         <f>April!J45</f>
         <v>0</v>
       </c>
-      <c r="L47" s="405"/>
-      <c r="M47" s="405"/>
-      <c r="N47" s="405">
+      <c r="L47" s="422"/>
+      <c r="M47" s="422"/>
+      <c r="N47" s="422">
         <f>Mai!J45</f>
         <v>0</v>
       </c>
-      <c r="O47" s="405"/>
-      <c r="P47" s="405"/>
-      <c r="Q47" s="405">
+      <c r="O47" s="422"/>
+      <c r="P47" s="422"/>
+      <c r="Q47" s="422">
         <f>Juni!J45</f>
         <v>0</v>
       </c>
-      <c r="R47" s="405"/>
-      <c r="S47" s="405"/>
-      <c r="T47" s="405">
+      <c r="R47" s="422"/>
+      <c r="S47" s="422"/>
+      <c r="T47" s="422">
         <f>Juli!J45</f>
         <v>0</v>
       </c>
-      <c r="U47" s="405"/>
-      <c r="V47" s="405"/>
-      <c r="W47" s="405">
+      <c r="U47" s="422"/>
+      <c r="V47" s="422"/>
+      <c r="W47" s="422">
         <f>August!J45</f>
         <v>0</v>
       </c>
-      <c r="X47" s="405"/>
-      <c r="Y47" s="405"/>
-      <c r="Z47" s="405">
+      <c r="X47" s="422"/>
+      <c r="Y47" s="422"/>
+      <c r="Z47" s="422">
         <f>September!J45</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="405"/>
-      <c r="AB47" s="405"/>
-      <c r="AC47" s="405">
+      <c r="AA47" s="422"/>
+      <c r="AB47" s="422"/>
+      <c r="AC47" s="422">
         <f>Oktober!J45</f>
         <v>0</v>
       </c>
-      <c r="AD47" s="405"/>
-      <c r="AE47" s="405"/>
-      <c r="AF47" s="405">
+      <c r="AD47" s="422"/>
+      <c r="AE47" s="422"/>
+      <c r="AF47" s="422">
         <f>November!J45</f>
         <v>0</v>
       </c>
-      <c r="AG47" s="405"/>
-      <c r="AH47" s="405"/>
-      <c r="AI47" s="405">
+      <c r="AG47" s="422"/>
+      <c r="AH47" s="422"/>
+      <c r="AI47" s="422">
         <f>Dezember!J45</f>
         <v>0</v>
       </c>
-      <c r="AJ47" s="405"/>
-      <c r="AK47" s="405"/>
+      <c r="AJ47" s="422"/>
+      <c r="AK47" s="422"/>
       <c r="AL47" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24461,78 +24461,78 @@
         <f>IF(Voreinstellungen!A32="","",Voreinstellungen!A32&amp;" ("&amp;Voreinstellungen!B32&amp;")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="B48" s="405">
+      <c r="B48" s="422">
         <f>Januar!J46</f>
         <v>0</v>
       </c>
-      <c r="C48" s="405"/>
-      <c r="D48" s="405"/>
-      <c r="E48" s="405">
+      <c r="C48" s="422"/>
+      <c r="D48" s="422"/>
+      <c r="E48" s="422">
         <f>Februar!J46</f>
         <v>0</v>
       </c>
-      <c r="F48" s="405"/>
-      <c r="G48" s="405"/>
-      <c r="H48" s="405">
+      <c r="F48" s="422"/>
+      <c r="G48" s="422"/>
+      <c r="H48" s="422">
         <f>März!J46</f>
         <v>0</v>
       </c>
-      <c r="I48" s="405"/>
-      <c r="J48" s="405"/>
-      <c r="K48" s="405">
+      <c r="I48" s="422"/>
+      <c r="J48" s="422"/>
+      <c r="K48" s="422">
         <f>April!J46</f>
         <v>0</v>
       </c>
-      <c r="L48" s="405"/>
-      <c r="M48" s="405"/>
-      <c r="N48" s="405">
+      <c r="L48" s="422"/>
+      <c r="M48" s="422"/>
+      <c r="N48" s="422">
         <f>Mai!J46</f>
         <v>0</v>
       </c>
-      <c r="O48" s="405"/>
-      <c r="P48" s="405"/>
-      <c r="Q48" s="405">
+      <c r="O48" s="422"/>
+      <c r="P48" s="422"/>
+      <c r="Q48" s="422">
         <f>Juni!J46</f>
         <v>0</v>
       </c>
-      <c r="R48" s="405"/>
-      <c r="S48" s="405"/>
-      <c r="T48" s="405">
+      <c r="R48" s="422"/>
+      <c r="S48" s="422"/>
+      <c r="T48" s="422">
         <f>Juli!J46</f>
         <v>0</v>
       </c>
-      <c r="U48" s="405"/>
-      <c r="V48" s="405"/>
-      <c r="W48" s="405">
+      <c r="U48" s="422"/>
+      <c r="V48" s="422"/>
+      <c r="W48" s="422">
         <f>August!J46</f>
         <v>0</v>
       </c>
-      <c r="X48" s="405"/>
-      <c r="Y48" s="405"/>
-      <c r="Z48" s="405">
+      <c r="X48" s="422"/>
+      <c r="Y48" s="422"/>
+      <c r="Z48" s="422">
         <f>September!J46</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="405"/>
-      <c r="AB48" s="405"/>
-      <c r="AC48" s="405">
+      <c r="AA48" s="422"/>
+      <c r="AB48" s="422"/>
+      <c r="AC48" s="422">
         <f>Oktober!J46</f>
         <v>0</v>
       </c>
-      <c r="AD48" s="405"/>
-      <c r="AE48" s="405"/>
-      <c r="AF48" s="405">
+      <c r="AD48" s="422"/>
+      <c r="AE48" s="422"/>
+      <c r="AF48" s="422">
         <f>November!J46</f>
         <v>0</v>
       </c>
-      <c r="AG48" s="405"/>
-      <c r="AH48" s="405"/>
-      <c r="AI48" s="405">
+      <c r="AG48" s="422"/>
+      <c r="AH48" s="422"/>
+      <c r="AI48" s="422">
         <f>Dezember!J46</f>
         <v>0</v>
       </c>
-      <c r="AJ48" s="405"/>
-      <c r="AK48" s="405"/>
+      <c r="AJ48" s="422"/>
+      <c r="AK48" s="422"/>
       <c r="AL48" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24543,78 +24543,78 @@
         <f>IF(Voreinstellungen!A33="","",Voreinstellungen!A33&amp;" ("&amp;Voreinstellungen!B33&amp;")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="B49" s="406">
+      <c r="B49" s="425">
         <f>Januar!J47</f>
         <v>0</v>
       </c>
-      <c r="C49" s="406"/>
-      <c r="D49" s="406"/>
-      <c r="E49" s="406">
+      <c r="C49" s="425"/>
+      <c r="D49" s="425"/>
+      <c r="E49" s="425">
         <f>Februar!J47</f>
         <v>0</v>
       </c>
-      <c r="F49" s="406"/>
-      <c r="G49" s="406"/>
-      <c r="H49" s="406">
+      <c r="F49" s="425"/>
+      <c r="G49" s="425"/>
+      <c r="H49" s="425">
         <f>März!J47</f>
         <v>0</v>
       </c>
-      <c r="I49" s="406"/>
-      <c r="J49" s="406"/>
-      <c r="K49" s="406">
+      <c r="I49" s="425"/>
+      <c r="J49" s="425"/>
+      <c r="K49" s="425">
         <f>April!J47</f>
         <v>0</v>
       </c>
-      <c r="L49" s="406"/>
-      <c r="M49" s="406"/>
-      <c r="N49" s="406">
+      <c r="L49" s="425"/>
+      <c r="M49" s="425"/>
+      <c r="N49" s="425">
         <f>Mai!J47</f>
         <v>0</v>
       </c>
-      <c r="O49" s="406"/>
-      <c r="P49" s="406"/>
-      <c r="Q49" s="406">
+      <c r="O49" s="425"/>
+      <c r="P49" s="425"/>
+      <c r="Q49" s="425">
         <f>Juni!J47</f>
         <v>0</v>
       </c>
-      <c r="R49" s="406"/>
-      <c r="S49" s="406"/>
-      <c r="T49" s="406">
+      <c r="R49" s="425"/>
+      <c r="S49" s="425"/>
+      <c r="T49" s="425">
         <f>Juli!J47</f>
         <v>0</v>
       </c>
-      <c r="U49" s="406"/>
-      <c r="V49" s="406"/>
-      <c r="W49" s="406">
+      <c r="U49" s="425"/>
+      <c r="V49" s="425"/>
+      <c r="W49" s="425">
         <f>August!J47</f>
         <v>0</v>
       </c>
-      <c r="X49" s="406"/>
-      <c r="Y49" s="406"/>
-      <c r="Z49" s="406">
+      <c r="X49" s="425"/>
+      <c r="Y49" s="425"/>
+      <c r="Z49" s="425">
         <f>September!J47</f>
         <v>0</v>
       </c>
-      <c r="AA49" s="406"/>
-      <c r="AB49" s="406"/>
-      <c r="AC49" s="406">
+      <c r="AA49" s="425"/>
+      <c r="AB49" s="425"/>
+      <c r="AC49" s="425">
         <f>Oktober!J47</f>
         <v>0</v>
       </c>
-      <c r="AD49" s="406"/>
-      <c r="AE49" s="406"/>
-      <c r="AF49" s="406">
+      <c r="AD49" s="425"/>
+      <c r="AE49" s="425"/>
+      <c r="AF49" s="425">
         <f>November!J47</f>
         <v>0</v>
       </c>
-      <c r="AG49" s="406"/>
-      <c r="AH49" s="406"/>
-      <c r="AI49" s="406">
+      <c r="AG49" s="425"/>
+      <c r="AH49" s="425"/>
+      <c r="AI49" s="425">
         <f>Dezember!J47</f>
         <v>0</v>
       </c>
-      <c r="AJ49" s="406"/>
-      <c r="AK49" s="406"/>
+      <c r="AJ49" s="425"/>
+      <c r="AK49" s="425"/>
       <c r="AL49" s="345">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24625,78 +24625,78 @@
         <f>Voreinstellungen!A23&amp;" ("&amp;Voreinstellungen!B23&amp;"/"&amp;Voreinstellungen!B24&amp;")"</f>
         <v>Kurzarbeit (KU/KA)</v>
       </c>
-      <c r="B50" s="407">
+      <c r="B50" s="426">
         <f>Januar!P39</f>
         <v>0</v>
       </c>
-      <c r="C50" s="407"/>
-      <c r="D50" s="407"/>
-      <c r="E50" s="407">
+      <c r="C50" s="426"/>
+      <c r="D50" s="426"/>
+      <c r="E50" s="426">
         <f>Februar!P39</f>
         <v>0</v>
       </c>
-      <c r="F50" s="407"/>
-      <c r="G50" s="407"/>
-      <c r="H50" s="407">
+      <c r="F50" s="426"/>
+      <c r="G50" s="426"/>
+      <c r="H50" s="426">
         <f>März!P39</f>
         <v>0</v>
       </c>
-      <c r="I50" s="407"/>
-      <c r="J50" s="407"/>
-      <c r="K50" s="407">
+      <c r="I50" s="426"/>
+      <c r="J50" s="426"/>
+      <c r="K50" s="426">
         <f>April!P39</f>
         <v>0</v>
       </c>
-      <c r="L50" s="407"/>
-      <c r="M50" s="407"/>
-      <c r="N50" s="407">
+      <c r="L50" s="426"/>
+      <c r="M50" s="426"/>
+      <c r="N50" s="426">
         <f>Mai!P39</f>
         <v>0</v>
       </c>
-      <c r="O50" s="407"/>
-      <c r="P50" s="407"/>
-      <c r="Q50" s="407">
+      <c r="O50" s="426"/>
+      <c r="P50" s="426"/>
+      <c r="Q50" s="426">
         <f>Juni!P39</f>
         <v>0</v>
       </c>
-      <c r="R50" s="407"/>
-      <c r="S50" s="407"/>
-      <c r="T50" s="407">
+      <c r="R50" s="426"/>
+      <c r="S50" s="426"/>
+      <c r="T50" s="426">
         <f>Juli!P39</f>
         <v>0</v>
       </c>
-      <c r="U50" s="407"/>
-      <c r="V50" s="407"/>
-      <c r="W50" s="407">
+      <c r="U50" s="426"/>
+      <c r="V50" s="426"/>
+      <c r="W50" s="426">
         <f>August!P39</f>
         <v>0</v>
       </c>
-      <c r="X50" s="407"/>
-      <c r="Y50" s="407"/>
-      <c r="Z50" s="407">
+      <c r="X50" s="426"/>
+      <c r="Y50" s="426"/>
+      <c r="Z50" s="426">
         <f>September!P39</f>
         <v>0</v>
       </c>
-      <c r="AA50" s="407"/>
-      <c r="AB50" s="407"/>
-      <c r="AC50" s="407">
+      <c r="AA50" s="426"/>
+      <c r="AB50" s="426"/>
+      <c r="AC50" s="426">
         <f>Oktober!P39</f>
         <v>0</v>
       </c>
-      <c r="AD50" s="407"/>
-      <c r="AE50" s="407"/>
-      <c r="AF50" s="407">
+      <c r="AD50" s="426"/>
+      <c r="AE50" s="426"/>
+      <c r="AF50" s="426">
         <f>November!P39</f>
         <v>0</v>
       </c>
-      <c r="AG50" s="407"/>
-      <c r="AH50" s="407"/>
-      <c r="AI50" s="407">
+      <c r="AG50" s="426"/>
+      <c r="AH50" s="426"/>
+      <c r="AI50" s="426">
         <f>Dezember!P39</f>
         <v>0</v>
       </c>
-      <c r="AJ50" s="407"/>
-      <c r="AK50" s="407"/>
+      <c r="AJ50" s="426"/>
+      <c r="AK50" s="426"/>
       <c r="AL50" s="257">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24705,23 +24705,173 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ULs8CaE8jYKyq0Qm0xansyOebF3btUSqUz6IOiad1Adl94OHsV4iwVCV23Ea2hIZUZuXiwTKCyndrGMaAIXqpg==" saltValue="DQP1StXmrS+ACnfAoqZYYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="208">
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="E1:AH2"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="AF39:AH39"/>
+    <mergeCell ref="AI39:AK39"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="AC50:AE50"/>
+    <mergeCell ref="AF50:AH50"/>
+    <mergeCell ref="AC48:AE48"/>
+    <mergeCell ref="AF48:AH48"/>
+    <mergeCell ref="AI48:AK48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="AI50:AK50"/>
+    <mergeCell ref="AI49:AK49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="AF49:AH49"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="W50:Y50"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AK46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AC47:AE47"/>
+    <mergeCell ref="AF47:AH47"/>
+    <mergeCell ref="AI47:AK47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AC44:AE44"/>
+    <mergeCell ref="AF44:AH44"/>
+    <mergeCell ref="AI44:AK44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AC45:AE45"/>
+    <mergeCell ref="AF45:AH45"/>
+    <mergeCell ref="AI45:AK45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="AF42:AH42"/>
+    <mergeCell ref="AI42:AK42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="AF43:AH43"/>
+    <mergeCell ref="AI43:AK43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="AF40:AH40"/>
+    <mergeCell ref="AI40:AK40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="AF41:AH41"/>
+    <mergeCell ref="AI41:AK41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="AF38:AH38"/>
+    <mergeCell ref="AI38:AK38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:X37"/>
     <mergeCell ref="Z37:AA37"/>
     <mergeCell ref="AC35:AD35"/>
     <mergeCell ref="AF35:AG35"/>
@@ -24746,173 +24896,23 @@
     <mergeCell ref="Q35:R35"/>
     <mergeCell ref="T35:U35"/>
     <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="AF38:AH38"/>
-    <mergeCell ref="AI38:AK38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="AF40:AH40"/>
-    <mergeCell ref="AI40:AK40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="AF41:AH41"/>
-    <mergeCell ref="AI41:AK41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="AF42:AH42"/>
-    <mergeCell ref="AI42:AK42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="AF43:AH43"/>
-    <mergeCell ref="AI43:AK43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AC44:AE44"/>
-    <mergeCell ref="AF44:AH44"/>
-    <mergeCell ref="AI44:AK44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AC45:AE45"/>
-    <mergeCell ref="AF45:AH45"/>
-    <mergeCell ref="AI45:AK45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AK46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AC47:AE47"/>
-    <mergeCell ref="AF47:AH47"/>
-    <mergeCell ref="AI47:AK47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="W46:Y46"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="AC50:AE50"/>
-    <mergeCell ref="AF50:AH50"/>
-    <mergeCell ref="AC48:AE48"/>
-    <mergeCell ref="AF48:AH48"/>
-    <mergeCell ref="AI48:AK48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="AI50:AK50"/>
-    <mergeCell ref="AI49:AK49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="AF49:AH49"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="W50:Y50"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="AF39:AH39"/>
-    <mergeCell ref="AI39:AK39"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="E1:AH2"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:D34">
     <cfRule type="expression" dxfId="117" priority="127">
@@ -26070,7 +26070,7 @@
       <c r="D2" s="92"/>
       <c r="E2" s="93">
         <f>Jahresübersicht!AL38</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -26775,16 +26775,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,1,1)</f>
         <v>44196</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -26795,20 +26795,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -26816,11 +26816,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="287" t="s">
@@ -26842,10 +26842,10 @@
       <c r="G3" s="290" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="390" t="s">
+      <c r="H3" s="398" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="391"/>
+      <c r="I3" s="399"/>
       <c r="J3" s="291" t="s">
         <v>24</v>
       </c>
@@ -28299,14 +28299,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -28331,14 +28331,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -28363,14 +28363,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28395,7 +28395,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -28422,10 +28422,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28437,10 +28437,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28454,14 +28454,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -28478,14 +28478,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -28506,14 +28506,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -28530,14 +28530,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -28554,14 +28554,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -28582,14 +28582,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -28598,6 +28598,14 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="oBN0r51dDECZFls/TRAJAd27W+TgL0++D9lshzBuMe37JDIPjzAnm/4XFLohKLime/fBemTKFXqJa2/SVgSDMA==" saltValue="9rbClIGXtx70peLMTAtvDA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K38:O38"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K47:O47"/>
     <mergeCell ref="K42:O42"/>
@@ -28606,14 +28614,6 @@
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K38:O38"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="303" priority="15">
@@ -28786,16 +28786,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,2,1)</f>
         <v>44227</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -28806,20 +28806,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -28827,11 +28827,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -30310,14 +30310,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -30342,14 +30342,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -30374,14 +30374,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30406,7 +30406,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -30433,10 +30433,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30448,10 +30448,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30465,14 +30465,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -30489,14 +30489,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -30517,14 +30517,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -30541,14 +30541,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -30565,14 +30565,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -30593,14 +30593,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -30609,6 +30609,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y6rmxDLPAughoR7jJQ0sYbv9kfWJhTEX26xayEFtXRyn02iMymx2d2if1VzL9B00xl/4Ttqic0gGXCy8h+ZU0Q==" saltValue="ycOUgX715xjWc1uyEcsw+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -30618,13 +30625,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="287" priority="9">
@@ -30772,10 +30772,10 @@
   </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="O33" sqref="O33"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -30797,16 +30797,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,3,1)</f>
         <v>44255</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -30817,20 +30817,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -30838,11 +30838,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -32289,8 +32289,12 @@
         <f>IF(ISERROR(VLOOKUP(A34,Feiertage,2,FALSE)),"",(VLOOKUP(A34,Feiertage,2,FALSE)))</f>
         <v/>
       </c>
-      <c r="D34" s="327"/>
-      <c r="E34" s="327"/>
+      <c r="D34" s="327">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E34" s="327">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F34" s="327"/>
       <c r="G34" s="327"/>
       <c r="H34" s="328"/>
@@ -32301,7 +32305,7 @@
       <c r="J34" s="308"/>
       <c r="K34" s="321">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
       <c r="L34" s="322">
         <f t="shared" ca="1" si="3"/>
@@ -32309,16 +32313,18 @@
       </c>
       <c r="M34" s="309">
         <f ca="1">IF(A34="",0,ROUND(K34-L34,14))</f>
-        <v>-0.125</v>
+        <v>-3.125E-2</v>
       </c>
       <c r="N34" s="361">
         <f t="shared" ca="1" si="5"/>
         <v>0.125</v>
       </c>
-      <c r="O34" s="310"/>
+      <c r="O34" s="310" t="s">
+        <v>144</v>
+      </c>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>1E-14</v>
+        <v>9.3750000000010006E-2</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -32357,14 +32363,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -32389,14 +32395,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -32413,7 +32419,7 @@
       </c>
       <c r="F38" s="171">
         <f>SUM(K4:K34)</f>
-        <v>0.62500000000000011</v>
+        <v>0.71875000000000011</v>
       </c>
       <c r="G38" s="53"/>
       <c r="I38" s="68"/>
@@ -32421,14 +32427,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32453,7 +32459,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -32469,21 +32475,21 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
       <c r="J40" s="210">
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32495,10 +32501,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32512,14 +32518,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -32536,14 +32542,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -32564,14 +32570,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -32588,14 +32594,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -32612,14 +32618,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -32640,14 +32646,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -32656,6 +32662,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ium0EoF68XxSI58RkPIJpAIl5Av08x4FXPIFpsrYuZ63ieW47f8XBZIqtWetTTOx10wRSo+z4hLxZUXvJC7Akw==" saltValue="zOg4DvyRe2VbbS4PWEwW1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -32665,13 +32678,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="271" priority="9">
@@ -32844,16 +32850,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,4,1)</f>
         <v>44286</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -32864,20 +32870,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -32885,11 +32891,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -32979,7 +32985,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33024,7 +33030,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33069,7 +33075,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33114,7 +33120,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33159,7 +33165,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33204,7 +33210,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33249,7 +33255,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.125</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33294,7 +33300,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.125</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33339,7 +33345,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.125</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33384,7 +33390,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.125</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33429,7 +33435,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.125</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33474,7 +33480,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.125</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33519,7 +33525,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.125</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33564,7 +33570,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33609,7 +33615,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33654,7 +33660,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33699,7 +33705,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33744,7 +33750,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33789,7 +33795,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33834,7 +33840,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33879,7 +33885,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33924,7 +33930,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33969,7 +33975,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34014,7 +34020,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34059,7 +34065,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34104,7 +34110,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34149,7 +34155,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34194,7 +34200,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.375</v>
+        <v>-0.28125</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34239,7 +34245,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.375</v>
+        <v>-0.28125</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34284,7 +34290,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.375</v>
+        <v>-0.28125</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34360,7 +34366,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">März!F40</f>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -34368,14 +34374,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -34400,14 +34406,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -34432,14 +34438,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34464,7 +34470,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -34480,7 +34486,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-0.375</v>
+        <v>-0.28125</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -34491,10 +34497,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34506,10 +34512,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34523,14 +34529,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -34547,14 +34553,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -34575,14 +34581,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -34599,14 +34605,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -34623,14 +34629,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -34651,14 +34657,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -34667,6 +34673,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="HdZ3F0mjmoV5DFx28D4MVNbjsTHEK/EhqlBMbQcFz3QaDVTjPn59ZfolJDNZ8ZZq73r/ru7s7K5k+lJnmNqcOg==" saltValue="HgrPnpOBPHk1rRzox3VdGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -34676,13 +34689,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="255" priority="9">
@@ -34855,16 +34861,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,5,1)</f>
         <v>44316</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -34875,20 +34881,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -34896,11 +34902,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -34990,7 +34996,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-0.375</v>
+        <v>-0.28125</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35035,7 +35041,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-0.375</v>
+        <v>-0.28125</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35080,7 +35086,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-0.375</v>
+        <v>-0.28125</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35125,7 +35131,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.375</v>
+        <v>-0.28125</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35170,7 +35176,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.5</v>
+        <v>-0.40625</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35215,7 +35221,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.5</v>
+        <v>-0.40625</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35260,7 +35266,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.5</v>
+        <v>-0.40625</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35305,7 +35311,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.5</v>
+        <v>-0.40625</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35350,7 +35356,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.5</v>
+        <v>-0.40625</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35395,7 +35401,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.5</v>
+        <v>-0.40625</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35440,7 +35446,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.5</v>
+        <v>-0.40625</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35485,7 +35491,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.625</v>
+        <v>-0.53125</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35530,7 +35536,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.625</v>
+        <v>-0.53125</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35575,7 +35581,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.625</v>
+        <v>-0.53125</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35620,7 +35626,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.625</v>
+        <v>-0.53125</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35665,7 +35671,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.625</v>
+        <v>-0.53125</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35710,7 +35716,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.625</v>
+        <v>-0.53125</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35755,7 +35761,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.625</v>
+        <v>-0.53125</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35800,7 +35806,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.75</v>
+        <v>-0.65625</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35845,7 +35851,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.75</v>
+        <v>-0.65625</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35890,7 +35896,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.75</v>
+        <v>-0.65625</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35935,7 +35941,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.75</v>
+        <v>-0.65625</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35980,7 +35986,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.75</v>
+        <v>-0.65625</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36025,7 +36031,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.75</v>
+        <v>-0.65625</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36070,7 +36076,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.75</v>
+        <v>-0.65625</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36115,7 +36121,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.875</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36160,7 +36166,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.875</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36205,7 +36211,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.875</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36250,7 +36256,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.875</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36295,7 +36301,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.875</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36340,7 +36346,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-0.875</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -36371,7 +36377,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">April!F40</f>
-        <v>-0.375</v>
+        <v>-0.28125</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -36379,14 +36385,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -36411,14 +36417,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -36443,14 +36449,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36475,7 +36481,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -36491,7 +36497,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-0.875</v>
+        <v>-0.78125</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -36502,10 +36508,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36517,10 +36523,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36534,14 +36540,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -36558,14 +36564,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -36586,14 +36592,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -36610,14 +36616,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -36634,14 +36640,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -36662,14 +36668,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -36678,6 +36684,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QRQqXIlNhc+OQAiDPNu1TK+Ynzbi1gFXP6QsGKNA/9FZcHaHcYmGZ4msAg9wXPWQ5ACbbOQ+pHM1KuUwb/ARmw==" saltValue="6kgwADYOzywLgL2Yai7cyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -36687,13 +36700,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="239" priority="9">
@@ -36866,16 +36872,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,6,1)</f>
         <v>44347</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -36886,20 +36892,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -36907,11 +36913,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -37001,7 +37007,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-0.875</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37046,7 +37052,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37091,7 +37097,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37136,7 +37142,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37181,7 +37187,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37226,7 +37232,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37271,7 +37277,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37316,7 +37322,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37361,7 +37367,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37406,7 +37412,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37451,7 +37457,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37496,7 +37502,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37541,7 +37547,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37586,7 +37592,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37631,7 +37637,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37676,7 +37682,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.125</v>
+        <v>-1.03125</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37721,7 +37727,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.125</v>
+        <v>-1.03125</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37766,7 +37772,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.125</v>
+        <v>-1.03125</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37811,7 +37817,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.125</v>
+        <v>-1.03125</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37856,7 +37862,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.125</v>
+        <v>-1.03125</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37901,7 +37907,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.125</v>
+        <v>-1.03125</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37946,7 +37952,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.125</v>
+        <v>-1.03125</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37991,7 +37997,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.25</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38036,7 +38042,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.25</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38081,7 +38087,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.25</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38126,7 +38132,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.25</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38171,7 +38177,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.25</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38216,7 +38222,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.25</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38261,7 +38267,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.25</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38306,7 +38312,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38382,7 +38388,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Mai!F40</f>
-        <v>-0.875</v>
+        <v>-0.78125</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -38390,14 +38396,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -38422,14 +38428,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -38454,14 +38460,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38486,7 +38492,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -38502,7 +38508,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -38513,10 +38519,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38528,10 +38534,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38545,14 +38551,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -38569,14 +38575,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -38597,14 +38603,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -38621,14 +38627,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -38645,14 +38651,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -38673,14 +38679,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -38689,6 +38695,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="fhTrPY6THDrD8+4Vt5qeYzFzpiAhzJFQvbKEJqo2+Ga2thRbk9rIndDcaxDkbPVaB0fvdXFGbxdyHG/oskG6VA==" saltValue="kL7dVike1ELP/RmEdcYUoA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -38698,13 +38711,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="223" priority="9">
@@ -38852,7 +38858,7 @@
   </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
@@ -38877,16 +38883,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,7,1)</f>
         <v>44377</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 23</v>
@@ -38897,20 +38903,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -38918,11 +38924,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -39012,7 +39018,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39057,7 +39063,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39102,7 +39108,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39147,7 +39153,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39192,7 +39198,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39237,7 +39243,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39282,7 +39288,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39327,7 +39333,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39372,7 +39378,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39417,7 +39423,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39462,7 +39468,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39507,7 +39513,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39552,7 +39558,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39597,7 +39603,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39642,7 +39648,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39687,7 +39693,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39732,7 +39738,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39777,7 +39783,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39822,7 +39828,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39867,7 +39873,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39912,7 +39918,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39957,7 +39963,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40002,7 +40008,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40047,7 +40053,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40092,7 +40098,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40137,7 +40143,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40182,7 +40188,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40227,7 +40233,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40272,7 +40278,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40317,7 +40323,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40362,7 +40368,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -40393,7 +40399,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juni!F40</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -40401,14 +40407,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -40433,14 +40439,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -40465,14 +40471,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40497,7 +40503,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -40513,7 +40519,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.375</v>
+        <v>-1.28125</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -40524,10 +40530,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40539,10 +40545,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40556,14 +40562,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -40580,14 +40586,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -40608,14 +40614,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -40632,14 +40638,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -40656,14 +40662,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -40684,14 +40690,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -40700,6 +40706,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="5JrgeHwuAVIPtwH1U07o0PqVK6YXu2rFbc1AuNL2akSFcmRQ/M9+mvVLNApYMuEj6Qoj/yZecDy4C6fld700HA==" saltValue="SzMXRk1wWUdzBCExZHeB2g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -40709,13 +40722,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="207" priority="9">

--- a/Arbeitszeit.xlsx
+++ b/Arbeitszeit.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Philipp\Studium\Molecular-Test-Time-Adaptation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B290E8EB-1909-4A23-98B3-6B695488FC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5A9B38-8478-45A0-AFD7-7490ADCBDA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="HCoKw4gRij0gV6dkJfNeqDY8SK+w2PMaLYVl2wyqiuSEdbwXoxG0BpbDJ/qeWfNHoSNSKsH2JW6N7mRDHC8t+w==" workbookSaltValue="AxSev/HzJnlnx2x5wdOaWw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="933" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="9420" tabRatio="933" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voreinstellungen" sheetId="1" r:id="rId1"/>
@@ -5206,30 +5206,6 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="168" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -5284,6 +5260,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="168" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="170" fontId="2" fillId="7" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -5292,6 +5292,46 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="188" fontId="0" fillId="2" borderId="112" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="2" borderId="205" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="8" fillId="2" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="2" borderId="113" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="2" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="2" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
@@ -5329,47 +5369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="1" fillId="2" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="1" fillId="2" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="1" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="1" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="2" borderId="112" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="2" borderId="113" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="2" borderId="205" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="8" fillId="2" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -8458,16 +8458,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,8,1)</f>
         <v>44408</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -8478,20 +8478,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -8499,11 +8499,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -8593,7 +8593,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8638,7 +8638,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8683,7 +8683,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8728,7 +8728,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8773,7 +8773,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8818,7 +8818,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8863,7 +8863,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8908,7 +8908,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8953,7 +8953,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8998,7 +8998,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9043,7 +9043,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9088,7 +9088,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9133,7 +9133,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9178,7 +9178,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9223,7 +9223,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9268,7 +9268,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9313,7 +9313,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9358,7 +9358,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9403,7 +9403,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9448,7 +9448,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9493,7 +9493,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9538,7 +9538,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9583,7 +9583,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9628,7 +9628,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9673,7 +9673,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9718,7 +9718,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9763,7 +9763,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9808,7 +9808,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9853,7 +9853,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9898,7 +9898,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9943,7 +9943,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -9974,7 +9974,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juli!F40</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -9982,14 +9982,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -10014,14 +10014,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -10046,14 +10046,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10078,7 +10078,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -10105,10 +10105,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10120,10 +10120,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10137,14 +10137,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -10161,14 +10161,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -10189,14 +10189,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -10213,14 +10213,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -10237,14 +10237,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -10265,14 +10265,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -10281,13 +10281,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="u9sw9Wp4FxWrrZw2gOfkGI7WDfwQ2wzVzpXiQtTY4/flADuSruZDhtkNpKsXPRieyhxYdM1K4kVDyBMMhvPWXQ==" saltValue="ahMBA+MAYyJY9Z70TI5l7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -10297,6 +10290,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="191" priority="9">
@@ -10469,16 +10469,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,9,1)</f>
         <v>44439</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -10489,20 +10489,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -10510,11 +10510,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -10604,7 +10604,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10649,7 +10649,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10694,7 +10694,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10739,7 +10739,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10784,7 +10784,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10829,7 +10829,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10874,7 +10874,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10919,7 +10919,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10964,7 +10964,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11009,7 +11009,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11054,7 +11054,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11099,7 +11099,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11144,7 +11144,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11189,7 +11189,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11234,7 +11234,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11279,7 +11279,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11324,7 +11324,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11369,7 +11369,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11414,7 +11414,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11459,7 +11459,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11504,7 +11504,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11549,7 +11549,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11594,7 +11594,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11639,7 +11639,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11684,7 +11684,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11729,7 +11729,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11774,7 +11774,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11819,7 +11819,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11864,7 +11864,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11909,7 +11909,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">August!F40</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -11993,14 +11993,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -12025,14 +12025,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -12057,14 +12057,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12089,7 +12089,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -12116,10 +12116,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12131,10 +12131,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12148,14 +12148,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -12172,14 +12172,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -12200,14 +12200,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -12224,14 +12224,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -12248,14 +12248,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -12276,14 +12276,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -12292,13 +12292,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZwadLNizQthu+TvLNfXLzHOxARw83BIKNXnXY+M0ilE4dNWC9Xi45W9RUbnFnWYY/YjuB/TQHV534uE6uxgXzA==" saltValue="AZ6xCuoaQ+vRzuHj27R1+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -12308,6 +12301,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="175" priority="9">
@@ -12480,16 +12480,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,10,1)</f>
         <v>44469</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -12500,20 +12500,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -12521,11 +12521,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -12615,7 +12615,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12660,7 +12660,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12705,7 +12705,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12750,7 +12750,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12795,7 +12795,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12840,7 +12840,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12885,7 +12885,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12930,7 +12930,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12975,7 +12975,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13020,7 +13020,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13065,7 +13065,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13110,7 +13110,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13155,7 +13155,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13200,7 +13200,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13245,7 +13245,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13290,7 +13290,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13335,7 +13335,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13380,7 +13380,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13425,7 +13425,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13470,7 +13470,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13515,7 +13515,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13560,7 +13560,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13605,7 +13605,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13650,7 +13650,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13695,7 +13695,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13740,7 +13740,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13785,7 +13785,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13830,7 +13830,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13875,7 +13875,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13920,7 +13920,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13965,7 +13965,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">September!F40</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -14004,14 +14004,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -14036,14 +14036,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -14068,14 +14068,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14100,7 +14100,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -14116,7 +14116,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -14127,10 +14127,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14142,10 +14142,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14159,14 +14159,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -14183,14 +14183,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -14211,14 +14211,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -14235,14 +14235,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -14259,14 +14259,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -14287,14 +14287,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -14303,13 +14303,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ckjAp3M0inqzooLEfZdc4f/HjPsEfDCTdLAnZaayrnftQ4dctyoJ+NgDJqJCYUgWfqTF5VR9ZwUyJG5krlCuzg==" saltValue="ZTo5PKb7eGW+1GxNqRU9vw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -14319,6 +14312,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="159" priority="9">
@@ -14491,16 +14491,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,11,1)</f>
         <v>44500</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -14511,20 +14511,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -14532,11 +14532,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -14626,7 +14626,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14671,7 +14671,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14716,7 +14716,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14761,7 +14761,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14806,7 +14806,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14851,7 +14851,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14896,7 +14896,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14941,7 +14941,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14986,7 +14986,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15031,7 +15031,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15076,7 +15076,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15121,7 +15121,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15166,7 +15166,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15211,7 +15211,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15256,7 +15256,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15301,7 +15301,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15346,7 +15346,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15391,7 +15391,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15436,7 +15436,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15481,7 +15481,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15526,7 +15526,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15571,7 +15571,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15616,7 +15616,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15661,7 +15661,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15706,7 +15706,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15751,7 +15751,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15796,7 +15796,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15841,7 +15841,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15886,7 +15886,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15931,7 +15931,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16007,7 +16007,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Oktober!F40</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -16015,14 +16015,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -16047,14 +16047,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -16079,14 +16079,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16111,7 +16111,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -16138,10 +16138,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16153,10 +16153,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16170,14 +16170,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -16194,14 +16194,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -16222,14 +16222,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -16246,14 +16246,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -16270,14 +16270,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -16298,14 +16298,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -16314,13 +16314,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yUnueG6AI0b+TwSq9iNG4Cwzf8Hchd7cijzybRrJpWYCHjIcsKNjecErnlKgA/wi+14DH+HiWNKblmoAUs2xWw==" saltValue="QFUx+Ct/5TiVBTgg+aZ9AA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -16330,6 +16323,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="143" priority="9">
@@ -16502,16 +16502,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,12,1)</f>
         <v>44530</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 18</v>
@@ -16522,20 +16522,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -16543,11 +16543,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -16637,7 +16637,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16682,7 +16682,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16727,7 +16727,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16772,7 +16772,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16817,7 +16817,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16862,7 +16862,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16907,7 +16907,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16952,7 +16952,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16997,7 +16997,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17042,7 +17042,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17087,7 +17087,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17132,7 +17132,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17177,7 +17177,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17222,7 +17222,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17267,7 +17267,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17312,7 +17312,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17357,7 +17357,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17402,7 +17402,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17447,7 +17447,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17492,7 +17492,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17537,7 +17537,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17582,7 +17582,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17627,7 +17627,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17672,7 +17672,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17717,7 +17717,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17762,7 +17762,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17807,7 +17807,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17852,7 +17852,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17897,7 +17897,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17942,7 +17942,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17987,7 +17987,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">November!F40</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -18026,14 +18026,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -18058,14 +18058,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -18090,14 +18090,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18122,7 +18122,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -18138,7 +18138,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -18149,10 +18149,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18164,10 +18164,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18181,14 +18181,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -18205,14 +18205,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -18233,14 +18233,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -18257,14 +18257,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -18281,14 +18281,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -18309,14 +18309,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -18325,13 +18325,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="syEdLlnr28ns1fephgrXktWpnwhQWCu/FJXIwINCXvVXUg9m9LaQ/XmkW0xsT7j209xW7Ddhk6QbBT/eb2/MOw==" saltValue="twEufrt+yH545MWin4OFfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -18341,6 +18334,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="127" priority="9">
@@ -18526,158 +18526,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="414"/>
-      <c r="B1" s="412"/>
-      <c r="C1" s="412"/>
-      <c r="D1" s="412"/>
-      <c r="E1" s="411" t="str">
+      <c r="A1" s="424"/>
+      <c r="B1" s="422"/>
+      <c r="C1" s="422"/>
+      <c r="D1" s="422"/>
+      <c r="E1" s="421" t="str">
         <f>"Jahresübersicht "&amp;Jahr</f>
         <v>Jahresübersicht 2025</v>
       </c>
-      <c r="F1" s="412"/>
-      <c r="G1" s="412"/>
-      <c r="H1" s="412"/>
-      <c r="I1" s="412"/>
-      <c r="J1" s="412"/>
-      <c r="K1" s="412"/>
-      <c r="L1" s="412"/>
-      <c r="M1" s="412"/>
-      <c r="N1" s="412"/>
-      <c r="O1" s="412"/>
-      <c r="P1" s="412"/>
-      <c r="Q1" s="412"/>
-      <c r="R1" s="412"/>
-      <c r="S1" s="412"/>
-      <c r="T1" s="412"/>
-      <c r="U1" s="412"/>
-      <c r="V1" s="412"/>
-      <c r="W1" s="412"/>
-      <c r="X1" s="412"/>
-      <c r="Y1" s="412"/>
-      <c r="Z1" s="412"/>
-      <c r="AA1" s="412"/>
-      <c r="AB1" s="412"/>
-      <c r="AC1" s="412"/>
-      <c r="AD1" s="412"/>
-      <c r="AE1" s="412"/>
-      <c r="AF1" s="412"/>
-      <c r="AG1" s="412"/>
-      <c r="AH1" s="412"/>
-      <c r="AI1" s="408" t="str">
+      <c r="F1" s="422"/>
+      <c r="G1" s="422"/>
+      <c r="H1" s="422"/>
+      <c r="I1" s="422"/>
+      <c r="J1" s="422"/>
+      <c r="K1" s="422"/>
+      <c r="L1" s="422"/>
+      <c r="M1" s="422"/>
+      <c r="N1" s="422"/>
+      <c r="O1" s="422"/>
+      <c r="P1" s="422"/>
+      <c r="Q1" s="422"/>
+      <c r="R1" s="422"/>
+      <c r="S1" s="422"/>
+      <c r="T1" s="422"/>
+      <c r="U1" s="422"/>
+      <c r="V1" s="422"/>
+      <c r="W1" s="422"/>
+      <c r="X1" s="422"/>
+      <c r="Y1" s="422"/>
+      <c r="Z1" s="422"/>
+      <c r="AA1" s="422"/>
+      <c r="AB1" s="422"/>
+      <c r="AC1" s="422"/>
+      <c r="AD1" s="422"/>
+      <c r="AE1" s="422"/>
+      <c r="AF1" s="422"/>
+      <c r="AG1" s="422"/>
+      <c r="AH1" s="422"/>
+      <c r="AI1" s="418" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="AJ1" s="409"/>
-      <c r="AK1" s="409"/>
-      <c r="AL1" s="410"/>
+      <c r="AJ1" s="419"/>
+      <c r="AK1" s="419"/>
+      <c r="AL1" s="420"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="415"/>
-      <c r="B2" s="413"/>
-      <c r="C2" s="413"/>
-      <c r="D2" s="413"/>
-      <c r="E2" s="413"/>
-      <c r="F2" s="413"/>
-      <c r="G2" s="413"/>
-      <c r="H2" s="413"/>
-      <c r="I2" s="413"/>
-      <c r="J2" s="413"/>
-      <c r="K2" s="413"/>
-      <c r="L2" s="413"/>
-      <c r="M2" s="413"/>
-      <c r="N2" s="413"/>
-      <c r="O2" s="413"/>
-      <c r="P2" s="413"/>
-      <c r="Q2" s="413"/>
-      <c r="R2" s="413"/>
-      <c r="S2" s="413"/>
-      <c r="T2" s="413"/>
-      <c r="U2" s="413"/>
-      <c r="V2" s="413"/>
-      <c r="W2" s="413"/>
-      <c r="X2" s="413"/>
-      <c r="Y2" s="413"/>
-      <c r="Z2" s="413"/>
-      <c r="AA2" s="413"/>
-      <c r="AB2" s="413"/>
-      <c r="AC2" s="413"/>
-      <c r="AD2" s="413"/>
-      <c r="AE2" s="413"/>
-      <c r="AF2" s="413"/>
-      <c r="AG2" s="413"/>
-      <c r="AH2" s="413"/>
-      <c r="AI2" s="405" t="str">
+      <c r="A2" s="425"/>
+      <c r="B2" s="423"/>
+      <c r="C2" s="423"/>
+      <c r="D2" s="423"/>
+      <c r="E2" s="423"/>
+      <c r="F2" s="423"/>
+      <c r="G2" s="423"/>
+      <c r="H2" s="423"/>
+      <c r="I2" s="423"/>
+      <c r="J2" s="423"/>
+      <c r="K2" s="423"/>
+      <c r="L2" s="423"/>
+      <c r="M2" s="423"/>
+      <c r="N2" s="423"/>
+      <c r="O2" s="423"/>
+      <c r="P2" s="423"/>
+      <c r="Q2" s="423"/>
+      <c r="R2" s="423"/>
+      <c r="S2" s="423"/>
+      <c r="T2" s="423"/>
+      <c r="U2" s="423"/>
+      <c r="V2" s="423"/>
+      <c r="W2" s="423"/>
+      <c r="X2" s="423"/>
+      <c r="Y2" s="423"/>
+      <c r="Z2" s="423"/>
+      <c r="AA2" s="423"/>
+      <c r="AB2" s="423"/>
+      <c r="AC2" s="423"/>
+      <c r="AD2" s="423"/>
+      <c r="AE2" s="423"/>
+      <c r="AF2" s="423"/>
+      <c r="AG2" s="423"/>
+      <c r="AH2" s="423"/>
+      <c r="AI2" s="415" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="AJ2" s="406"/>
-      <c r="AK2" s="406"/>
-      <c r="AL2" s="407"/>
+      <c r="AJ2" s="416"/>
+      <c r="AK2" s="416"/>
+      <c r="AL2" s="417"/>
     </row>
     <row r="3" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="417" t="s">
+      <c r="B3" s="426" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="417"/>
-      <c r="D3" s="417"/>
-      <c r="E3" s="417" t="s">
+      <c r="C3" s="426"/>
+      <c r="D3" s="426"/>
+      <c r="E3" s="426" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="417"/>
-      <c r="G3" s="417"/>
-      <c r="H3" s="417" t="s">
+      <c r="F3" s="426"/>
+      <c r="G3" s="426"/>
+      <c r="H3" s="426" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="417"/>
-      <c r="J3" s="417"/>
-      <c r="K3" s="417" t="s">
+      <c r="I3" s="426"/>
+      <c r="J3" s="426"/>
+      <c r="K3" s="426" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="417"/>
-      <c r="M3" s="417"/>
-      <c r="N3" s="417" t="s">
+      <c r="L3" s="426"/>
+      <c r="M3" s="426"/>
+      <c r="N3" s="426" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="417"/>
-      <c r="P3" s="417"/>
-      <c r="Q3" s="417" t="s">
+      <c r="O3" s="426"/>
+      <c r="P3" s="426"/>
+      <c r="Q3" s="426" t="s">
         <v>99</v>
       </c>
-      <c r="R3" s="417"/>
-      <c r="S3" s="417"/>
-      <c r="T3" s="417" t="s">
+      <c r="R3" s="426"/>
+      <c r="S3" s="426"/>
+      <c r="T3" s="426" t="s">
         <v>100</v>
       </c>
-      <c r="U3" s="417"/>
-      <c r="V3" s="417"/>
-      <c r="W3" s="417" t="s">
+      <c r="U3" s="426"/>
+      <c r="V3" s="426"/>
+      <c r="W3" s="426" t="s">
         <v>101</v>
       </c>
-      <c r="X3" s="417"/>
-      <c r="Y3" s="417"/>
-      <c r="Z3" s="417" t="s">
+      <c r="X3" s="426"/>
+      <c r="Y3" s="426"/>
+      <c r="Z3" s="426" t="s">
         <v>102</v>
       </c>
-      <c r="AA3" s="417"/>
-      <c r="AB3" s="417"/>
-      <c r="AC3" s="417" t="s">
+      <c r="AA3" s="426"/>
+      <c r="AB3" s="426"/>
+      <c r="AC3" s="426" t="s">
         <v>103</v>
       </c>
-      <c r="AD3" s="417"/>
-      <c r="AE3" s="417"/>
-      <c r="AF3" s="417" t="s">
+      <c r="AD3" s="426"/>
+      <c r="AE3" s="426"/>
+      <c r="AF3" s="426" t="s">
         <v>104</v>
       </c>
-      <c r="AG3" s="417"/>
-      <c r="AH3" s="417"/>
-      <c r="AI3" s="417" t="s">
+      <c r="AG3" s="426"/>
+      <c r="AH3" s="426"/>
+      <c r="AI3" s="426" t="s">
         <v>105</v>
       </c>
-      <c r="AJ3" s="417"/>
-      <c r="AK3" s="417"/>
+      <c r="AJ3" s="426"/>
+      <c r="AK3" s="426"/>
       <c r="AL3" s="72" t="s">
         <v>77</v>
       </c>
@@ -23276,7 +23276,7 @@
       </c>
       <c r="I34" s="135">
         <f>IF(März!K34&gt;0,März!K34,"")</f>
-        <v>9.375E-2</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="J34" s="131" t="str">
         <f>IF(OR(März!C34="",März!J34&lt;&gt;""),UPPER(März!J34),"F")</f>
@@ -23398,77 +23398,77 @@
       <c r="A35" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="419">
+      <c r="B35" s="411">
         <f ca="1">Januar!F37</f>
         <v>0</v>
       </c>
-      <c r="C35" s="419"/>
+      <c r="C35" s="411"/>
       <c r="D35" s="259"/>
-      <c r="E35" s="419">
+      <c r="E35" s="411">
         <f ca="1">Februar!F37</f>
         <v>0</v>
       </c>
-      <c r="F35" s="419"/>
+      <c r="F35" s="411"/>
       <c r="G35" s="260"/>
-      <c r="H35" s="416">
+      <c r="H35" s="412">
         <f ca="1">März!F37</f>
         <v>0.625</v>
       </c>
-      <c r="I35" s="416"/>
+      <c r="I35" s="412"/>
       <c r="J35" s="261"/>
-      <c r="K35" s="419">
+      <c r="K35" s="411">
         <f ca="1">April!F37</f>
         <v>0.375</v>
       </c>
-      <c r="L35" s="419"/>
+      <c r="L35" s="411"/>
       <c r="M35" s="260"/>
-      <c r="N35" s="416">
+      <c r="N35" s="412">
         <f ca="1">Mai!F37</f>
         <v>0.5</v>
       </c>
-      <c r="O35" s="416"/>
+      <c r="O35" s="412"/>
       <c r="P35" s="261"/>
-      <c r="Q35" s="419">
+      <c r="Q35" s="411">
         <f ca="1">Juni!F37</f>
         <v>0.5</v>
       </c>
-      <c r="R35" s="419"/>
+      <c r="R35" s="411"/>
       <c r="S35" s="260"/>
-      <c r="T35" s="416">
+      <c r="T35" s="412">
         <f ca="1">Juli!F37</f>
         <v>0</v>
       </c>
-      <c r="U35" s="416"/>
+      <c r="U35" s="412"/>
       <c r="V35" s="261"/>
-      <c r="W35" s="419">
+      <c r="W35" s="411">
         <f ca="1">August!F37</f>
         <v>0</v>
       </c>
-      <c r="X35" s="419"/>
+      <c r="X35" s="411"/>
       <c r="Y35" s="260"/>
-      <c r="Z35" s="416">
+      <c r="Z35" s="412">
         <f ca="1">September!F37</f>
         <v>0</v>
       </c>
-      <c r="AA35" s="416"/>
+      <c r="AA35" s="412"/>
       <c r="AB35" s="261"/>
-      <c r="AC35" s="419">
+      <c r="AC35" s="411">
         <f ca="1">Oktober!F37</f>
         <v>0</v>
       </c>
-      <c r="AD35" s="419"/>
+      <c r="AD35" s="411"/>
       <c r="AE35" s="260"/>
-      <c r="AF35" s="416">
+      <c r="AF35" s="412">
         <f ca="1">November!F37</f>
         <v>0</v>
       </c>
-      <c r="AG35" s="416"/>
+      <c r="AG35" s="412"/>
       <c r="AH35" s="261"/>
-      <c r="AI35" s="419">
+      <c r="AI35" s="411">
         <f ca="1">Dezember!F37</f>
         <v>0</v>
       </c>
-      <c r="AJ35" s="419"/>
+      <c r="AJ35" s="411"/>
       <c r="AK35" s="260"/>
       <c r="AL35" s="262">
         <f t="shared" ref="AL35:AL50" ca="1" si="0">SUM(B35:AK35)</f>
@@ -23479,240 +23479,240 @@
       <c r="A36" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="420">
+      <c r="B36" s="413">
         <f>Januar!F38</f>
         <v>0</v>
       </c>
-      <c r="C36" s="420"/>
+      <c r="C36" s="413"/>
       <c r="D36" s="263"/>
-      <c r="E36" s="420">
+      <c r="E36" s="413">
         <f>Februar!F38</f>
         <v>0</v>
       </c>
-      <c r="F36" s="420"/>
+      <c r="F36" s="413"/>
       <c r="G36" s="264"/>
-      <c r="H36" s="421">
+      <c r="H36" s="414">
         <f>März!F38</f>
-        <v>0.71875000000000011</v>
-      </c>
-      <c r="I36" s="421"/>
+        <v>0.76041666666666674</v>
+      </c>
+      <c r="I36" s="414"/>
       <c r="J36" s="265"/>
-      <c r="K36" s="420">
+      <c r="K36" s="413">
         <f>April!F38</f>
         <v>0</v>
       </c>
-      <c r="L36" s="420"/>
+      <c r="L36" s="413"/>
       <c r="M36" s="264"/>
-      <c r="N36" s="421">
+      <c r="N36" s="414">
         <f>Mai!F38</f>
         <v>0</v>
       </c>
-      <c r="O36" s="421"/>
+      <c r="O36" s="414"/>
       <c r="P36" s="265"/>
-      <c r="Q36" s="420">
+      <c r="Q36" s="413">
         <f>Juni!F38</f>
         <v>0</v>
       </c>
-      <c r="R36" s="420"/>
+      <c r="R36" s="413"/>
       <c r="S36" s="264"/>
-      <c r="T36" s="421">
+      <c r="T36" s="414">
         <f>Juli!F38</f>
         <v>0</v>
       </c>
-      <c r="U36" s="421"/>
+      <c r="U36" s="414"/>
       <c r="V36" s="265"/>
-      <c r="W36" s="420">
+      <c r="W36" s="413">
         <f>August!F38</f>
         <v>0</v>
       </c>
-      <c r="X36" s="420"/>
+      <c r="X36" s="413"/>
       <c r="Y36" s="264"/>
-      <c r="Z36" s="421">
+      <c r="Z36" s="414">
         <f>September!F38</f>
         <v>0</v>
       </c>
-      <c r="AA36" s="421"/>
+      <c r="AA36" s="414"/>
       <c r="AB36" s="265"/>
-      <c r="AC36" s="420">
+      <c r="AC36" s="413">
         <f>Oktober!F38</f>
         <v>0</v>
       </c>
-      <c r="AD36" s="420"/>
+      <c r="AD36" s="413"/>
       <c r="AE36" s="264"/>
-      <c r="AF36" s="421">
+      <c r="AF36" s="414">
         <f>November!F38</f>
         <v>0</v>
       </c>
-      <c r="AG36" s="421"/>
+      <c r="AG36" s="414"/>
       <c r="AH36" s="265"/>
-      <c r="AI36" s="420">
+      <c r="AI36" s="413">
         <f>Dezember!F38</f>
         <v>0</v>
       </c>
-      <c r="AJ36" s="420"/>
+      <c r="AJ36" s="413"/>
       <c r="AK36" s="264"/>
       <c r="AL36" s="266">
         <f t="shared" si="0"/>
-        <v>0.71875000000000011</v>
+        <v>0.76041666666666674</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="423">
+      <c r="B37" s="408">
         <f ca="1">ROUND(B36-B35,10)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="423"/>
+      <c r="C37" s="408"/>
       <c r="D37" s="258"/>
-      <c r="E37" s="423">
+      <c r="E37" s="408">
         <f ca="1">ROUND(E36-E35,10)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="423"/>
+      <c r="F37" s="408"/>
       <c r="G37" s="82"/>
-      <c r="H37" s="418">
+      <c r="H37" s="409">
         <f ca="1">ROUND(H36-H35,10)</f>
-        <v>9.375E-2</v>
-      </c>
-      <c r="I37" s="418"/>
+        <v>0.13541666669999999</v>
+      </c>
+      <c r="I37" s="409"/>
       <c r="J37" s="83"/>
-      <c r="K37" s="423">
+      <c r="K37" s="408">
         <f ca="1">ROUND(K36-K35,10)</f>
         <v>-0.375</v>
       </c>
-      <c r="L37" s="423"/>
+      <c r="L37" s="408"/>
       <c r="M37" s="82"/>
-      <c r="N37" s="418">
+      <c r="N37" s="409">
         <f ca="1">ROUND(N36-N35,10)</f>
         <v>-0.5</v>
       </c>
-      <c r="O37" s="418"/>
+      <c r="O37" s="409"/>
       <c r="P37" s="83"/>
-      <c r="Q37" s="423">
+      <c r="Q37" s="408">
         <f ca="1">ROUND(Q36-Q35,10)</f>
         <v>-0.5</v>
       </c>
-      <c r="R37" s="423"/>
+      <c r="R37" s="408"/>
       <c r="S37" s="82"/>
-      <c r="T37" s="418">
+      <c r="T37" s="409">
         <f ca="1">ROUND(T36-T35,10)</f>
         <v>0</v>
       </c>
-      <c r="U37" s="418"/>
+      <c r="U37" s="409"/>
       <c r="V37" s="83"/>
-      <c r="W37" s="423">
+      <c r="W37" s="408">
         <f ca="1">ROUND(W36-W35,10)</f>
         <v>0</v>
       </c>
-      <c r="X37" s="423"/>
+      <c r="X37" s="408"/>
       <c r="Y37" s="82"/>
-      <c r="Z37" s="418">
+      <c r="Z37" s="409">
         <f ca="1">ROUND(Z36-Z35,10)</f>
         <v>0</v>
       </c>
-      <c r="AA37" s="418"/>
+      <c r="AA37" s="409"/>
       <c r="AB37" s="83"/>
-      <c r="AC37" s="423">
+      <c r="AC37" s="408">
         <f ca="1">ROUND(AC36-AC35,10)</f>
         <v>0</v>
       </c>
-      <c r="AD37" s="423"/>
+      <c r="AD37" s="408"/>
       <c r="AE37" s="82"/>
-      <c r="AF37" s="418">
+      <c r="AF37" s="409">
         <f ca="1">ROUND(AF36-AF35,10)</f>
         <v>0</v>
       </c>
-      <c r="AG37" s="418"/>
+      <c r="AG37" s="409"/>
       <c r="AH37" s="83"/>
-      <c r="AI37" s="423">
+      <c r="AI37" s="408">
         <f ca="1">ROUND(AI36-AI35,10)</f>
         <v>0</v>
       </c>
-      <c r="AJ37" s="423"/>
+      <c r="AJ37" s="408"/>
       <c r="AK37" s="82"/>
       <c r="AL37" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333000001</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="342" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="424">
+      <c r="B38" s="410">
         <f>Januar!J40</f>
         <v>0</v>
       </c>
-      <c r="C38" s="424"/>
-      <c r="D38" s="424"/>
-      <c r="E38" s="424">
+      <c r="C38" s="410"/>
+      <c r="D38" s="410"/>
+      <c r="E38" s="410">
         <f>Februar!J40</f>
         <v>0</v>
       </c>
-      <c r="F38" s="424"/>
-      <c r="G38" s="424"/>
-      <c r="H38" s="424">
+      <c r="F38" s="410"/>
+      <c r="G38" s="410"/>
+      <c r="H38" s="410">
         <f>März!J40</f>
         <v>7</v>
       </c>
-      <c r="I38" s="424"/>
-      <c r="J38" s="424"/>
-      <c r="K38" s="424">
+      <c r="I38" s="410"/>
+      <c r="J38" s="410"/>
+      <c r="K38" s="410">
         <f>April!J40</f>
         <v>0</v>
       </c>
-      <c r="L38" s="424"/>
-      <c r="M38" s="424"/>
-      <c r="N38" s="424">
+      <c r="L38" s="410"/>
+      <c r="M38" s="410"/>
+      <c r="N38" s="410">
         <f>Mai!J40</f>
         <v>0</v>
       </c>
-      <c r="O38" s="424"/>
-      <c r="P38" s="424"/>
-      <c r="Q38" s="424">
+      <c r="O38" s="410"/>
+      <c r="P38" s="410"/>
+      <c r="Q38" s="410">
         <f>Juni!J40</f>
         <v>0</v>
       </c>
-      <c r="R38" s="424"/>
-      <c r="S38" s="424"/>
-      <c r="T38" s="424">
+      <c r="R38" s="410"/>
+      <c r="S38" s="410"/>
+      <c r="T38" s="410">
         <f>Juli!J40</f>
         <v>0</v>
       </c>
-      <c r="U38" s="424"/>
-      <c r="V38" s="424"/>
-      <c r="W38" s="424">
+      <c r="U38" s="410"/>
+      <c r="V38" s="410"/>
+      <c r="W38" s="410">
         <f>August!J40</f>
         <v>0</v>
       </c>
-      <c r="X38" s="424"/>
-      <c r="Y38" s="424"/>
-      <c r="Z38" s="424">
+      <c r="X38" s="410"/>
+      <c r="Y38" s="410"/>
+      <c r="Z38" s="410">
         <f>September!J40</f>
         <v>0</v>
       </c>
-      <c r="AA38" s="424"/>
-      <c r="AB38" s="424"/>
-      <c r="AC38" s="424">
+      <c r="AA38" s="410"/>
+      <c r="AB38" s="410"/>
+      <c r="AC38" s="410">
         <f>Oktober!J40</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="424"/>
-      <c r="AE38" s="424"/>
-      <c r="AF38" s="424">
+      <c r="AD38" s="410"/>
+      <c r="AE38" s="410"/>
+      <c r="AF38" s="410">
         <f>November!J40</f>
         <v>0</v>
       </c>
-      <c r="AG38" s="424"/>
-      <c r="AH38" s="424"/>
-      <c r="AI38" s="424">
+      <c r="AG38" s="410"/>
+      <c r="AH38" s="410"/>
+      <c r="AI38" s="410">
         <f>Dezember!J40</f>
         <v>0</v>
       </c>
-      <c r="AJ38" s="424"/>
-      <c r="AK38" s="424"/>
+      <c r="AJ38" s="410"/>
+      <c r="AK38" s="410"/>
       <c r="AL38" s="343">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -23723,78 +23723,78 @@
         <f>Voreinstellungen!A27&amp;" ("&amp;Voreinstellungen!B27&amp;")"</f>
         <v>Homeoffice (H)</v>
       </c>
-      <c r="B39" s="422">
+      <c r="B39" s="405">
         <f>Januar!J41</f>
         <v>0</v>
       </c>
-      <c r="C39" s="422"/>
-      <c r="D39" s="422"/>
-      <c r="E39" s="422">
+      <c r="C39" s="405"/>
+      <c r="D39" s="405"/>
+      <c r="E39" s="405">
         <f>Februar!J41</f>
         <v>0</v>
       </c>
-      <c r="F39" s="422"/>
-      <c r="G39" s="422"/>
-      <c r="H39" s="422">
+      <c r="F39" s="405"/>
+      <c r="G39" s="405"/>
+      <c r="H39" s="405">
         <f>März!J41</f>
         <v>0</v>
       </c>
-      <c r="I39" s="422"/>
-      <c r="J39" s="422"/>
-      <c r="K39" s="422">
+      <c r="I39" s="405"/>
+      <c r="J39" s="405"/>
+      <c r="K39" s="405">
         <f>April!J41</f>
         <v>0</v>
       </c>
-      <c r="L39" s="422"/>
-      <c r="M39" s="422"/>
-      <c r="N39" s="422">
+      <c r="L39" s="405"/>
+      <c r="M39" s="405"/>
+      <c r="N39" s="405">
         <f>Mai!J41</f>
         <v>0</v>
       </c>
-      <c r="O39" s="422"/>
-      <c r="P39" s="422"/>
-      <c r="Q39" s="422">
+      <c r="O39" s="405"/>
+      <c r="P39" s="405"/>
+      <c r="Q39" s="405">
         <f>Juni!J41</f>
         <v>0</v>
       </c>
-      <c r="R39" s="422"/>
-      <c r="S39" s="422"/>
-      <c r="T39" s="422">
+      <c r="R39" s="405"/>
+      <c r="S39" s="405"/>
+      <c r="T39" s="405">
         <f>Juli!J41</f>
         <v>0</v>
       </c>
-      <c r="U39" s="422"/>
-      <c r="V39" s="422"/>
-      <c r="W39" s="422">
+      <c r="U39" s="405"/>
+      <c r="V39" s="405"/>
+      <c r="W39" s="405">
         <f>August!J41</f>
         <v>0</v>
       </c>
-      <c r="X39" s="422"/>
-      <c r="Y39" s="422"/>
-      <c r="Z39" s="422">
+      <c r="X39" s="405"/>
+      <c r="Y39" s="405"/>
+      <c r="Z39" s="405">
         <f>September!J41</f>
         <v>0</v>
       </c>
-      <c r="AA39" s="422"/>
-      <c r="AB39" s="422"/>
-      <c r="AC39" s="422">
+      <c r="AA39" s="405"/>
+      <c r="AB39" s="405"/>
+      <c r="AC39" s="405">
         <f>Oktober!J41</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="422"/>
-      <c r="AE39" s="422"/>
-      <c r="AF39" s="422">
+      <c r="AD39" s="405"/>
+      <c r="AE39" s="405"/>
+      <c r="AF39" s="405">
         <f>November!J41</f>
         <v>0</v>
       </c>
-      <c r="AG39" s="422"/>
-      <c r="AH39" s="422"/>
-      <c r="AI39" s="422">
+      <c r="AG39" s="405"/>
+      <c r="AH39" s="405"/>
+      <c r="AI39" s="405">
         <f>Dezember!J41</f>
         <v>0</v>
       </c>
-      <c r="AJ39" s="422"/>
-      <c r="AK39" s="422"/>
+      <c r="AJ39" s="405"/>
+      <c r="AK39" s="405"/>
       <c r="AL39" s="256">
         <f t="shared" ref="AL39" si="1">SUM(B39:AK39)</f>
         <v>0</v>
@@ -23805,78 +23805,78 @@
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="B40" s="422">
+      <c r="B40" s="405">
         <f>Januar!J38</f>
         <v>0</v>
       </c>
-      <c r="C40" s="422"/>
-      <c r="D40" s="422"/>
-      <c r="E40" s="422">
+      <c r="C40" s="405"/>
+      <c r="D40" s="405"/>
+      <c r="E40" s="405">
         <f>Februar!J38</f>
         <v>0</v>
       </c>
-      <c r="F40" s="422"/>
-      <c r="G40" s="422"/>
-      <c r="H40" s="422">
+      <c r="F40" s="405"/>
+      <c r="G40" s="405"/>
+      <c r="H40" s="405">
         <f>März!J38</f>
         <v>0</v>
       </c>
-      <c r="I40" s="422"/>
-      <c r="J40" s="422"/>
-      <c r="K40" s="422">
+      <c r="I40" s="405"/>
+      <c r="J40" s="405"/>
+      <c r="K40" s="405">
         <f>April!J38</f>
         <v>0</v>
       </c>
-      <c r="L40" s="422"/>
-      <c r="M40" s="422"/>
-      <c r="N40" s="422">
+      <c r="L40" s="405"/>
+      <c r="M40" s="405"/>
+      <c r="N40" s="405">
         <f>Mai!J38</f>
         <v>0</v>
       </c>
-      <c r="O40" s="422"/>
-      <c r="P40" s="422"/>
-      <c r="Q40" s="422">
+      <c r="O40" s="405"/>
+      <c r="P40" s="405"/>
+      <c r="Q40" s="405">
         <f>Juni!J38</f>
         <v>0</v>
       </c>
-      <c r="R40" s="422"/>
-      <c r="S40" s="422"/>
-      <c r="T40" s="422">
+      <c r="R40" s="405"/>
+      <c r="S40" s="405"/>
+      <c r="T40" s="405">
         <f>Juli!J38</f>
         <v>0</v>
       </c>
-      <c r="U40" s="422"/>
-      <c r="V40" s="422"/>
-      <c r="W40" s="422">
+      <c r="U40" s="405"/>
+      <c r="V40" s="405"/>
+      <c r="W40" s="405">
         <f>August!J38</f>
         <v>0</v>
       </c>
-      <c r="X40" s="422"/>
-      <c r="Y40" s="422"/>
-      <c r="Z40" s="422">
+      <c r="X40" s="405"/>
+      <c r="Y40" s="405"/>
+      <c r="Z40" s="405">
         <f>September!J38</f>
         <v>0</v>
       </c>
-      <c r="AA40" s="422"/>
-      <c r="AB40" s="422"/>
-      <c r="AC40" s="422">
+      <c r="AA40" s="405"/>
+      <c r="AB40" s="405"/>
+      <c r="AC40" s="405">
         <f>Oktober!J38</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="422"/>
-      <c r="AE40" s="422"/>
-      <c r="AF40" s="422">
+      <c r="AD40" s="405"/>
+      <c r="AE40" s="405"/>
+      <c r="AF40" s="405">
         <f>November!J38</f>
         <v>0</v>
       </c>
-      <c r="AG40" s="422"/>
-      <c r="AH40" s="422"/>
-      <c r="AI40" s="422">
+      <c r="AG40" s="405"/>
+      <c r="AH40" s="405"/>
+      <c r="AI40" s="405">
         <f>Dezember!J38</f>
         <v>0</v>
       </c>
-      <c r="AJ40" s="422"/>
-      <c r="AK40" s="422"/>
+      <c r="AJ40" s="405"/>
+      <c r="AK40" s="405"/>
       <c r="AL40" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23887,78 +23887,78 @@
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;")"&amp;"/("&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K)/(KR)</v>
       </c>
-      <c r="B41" s="422">
+      <c r="B41" s="405">
         <f>Januar!J36</f>
         <v>0</v>
       </c>
-      <c r="C41" s="422"/>
-      <c r="D41" s="422"/>
-      <c r="E41" s="422">
+      <c r="C41" s="405"/>
+      <c r="D41" s="405"/>
+      <c r="E41" s="405">
         <f>Februar!J36</f>
         <v>0</v>
       </c>
-      <c r="F41" s="422"/>
-      <c r="G41" s="422"/>
-      <c r="H41" s="422">
+      <c r="F41" s="405"/>
+      <c r="G41" s="405"/>
+      <c r="H41" s="405">
         <f>März!J36</f>
         <v>0</v>
       </c>
-      <c r="I41" s="422"/>
-      <c r="J41" s="422"/>
-      <c r="K41" s="422">
+      <c r="I41" s="405"/>
+      <c r="J41" s="405"/>
+      <c r="K41" s="405">
         <f>April!J36</f>
         <v>0</v>
       </c>
-      <c r="L41" s="422"/>
-      <c r="M41" s="422"/>
-      <c r="N41" s="422">
+      <c r="L41" s="405"/>
+      <c r="M41" s="405"/>
+      <c r="N41" s="405">
         <f>Mai!J36</f>
         <v>0</v>
       </c>
-      <c r="O41" s="422"/>
-      <c r="P41" s="422"/>
-      <c r="Q41" s="422">
+      <c r="O41" s="405"/>
+      <c r="P41" s="405"/>
+      <c r="Q41" s="405">
         <f>Juni!J36</f>
         <v>0</v>
       </c>
-      <c r="R41" s="422"/>
-      <c r="S41" s="422"/>
-      <c r="T41" s="422">
+      <c r="R41" s="405"/>
+      <c r="S41" s="405"/>
+      <c r="T41" s="405">
         <f>Juli!J36</f>
         <v>0</v>
       </c>
-      <c r="U41" s="422"/>
-      <c r="V41" s="422"/>
-      <c r="W41" s="422">
+      <c r="U41" s="405"/>
+      <c r="V41" s="405"/>
+      <c r="W41" s="405">
         <f>August!J36</f>
         <v>0</v>
       </c>
-      <c r="X41" s="422"/>
-      <c r="Y41" s="422"/>
-      <c r="Z41" s="422">
+      <c r="X41" s="405"/>
+      <c r="Y41" s="405"/>
+      <c r="Z41" s="405">
         <f>September!J36</f>
         <v>0</v>
       </c>
-      <c r="AA41" s="422"/>
-      <c r="AB41" s="422"/>
-      <c r="AC41" s="422">
+      <c r="AA41" s="405"/>
+      <c r="AB41" s="405"/>
+      <c r="AC41" s="405">
         <f>Oktober!J36</f>
         <v>0</v>
       </c>
-      <c r="AD41" s="422"/>
-      <c r="AE41" s="422"/>
-      <c r="AF41" s="422">
+      <c r="AD41" s="405"/>
+      <c r="AE41" s="405"/>
+      <c r="AF41" s="405">
         <f>November!J36</f>
         <v>0</v>
       </c>
-      <c r="AG41" s="422"/>
-      <c r="AH41" s="422"/>
-      <c r="AI41" s="422">
+      <c r="AG41" s="405"/>
+      <c r="AH41" s="405"/>
+      <c r="AI41" s="405">
         <f>Dezember!J36</f>
         <v>0</v>
       </c>
-      <c r="AJ41" s="422"/>
-      <c r="AK41" s="422"/>
+      <c r="AJ41" s="405"/>
+      <c r="AK41" s="405"/>
       <c r="AL41" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23969,78 +23969,78 @@
         <f>Voreinstellungen!A23&amp;" ("&amp;Voreinstellungen!B23&amp;")"&amp;"/("&amp;Voreinstellungen!B24&amp;")"</f>
         <v>Kurzarbeit (KU)/(KA)</v>
       </c>
-      <c r="B42" s="422">
+      <c r="B42" s="405">
         <f>Januar!J39</f>
         <v>0</v>
       </c>
-      <c r="C42" s="422"/>
-      <c r="D42" s="422"/>
-      <c r="E42" s="422">
+      <c r="C42" s="405"/>
+      <c r="D42" s="405"/>
+      <c r="E42" s="405">
         <f>Februar!J39</f>
         <v>0</v>
       </c>
-      <c r="F42" s="422"/>
-      <c r="G42" s="422"/>
-      <c r="H42" s="422">
+      <c r="F42" s="405"/>
+      <c r="G42" s="405"/>
+      <c r="H42" s="405">
         <f>März!J39</f>
         <v>0</v>
       </c>
-      <c r="I42" s="422"/>
-      <c r="J42" s="422"/>
-      <c r="K42" s="422">
+      <c r="I42" s="405"/>
+      <c r="J42" s="405"/>
+      <c r="K42" s="405">
         <f>April!J39</f>
         <v>0</v>
       </c>
-      <c r="L42" s="422"/>
-      <c r="M42" s="422"/>
-      <c r="N42" s="422">
+      <c r="L42" s="405"/>
+      <c r="M42" s="405"/>
+      <c r="N42" s="405">
         <f>Mai!J39</f>
         <v>0</v>
       </c>
-      <c r="O42" s="422"/>
-      <c r="P42" s="422"/>
-      <c r="Q42" s="422">
+      <c r="O42" s="405"/>
+      <c r="P42" s="405"/>
+      <c r="Q42" s="405">
         <f>Juni!J39</f>
         <v>0</v>
       </c>
-      <c r="R42" s="422"/>
-      <c r="S42" s="422"/>
-      <c r="T42" s="422">
+      <c r="R42" s="405"/>
+      <c r="S42" s="405"/>
+      <c r="T42" s="405">
         <f>Juli!J39</f>
         <v>0</v>
       </c>
-      <c r="U42" s="422"/>
-      <c r="V42" s="422"/>
-      <c r="W42" s="422">
+      <c r="U42" s="405"/>
+      <c r="V42" s="405"/>
+      <c r="W42" s="405">
         <f>August!J39</f>
         <v>0</v>
       </c>
-      <c r="X42" s="422"/>
-      <c r="Y42" s="422"/>
-      <c r="Z42" s="422">
+      <c r="X42" s="405"/>
+      <c r="Y42" s="405"/>
+      <c r="Z42" s="405">
         <f>September!J39</f>
         <v>0</v>
       </c>
-      <c r="AA42" s="422"/>
-      <c r="AB42" s="422"/>
-      <c r="AC42" s="422">
+      <c r="AA42" s="405"/>
+      <c r="AB42" s="405"/>
+      <c r="AC42" s="405">
         <f>Oktober!J39</f>
         <v>0</v>
       </c>
-      <c r="AD42" s="422"/>
-      <c r="AE42" s="422"/>
-      <c r="AF42" s="422">
+      <c r="AD42" s="405"/>
+      <c r="AE42" s="405"/>
+      <c r="AF42" s="405">
         <f>November!J39</f>
         <v>0</v>
       </c>
-      <c r="AG42" s="422"/>
-      <c r="AH42" s="422"/>
-      <c r="AI42" s="422">
+      <c r="AG42" s="405"/>
+      <c r="AH42" s="405"/>
+      <c r="AI42" s="405">
         <f>Dezember!J39</f>
         <v>0</v>
       </c>
-      <c r="AJ42" s="422"/>
-      <c r="AK42" s="422"/>
+      <c r="AJ42" s="405"/>
+      <c r="AK42" s="405"/>
       <c r="AL42" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24051,78 +24051,78 @@
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;")"&amp;"/("&amp;Voreinstellungen!B26&amp;")"</f>
         <v>Urlaub (U)/(UH)</v>
       </c>
-      <c r="B43" s="422">
+      <c r="B43" s="405">
         <f>Januar!J37</f>
         <v>0</v>
       </c>
-      <c r="C43" s="422"/>
-      <c r="D43" s="422"/>
-      <c r="E43" s="422">
+      <c r="C43" s="405"/>
+      <c r="D43" s="405"/>
+      <c r="E43" s="405">
         <f>Februar!J37</f>
         <v>0</v>
       </c>
-      <c r="F43" s="422"/>
-      <c r="G43" s="422"/>
-      <c r="H43" s="422">
+      <c r="F43" s="405"/>
+      <c r="G43" s="405"/>
+      <c r="H43" s="405">
         <f>März!J37</f>
         <v>0</v>
       </c>
-      <c r="I43" s="422"/>
-      <c r="J43" s="422"/>
-      <c r="K43" s="422">
+      <c r="I43" s="405"/>
+      <c r="J43" s="405"/>
+      <c r="K43" s="405">
         <f>April!J37</f>
         <v>0</v>
       </c>
-      <c r="L43" s="422"/>
-      <c r="M43" s="422"/>
-      <c r="N43" s="422">
+      <c r="L43" s="405"/>
+      <c r="M43" s="405"/>
+      <c r="N43" s="405">
         <f>Mai!J37</f>
         <v>0</v>
       </c>
-      <c r="O43" s="422"/>
-      <c r="P43" s="422"/>
-      <c r="Q43" s="422">
+      <c r="O43" s="405"/>
+      <c r="P43" s="405"/>
+      <c r="Q43" s="405">
         <f>Juni!J37</f>
         <v>0</v>
       </c>
-      <c r="R43" s="422"/>
-      <c r="S43" s="422"/>
-      <c r="T43" s="422">
+      <c r="R43" s="405"/>
+      <c r="S43" s="405"/>
+      <c r="T43" s="405">
         <f>Juli!J37</f>
         <v>0</v>
       </c>
-      <c r="U43" s="422"/>
-      <c r="V43" s="422"/>
-      <c r="W43" s="422">
+      <c r="U43" s="405"/>
+      <c r="V43" s="405"/>
+      <c r="W43" s="405">
         <f>August!J37</f>
         <v>0</v>
       </c>
-      <c r="X43" s="422"/>
-      <c r="Y43" s="422"/>
-      <c r="Z43" s="422">
+      <c r="X43" s="405"/>
+      <c r="Y43" s="405"/>
+      <c r="Z43" s="405">
         <f>September!J37</f>
         <v>0</v>
       </c>
-      <c r="AA43" s="422"/>
-      <c r="AB43" s="422"/>
-      <c r="AC43" s="422">
+      <c r="AA43" s="405"/>
+      <c r="AB43" s="405"/>
+      <c r="AC43" s="405">
         <f>Oktober!J37</f>
         <v>0</v>
       </c>
-      <c r="AD43" s="422"/>
-      <c r="AE43" s="422"/>
-      <c r="AF43" s="422">
+      <c r="AD43" s="405"/>
+      <c r="AE43" s="405"/>
+      <c r="AF43" s="405">
         <f>November!J37</f>
         <v>0</v>
       </c>
-      <c r="AG43" s="422"/>
-      <c r="AH43" s="422"/>
-      <c r="AI43" s="422">
+      <c r="AG43" s="405"/>
+      <c r="AH43" s="405"/>
+      <c r="AI43" s="405">
         <f>Dezember!J37</f>
         <v>0</v>
       </c>
-      <c r="AJ43" s="422"/>
-      <c r="AK43" s="422"/>
+      <c r="AJ43" s="405"/>
+      <c r="AK43" s="405"/>
       <c r="AL43" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24133,78 +24133,78 @@
         <f>IF(Voreinstellungen!A28="","",Voreinstellungen!A28&amp;" ("&amp;Voreinstellungen!B28&amp;")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="B44" s="422">
+      <c r="B44" s="405">
         <f>Januar!J42</f>
         <v>0</v>
       </c>
-      <c r="C44" s="422"/>
-      <c r="D44" s="422"/>
-      <c r="E44" s="422">
+      <c r="C44" s="405"/>
+      <c r="D44" s="405"/>
+      <c r="E44" s="405">
         <f>Februar!J42</f>
         <v>0</v>
       </c>
-      <c r="F44" s="422"/>
-      <c r="G44" s="422"/>
-      <c r="H44" s="422">
+      <c r="F44" s="405"/>
+      <c r="G44" s="405"/>
+      <c r="H44" s="405">
         <f>März!J42</f>
         <v>0</v>
       </c>
-      <c r="I44" s="422"/>
-      <c r="J44" s="422"/>
-      <c r="K44" s="422">
+      <c r="I44" s="405"/>
+      <c r="J44" s="405"/>
+      <c r="K44" s="405">
         <f>April!J42</f>
         <v>0</v>
       </c>
-      <c r="L44" s="422"/>
-      <c r="M44" s="422"/>
-      <c r="N44" s="422">
+      <c r="L44" s="405"/>
+      <c r="M44" s="405"/>
+      <c r="N44" s="405">
         <f>Mai!J42</f>
         <v>0</v>
       </c>
-      <c r="O44" s="422"/>
-      <c r="P44" s="422"/>
-      <c r="Q44" s="422">
+      <c r="O44" s="405"/>
+      <c r="P44" s="405"/>
+      <c r="Q44" s="405">
         <f>Juni!J42</f>
         <v>0</v>
       </c>
-      <c r="R44" s="422"/>
-      <c r="S44" s="422"/>
-      <c r="T44" s="422">
+      <c r="R44" s="405"/>
+      <c r="S44" s="405"/>
+      <c r="T44" s="405">
         <f>Juli!J42</f>
         <v>0</v>
       </c>
-      <c r="U44" s="422"/>
-      <c r="V44" s="422"/>
-      <c r="W44" s="422">
+      <c r="U44" s="405"/>
+      <c r="V44" s="405"/>
+      <c r="W44" s="405">
         <f>August!J42</f>
         <v>0</v>
       </c>
-      <c r="X44" s="422"/>
-      <c r="Y44" s="422"/>
-      <c r="Z44" s="422">
+      <c r="X44" s="405"/>
+      <c r="Y44" s="405"/>
+      <c r="Z44" s="405">
         <f>September!J42</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="422"/>
-      <c r="AB44" s="422"/>
-      <c r="AC44" s="422">
+      <c r="AA44" s="405"/>
+      <c r="AB44" s="405"/>
+      <c r="AC44" s="405">
         <f>Oktober!J42</f>
         <v>0</v>
       </c>
-      <c r="AD44" s="422"/>
-      <c r="AE44" s="422"/>
-      <c r="AF44" s="422">
+      <c r="AD44" s="405"/>
+      <c r="AE44" s="405"/>
+      <c r="AF44" s="405">
         <f>November!J42</f>
         <v>0</v>
       </c>
-      <c r="AG44" s="422"/>
-      <c r="AH44" s="422"/>
-      <c r="AI44" s="422">
+      <c r="AG44" s="405"/>
+      <c r="AH44" s="405"/>
+      <c r="AI44" s="405">
         <f>Dezember!J42</f>
         <v>0</v>
       </c>
-      <c r="AJ44" s="422"/>
-      <c r="AK44" s="422"/>
+      <c r="AJ44" s="405"/>
+      <c r="AK44" s="405"/>
       <c r="AL44" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24215,78 +24215,78 @@
         <f>IF(Voreinstellungen!A29="","",Voreinstellungen!A29&amp;" ("&amp;Voreinstellungen!B29&amp;")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="B45" s="422">
+      <c r="B45" s="405">
         <f>Januar!J43</f>
         <v>0</v>
       </c>
-      <c r="C45" s="422"/>
-      <c r="D45" s="422"/>
-      <c r="E45" s="422">
+      <c r="C45" s="405"/>
+      <c r="D45" s="405"/>
+      <c r="E45" s="405">
         <f>Februar!J43</f>
         <v>0</v>
       </c>
-      <c r="F45" s="422"/>
-      <c r="G45" s="422"/>
-      <c r="H45" s="422">
+      <c r="F45" s="405"/>
+      <c r="G45" s="405"/>
+      <c r="H45" s="405">
         <f>März!J43</f>
         <v>0</v>
       </c>
-      <c r="I45" s="422"/>
-      <c r="J45" s="422"/>
-      <c r="K45" s="422">
+      <c r="I45" s="405"/>
+      <c r="J45" s="405"/>
+      <c r="K45" s="405">
         <f>April!J43</f>
         <v>0</v>
       </c>
-      <c r="L45" s="422"/>
-      <c r="M45" s="422"/>
-      <c r="N45" s="422">
+      <c r="L45" s="405"/>
+      <c r="M45" s="405"/>
+      <c r="N45" s="405">
         <f>Mai!J43</f>
         <v>0</v>
       </c>
-      <c r="O45" s="422"/>
-      <c r="P45" s="422"/>
-      <c r="Q45" s="422">
+      <c r="O45" s="405"/>
+      <c r="P45" s="405"/>
+      <c r="Q45" s="405">
         <f>Juni!J43</f>
         <v>0</v>
       </c>
-      <c r="R45" s="422"/>
-      <c r="S45" s="422"/>
-      <c r="T45" s="422">
+      <c r="R45" s="405"/>
+      <c r="S45" s="405"/>
+      <c r="T45" s="405">
         <f>Juli!J43</f>
         <v>0</v>
       </c>
-      <c r="U45" s="422"/>
-      <c r="V45" s="422"/>
-      <c r="W45" s="422">
+      <c r="U45" s="405"/>
+      <c r="V45" s="405"/>
+      <c r="W45" s="405">
         <f>August!J43</f>
         <v>0</v>
       </c>
-      <c r="X45" s="422"/>
-      <c r="Y45" s="422"/>
-      <c r="Z45" s="422">
+      <c r="X45" s="405"/>
+      <c r="Y45" s="405"/>
+      <c r="Z45" s="405">
         <f>September!J43</f>
         <v>0</v>
       </c>
-      <c r="AA45" s="422"/>
-      <c r="AB45" s="422"/>
-      <c r="AC45" s="422">
+      <c r="AA45" s="405"/>
+      <c r="AB45" s="405"/>
+      <c r="AC45" s="405">
         <f>Oktober!J43</f>
         <v>0</v>
       </c>
-      <c r="AD45" s="422"/>
-      <c r="AE45" s="422"/>
-      <c r="AF45" s="422">
+      <c r="AD45" s="405"/>
+      <c r="AE45" s="405"/>
+      <c r="AF45" s="405">
         <f>November!J43</f>
         <v>0</v>
       </c>
-      <c r="AG45" s="422"/>
-      <c r="AH45" s="422"/>
-      <c r="AI45" s="422">
+      <c r="AG45" s="405"/>
+      <c r="AH45" s="405"/>
+      <c r="AI45" s="405">
         <f>Dezember!J43</f>
         <v>0</v>
       </c>
-      <c r="AJ45" s="422"/>
-      <c r="AK45" s="422"/>
+      <c r="AJ45" s="405"/>
+      <c r="AK45" s="405"/>
       <c r="AL45" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24297,78 +24297,78 @@
         <f>IF(Voreinstellungen!A30="","",Voreinstellungen!A30&amp;" ("&amp;Voreinstellungen!B30&amp;")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="B46" s="422">
+      <c r="B46" s="405">
         <f>Januar!J44</f>
         <v>0</v>
       </c>
-      <c r="C46" s="422"/>
-      <c r="D46" s="422"/>
-      <c r="E46" s="422">
+      <c r="C46" s="405"/>
+      <c r="D46" s="405"/>
+      <c r="E46" s="405">
         <f>Februar!J44</f>
         <v>0</v>
       </c>
-      <c r="F46" s="422"/>
-      <c r="G46" s="422"/>
-      <c r="H46" s="422">
+      <c r="F46" s="405"/>
+      <c r="G46" s="405"/>
+      <c r="H46" s="405">
         <f>März!J44</f>
         <v>0</v>
       </c>
-      <c r="I46" s="422"/>
-      <c r="J46" s="422"/>
-      <c r="K46" s="422">
+      <c r="I46" s="405"/>
+      <c r="J46" s="405"/>
+      <c r="K46" s="405">
         <f>April!J44</f>
         <v>0</v>
       </c>
-      <c r="L46" s="422"/>
-      <c r="M46" s="422"/>
-      <c r="N46" s="422">
+      <c r="L46" s="405"/>
+      <c r="M46" s="405"/>
+      <c r="N46" s="405">
         <f>Mai!J44</f>
         <v>0</v>
       </c>
-      <c r="O46" s="422"/>
-      <c r="P46" s="422"/>
-      <c r="Q46" s="422">
+      <c r="O46" s="405"/>
+      <c r="P46" s="405"/>
+      <c r="Q46" s="405">
         <f>Juni!J44</f>
         <v>0</v>
       </c>
-      <c r="R46" s="422"/>
-      <c r="S46" s="422"/>
-      <c r="T46" s="422">
+      <c r="R46" s="405"/>
+      <c r="S46" s="405"/>
+      <c r="T46" s="405">
         <f>Juli!J44</f>
         <v>0</v>
       </c>
-      <c r="U46" s="422"/>
-      <c r="V46" s="422"/>
-      <c r="W46" s="422">
+      <c r="U46" s="405"/>
+      <c r="V46" s="405"/>
+      <c r="W46" s="405">
         <f>August!J44</f>
         <v>0</v>
       </c>
-      <c r="X46" s="422"/>
-      <c r="Y46" s="422"/>
-      <c r="Z46" s="422">
+      <c r="X46" s="405"/>
+      <c r="Y46" s="405"/>
+      <c r="Z46" s="405">
         <f>September!J44</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="422"/>
-      <c r="AB46" s="422"/>
-      <c r="AC46" s="422">
+      <c r="AA46" s="405"/>
+      <c r="AB46" s="405"/>
+      <c r="AC46" s="405">
         <f>Oktober!J44</f>
         <v>0</v>
       </c>
-      <c r="AD46" s="422"/>
-      <c r="AE46" s="422"/>
-      <c r="AF46" s="422">
+      <c r="AD46" s="405"/>
+      <c r="AE46" s="405"/>
+      <c r="AF46" s="405">
         <f>November!J44</f>
         <v>0</v>
       </c>
-      <c r="AG46" s="422"/>
-      <c r="AH46" s="422"/>
-      <c r="AI46" s="422">
+      <c r="AG46" s="405"/>
+      <c r="AH46" s="405"/>
+      <c r="AI46" s="405">
         <f>Dezember!J44</f>
         <v>0</v>
       </c>
-      <c r="AJ46" s="422"/>
-      <c r="AK46" s="422"/>
+      <c r="AJ46" s="405"/>
+      <c r="AK46" s="405"/>
       <c r="AL46" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24379,78 +24379,78 @@
         <f>IF(Voreinstellungen!A31="","",Voreinstellungen!A31&amp;" ("&amp;Voreinstellungen!B31&amp;")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="B47" s="422">
+      <c r="B47" s="405">
         <f>Januar!J45</f>
         <v>0</v>
       </c>
-      <c r="C47" s="422"/>
-      <c r="D47" s="422"/>
-      <c r="E47" s="422">
+      <c r="C47" s="405"/>
+      <c r="D47" s="405"/>
+      <c r="E47" s="405">
         <f>Februar!J45</f>
         <v>0</v>
       </c>
-      <c r="F47" s="422"/>
-      <c r="G47" s="422"/>
-      <c r="H47" s="422">
+      <c r="F47" s="405"/>
+      <c r="G47" s="405"/>
+      <c r="H47" s="405">
         <f>März!J45</f>
         <v>0</v>
       </c>
-      <c r="I47" s="422"/>
-      <c r="J47" s="422"/>
-      <c r="K47" s="422">
+      <c r="I47" s="405"/>
+      <c r="J47" s="405"/>
+      <c r="K47" s="405">
         <f>April!J45</f>
         <v>0</v>
       </c>
-      <c r="L47" s="422"/>
-      <c r="M47" s="422"/>
-      <c r="N47" s="422">
+      <c r="L47" s="405"/>
+      <c r="M47" s="405"/>
+      <c r="N47" s="405">
         <f>Mai!J45</f>
         <v>0</v>
       </c>
-      <c r="O47" s="422"/>
-      <c r="P47" s="422"/>
-      <c r="Q47" s="422">
+      <c r="O47" s="405"/>
+      <c r="P47" s="405"/>
+      <c r="Q47" s="405">
         <f>Juni!J45</f>
         <v>0</v>
       </c>
-      <c r="R47" s="422"/>
-      <c r="S47" s="422"/>
-      <c r="T47" s="422">
+      <c r="R47" s="405"/>
+      <c r="S47" s="405"/>
+      <c r="T47" s="405">
         <f>Juli!J45</f>
         <v>0</v>
       </c>
-      <c r="U47" s="422"/>
-      <c r="V47" s="422"/>
-      <c r="W47" s="422">
+      <c r="U47" s="405"/>
+      <c r="V47" s="405"/>
+      <c r="W47" s="405">
         <f>August!J45</f>
         <v>0</v>
       </c>
-      <c r="X47" s="422"/>
-      <c r="Y47" s="422"/>
-      <c r="Z47" s="422">
+      <c r="X47" s="405"/>
+      <c r="Y47" s="405"/>
+      <c r="Z47" s="405">
         <f>September!J45</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="422"/>
-      <c r="AB47" s="422"/>
-      <c r="AC47" s="422">
+      <c r="AA47" s="405"/>
+      <c r="AB47" s="405"/>
+      <c r="AC47" s="405">
         <f>Oktober!J45</f>
         <v>0</v>
       </c>
-      <c r="AD47" s="422"/>
-      <c r="AE47" s="422"/>
-      <c r="AF47" s="422">
+      <c r="AD47" s="405"/>
+      <c r="AE47" s="405"/>
+      <c r="AF47" s="405">
         <f>November!J45</f>
         <v>0</v>
       </c>
-      <c r="AG47" s="422"/>
-      <c r="AH47" s="422"/>
-      <c r="AI47" s="422">
+      <c r="AG47" s="405"/>
+      <c r="AH47" s="405"/>
+      <c r="AI47" s="405">
         <f>Dezember!J45</f>
         <v>0</v>
       </c>
-      <c r="AJ47" s="422"/>
-      <c r="AK47" s="422"/>
+      <c r="AJ47" s="405"/>
+      <c r="AK47" s="405"/>
       <c r="AL47" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24461,78 +24461,78 @@
         <f>IF(Voreinstellungen!A32="","",Voreinstellungen!A32&amp;" ("&amp;Voreinstellungen!B32&amp;")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="B48" s="422">
+      <c r="B48" s="405">
         <f>Januar!J46</f>
         <v>0</v>
       </c>
-      <c r="C48" s="422"/>
-      <c r="D48" s="422"/>
-      <c r="E48" s="422">
+      <c r="C48" s="405"/>
+      <c r="D48" s="405"/>
+      <c r="E48" s="405">
         <f>Februar!J46</f>
         <v>0</v>
       </c>
-      <c r="F48" s="422"/>
-      <c r="G48" s="422"/>
-      <c r="H48" s="422">
+      <c r="F48" s="405"/>
+      <c r="G48" s="405"/>
+      <c r="H48" s="405">
         <f>März!J46</f>
         <v>0</v>
       </c>
-      <c r="I48" s="422"/>
-      <c r="J48" s="422"/>
-      <c r="K48" s="422">
+      <c r="I48" s="405"/>
+      <c r="J48" s="405"/>
+      <c r="K48" s="405">
         <f>April!J46</f>
         <v>0</v>
       </c>
-      <c r="L48" s="422"/>
-      <c r="M48" s="422"/>
-      <c r="N48" s="422">
+      <c r="L48" s="405"/>
+      <c r="M48" s="405"/>
+      <c r="N48" s="405">
         <f>Mai!J46</f>
         <v>0</v>
       </c>
-      <c r="O48" s="422"/>
-      <c r="P48" s="422"/>
-      <c r="Q48" s="422">
+      <c r="O48" s="405"/>
+      <c r="P48" s="405"/>
+      <c r="Q48" s="405">
         <f>Juni!J46</f>
         <v>0</v>
       </c>
-      <c r="R48" s="422"/>
-      <c r="S48" s="422"/>
-      <c r="T48" s="422">
+      <c r="R48" s="405"/>
+      <c r="S48" s="405"/>
+      <c r="T48" s="405">
         <f>Juli!J46</f>
         <v>0</v>
       </c>
-      <c r="U48" s="422"/>
-      <c r="V48" s="422"/>
-      <c r="W48" s="422">
+      <c r="U48" s="405"/>
+      <c r="V48" s="405"/>
+      <c r="W48" s="405">
         <f>August!J46</f>
         <v>0</v>
       </c>
-      <c r="X48" s="422"/>
-      <c r="Y48" s="422"/>
-      <c r="Z48" s="422">
+      <c r="X48" s="405"/>
+      <c r="Y48" s="405"/>
+      <c r="Z48" s="405">
         <f>September!J46</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="422"/>
-      <c r="AB48" s="422"/>
-      <c r="AC48" s="422">
+      <c r="AA48" s="405"/>
+      <c r="AB48" s="405"/>
+      <c r="AC48" s="405">
         <f>Oktober!J46</f>
         <v>0</v>
       </c>
-      <c r="AD48" s="422"/>
-      <c r="AE48" s="422"/>
-      <c r="AF48" s="422">
+      <c r="AD48" s="405"/>
+      <c r="AE48" s="405"/>
+      <c r="AF48" s="405">
         <f>November!J46</f>
         <v>0</v>
       </c>
-      <c r="AG48" s="422"/>
-      <c r="AH48" s="422"/>
-      <c r="AI48" s="422">
+      <c r="AG48" s="405"/>
+      <c r="AH48" s="405"/>
+      <c r="AI48" s="405">
         <f>Dezember!J46</f>
         <v>0</v>
       </c>
-      <c r="AJ48" s="422"/>
-      <c r="AK48" s="422"/>
+      <c r="AJ48" s="405"/>
+      <c r="AK48" s="405"/>
       <c r="AL48" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24543,78 +24543,78 @@
         <f>IF(Voreinstellungen!A33="","",Voreinstellungen!A33&amp;" ("&amp;Voreinstellungen!B33&amp;")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="B49" s="425">
+      <c r="B49" s="406">
         <f>Januar!J47</f>
         <v>0</v>
       </c>
-      <c r="C49" s="425"/>
-      <c r="D49" s="425"/>
-      <c r="E49" s="425">
+      <c r="C49" s="406"/>
+      <c r="D49" s="406"/>
+      <c r="E49" s="406">
         <f>Februar!J47</f>
         <v>0</v>
       </c>
-      <c r="F49" s="425"/>
-      <c r="G49" s="425"/>
-      <c r="H49" s="425">
+      <c r="F49" s="406"/>
+      <c r="G49" s="406"/>
+      <c r="H49" s="406">
         <f>März!J47</f>
         <v>0</v>
       </c>
-      <c r="I49" s="425"/>
-      <c r="J49" s="425"/>
-      <c r="K49" s="425">
+      <c r="I49" s="406"/>
+      <c r="J49" s="406"/>
+      <c r="K49" s="406">
         <f>April!J47</f>
         <v>0</v>
       </c>
-      <c r="L49" s="425"/>
-      <c r="M49" s="425"/>
-      <c r="N49" s="425">
+      <c r="L49" s="406"/>
+      <c r="M49" s="406"/>
+      <c r="N49" s="406">
         <f>Mai!J47</f>
         <v>0</v>
       </c>
-      <c r="O49" s="425"/>
-      <c r="P49" s="425"/>
-      <c r="Q49" s="425">
+      <c r="O49" s="406"/>
+      <c r="P49" s="406"/>
+      <c r="Q49" s="406">
         <f>Juni!J47</f>
         <v>0</v>
       </c>
-      <c r="R49" s="425"/>
-      <c r="S49" s="425"/>
-      <c r="T49" s="425">
+      <c r="R49" s="406"/>
+      <c r="S49" s="406"/>
+      <c r="T49" s="406">
         <f>Juli!J47</f>
         <v>0</v>
       </c>
-      <c r="U49" s="425"/>
-      <c r="V49" s="425"/>
-      <c r="W49" s="425">
+      <c r="U49" s="406"/>
+      <c r="V49" s="406"/>
+      <c r="W49" s="406">
         <f>August!J47</f>
         <v>0</v>
       </c>
-      <c r="X49" s="425"/>
-      <c r="Y49" s="425"/>
-      <c r="Z49" s="425">
+      <c r="X49" s="406"/>
+      <c r="Y49" s="406"/>
+      <c r="Z49" s="406">
         <f>September!J47</f>
         <v>0</v>
       </c>
-      <c r="AA49" s="425"/>
-      <c r="AB49" s="425"/>
-      <c r="AC49" s="425">
+      <c r="AA49" s="406"/>
+      <c r="AB49" s="406"/>
+      <c r="AC49" s="406">
         <f>Oktober!J47</f>
         <v>0</v>
       </c>
-      <c r="AD49" s="425"/>
-      <c r="AE49" s="425"/>
-      <c r="AF49" s="425">
+      <c r="AD49" s="406"/>
+      <c r="AE49" s="406"/>
+      <c r="AF49" s="406">
         <f>November!J47</f>
         <v>0</v>
       </c>
-      <c r="AG49" s="425"/>
-      <c r="AH49" s="425"/>
-      <c r="AI49" s="425">
+      <c r="AG49" s="406"/>
+      <c r="AH49" s="406"/>
+      <c r="AI49" s="406">
         <f>Dezember!J47</f>
         <v>0</v>
       </c>
-      <c r="AJ49" s="425"/>
-      <c r="AK49" s="425"/>
+      <c r="AJ49" s="406"/>
+      <c r="AK49" s="406"/>
       <c r="AL49" s="345">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24625,78 +24625,78 @@
         <f>Voreinstellungen!A23&amp;" ("&amp;Voreinstellungen!B23&amp;"/"&amp;Voreinstellungen!B24&amp;")"</f>
         <v>Kurzarbeit (KU/KA)</v>
       </c>
-      <c r="B50" s="426">
+      <c r="B50" s="407">
         <f>Januar!P39</f>
         <v>0</v>
       </c>
-      <c r="C50" s="426"/>
-      <c r="D50" s="426"/>
-      <c r="E50" s="426">
+      <c r="C50" s="407"/>
+      <c r="D50" s="407"/>
+      <c r="E50" s="407">
         <f>Februar!P39</f>
         <v>0</v>
       </c>
-      <c r="F50" s="426"/>
-      <c r="G50" s="426"/>
-      <c r="H50" s="426">
+      <c r="F50" s="407"/>
+      <c r="G50" s="407"/>
+      <c r="H50" s="407">
         <f>März!P39</f>
         <v>0</v>
       </c>
-      <c r="I50" s="426"/>
-      <c r="J50" s="426"/>
-      <c r="K50" s="426">
+      <c r="I50" s="407"/>
+      <c r="J50" s="407"/>
+      <c r="K50" s="407">
         <f>April!P39</f>
         <v>0</v>
       </c>
-      <c r="L50" s="426"/>
-      <c r="M50" s="426"/>
-      <c r="N50" s="426">
+      <c r="L50" s="407"/>
+      <c r="M50" s="407"/>
+      <c r="N50" s="407">
         <f>Mai!P39</f>
         <v>0</v>
       </c>
-      <c r="O50" s="426"/>
-      <c r="P50" s="426"/>
-      <c r="Q50" s="426">
+      <c r="O50" s="407"/>
+      <c r="P50" s="407"/>
+      <c r="Q50" s="407">
         <f>Juni!P39</f>
         <v>0</v>
       </c>
-      <c r="R50" s="426"/>
-      <c r="S50" s="426"/>
-      <c r="T50" s="426">
+      <c r="R50" s="407"/>
+      <c r="S50" s="407"/>
+      <c r="T50" s="407">
         <f>Juli!P39</f>
         <v>0</v>
       </c>
-      <c r="U50" s="426"/>
-      <c r="V50" s="426"/>
-      <c r="W50" s="426">
+      <c r="U50" s="407"/>
+      <c r="V50" s="407"/>
+      <c r="W50" s="407">
         <f>August!P39</f>
         <v>0</v>
       </c>
-      <c r="X50" s="426"/>
-      <c r="Y50" s="426"/>
-      <c r="Z50" s="426">
+      <c r="X50" s="407"/>
+      <c r="Y50" s="407"/>
+      <c r="Z50" s="407">
         <f>September!P39</f>
         <v>0</v>
       </c>
-      <c r="AA50" s="426"/>
-      <c r="AB50" s="426"/>
-      <c r="AC50" s="426">
+      <c r="AA50" s="407"/>
+      <c r="AB50" s="407"/>
+      <c r="AC50" s="407">
         <f>Oktober!P39</f>
         <v>0</v>
       </c>
-      <c r="AD50" s="426"/>
-      <c r="AE50" s="426"/>
-      <c r="AF50" s="426">
+      <c r="AD50" s="407"/>
+      <c r="AE50" s="407"/>
+      <c r="AF50" s="407">
         <f>November!P39</f>
         <v>0</v>
       </c>
-      <c r="AG50" s="426"/>
-      <c r="AH50" s="426"/>
-      <c r="AI50" s="426">
+      <c r="AG50" s="407"/>
+      <c r="AH50" s="407"/>
+      <c r="AI50" s="407">
         <f>Dezember!P39</f>
         <v>0</v>
       </c>
-      <c r="AJ50" s="426"/>
-      <c r="AK50" s="426"/>
+      <c r="AJ50" s="407"/>
+      <c r="AK50" s="407"/>
       <c r="AL50" s="257">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24705,18 +24705,178 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ULs8CaE8jYKyq0Qm0xansyOebF3btUSqUz6IOiad1Adl94OHsV4iwVCV23Ea2hIZUZuXiwTKCyndrGMaAIXqpg==" saltValue="DQP1StXmrS+ACnfAoqZYYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="208">
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="AF39:AH39"/>
-    <mergeCell ref="AI39:AK39"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="E1:AH2"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="AF38:AH38"/>
+    <mergeCell ref="AI38:AK38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="AF40:AH40"/>
+    <mergeCell ref="AI40:AK40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="AF41:AH41"/>
+    <mergeCell ref="AI41:AK41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="AF42:AH42"/>
+    <mergeCell ref="AI42:AK42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="AF43:AH43"/>
+    <mergeCell ref="AI43:AK43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AC44:AE44"/>
+    <mergeCell ref="AF44:AH44"/>
+    <mergeCell ref="AI44:AK44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AC45:AE45"/>
+    <mergeCell ref="AF45:AH45"/>
+    <mergeCell ref="AI45:AK45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AK46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AC47:AE47"/>
+    <mergeCell ref="AF47:AH47"/>
+    <mergeCell ref="AI47:AK47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W48:Y48"/>
     <mergeCell ref="Z49:AB49"/>
     <mergeCell ref="AC50:AE50"/>
     <mergeCell ref="AF50:AH50"/>
@@ -24741,178 +24901,18 @@
     <mergeCell ref="T50:V50"/>
     <mergeCell ref="W50:Y50"/>
     <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AK46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AC47:AE47"/>
-    <mergeCell ref="AF47:AH47"/>
-    <mergeCell ref="AI47:AK47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="W46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AC44:AE44"/>
-    <mergeCell ref="AF44:AH44"/>
-    <mergeCell ref="AI44:AK44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AC45:AE45"/>
-    <mergeCell ref="AF45:AH45"/>
-    <mergeCell ref="AI45:AK45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="AF42:AH42"/>
-    <mergeCell ref="AI42:AK42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="AF43:AH43"/>
-    <mergeCell ref="AI43:AK43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="AF40:AH40"/>
-    <mergeCell ref="AI40:AK40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="AF41:AH41"/>
-    <mergeCell ref="AI41:AK41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="AF38:AH38"/>
-    <mergeCell ref="AI38:AK38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="E1:AH2"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="AF39:AH39"/>
+    <mergeCell ref="AI39:AK39"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:D34">
     <cfRule type="expression" dxfId="117" priority="127">
@@ -26775,16 +26775,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,1,1)</f>
         <v>44196</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -26795,20 +26795,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -26816,11 +26816,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="287" t="s">
@@ -26842,10 +26842,10 @@
       <c r="G3" s="290" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="398" t="s">
+      <c r="H3" s="390" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="399"/>
+      <c r="I3" s="391"/>
       <c r="J3" s="291" t="s">
         <v>24</v>
       </c>
@@ -28299,14 +28299,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -28331,14 +28331,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -28363,14 +28363,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28395,7 +28395,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -28422,10 +28422,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28437,10 +28437,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28454,14 +28454,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -28478,14 +28478,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -28506,14 +28506,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -28530,14 +28530,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -28554,14 +28554,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -28582,14 +28582,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -28598,6 +28598,14 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="oBN0r51dDECZFls/TRAJAd27W+TgL0++D9lshzBuMe37JDIPjzAnm/4XFLohKLime/fBemTKFXqJa2/SVgSDMA==" saltValue="9rbClIGXtx70peLMTAtvDA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K41:O41"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
@@ -28606,14 +28614,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K41:O41"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="303" priority="15">
@@ -28786,16 +28786,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,2,1)</f>
         <v>44227</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -28806,20 +28806,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -28827,11 +28827,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -30310,14 +30310,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -30342,14 +30342,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -30374,14 +30374,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30406,7 +30406,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -30433,10 +30433,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30448,10 +30448,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30465,14 +30465,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -30489,14 +30489,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -30517,14 +30517,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -30541,14 +30541,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -30565,14 +30565,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -30593,14 +30593,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -30609,13 +30609,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y6rmxDLPAughoR7jJQ0sYbv9kfWJhTEX26xayEFtXRyn02iMymx2d2if1VzL9B00xl/4Ttqic0gGXCy8h+ZU0Q==" saltValue="ycOUgX715xjWc1uyEcsw+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -30625,6 +30618,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="287" priority="9">
@@ -30773,7 +30773,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
@@ -30797,16 +30797,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,3,1)</f>
         <v>44255</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -30817,20 +30817,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -30838,11 +30838,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -32293,7 +32293,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="E34" s="327">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F34" s="327"/>
       <c r="G34" s="327"/>
@@ -32305,7 +32305,7 @@
       <c r="J34" s="308"/>
       <c r="K34" s="321">
         <f t="shared" si="7"/>
-        <v>9.375E-2</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="L34" s="322">
         <f t="shared" ca="1" si="3"/>
@@ -32313,7 +32313,7 @@
       </c>
       <c r="M34" s="309">
         <f ca="1">IF(A34="",0,ROUND(K34-L34,14))</f>
-        <v>-3.125E-2</v>
+        <v>1.041666666667E-2</v>
       </c>
       <c r="N34" s="361">
         <f t="shared" ca="1" si="5"/>
@@ -32324,7 +32324,7 @@
       </c>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>9.3750000000010006E-2</v>
+        <v>0.13541666666668001</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -32363,14 +32363,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -32395,14 +32395,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -32419,7 +32419,7 @@
       </c>
       <c r="F38" s="171">
         <f>SUM(K4:K34)</f>
-        <v>0.71875000000000011</v>
+        <v>0.76041666666666674</v>
       </c>
       <c r="G38" s="53"/>
       <c r="I38" s="68"/>
@@ -32427,14 +32427,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32459,7 +32459,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -32475,7 +32475,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>9.375E-2</v>
+        <v>0.13541666666666999</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -32486,10 +32486,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32501,10 +32501,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32518,14 +32518,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -32542,14 +32542,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -32570,14 +32570,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -32594,14 +32594,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -32618,14 +32618,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -32646,14 +32646,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -32662,13 +32662,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ium0EoF68XxSI58RkPIJpAIl5Av08x4FXPIFpsrYuZ63ieW47f8XBZIqtWetTTOx10wRSo+z4hLxZUXvJC7Akw==" saltValue="zOg4DvyRe2VbbS4PWEwW1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -32678,6 +32671,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="271" priority="9">
@@ -32850,16 +32850,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,4,1)</f>
         <v>44286</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -32870,20 +32870,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -32891,11 +32891,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -32985,7 +32985,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>9.375E-2</v>
+        <v>0.13541666666666999</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33030,7 +33030,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>9.375E-2</v>
+        <v>0.13541666666666999</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33075,7 +33075,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>9.375E-2</v>
+        <v>0.13541666666666999</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33120,7 +33120,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>9.375E-2</v>
+        <v>0.13541666666666999</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33165,7 +33165,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>9.375E-2</v>
+        <v>0.13541666666666999</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33210,7 +33210,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>9.375E-2</v>
+        <v>0.13541666666666999</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33255,7 +33255,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1.041666666667E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33300,7 +33300,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1.041666666667E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33345,7 +33345,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1.041666666667E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33390,7 +33390,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1.041666666667E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33435,7 +33435,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1.041666666667E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33480,7 +33480,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1.041666666667E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33525,7 +33525,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1.041666666667E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33570,7 +33570,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.15625</v>
+        <v>-0.11458333333333</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33615,7 +33615,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.15625</v>
+        <v>-0.11458333333333</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33660,7 +33660,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.15625</v>
+        <v>-0.11458333333333</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33705,7 +33705,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.15625</v>
+        <v>-0.11458333333333</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33750,7 +33750,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.15625</v>
+        <v>-0.11458333333333</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33795,7 +33795,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.15625</v>
+        <v>-0.11458333333333</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33840,7 +33840,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.15625</v>
+        <v>-0.11458333333333</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33885,7 +33885,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.15625</v>
+        <v>-0.11458333333333</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33930,7 +33930,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.15625</v>
+        <v>-0.11458333333333</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33975,7 +33975,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.15625</v>
+        <v>-0.11458333333333</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34020,7 +34020,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.15625</v>
+        <v>-0.11458333333333</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34065,7 +34065,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.15625</v>
+        <v>-0.11458333333333</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34110,7 +34110,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.15625</v>
+        <v>-0.11458333333333</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34155,7 +34155,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.15625</v>
+        <v>-0.11458333333333</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34200,7 +34200,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.28125</v>
+        <v>-0.23958333333333001</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34245,7 +34245,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.28125</v>
+        <v>-0.23958333333333001</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34290,7 +34290,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.28125</v>
+        <v>-0.23958333333333001</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34366,7 +34366,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">März!F40</f>
-        <v>9.375E-2</v>
+        <v>0.13541666666666999</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -34374,14 +34374,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -34406,14 +34406,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -34438,14 +34438,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34470,7 +34470,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -34486,7 +34486,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-0.28125</v>
+        <v>-0.23958333333333001</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -34497,10 +34497,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34512,10 +34512,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34529,14 +34529,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -34553,14 +34553,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -34581,14 +34581,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -34605,14 +34605,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -34629,14 +34629,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -34657,14 +34657,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -34673,13 +34673,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="HdZ3F0mjmoV5DFx28D4MVNbjsTHEK/EhqlBMbQcFz3QaDVTjPn59ZfolJDNZ8ZZq73r/ru7s7K5k+lJnmNqcOg==" saltValue="HgrPnpOBPHk1rRzox3VdGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -34689,6 +34682,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="255" priority="9">
@@ -34861,16 +34861,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,5,1)</f>
         <v>44316</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -34881,20 +34881,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -34902,11 +34902,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -34996,7 +34996,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-0.28125</v>
+        <v>-0.23958333333333001</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35041,7 +35041,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-0.28125</v>
+        <v>-0.23958333333333001</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35086,7 +35086,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-0.28125</v>
+        <v>-0.23958333333333001</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35131,7 +35131,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.28125</v>
+        <v>-0.23958333333333001</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35176,7 +35176,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.40625</v>
+        <v>-0.36458333333332998</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35221,7 +35221,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.40625</v>
+        <v>-0.36458333333332998</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35266,7 +35266,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.40625</v>
+        <v>-0.36458333333332998</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35311,7 +35311,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.40625</v>
+        <v>-0.36458333333332998</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35356,7 +35356,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.40625</v>
+        <v>-0.36458333333332998</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35401,7 +35401,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.40625</v>
+        <v>-0.36458333333332998</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35446,7 +35446,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.40625</v>
+        <v>-0.36458333333332998</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35491,7 +35491,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.53125</v>
+        <v>-0.48958333333332998</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35536,7 +35536,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.53125</v>
+        <v>-0.48958333333332998</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35581,7 +35581,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.53125</v>
+        <v>-0.48958333333332998</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35626,7 +35626,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.53125</v>
+        <v>-0.48958333333332998</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35671,7 +35671,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.53125</v>
+        <v>-0.48958333333332998</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35716,7 +35716,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.53125</v>
+        <v>-0.48958333333332998</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35761,7 +35761,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.53125</v>
+        <v>-0.48958333333332998</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35806,7 +35806,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.65625</v>
+        <v>-0.61458333333333004</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35851,7 +35851,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.65625</v>
+        <v>-0.61458333333333004</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35896,7 +35896,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.65625</v>
+        <v>-0.61458333333333004</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35941,7 +35941,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.65625</v>
+        <v>-0.61458333333333004</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35986,7 +35986,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.65625</v>
+        <v>-0.61458333333333004</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36031,7 +36031,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.65625</v>
+        <v>-0.61458333333333004</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36076,7 +36076,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.65625</v>
+        <v>-0.61458333333333004</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36121,7 +36121,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.78125</v>
+        <v>-0.73958333333333004</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36166,7 +36166,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.78125</v>
+        <v>-0.73958333333333004</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36211,7 +36211,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.78125</v>
+        <v>-0.73958333333333004</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36256,7 +36256,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.78125</v>
+        <v>-0.73958333333333004</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36301,7 +36301,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.78125</v>
+        <v>-0.73958333333333004</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36346,7 +36346,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-0.78125</v>
+        <v>-0.73958333333333004</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -36377,7 +36377,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">April!F40</f>
-        <v>-0.28125</v>
+        <v>-0.23958333333333001</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -36385,14 +36385,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -36417,14 +36417,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -36449,14 +36449,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36481,7 +36481,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -36497,7 +36497,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-0.78125</v>
+        <v>-0.73958333333333004</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -36508,10 +36508,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36523,10 +36523,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36540,14 +36540,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -36564,14 +36564,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -36592,14 +36592,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -36616,14 +36616,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -36640,14 +36640,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -36668,14 +36668,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -36684,13 +36684,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QRQqXIlNhc+OQAiDPNu1TK+Ynzbi1gFXP6QsGKNA/9FZcHaHcYmGZ4msAg9wXPWQ5ACbbOQ+pHM1KuUwb/ARmw==" saltValue="6kgwADYOzywLgL2Yai7cyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -36700,6 +36693,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="239" priority="9">
@@ -36872,16 +36872,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,6,1)</f>
         <v>44347</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -36892,20 +36892,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -36913,11 +36913,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -37007,7 +37007,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-0.78125</v>
+        <v>-0.73958333333333004</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37052,7 +37052,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-0.90625</v>
+        <v>-0.86458333333333004</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37097,7 +37097,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-0.90625</v>
+        <v>-0.86458333333333004</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37142,7 +37142,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.90625</v>
+        <v>-0.86458333333333004</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37187,7 +37187,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.90625</v>
+        <v>-0.86458333333333004</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37232,7 +37232,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.90625</v>
+        <v>-0.86458333333333004</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37277,7 +37277,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.90625</v>
+        <v>-0.86458333333333004</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37322,7 +37322,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.90625</v>
+        <v>-0.86458333333333004</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37367,7 +37367,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.90625</v>
+        <v>-0.86458333333333004</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37412,7 +37412,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.90625</v>
+        <v>-0.86458333333333004</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37457,7 +37457,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.90625</v>
+        <v>-0.86458333333333004</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37502,7 +37502,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.90625</v>
+        <v>-0.86458333333333004</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37547,7 +37547,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.90625</v>
+        <v>-0.86458333333333004</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37592,7 +37592,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.90625</v>
+        <v>-0.86458333333333004</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37637,7 +37637,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.90625</v>
+        <v>-0.86458333333333004</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37682,7 +37682,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.03125</v>
+        <v>-0.98958333333333004</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37727,7 +37727,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.03125</v>
+        <v>-0.98958333333333004</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37772,7 +37772,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.03125</v>
+        <v>-0.98958333333333004</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37817,7 +37817,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.03125</v>
+        <v>-0.98958333333333004</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37862,7 +37862,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.03125</v>
+        <v>-0.98958333333333004</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37907,7 +37907,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.03125</v>
+        <v>-0.98958333333333004</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37952,7 +37952,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.03125</v>
+        <v>-0.98958333333333004</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37997,7 +37997,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-1.1145833333333299</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38042,7 +38042,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-1.1145833333333299</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38087,7 +38087,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-1.1145833333333299</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38132,7 +38132,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-1.1145833333333299</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38177,7 +38177,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-1.1145833333333299</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38222,7 +38222,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-1.1145833333333299</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38267,7 +38267,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-1.1145833333333299</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38312,7 +38312,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38388,7 +38388,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Mai!F40</f>
-        <v>-0.78125</v>
+        <v>-0.73958333333333004</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -38396,14 +38396,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -38428,14 +38428,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -38460,14 +38460,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38492,7 +38492,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -38508,7 +38508,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -38519,10 +38519,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38534,10 +38534,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38551,14 +38551,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -38575,14 +38575,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -38603,14 +38603,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -38627,14 +38627,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -38651,14 +38651,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -38679,14 +38679,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -38695,13 +38695,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="fhTrPY6THDrD8+4Vt5qeYzFzpiAhzJFQvbKEJqo2+Ga2thRbk9rIndDcaxDkbPVaB0fvdXFGbxdyHG/oskG6VA==" saltValue="kL7dVike1ELP/RmEdcYUoA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -38711,6 +38704,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="223" priority="9">
@@ -38883,16 +38883,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,7,1)</f>
         <v>44377</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 23</v>
@@ -38903,20 +38903,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -38924,11 +38924,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -39018,7 +39018,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39063,7 +39063,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39108,7 +39108,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39153,7 +39153,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39198,7 +39198,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39243,7 +39243,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39288,7 +39288,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39333,7 +39333,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39378,7 +39378,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39423,7 +39423,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39468,7 +39468,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39513,7 +39513,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39558,7 +39558,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39603,7 +39603,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39648,7 +39648,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39693,7 +39693,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39738,7 +39738,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39783,7 +39783,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39828,7 +39828,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39873,7 +39873,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39918,7 +39918,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39963,7 +39963,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40008,7 +40008,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40053,7 +40053,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40098,7 +40098,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40143,7 +40143,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40188,7 +40188,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40233,7 +40233,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40278,7 +40278,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40323,7 +40323,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40368,7 +40368,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -40399,7 +40399,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juni!F40</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -40407,14 +40407,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -40439,14 +40439,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -40471,14 +40471,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40503,7 +40503,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -40519,7 +40519,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.28125</v>
+        <v>-1.2395833333333299</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -40530,10 +40530,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40545,10 +40545,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40562,14 +40562,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -40586,14 +40586,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -40614,14 +40614,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -40638,14 +40638,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -40662,14 +40662,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -40690,14 +40690,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -40706,13 +40706,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="5JrgeHwuAVIPtwH1U07o0PqVK6YXu2rFbc1AuNL2akSFcmRQ/M9+mvVLNApYMuEj6Qoj/yZecDy4C6fld700HA==" saltValue="SzMXRk1wWUdzBCExZHeB2g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -40722,6 +40715,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="207" priority="9">

--- a/Arbeitszeit.xlsx
+++ b/Arbeitszeit.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Philipp\Studium\Molecular-Test-Time-Adaptation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5A9B38-8478-45A0-AFD7-7490ADCBDA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910145E1-625A-4398-A99E-AC3D2C3802E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="HCoKw4gRij0gV6dkJfNeqDY8SK+w2PMaLYVl2wyqiuSEdbwXoxG0BpbDJ/qeWfNHoSNSKsH2JW6N7mRDHC8t+w==" workbookSaltValue="AxSev/HzJnlnx2x5wdOaWw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="9420" tabRatio="933" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9420" tabRatio="933" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voreinstellungen" sheetId="1" r:id="rId1"/>
@@ -8593,7 +8593,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8638,7 +8638,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8683,7 +8683,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8728,7 +8728,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8773,7 +8773,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8818,7 +8818,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8863,7 +8863,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8908,7 +8908,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8953,7 +8953,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8998,7 +8998,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9043,7 +9043,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9088,7 +9088,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9133,7 +9133,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9178,7 +9178,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9223,7 +9223,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9268,7 +9268,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9313,7 +9313,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9358,7 +9358,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9403,7 +9403,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9448,7 +9448,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9493,7 +9493,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9538,7 +9538,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9583,7 +9583,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9628,7 +9628,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9673,7 +9673,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9718,7 +9718,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9763,7 +9763,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9808,7 +9808,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9853,7 +9853,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9898,7 +9898,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9943,7 +9943,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -9974,7 +9974,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juli!F40</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -10604,7 +10604,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10649,7 +10649,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10694,7 +10694,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10739,7 +10739,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10784,7 +10784,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10829,7 +10829,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10874,7 +10874,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10919,7 +10919,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10964,7 +10964,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11009,7 +11009,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11054,7 +11054,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11099,7 +11099,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11144,7 +11144,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11189,7 +11189,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11234,7 +11234,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11279,7 +11279,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11324,7 +11324,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11369,7 +11369,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11414,7 +11414,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11459,7 +11459,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11504,7 +11504,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11549,7 +11549,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11594,7 +11594,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11639,7 +11639,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11684,7 +11684,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11729,7 +11729,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11774,7 +11774,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11819,7 +11819,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11864,7 +11864,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11909,7 +11909,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">August!F40</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -12615,7 +12615,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12660,7 +12660,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12705,7 +12705,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12750,7 +12750,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12795,7 +12795,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12840,7 +12840,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12885,7 +12885,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12930,7 +12930,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12975,7 +12975,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13020,7 +13020,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13065,7 +13065,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13110,7 +13110,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13155,7 +13155,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13200,7 +13200,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13245,7 +13245,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13290,7 +13290,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13335,7 +13335,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13380,7 +13380,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13425,7 +13425,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13470,7 +13470,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13515,7 +13515,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13560,7 +13560,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13605,7 +13605,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13650,7 +13650,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13695,7 +13695,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13740,7 +13740,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13785,7 +13785,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13830,7 +13830,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13875,7 +13875,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13920,7 +13920,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13965,7 +13965,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">September!F40</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -14116,7 +14116,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -14626,7 +14626,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14671,7 +14671,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14716,7 +14716,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14761,7 +14761,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14806,7 +14806,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14851,7 +14851,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14896,7 +14896,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14941,7 +14941,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14986,7 +14986,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15031,7 +15031,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15076,7 +15076,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15121,7 +15121,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15166,7 +15166,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15211,7 +15211,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15256,7 +15256,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15301,7 +15301,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15346,7 +15346,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15391,7 +15391,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15436,7 +15436,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15481,7 +15481,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15526,7 +15526,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15571,7 +15571,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15616,7 +15616,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15661,7 +15661,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15706,7 +15706,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15751,7 +15751,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15796,7 +15796,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15841,7 +15841,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15886,7 +15886,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15931,7 +15931,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16007,7 +16007,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Oktober!F40</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -16637,7 +16637,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16682,7 +16682,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16727,7 +16727,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16772,7 +16772,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16817,7 +16817,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16862,7 +16862,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16907,7 +16907,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16952,7 +16952,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16997,7 +16997,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17042,7 +17042,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17087,7 +17087,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17132,7 +17132,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17177,7 +17177,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17222,7 +17222,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17267,7 +17267,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17312,7 +17312,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17357,7 +17357,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17402,7 +17402,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17447,7 +17447,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17492,7 +17492,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17537,7 +17537,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17582,7 +17582,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17627,7 +17627,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17672,7 +17672,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17717,7 +17717,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17762,7 +17762,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17807,7 +17807,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17852,7 +17852,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17897,7 +17897,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17942,7 +17942,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17987,7 +17987,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">November!F40</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -18138,7 +18138,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -18726,9 +18726,9 @@
         <f>April!A4</f>
         <v>44286</v>
       </c>
-      <c r="L4" s="133" t="str">
+      <c r="L4" s="133">
         <f>IF(April!K4&gt;0,April!K4,"")</f>
-        <v/>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="M4" s="120" t="str">
         <f>IF(OR(April!C4="",April!J4&lt;&gt;""),UPPER(April!J4),"F")</f>
@@ -23276,7 +23276,7 @@
       </c>
       <c r="I34" s="135">
         <f>IF(März!K34&gt;0,März!K34,"")</f>
-        <v>0.13541666666666663</v>
+        <v>0.17708333333333326</v>
       </c>
       <c r="J34" s="131" t="str">
         <f>IF(OR(März!C34="",März!J34&lt;&gt;""),UPPER(März!J34),"F")</f>
@@ -23493,13 +23493,13 @@
       <c r="G36" s="264"/>
       <c r="H36" s="414">
         <f>März!F38</f>
-        <v>0.76041666666666674</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="I36" s="414"/>
       <c r="J36" s="265"/>
       <c r="K36" s="413">
         <f>April!F38</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="L36" s="413"/>
       <c r="M36" s="264"/>
@@ -23553,7 +23553,7 @@
       <c r="AK36" s="264"/>
       <c r="AL36" s="266">
         <f t="shared" si="0"/>
-        <v>0.76041666666666674</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -23574,13 +23574,13 @@
       <c r="G37" s="82"/>
       <c r="H37" s="409">
         <f ca="1">ROUND(H36-H35,10)</f>
-        <v>0.13541666669999999</v>
+        <v>0.17708333330000001</v>
       </c>
       <c r="I37" s="409"/>
       <c r="J37" s="83"/>
       <c r="K37" s="408">
         <f ca="1">ROUND(K36-K35,10)</f>
-        <v>-0.375</v>
+        <v>-0.33333333329999998</v>
       </c>
       <c r="L37" s="408"/>
       <c r="M37" s="82"/>
@@ -23634,7 +23634,7 @@
       <c r="AK37" s="82"/>
       <c r="AL37" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2395833333000001</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
@@ -23661,7 +23661,7 @@
       <c r="J38" s="410"/>
       <c r="K38" s="410">
         <f>April!J40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="410"/>
       <c r="M38" s="410"/>
@@ -23715,7 +23715,7 @@
       <c r="AK38" s="410"/>
       <c r="AL38" s="343">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -26070,7 +26070,7 @@
       <c r="D2" s="92"/>
       <c r="E2" s="93">
         <f>Jahresübersicht!AL38</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -30772,7 +30772,7 @@
   </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
@@ -32293,7 +32293,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="E34" s="327">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="F34" s="327"/>
       <c r="G34" s="327"/>
@@ -32305,7 +32305,7 @@
       <c r="J34" s="308"/>
       <c r="K34" s="321">
         <f t="shared" si="7"/>
-        <v>0.13541666666666663</v>
+        <v>0.17708333333333326</v>
       </c>
       <c r="L34" s="322">
         <f t="shared" ca="1" si="3"/>
@@ -32313,7 +32313,7 @@
       </c>
       <c r="M34" s="309">
         <f ca="1">IF(A34="",0,ROUND(K34-L34,14))</f>
-        <v>1.041666666667E-2</v>
+        <v>5.2083333333329998E-2</v>
       </c>
       <c r="N34" s="361">
         <f t="shared" ca="1" si="5"/>
@@ -32324,7 +32324,7 @@
       </c>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>0.13541666666668001</v>
+        <v>0.17708333333334</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -32419,7 +32419,7 @@
       </c>
       <c r="F38" s="171">
         <f>SUM(K4:K34)</f>
-        <v>0.76041666666666674</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="G38" s="53"/>
       <c r="I38" s="68"/>
@@ -32475,7 +32475,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>0.13541666666666999</v>
+        <v>0.17708333333333001</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -32825,10 +32825,10 @@
   </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -32956,8 +32956,12 @@
         <f t="shared" ref="C4:C31" si="1">IF(ISERROR(VLOOKUP(B4,Feiertage,2,FALSE)),"",(VLOOKUP(B4,Feiertage,2,FALSE)))</f>
         <v/>
       </c>
-      <c r="D4" s="323"/>
-      <c r="E4" s="323"/>
+      <c r="D4" s="323">
+        <v>0.4375</v>
+      </c>
+      <c r="E4" s="323">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="F4" s="323"/>
       <c r="G4" s="323"/>
       <c r="H4" s="324"/>
@@ -32968,7 +32972,7 @@
       <c r="J4" s="299"/>
       <c r="K4" s="317">
         <f>IF(A4="",0,IF(IF(D4&lt;E4,E4-D4,IF(E4="",0,E4-D4+1))+IF(F4&lt;G4,G4-F4,IF(G4="",0,G4-F4+1))-H4&gt;0,IF(D4&lt;E4,E4-D4,IF(E4="",0,E4-D4+1))+IF(F4&lt;G4,G4-F4,IF(G4="",0,G4-F4+1))-H4,0))</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="L4" s="318">
         <f t="shared" ref="L4:L34" ca="1" si="3">IF(AND(C4&lt;&gt;"",J4=""),IF(ISERROR(VLOOKUP(B4,Feiertage,2,FALSE)),0,VLOOKUP(B4,Feiertage,3,FALSE)*N4),IF(A4="",0,IF(J4&lt;&gt;"",IF(UPPER(J4)=VLOOKUP(UPPER(J4),Code,1,FALSE),IF(OR(VLOOKUP(J4,Code,2,FALSE)="NONE",VLOOKUP(J4,Code,2,FALSE)="XTRA",VLOOKUP(J4,Code,2,FALSE)="REST"),K4,IF(ISERROR(VLOOKUP(B4,Feiertage,2,FALSE)),VLOOKUP(J4,Code,2,FALSE)*N4,IF(VLOOKUP(B4,Feiertage,3,FALSE)=0.5,IF(OR(UPPER(J4)="G",UPPER(J4)="H"),VLOOKUP(B4,Feiertage,3,FALSE)*VLOOKUP(J4,Code,2,FALSE)*N4,0),VLOOKUP(B4,Feiertage,3,FALSE)*VLOOKUP(J4,Code,2,FALSE)*N4))),N4),N4)))</f>
@@ -32976,7 +32980,7 @@
       </c>
       <c r="M4" s="300">
         <f t="shared" ref="M4:M33" ca="1" si="4">IF(A4="",0,ROUND(K4-L4,14))</f>
-        <v>0</v>
+        <v>4.1666666666670002E-2</v>
       </c>
       <c r="N4" s="359">
         <f t="shared" ref="N4:N34" ca="1" si="5">IF(A4="",0,INDIRECT(ADDRESS(MATCH(A4,SOLL_AZ_Ab,1)+11,WEEKDAY(A4,2)+3,,,"Voreinstellungen"),TRUE))</f>
@@ -32985,7 +32989,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>0.13541666666666999</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33030,7 +33034,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>0.13541666666666999</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33075,7 +33079,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>0.13541666666666999</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33120,7 +33124,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>0.13541666666666999</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33165,7 +33169,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>0.13541666666666999</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33210,7 +33214,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>0.13541666666666999</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33255,7 +33259,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.041666666667E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33300,7 +33304,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.041666666667E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33345,7 +33349,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.041666666667E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33390,7 +33394,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.041666666667E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33435,7 +33439,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.041666666667E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33480,7 +33484,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.041666666667E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33525,7 +33529,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.041666666667E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33570,7 +33574,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.11458333333333</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33615,7 +33619,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.11458333333333</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33660,7 +33664,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.11458333333333</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33705,7 +33709,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.11458333333333</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33750,7 +33754,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.11458333333333</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33795,7 +33799,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.11458333333333</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33840,7 +33844,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.11458333333333</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33885,7 +33889,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.11458333333333</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33930,7 +33934,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.11458333333333</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33975,7 +33979,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.11458333333333</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34020,7 +34024,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.11458333333333</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34065,7 +34069,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.11458333333333</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34110,7 +34114,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.11458333333333</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34155,7 +34159,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.11458333333333</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34200,7 +34204,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.23958333333333001</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34245,7 +34249,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.23958333333333001</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34290,7 +34294,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.23958333333333001</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34366,7 +34370,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">März!F40</f>
-        <v>0.13541666666666999</v>
+        <v>0.17708333333333001</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -34430,7 +34434,7 @@
       </c>
       <c r="F38" s="171">
         <f>SUM(K4:K34)</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="G38" s="53"/>
       <c r="I38" s="68"/>
@@ -34486,13 +34490,13 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-0.23958333333333001</v>
+        <v>-0.15625</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
       <c r="J40" s="210">
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="380" t="s">
         <v>91</v>
@@ -34996,7 +35000,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-0.23958333333333001</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35041,7 +35045,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-0.23958333333333001</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35086,7 +35090,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-0.23958333333333001</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35131,7 +35135,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.23958333333333001</v>
+        <v>-0.15625</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35176,7 +35180,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.36458333333332998</v>
+        <v>-0.28125</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35221,7 +35225,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.36458333333332998</v>
+        <v>-0.28125</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35266,7 +35270,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.36458333333332998</v>
+        <v>-0.28125</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35311,7 +35315,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.36458333333332998</v>
+        <v>-0.28125</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35356,7 +35360,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.36458333333332998</v>
+        <v>-0.28125</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35401,7 +35405,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.36458333333332998</v>
+        <v>-0.28125</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35446,7 +35450,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.36458333333332998</v>
+        <v>-0.28125</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35491,7 +35495,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.48958333333332998</v>
+        <v>-0.40625</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35536,7 +35540,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.48958333333332998</v>
+        <v>-0.40625</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35581,7 +35585,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.48958333333332998</v>
+        <v>-0.40625</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35626,7 +35630,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.48958333333332998</v>
+        <v>-0.40625</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35671,7 +35675,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.48958333333332998</v>
+        <v>-0.40625</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35716,7 +35720,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.48958333333332998</v>
+        <v>-0.40625</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35761,7 +35765,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.48958333333332998</v>
+        <v>-0.40625</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35806,7 +35810,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.61458333333333004</v>
+        <v>-0.53125</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35851,7 +35855,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.61458333333333004</v>
+        <v>-0.53125</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35896,7 +35900,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.61458333333333004</v>
+        <v>-0.53125</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35941,7 +35945,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.61458333333333004</v>
+        <v>-0.53125</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35986,7 +35990,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.61458333333333004</v>
+        <v>-0.53125</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36031,7 +36035,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.61458333333333004</v>
+        <v>-0.53125</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36076,7 +36080,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.61458333333333004</v>
+        <v>-0.53125</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36121,7 +36125,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.73958333333333004</v>
+        <v>-0.65625</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36166,7 +36170,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.73958333333333004</v>
+        <v>-0.65625</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36211,7 +36215,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.73958333333333004</v>
+        <v>-0.65625</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36256,7 +36260,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.73958333333333004</v>
+        <v>-0.65625</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36301,7 +36305,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.73958333333333004</v>
+        <v>-0.65625</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36346,7 +36350,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-0.73958333333333004</v>
+        <v>-0.65625</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -36377,7 +36381,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">April!F40</f>
-        <v>-0.23958333333333001</v>
+        <v>-0.15625</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -36497,7 +36501,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-0.73958333333333004</v>
+        <v>-0.65625</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -37007,7 +37011,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-0.73958333333333004</v>
+        <v>-0.65625</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37052,7 +37056,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-0.86458333333333004</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37097,7 +37101,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-0.86458333333333004</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37142,7 +37146,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.86458333333333004</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37187,7 +37191,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.86458333333333004</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37232,7 +37236,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.86458333333333004</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37277,7 +37281,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.86458333333333004</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37322,7 +37326,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.86458333333333004</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37367,7 +37371,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.86458333333333004</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37412,7 +37416,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.86458333333333004</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37457,7 +37461,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.86458333333333004</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37502,7 +37506,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.86458333333333004</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37547,7 +37551,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.86458333333333004</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37592,7 +37596,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.86458333333333004</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37637,7 +37641,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.86458333333333004</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37682,7 +37686,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.98958333333333004</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37727,7 +37731,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.98958333333333004</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37772,7 +37776,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.98958333333333004</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37817,7 +37821,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.98958333333333004</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37862,7 +37866,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.98958333333333004</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37907,7 +37911,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.98958333333333004</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37952,7 +37956,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.98958333333333004</v>
+        <v>-0.90625</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37997,7 +38001,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1145833333333299</v>
+        <v>-1.03125</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38042,7 +38046,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1145833333333299</v>
+        <v>-1.03125</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38087,7 +38091,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1145833333333299</v>
+        <v>-1.03125</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38132,7 +38136,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1145833333333299</v>
+        <v>-1.03125</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38177,7 +38181,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1145833333333299</v>
+        <v>-1.03125</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38222,7 +38226,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1145833333333299</v>
+        <v>-1.03125</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38267,7 +38271,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1145833333333299</v>
+        <v>-1.03125</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38312,7 +38316,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38388,7 +38392,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Mai!F40</f>
-        <v>-0.73958333333333004</v>
+        <v>-0.65625</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -38508,7 +38512,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -39018,7 +39022,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39063,7 +39067,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39108,7 +39112,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39153,7 +39157,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39198,7 +39202,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39243,7 +39247,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39288,7 +39292,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39333,7 +39337,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39378,7 +39382,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39423,7 +39427,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39468,7 +39472,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39513,7 +39517,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39558,7 +39562,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39603,7 +39607,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39648,7 +39652,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39693,7 +39697,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39738,7 +39742,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39783,7 +39787,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39828,7 +39832,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39873,7 +39877,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39918,7 +39922,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39963,7 +39967,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40008,7 +40012,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40053,7 +40057,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40098,7 +40102,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40143,7 +40147,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40188,7 +40192,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40233,7 +40237,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40278,7 +40282,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40323,7 +40327,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40368,7 +40372,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -40399,7 +40403,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juni!F40</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -40519,7 +40523,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.2395833333333299</v>
+        <v>-1.15625</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>

--- a/Arbeitszeit.xlsx
+++ b/Arbeitszeit.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Philipp\Studium\Molecular-Test-Time-Adaptation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910145E1-625A-4398-A99E-AC3D2C3802E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741F7480-CAA7-4847-8302-A4CB63847526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="HCoKw4gRij0gV6dkJfNeqDY8SK+w2PMaLYVl2wyqiuSEdbwXoxG0BpbDJ/qeWfNHoSNSKsH2JW6N7mRDHC8t+w==" workbookSaltValue="AxSev/HzJnlnx2x5wdOaWw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9420" tabRatio="933" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="933" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voreinstellungen" sheetId="1" r:id="rId1"/>
@@ -7880,7 +7880,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
@@ -8079,14 +8079,14 @@
         <v>19</v>
       </c>
       <c r="B13" s="143">
-        <v>44255</v>
+        <v>44376</v>
       </c>
       <c r="C13" s="15">
         <f>IF(B13="","",SUM(D13:J13))</f>
-        <v>0.125</v>
+        <v>3.125</v>
       </c>
       <c r="D13" s="155">
-        <v>0.125</v>
+        <v>3.125</v>
       </c>
       <c r="E13" s="156">
         <v>0</v>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="273">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -8387,7 +8387,7 @@
       <c r="B38" s="23"/>
       <c r="C38" s="275">
         <f>SUM(C36:C37)-Jahresübersicht!AL43</f>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -8593,7 +8593,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8638,7 +8638,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8683,7 +8683,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8728,7 +8728,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8773,7 +8773,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8818,7 +8818,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8863,7 +8863,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8908,7 +8908,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8953,7 +8953,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8998,7 +8998,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9043,7 +9043,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9088,7 +9088,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9133,7 +9133,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9178,7 +9178,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9223,7 +9223,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9268,7 +9268,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9313,7 +9313,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9358,7 +9358,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9403,7 +9403,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9448,7 +9448,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9493,7 +9493,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9538,7 +9538,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9583,7 +9583,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9628,7 +9628,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9673,7 +9673,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9718,7 +9718,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9763,7 +9763,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9808,7 +9808,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9853,7 +9853,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9898,7 +9898,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9943,7 +9943,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -9974,7 +9974,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juli!F40</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -10016,7 +10016,7 @@
       </c>
       <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
-        <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
+        <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
       <c r="L37" s="392"/>
       <c r="M37" s="392"/>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -10604,7 +10604,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10649,7 +10649,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10694,7 +10694,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10739,7 +10739,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10784,7 +10784,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10829,7 +10829,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10874,7 +10874,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10919,7 +10919,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10964,7 +10964,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11009,7 +11009,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11054,7 +11054,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11099,7 +11099,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11144,7 +11144,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11189,7 +11189,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11234,7 +11234,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11279,7 +11279,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11324,7 +11324,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11369,7 +11369,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11414,7 +11414,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11459,7 +11459,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11504,7 +11504,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11549,7 +11549,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11594,7 +11594,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11639,7 +11639,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11684,7 +11684,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11729,7 +11729,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11774,7 +11774,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11819,7 +11819,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11864,7 +11864,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11909,7 +11909,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">August!F40</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -12027,7 +12027,7 @@
       </c>
       <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
-        <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
+        <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
       <c r="L37" s="392"/>
       <c r="M37" s="392"/>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -12615,7 +12615,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12660,7 +12660,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12705,7 +12705,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12750,7 +12750,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12795,7 +12795,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12840,7 +12840,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12885,7 +12885,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12930,7 +12930,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12975,7 +12975,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13020,7 +13020,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13065,7 +13065,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13110,7 +13110,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13155,7 +13155,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13200,7 +13200,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13245,7 +13245,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13290,7 +13290,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13335,7 +13335,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13380,7 +13380,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13425,7 +13425,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13470,7 +13470,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13515,7 +13515,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13560,7 +13560,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13605,7 +13605,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13650,7 +13650,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13695,7 +13695,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13740,7 +13740,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13785,7 +13785,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13830,7 +13830,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13875,7 +13875,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13920,7 +13920,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13965,7 +13965,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">September!F40</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -14038,7 +14038,7 @@
       </c>
       <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
-        <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
+        <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
       <c r="L37" s="392"/>
       <c r="M37" s="392"/>
@@ -14116,7 +14116,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -14626,7 +14626,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14671,7 +14671,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14716,7 +14716,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14761,7 +14761,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14806,7 +14806,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14851,7 +14851,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14896,7 +14896,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14941,7 +14941,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14986,7 +14986,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15031,7 +15031,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15076,7 +15076,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15121,7 +15121,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15166,7 +15166,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15211,7 +15211,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15256,7 +15256,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15301,7 +15301,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15346,7 +15346,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15391,7 +15391,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15436,7 +15436,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15481,7 +15481,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15526,7 +15526,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15571,7 +15571,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15616,7 +15616,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15661,7 +15661,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15706,7 +15706,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15751,7 +15751,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15796,7 +15796,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15841,7 +15841,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15886,7 +15886,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15931,7 +15931,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16007,7 +16007,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Oktober!F40</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -16049,7 +16049,7 @@
       </c>
       <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
-        <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
+        <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
       <c r="L37" s="392"/>
       <c r="M37" s="392"/>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -16637,7 +16637,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16682,7 +16682,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16727,7 +16727,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16772,7 +16772,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16817,7 +16817,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16862,7 +16862,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16907,7 +16907,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16952,7 +16952,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16997,7 +16997,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17042,7 +17042,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17087,7 +17087,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17132,7 +17132,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17177,7 +17177,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17222,7 +17222,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17267,7 +17267,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17312,7 +17312,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17357,7 +17357,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17402,7 +17402,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17447,7 +17447,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17492,7 +17492,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17537,7 +17537,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17582,7 +17582,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17627,7 +17627,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17672,7 +17672,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17717,7 +17717,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17762,7 +17762,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17807,7 +17807,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17852,7 +17852,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17897,7 +17897,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17942,7 +17942,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17987,7 +17987,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">November!F40</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
-        <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
+        <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
       <c r="L37" s="392"/>
       <c r="M37" s="392"/>
@@ -18138,7 +18138,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -18728,7 +18728,7 @@
       </c>
       <c r="L4" s="133">
         <f>IF(April!K4&gt;0,April!K4,"")</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0.19791666666666663</v>
       </c>
       <c r="M4" s="120" t="str">
         <f>IF(OR(April!C4="",April!J4&lt;&gt;""),UPPER(April!J4),"F")</f>
@@ -23412,25 +23412,25 @@
       <c r="G35" s="260"/>
       <c r="H35" s="412">
         <f ca="1">März!F37</f>
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I35" s="412"/>
       <c r="J35" s="261"/>
       <c r="K35" s="411">
         <f ca="1">April!F37</f>
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="L35" s="411"/>
       <c r="M35" s="260"/>
       <c r="N35" s="412">
         <f ca="1">Mai!F37</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O35" s="412"/>
       <c r="P35" s="261"/>
       <c r="Q35" s="411">
         <f ca="1">Juni!F37</f>
-        <v>0.5</v>
+        <v>3.125</v>
       </c>
       <c r="R35" s="411"/>
       <c r="S35" s="260"/>
@@ -23472,7 +23472,7 @@
       <c r="AK35" s="260"/>
       <c r="AL35" s="262">
         <f t="shared" ref="AL35:AL50" ca="1" si="0">SUM(B35:AK35)</f>
-        <v>2</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="36" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -23499,7 +23499,7 @@
       <c r="J36" s="265"/>
       <c r="K36" s="413">
         <f>April!F38</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0.19791666666666663</v>
       </c>
       <c r="L36" s="413"/>
       <c r="M36" s="264"/>
@@ -23553,7 +23553,7 @@
       <c r="AK36" s="264"/>
       <c r="AL36" s="266">
         <f t="shared" si="0"/>
-        <v>0.84375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -23574,25 +23574,25 @@
       <c r="G37" s="82"/>
       <c r="H37" s="409">
         <f ca="1">ROUND(H36-H35,10)</f>
-        <v>0.17708333330000001</v>
+        <v>0.80208333330000003</v>
       </c>
       <c r="I37" s="409"/>
       <c r="J37" s="83"/>
       <c r="K37" s="408">
         <f ca="1">ROUND(K36-K35,10)</f>
-        <v>-0.33333333329999998</v>
+        <v>0.19791666669999999</v>
       </c>
       <c r="L37" s="408"/>
       <c r="M37" s="82"/>
       <c r="N37" s="409">
         <f ca="1">ROUND(N36-N35,10)</f>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="O37" s="409"/>
       <c r="P37" s="83"/>
       <c r="Q37" s="408">
         <f ca="1">ROUND(Q36-Q35,10)</f>
-        <v>-0.5</v>
+        <v>-3.125</v>
       </c>
       <c r="R37" s="408"/>
       <c r="S37" s="82"/>
@@ -23634,7 +23634,7 @@
       <c r="AK37" s="82"/>
       <c r="AL37" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
@@ -28333,7 +28333,7 @@
       </c>
       <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
-        <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
+        <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
       <c r="L37" s="392"/>
       <c r="M37" s="392"/>
@@ -30344,7 +30344,7 @@
       </c>
       <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
-        <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
+        <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
       <c r="L37" s="392"/>
       <c r="M37" s="392"/>
@@ -30773,7 +30773,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
@@ -31009,20 +31009,20 @@
       </c>
       <c r="L6" s="320">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M6" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="N6" s="360">
         <f t="shared" ca="1" si="5"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31067,7 +31067,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31112,7 +31112,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31157,7 +31157,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31202,7 +31202,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31247,7 +31247,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31292,7 +31292,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31324,20 +31324,20 @@
       </c>
       <c r="L13" s="320">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M13" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="N13" s="360">
         <f t="shared" ca="1" si="5"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31382,7 +31382,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31427,7 +31427,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31472,7 +31472,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31517,7 +31517,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31562,7 +31562,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31607,7 +31607,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31643,22 +31643,22 @@
       </c>
       <c r="L20" s="320">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M20" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.0833333333330002E-2</v>
+        <v>0.10416666666667</v>
       </c>
       <c r="N20" s="360">
         <f t="shared" ca="1" si="5"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O20" s="165" t="s">
         <v>142</v>
       </c>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.27083333333332998</v>
+        <v>0.10416666666667</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31709,7 +31709,7 @@
       </c>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.20833333333333001</v>
+        <v>0.16666666666666999</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31754,7 +31754,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.20833333333333001</v>
+        <v>0.16666666666666999</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31799,7 +31799,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.20833333333333001</v>
+        <v>0.16666666666666999</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31844,7 +31844,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.20833333333333001</v>
+        <v>0.16666666666666999</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31889,7 +31889,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.20833333333333001</v>
+        <v>0.16666666666666999</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31940,7 +31940,7 @@
       </c>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.16666666666666</v>
+        <v>0.20833333333334</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31976,22 +31976,22 @@
       </c>
       <c r="L27" s="320">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M27" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.0833333333330002E-2</v>
+        <v>0.10416666666667</v>
       </c>
       <c r="N27" s="360">
         <f t="shared" ca="1" si="5"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O27" s="165" t="s">
         <v>143</v>
       </c>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.18749999999999001</v>
+        <v>0.31250000000000999</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -32036,7 +32036,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.18749999999999001</v>
+        <v>0.31250000000000999</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -32081,7 +32081,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.18749999999999001</v>
+        <v>0.31250000000000999</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -32126,7 +32126,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.18749999999999001</v>
+        <v>0.31250000000000999</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -32171,7 +32171,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.18749999999999001</v>
+        <v>0.31250000000000999</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -32222,7 +32222,7 @@
       </c>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.3749999999989994E-2</v>
+        <v>0.40625000000000999</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -32273,7 +32273,7 @@
       </c>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>0.12500000000000999</v>
+        <v>0.62500000000000999</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -32309,22 +32309,22 @@
       </c>
       <c r="L34" s="322">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M34" s="309">
         <f ca="1">IF(A34="",0,ROUND(K34-L34,14))</f>
-        <v>5.2083333333329998E-2</v>
+        <v>0.17708333333333001</v>
       </c>
       <c r="N34" s="361">
         <f t="shared" ca="1" si="5"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O34" s="310" t="s">
         <v>144</v>
       </c>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>0.17708333333334</v>
+        <v>0.80208333333334003</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -32387,7 +32387,7 @@
       </c>
       <c r="F37" s="170">
         <f ca="1">SUM(L4:L34)</f>
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="G37" s="53"/>
       <c r="I37" s="68"/>
@@ -32397,7 +32397,7 @@
       </c>
       <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
-        <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
+        <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
       <c r="L37" s="392"/>
       <c r="M37" s="392"/>
@@ -32475,7 +32475,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>0.17708333333333001</v>
+        <v>0.80208333333333004</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -32828,7 +32828,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -32960,7 +32960,7 @@
         <v>0.4375</v>
       </c>
       <c r="E4" s="323">
-        <v>0.47916666666666669</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F4" s="323"/>
       <c r="G4" s="323"/>
@@ -32972,7 +32972,7 @@
       <c r="J4" s="299"/>
       <c r="K4" s="317">
         <f>IF(A4="",0,IF(IF(D4&lt;E4,E4-D4,IF(E4="",0,E4-D4+1))+IF(F4&lt;G4,G4-F4,IF(G4="",0,G4-F4+1))-H4&gt;0,IF(D4&lt;E4,E4-D4,IF(E4="",0,E4-D4+1))+IF(F4&lt;G4,G4-F4,IF(G4="",0,G4-F4+1))-H4,0))</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0.19791666666666663</v>
       </c>
       <c r="L4" s="318">
         <f t="shared" ref="L4:L34" ca="1" si="3">IF(AND(C4&lt;&gt;"",J4=""),IF(ISERROR(VLOOKUP(B4,Feiertage,2,FALSE)),0,VLOOKUP(B4,Feiertage,3,FALSE)*N4),IF(A4="",0,IF(J4&lt;&gt;"",IF(UPPER(J4)=VLOOKUP(UPPER(J4),Code,1,FALSE),IF(OR(VLOOKUP(J4,Code,2,FALSE)="NONE",VLOOKUP(J4,Code,2,FALSE)="XTRA",VLOOKUP(J4,Code,2,FALSE)="REST"),K4,IF(ISERROR(VLOOKUP(B4,Feiertage,2,FALSE)),VLOOKUP(J4,Code,2,FALSE)*N4,IF(VLOOKUP(B4,Feiertage,3,FALSE)=0.5,IF(OR(UPPER(J4)="G",UPPER(J4)="H"),VLOOKUP(B4,Feiertage,3,FALSE)*VLOOKUP(J4,Code,2,FALSE)*N4,0),VLOOKUP(B4,Feiertage,3,FALSE)*VLOOKUP(J4,Code,2,FALSE)*N4))),N4),N4)))</f>
@@ -32980,7 +32980,7 @@
       </c>
       <c r="M4" s="300">
         <f t="shared" ref="M4:M33" ca="1" si="4">IF(A4="",0,ROUND(K4-L4,14))</f>
-        <v>4.1666666666670002E-2</v>
+        <v>0.19791666666666999</v>
       </c>
       <c r="N4" s="359">
         <f t="shared" ref="N4:N34" ca="1" si="5">IF(A4="",0,INDIRECT(ADDRESS(MATCH(A4,SOLL_AZ_Ab,1)+11,WEEKDAY(A4,2)+3,,,"Voreinstellungen"),TRUE))</f>
@@ -32989,7 +32989,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>0.21875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33034,7 +33034,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>0.21875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33079,7 +33079,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>0.21875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33124,7 +33124,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>0.21875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33169,7 +33169,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>0.21875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33214,7 +33214,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>0.21875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33246,20 +33246,20 @@
       </c>
       <c r="L10" s="320">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M10" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="N10" s="360">
         <f t="shared" ca="1" si="5"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>9.375E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33304,7 +33304,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>9.375E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33349,7 +33349,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>9.375E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33394,7 +33394,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>9.375E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33439,7 +33439,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>9.375E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33484,7 +33484,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>9.375E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33529,7 +33529,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>9.375E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33561,20 +33561,20 @@
       </c>
       <c r="L17" s="320">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M17" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="N17" s="360">
         <f t="shared" ca="1" si="5"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33619,7 +33619,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33664,7 +33664,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33709,7 +33709,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33754,7 +33754,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33799,7 +33799,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33844,7 +33844,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33884,12 +33884,12 @@
       </c>
       <c r="N24" s="360">
         <f t="shared" ca="1" si="5"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33934,7 +33934,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33979,7 +33979,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34024,7 +34024,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34069,7 +34069,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34114,7 +34114,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34159,7 +34159,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.125E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34191,20 +34191,20 @@
       </c>
       <c r="L31" s="320">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M31" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="N31" s="360">
         <f t="shared" ca="1" si="5"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.15625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34249,7 +34249,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.15625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34294,7 +34294,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.15625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34370,7 +34370,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">März!F40</f>
-        <v>0.17708333333333001</v>
+        <v>0.80208333333333004</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -34402,7 +34402,7 @@
       </c>
       <c r="F37" s="170">
         <f ca="1">SUM(L4:L34)</f>
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="G37" s="53"/>
       <c r="I37" s="68"/>
@@ -34412,7 +34412,7 @@
       </c>
       <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
-        <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
+        <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
       <c r="L37" s="392"/>
       <c r="M37" s="392"/>
@@ -34434,7 +34434,7 @@
       </c>
       <c r="F38" s="171">
         <f>SUM(K4:K34)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0.19791666666666663</v>
       </c>
       <c r="G38" s="53"/>
       <c r="I38" s="68"/>
@@ -34490,7 +34490,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-0.15625</v>
+        <v>1</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -35000,7 +35000,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-0.15625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35045,7 +35045,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-0.15625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35090,7 +35090,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-0.15625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35135,7 +35135,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.15625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35167,20 +35167,20 @@
       </c>
       <c r="L8" s="320">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M8" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="N8" s="360">
         <f t="shared" ca="1" si="5"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.28125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35225,7 +35225,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.28125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35270,7 +35270,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.28125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35315,7 +35315,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.28125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35360,7 +35360,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.28125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35405,7 +35405,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.28125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35450,7 +35450,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.28125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35482,20 +35482,20 @@
       </c>
       <c r="L15" s="320">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M15" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="N15" s="360">
         <f t="shared" ca="1" si="5"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.40625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35540,7 +35540,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.40625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35585,7 +35585,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.40625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35630,7 +35630,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.40625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35675,7 +35675,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.40625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35720,7 +35720,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.40625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35765,7 +35765,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.40625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35797,20 +35797,20 @@
       </c>
       <c r="L22" s="320">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M22" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="N22" s="360">
         <f t="shared" ca="1" si="5"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.53125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35855,7 +35855,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.53125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35900,7 +35900,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.53125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35945,7 +35945,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.53125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35990,7 +35990,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.53125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36035,7 +36035,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.53125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36080,7 +36080,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.53125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36112,20 +36112,20 @@
       </c>
       <c r="L29" s="320">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M29" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="N29" s="360">
         <f t="shared" ca="1" si="5"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.65625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36170,7 +36170,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.65625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36215,7 +36215,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.65625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36260,7 +36260,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.65625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36305,7 +36305,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.65625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36350,7 +36350,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-0.65625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -36381,7 +36381,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">April!F40</f>
-        <v>-0.15625</v>
+        <v>1</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -36413,7 +36413,7 @@
       </c>
       <c r="F37" s="170">
         <f ca="1">SUM(L4:L34)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G37" s="53"/>
       <c r="I37" s="68"/>
@@ -36423,7 +36423,7 @@
       </c>
       <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
-        <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
+        <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
       <c r="L37" s="392"/>
       <c r="M37" s="392"/>
@@ -36501,7 +36501,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-0.65625</v>
+        <v>1</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -37011,7 +37011,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-0.65625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37043,20 +37043,20 @@
       </c>
       <c r="L5" s="320">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M5" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="N5" s="360">
         <f t="shared" ca="1" si="5"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-0.78125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37101,7 +37101,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-0.78125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37146,7 +37146,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.78125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37191,7 +37191,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.78125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37236,7 +37236,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.78125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37281,7 +37281,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.78125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37326,7 +37326,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.78125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37366,12 +37366,12 @@
       </c>
       <c r="N12" s="360">
         <f t="shared" ca="1" si="5"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.78125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37416,7 +37416,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.78125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37461,7 +37461,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.78125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37506,7 +37506,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.78125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37551,7 +37551,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.78125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37596,7 +37596,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.78125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37641,7 +37641,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.78125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37673,20 +37673,20 @@
       </c>
       <c r="L19" s="320">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M19" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="N19" s="360">
         <f t="shared" ca="1" si="5"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.90625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37731,7 +37731,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.90625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37776,7 +37776,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.90625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37821,7 +37821,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.90625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37866,7 +37866,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.90625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37911,7 +37911,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.90625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37956,7 +37956,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.90625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37988,20 +37988,20 @@
       </c>
       <c r="L26" s="320">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M26" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="N26" s="360">
         <f t="shared" ca="1" si="5"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.03125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38046,7 +38046,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.03125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38091,7 +38091,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.03125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38136,7 +38136,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.03125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38181,7 +38181,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.03125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38226,7 +38226,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.03125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38271,7 +38271,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.03125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38303,20 +38303,20 @@
       </c>
       <c r="L33" s="320">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v>3.125</v>
       </c>
       <c r="M33" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.125</v>
+        <v>-3.125</v>
       </c>
       <c r="N33" s="360">
         <f t="shared" ca="1" si="5"/>
-        <v>0.125</v>
+        <v>3.125</v>
       </c>
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38392,7 +38392,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Mai!F40</f>
-        <v>-0.65625</v>
+        <v>1</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -38424,7 +38424,7 @@
       </c>
       <c r="F37" s="170">
         <f ca="1">SUM(L4:L34)</f>
-        <v>0.5</v>
+        <v>3.125</v>
       </c>
       <c r="G37" s="53"/>
       <c r="I37" s="68"/>
@@ -38434,7 +38434,7 @@
       </c>
       <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
-        <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
+        <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
       <c r="L37" s="392"/>
       <c r="M37" s="392"/>
@@ -38512,7 +38512,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -39022,7 +39022,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39067,7 +39067,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39112,7 +39112,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39157,7 +39157,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39202,7 +39202,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39247,7 +39247,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39292,7 +39292,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39337,7 +39337,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39382,7 +39382,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39427,7 +39427,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39472,7 +39472,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39517,7 +39517,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39562,7 +39562,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39607,7 +39607,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39652,7 +39652,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39697,7 +39697,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39742,7 +39742,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39787,7 +39787,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39832,7 +39832,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39877,7 +39877,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39922,7 +39922,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39967,7 +39967,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40012,7 +40012,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40057,7 +40057,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40102,7 +40102,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40147,7 +40147,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40192,7 +40192,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40237,7 +40237,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40282,7 +40282,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40327,7 +40327,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40372,7 +40372,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -40403,7 +40403,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juni!F40</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -40445,7 +40445,7 @@
       </c>
       <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
-        <v>Urlaub (U/UH) aktuell noch Verfügbar: 30 Tag(e)</v>
+        <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
       <c r="L37" s="392"/>
       <c r="M37" s="392"/>
@@ -40523,7 +40523,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.15625</v>
+        <v>-2.125</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>

--- a/Arbeitszeit.xlsx
+++ b/Arbeitszeit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr date1904="1" codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Philipp\Studium\Molecular-Test-Time-Adaptation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741F7480-CAA7-4847-8302-A4CB63847526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22649D9-A970-484A-A33A-D143D1DF2AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="HCoKw4gRij0gV6dkJfNeqDY8SK+w2PMaLYVl2wyqiuSEdbwXoxG0BpbDJ/qeWfNHoSNSKsH2JW6N7mRDHC8t+w==" workbookSaltValue="AxSev/HzJnlnx2x5wdOaWw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="933" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="145">
   <si>
     <t>Benutzer-Voreinstellungen</t>
   </si>
@@ -8593,7 +8593,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8638,7 +8638,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8683,7 +8683,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8728,7 +8728,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8773,7 +8773,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8818,7 +8818,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8863,7 +8863,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8908,7 +8908,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8953,7 +8953,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8998,7 +8998,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9043,7 +9043,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9088,7 +9088,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9133,7 +9133,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9178,7 +9178,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9223,7 +9223,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9268,7 +9268,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9313,7 +9313,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9358,7 +9358,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9403,7 +9403,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9448,7 +9448,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9493,7 +9493,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9538,7 +9538,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9583,7 +9583,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9628,7 +9628,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9673,7 +9673,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9718,7 +9718,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9763,7 +9763,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9808,7 +9808,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9853,7 +9853,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9898,7 +9898,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9943,7 +9943,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -9974,7 +9974,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juli!F40</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -10604,7 +10604,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10649,7 +10649,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10694,7 +10694,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10739,7 +10739,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10784,7 +10784,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10829,7 +10829,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10874,7 +10874,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10919,7 +10919,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10964,7 +10964,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11009,7 +11009,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11054,7 +11054,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11099,7 +11099,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11144,7 +11144,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11189,7 +11189,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11234,7 +11234,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11279,7 +11279,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11324,7 +11324,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11369,7 +11369,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11414,7 +11414,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11459,7 +11459,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11504,7 +11504,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11549,7 +11549,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11594,7 +11594,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11639,7 +11639,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11684,7 +11684,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11729,7 +11729,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11774,7 +11774,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11819,7 +11819,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11864,7 +11864,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11909,7 +11909,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">August!F40</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -12615,7 +12615,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12660,7 +12660,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12705,7 +12705,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12750,7 +12750,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12795,7 +12795,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12840,7 +12840,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12885,7 +12885,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12930,7 +12930,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12975,7 +12975,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13020,7 +13020,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13065,7 +13065,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13110,7 +13110,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13155,7 +13155,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13200,7 +13200,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13245,7 +13245,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13290,7 +13290,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13335,7 +13335,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13380,7 +13380,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13425,7 +13425,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13470,7 +13470,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13515,7 +13515,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13560,7 +13560,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13605,7 +13605,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13650,7 +13650,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13695,7 +13695,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13740,7 +13740,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13785,7 +13785,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13830,7 +13830,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13875,7 +13875,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13920,7 +13920,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13965,7 +13965,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">September!F40</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -14116,7 +14116,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -14626,7 +14626,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14671,7 +14671,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14716,7 +14716,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14761,7 +14761,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14806,7 +14806,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14851,7 +14851,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14896,7 +14896,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14941,7 +14941,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14986,7 +14986,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15031,7 +15031,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15076,7 +15076,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15121,7 +15121,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15166,7 +15166,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15211,7 +15211,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15256,7 +15256,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15301,7 +15301,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15346,7 +15346,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15391,7 +15391,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15436,7 +15436,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15481,7 +15481,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15526,7 +15526,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15571,7 +15571,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15616,7 +15616,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15661,7 +15661,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15706,7 +15706,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15751,7 +15751,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15796,7 +15796,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15841,7 +15841,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15886,7 +15886,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15931,7 +15931,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16007,7 +16007,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Oktober!F40</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -16637,7 +16637,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16682,7 +16682,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16727,7 +16727,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16772,7 +16772,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16817,7 +16817,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16862,7 +16862,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16907,7 +16907,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16952,7 +16952,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16997,7 +16997,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17042,7 +17042,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17087,7 +17087,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17132,7 +17132,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17177,7 +17177,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17222,7 +17222,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17267,7 +17267,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17312,7 +17312,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17357,7 +17357,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17402,7 +17402,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17447,7 +17447,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17492,7 +17492,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17537,7 +17537,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17582,7 +17582,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17627,7 +17627,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17672,7 +17672,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17717,7 +17717,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17762,7 +17762,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17807,7 +17807,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17852,7 +17852,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17897,7 +17897,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17942,7 +17942,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17987,7 +17987,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">November!F40</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -18138,7 +18138,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -18728,7 +18728,7 @@
       </c>
       <c r="L4" s="133">
         <f>IF(April!K4&gt;0,April!K4,"")</f>
-        <v>0.19791666666666663</v>
+        <v>0.20833333333333337</v>
       </c>
       <c r="M4" s="120" t="str">
         <f>IF(OR(April!C4="",April!J4&lt;&gt;""),UPPER(April!J4),"F")</f>
@@ -19942,9 +19942,9 @@
         <f>April!A12</f>
         <v>44294</v>
       </c>
-      <c r="L12" s="134" t="str">
+      <c r="L12" s="134">
         <f>IF(April!K12&gt;0,April!K12,"")</f>
-        <v/>
+        <v>7.2916666666666741E-2</v>
       </c>
       <c r="M12" s="126" t="str">
         <f>IF(OR(April!C12="",April!J12&lt;&gt;""),UPPER(April!J12),"F")</f>
@@ -23499,7 +23499,7 @@
       <c r="J36" s="265"/>
       <c r="K36" s="413">
         <f>April!F38</f>
-        <v>0.19791666666666663</v>
+        <v>0.28125000000000011</v>
       </c>
       <c r="L36" s="413"/>
       <c r="M36" s="264"/>
@@ -23553,7 +23553,7 @@
       <c r="AK36" s="264"/>
       <c r="AL36" s="266">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.0833333333333335</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -23580,7 +23580,7 @@
       <c r="J37" s="83"/>
       <c r="K37" s="408">
         <f ca="1">ROUND(K36-K35,10)</f>
-        <v>0.19791666669999999</v>
+        <v>0.28125</v>
       </c>
       <c r="L37" s="408"/>
       <c r="M37" s="82"/>
@@ -23634,7 +23634,7 @@
       <c r="AK37" s="82"/>
       <c r="AL37" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.125</v>
+        <v>-2.0416666666999999</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
@@ -23661,7 +23661,7 @@
       <c r="J38" s="410"/>
       <c r="K38" s="410">
         <f>April!J40</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" s="410"/>
       <c r="M38" s="410"/>
@@ -23715,7 +23715,7 @@
       <c r="AK38" s="410"/>
       <c r="AL38" s="343">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -26070,7 +26070,7 @@
       <c r="D2" s="92"/>
       <c r="E2" s="93">
         <f>Jahresübersicht!AL38</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -32828,7 +32828,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -32960,7 +32960,7 @@
         <v>0.4375</v>
       </c>
       <c r="E4" s="323">
-        <v>0.63541666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F4" s="323"/>
       <c r="G4" s="323"/>
@@ -32972,7 +32972,7 @@
       <c r="J4" s="299"/>
       <c r="K4" s="317">
         <f>IF(A4="",0,IF(IF(D4&lt;E4,E4-D4,IF(E4="",0,E4-D4+1))+IF(F4&lt;G4,G4-F4,IF(G4="",0,G4-F4+1))-H4&gt;0,IF(D4&lt;E4,E4-D4,IF(E4="",0,E4-D4+1))+IF(F4&lt;G4,G4-F4,IF(G4="",0,G4-F4+1))-H4,0))</f>
-        <v>0.19791666666666663</v>
+        <v>0.20833333333333337</v>
       </c>
       <c r="L4" s="318">
         <f t="shared" ref="L4:L34" ca="1" si="3">IF(AND(C4&lt;&gt;"",J4=""),IF(ISERROR(VLOOKUP(B4,Feiertage,2,FALSE)),0,VLOOKUP(B4,Feiertage,3,FALSE)*N4),IF(A4="",0,IF(J4&lt;&gt;"",IF(UPPER(J4)=VLOOKUP(UPPER(J4),Code,1,FALSE),IF(OR(VLOOKUP(J4,Code,2,FALSE)="NONE",VLOOKUP(J4,Code,2,FALSE)="XTRA",VLOOKUP(J4,Code,2,FALSE)="REST"),K4,IF(ISERROR(VLOOKUP(B4,Feiertage,2,FALSE)),VLOOKUP(J4,Code,2,FALSE)*N4,IF(VLOOKUP(B4,Feiertage,3,FALSE)=0.5,IF(OR(UPPER(J4)="G",UPPER(J4)="H"),VLOOKUP(B4,Feiertage,3,FALSE)*VLOOKUP(J4,Code,2,FALSE)*N4,0),VLOOKUP(B4,Feiertage,3,FALSE)*VLOOKUP(J4,Code,2,FALSE)*N4))),N4),N4)))</f>
@@ -32980,16 +32980,18 @@
       </c>
       <c r="M4" s="300">
         <f t="shared" ref="M4:M33" ca="1" si="4">IF(A4="",0,ROUND(K4-L4,14))</f>
-        <v>0.19791666666666999</v>
+        <v>0.20833333333333001</v>
       </c>
       <c r="N4" s="359">
         <f t="shared" ref="N4:N34" ca="1" si="5">IF(A4="",0,INDIRECT(ADDRESS(MATCH(A4,SOLL_AZ_Ab,1)+11,WEEKDAY(A4,2)+3,,,"Voreinstellungen"),TRUE))</f>
         <v>0</v>
       </c>
-      <c r="O4" s="301"/>
+      <c r="O4" s="301" t="s">
+        <v>144</v>
+      </c>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>1</v>
+        <v>1.0104166666666601</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33034,7 +33036,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>1</v>
+        <v>1.0104166666666601</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33079,7 +33081,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>1</v>
+        <v>1.0104166666666601</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33124,7 +33126,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0104166666666601</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33169,7 +33171,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0104166666666601</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33214,7 +33216,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0104166666666601</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33259,7 +33261,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0104166666666601</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33304,7 +33306,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0104166666666601</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33320,8 +33322,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D12" s="325"/>
-      <c r="E12" s="325"/>
+      <c r="D12" s="325">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E12" s="325">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="F12" s="325"/>
       <c r="G12" s="325"/>
       <c r="H12" s="326"/>
@@ -33332,7 +33338,7 @@
       <c r="J12" s="163"/>
       <c r="K12" s="319">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7.2916666666666741E-2</v>
       </c>
       <c r="L12" s="320">
         <f t="shared" ca="1" si="3"/>
@@ -33340,16 +33346,18 @@
       </c>
       <c r="M12" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>7.2916666666670002E-2</v>
       </c>
       <c r="N12" s="360">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="165"/>
+      <c r="O12" s="165" t="s">
+        <v>144</v>
+      </c>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33394,7 +33402,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33439,7 +33447,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33484,7 +33492,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33529,7 +33537,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33574,7 +33582,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33619,7 +33627,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33664,7 +33672,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33709,7 +33717,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33754,7 +33762,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33799,7 +33807,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33844,7 +33852,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33889,7 +33897,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33934,7 +33942,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33979,7 +33987,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34024,7 +34032,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34069,7 +34077,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34114,7 +34122,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34159,7 +34167,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34204,7 +34212,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34249,7 +34257,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34294,7 +34302,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34434,7 +34442,7 @@
       </c>
       <c r="F38" s="171">
         <f>SUM(K4:K34)</f>
-        <v>0.19791666666666663</v>
+        <v>0.28125000000000011</v>
       </c>
       <c r="G38" s="53"/>
       <c r="I38" s="68"/>
@@ -34490,13 +34498,13 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
       <c r="J40" s="210">
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" s="380" t="s">
         <v>91</v>
@@ -35000,7 +35008,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35045,7 +35053,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35090,7 +35098,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35135,7 +35143,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35180,7 +35188,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35225,7 +35233,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35270,7 +35278,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35315,7 +35323,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35360,7 +35368,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35405,7 +35413,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35450,7 +35458,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35495,7 +35503,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35540,7 +35548,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35585,7 +35593,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35630,7 +35638,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35675,7 +35683,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35720,7 +35728,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35765,7 +35773,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35810,7 +35818,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35855,7 +35863,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35900,7 +35908,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35945,7 +35953,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35990,7 +35998,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36035,7 +36043,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36080,7 +36088,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36125,7 +36133,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36170,7 +36178,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36215,7 +36223,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36260,7 +36268,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36305,7 +36313,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36350,7 +36358,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -36381,7 +36389,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">April!F40</f>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -36501,7 +36509,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -37011,7 +37019,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37056,7 +37064,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37101,7 +37109,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37146,7 +37154,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37191,7 +37199,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37236,7 +37244,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37281,7 +37289,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37326,7 +37334,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37371,7 +37379,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37416,7 +37424,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37461,7 +37469,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37506,7 +37514,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37551,7 +37559,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37596,7 +37604,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37641,7 +37649,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37686,7 +37694,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37731,7 +37739,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37776,7 +37784,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37821,7 +37829,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37866,7 +37874,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37911,7 +37919,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37956,7 +37964,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38001,7 +38009,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38046,7 +38054,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38091,7 +38099,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38136,7 +38144,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38181,7 +38189,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38226,7 +38234,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38271,7 +38279,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38316,7 +38324,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38392,7 +38400,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Mai!F40</f>
-        <v>1</v>
+        <v>1.0833333333333299</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -38512,7 +38520,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -39022,7 +39030,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39067,7 +39075,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39112,7 +39120,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39157,7 +39165,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39202,7 +39210,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39247,7 +39255,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39292,7 +39300,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39337,7 +39345,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39382,7 +39390,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39427,7 +39435,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39472,7 +39480,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39517,7 +39525,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39562,7 +39570,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39607,7 +39615,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39652,7 +39660,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39697,7 +39705,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39742,7 +39750,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39787,7 +39795,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39832,7 +39840,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39877,7 +39885,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39922,7 +39930,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39967,7 +39975,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40012,7 +40020,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40057,7 +40065,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40102,7 +40110,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40147,7 +40155,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40192,7 +40200,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40237,7 +40245,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40282,7 +40290,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40327,7 +40335,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40372,7 +40380,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -40403,7 +40411,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juni!F40</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -40523,7 +40531,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-2.125</v>
+        <v>-2.0416666666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>

--- a/Arbeitszeit.xlsx
+++ b/Arbeitszeit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Philipp\Studium\Molecular-Test-Time-Adaptation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22649D9-A970-484A-A33A-D143D1DF2AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AA81EA-3E75-4C3E-9327-EF82AFE1F620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="HCoKw4gRij0gV6dkJfNeqDY8SK+w2PMaLYVl2wyqiuSEdbwXoxG0BpbDJ/qeWfNHoSNSKsH2JW6N7mRDHC8t+w==" workbookSaltValue="AxSev/HzJnlnx2x5wdOaWw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="933" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="145">
   <si>
     <t>Benutzer-Voreinstellungen</t>
   </si>
@@ -5206,6 +5206,30 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="168" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -5260,30 +5284,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="168" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="170" fontId="2" fillId="7" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -5292,84 +5292,84 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="2" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="2" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="188" fontId="0" fillId="2" borderId="112" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="2" borderId="113" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="188" fontId="0" fillId="2" borderId="205" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="187" fontId="8" fillId="2" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="2" borderId="113" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="1" fillId="2" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="1" fillId="2" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="1" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="1" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -8458,16 +8458,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,8,1)</f>
         <v>44408</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -8478,20 +8478,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -8499,11 +8499,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -8593,7 +8593,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8638,7 +8638,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8683,7 +8683,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8728,7 +8728,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8773,7 +8773,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8818,7 +8818,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8863,7 +8863,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8908,7 +8908,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8953,7 +8953,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8998,7 +8998,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9043,7 +9043,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9088,7 +9088,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9133,7 +9133,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9178,7 +9178,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9223,7 +9223,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9268,7 +9268,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9313,7 +9313,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9358,7 +9358,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9403,7 +9403,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9448,7 +9448,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9493,7 +9493,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9538,7 +9538,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9583,7 +9583,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9628,7 +9628,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9673,7 +9673,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9718,7 +9718,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9763,7 +9763,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9808,7 +9808,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9853,7 +9853,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9898,7 +9898,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9943,7 +9943,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -9974,7 +9974,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juli!F40</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -9982,14 +9982,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -10014,14 +10014,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -10046,14 +10046,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10078,7 +10078,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -10105,10 +10105,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10120,10 +10120,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10137,14 +10137,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -10161,14 +10161,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -10189,14 +10189,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -10213,14 +10213,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -10237,14 +10237,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -10265,14 +10265,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -10281,6 +10281,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="u9sw9Wp4FxWrrZw2gOfkGI7WDfwQ2wzVzpXiQtTY4/flADuSruZDhtkNpKsXPRieyhxYdM1K4kVDyBMMhvPWXQ==" saltValue="ahMBA+MAYyJY9Z70TI5l7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -10290,13 +10297,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="191" priority="9">
@@ -10469,16 +10469,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,9,1)</f>
         <v>44439</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -10489,20 +10489,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -10510,11 +10510,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -10604,7 +10604,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10649,7 +10649,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10694,7 +10694,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10739,7 +10739,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10784,7 +10784,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10829,7 +10829,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10874,7 +10874,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10919,7 +10919,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10964,7 +10964,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11009,7 +11009,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11054,7 +11054,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11099,7 +11099,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11144,7 +11144,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11189,7 +11189,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11234,7 +11234,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11279,7 +11279,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11324,7 +11324,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11369,7 +11369,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11414,7 +11414,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11459,7 +11459,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11504,7 +11504,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11549,7 +11549,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11594,7 +11594,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11639,7 +11639,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11684,7 +11684,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11729,7 +11729,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11774,7 +11774,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11819,7 +11819,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11864,7 +11864,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11909,7 +11909,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">August!F40</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -11993,14 +11993,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -12025,14 +12025,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -12057,14 +12057,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12089,7 +12089,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -12116,10 +12116,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12131,10 +12131,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12148,14 +12148,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -12172,14 +12172,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -12200,14 +12200,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -12224,14 +12224,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -12248,14 +12248,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -12276,14 +12276,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -12292,6 +12292,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZwadLNizQthu+TvLNfXLzHOxARw83BIKNXnXY+M0ilE4dNWC9Xi45W9RUbnFnWYY/YjuB/TQHV534uE6uxgXzA==" saltValue="AZ6xCuoaQ+vRzuHj27R1+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -12301,13 +12308,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="175" priority="9">
@@ -12480,16 +12480,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,10,1)</f>
         <v>44469</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -12500,20 +12500,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -12521,11 +12521,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -12615,7 +12615,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12660,7 +12660,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12705,7 +12705,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12750,7 +12750,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12795,7 +12795,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12840,7 +12840,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12885,7 +12885,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12930,7 +12930,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12975,7 +12975,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13020,7 +13020,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13065,7 +13065,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13110,7 +13110,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13155,7 +13155,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13200,7 +13200,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13245,7 +13245,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13290,7 +13290,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13335,7 +13335,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13380,7 +13380,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13425,7 +13425,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13470,7 +13470,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13515,7 +13515,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13560,7 +13560,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13605,7 +13605,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13650,7 +13650,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13695,7 +13695,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13740,7 +13740,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13785,7 +13785,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13830,7 +13830,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13875,7 +13875,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13920,7 +13920,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13965,7 +13965,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">September!F40</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -14004,14 +14004,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -14036,14 +14036,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -14068,14 +14068,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14100,7 +14100,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -14116,7 +14116,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -14127,10 +14127,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14142,10 +14142,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14159,14 +14159,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -14183,14 +14183,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -14211,14 +14211,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -14235,14 +14235,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -14259,14 +14259,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -14287,14 +14287,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -14303,6 +14303,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ckjAp3M0inqzooLEfZdc4f/HjPsEfDCTdLAnZaayrnftQ4dctyoJ+NgDJqJCYUgWfqTF5VR9ZwUyJG5krlCuzg==" saltValue="ZTo5PKb7eGW+1GxNqRU9vw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -14312,13 +14319,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="159" priority="9">
@@ -14491,16 +14491,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,11,1)</f>
         <v>44500</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -14511,20 +14511,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -14532,11 +14532,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -14626,7 +14626,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14671,7 +14671,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14716,7 +14716,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14761,7 +14761,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14806,7 +14806,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14851,7 +14851,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14896,7 +14896,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14941,7 +14941,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14986,7 +14986,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15031,7 +15031,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15076,7 +15076,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15121,7 +15121,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15166,7 +15166,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15211,7 +15211,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15256,7 +15256,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15301,7 +15301,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15346,7 +15346,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15391,7 +15391,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15436,7 +15436,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15481,7 +15481,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15526,7 +15526,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15571,7 +15571,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15616,7 +15616,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15661,7 +15661,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15706,7 +15706,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15751,7 +15751,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15796,7 +15796,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15841,7 +15841,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15886,7 +15886,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15931,7 +15931,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16007,7 +16007,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Oktober!F40</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -16015,14 +16015,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -16047,14 +16047,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -16079,14 +16079,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16111,7 +16111,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -16138,10 +16138,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16153,10 +16153,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16170,14 +16170,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -16194,14 +16194,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -16222,14 +16222,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -16246,14 +16246,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -16270,14 +16270,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -16298,14 +16298,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -16314,6 +16314,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yUnueG6AI0b+TwSq9iNG4Cwzf8Hchd7cijzybRrJpWYCHjIcsKNjecErnlKgA/wi+14DH+HiWNKblmoAUs2xWw==" saltValue="QFUx+Ct/5TiVBTgg+aZ9AA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -16323,13 +16330,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="143" priority="9">
@@ -16502,16 +16502,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,12,1)</f>
         <v>44530</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 18</v>
@@ -16522,20 +16522,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -16543,11 +16543,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -16637,7 +16637,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16682,7 +16682,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16727,7 +16727,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16772,7 +16772,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16817,7 +16817,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16862,7 +16862,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16907,7 +16907,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16952,7 +16952,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16997,7 +16997,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17042,7 +17042,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17087,7 +17087,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17132,7 +17132,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17177,7 +17177,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17222,7 +17222,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17267,7 +17267,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17312,7 +17312,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17357,7 +17357,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17402,7 +17402,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17447,7 +17447,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17492,7 +17492,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17537,7 +17537,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17582,7 +17582,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17627,7 +17627,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17672,7 +17672,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17717,7 +17717,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17762,7 +17762,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17807,7 +17807,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17852,7 +17852,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17897,7 +17897,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17942,7 +17942,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17987,7 +17987,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">November!F40</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -18026,14 +18026,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -18058,14 +18058,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -18090,14 +18090,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18122,7 +18122,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -18138,7 +18138,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -18149,10 +18149,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18164,10 +18164,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18181,14 +18181,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -18205,14 +18205,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -18233,14 +18233,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -18257,14 +18257,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -18281,14 +18281,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -18309,14 +18309,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -18325,6 +18325,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="syEdLlnr28ns1fephgrXktWpnwhQWCu/FJXIwINCXvVXUg9m9LaQ/XmkW0xsT7j209xW7Ddhk6QbBT/eb2/MOw==" saltValue="twEufrt+yH545MWin4OFfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -18334,13 +18341,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="127" priority="9">
@@ -18526,158 +18526,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="424"/>
-      <c r="B1" s="422"/>
-      <c r="C1" s="422"/>
-      <c r="D1" s="422"/>
-      <c r="E1" s="421" t="str">
+      <c r="A1" s="414"/>
+      <c r="B1" s="412"/>
+      <c r="C1" s="412"/>
+      <c r="D1" s="412"/>
+      <c r="E1" s="411" t="str">
         <f>"Jahresübersicht "&amp;Jahr</f>
         <v>Jahresübersicht 2025</v>
       </c>
-      <c r="F1" s="422"/>
-      <c r="G1" s="422"/>
-      <c r="H1" s="422"/>
-      <c r="I1" s="422"/>
-      <c r="J1" s="422"/>
-      <c r="K1" s="422"/>
-      <c r="L1" s="422"/>
-      <c r="M1" s="422"/>
-      <c r="N1" s="422"/>
-      <c r="O1" s="422"/>
-      <c r="P1" s="422"/>
-      <c r="Q1" s="422"/>
-      <c r="R1" s="422"/>
-      <c r="S1" s="422"/>
-      <c r="T1" s="422"/>
-      <c r="U1" s="422"/>
-      <c r="V1" s="422"/>
-      <c r="W1" s="422"/>
-      <c r="X1" s="422"/>
-      <c r="Y1" s="422"/>
-      <c r="Z1" s="422"/>
-      <c r="AA1" s="422"/>
-      <c r="AB1" s="422"/>
-      <c r="AC1" s="422"/>
-      <c r="AD1" s="422"/>
-      <c r="AE1" s="422"/>
-      <c r="AF1" s="422"/>
-      <c r="AG1" s="422"/>
-      <c r="AH1" s="422"/>
-      <c r="AI1" s="418" t="str">
+      <c r="F1" s="412"/>
+      <c r="G1" s="412"/>
+      <c r="H1" s="412"/>
+      <c r="I1" s="412"/>
+      <c r="J1" s="412"/>
+      <c r="K1" s="412"/>
+      <c r="L1" s="412"/>
+      <c r="M1" s="412"/>
+      <c r="N1" s="412"/>
+      <c r="O1" s="412"/>
+      <c r="P1" s="412"/>
+      <c r="Q1" s="412"/>
+      <c r="R1" s="412"/>
+      <c r="S1" s="412"/>
+      <c r="T1" s="412"/>
+      <c r="U1" s="412"/>
+      <c r="V1" s="412"/>
+      <c r="W1" s="412"/>
+      <c r="X1" s="412"/>
+      <c r="Y1" s="412"/>
+      <c r="Z1" s="412"/>
+      <c r="AA1" s="412"/>
+      <c r="AB1" s="412"/>
+      <c r="AC1" s="412"/>
+      <c r="AD1" s="412"/>
+      <c r="AE1" s="412"/>
+      <c r="AF1" s="412"/>
+      <c r="AG1" s="412"/>
+      <c r="AH1" s="412"/>
+      <c r="AI1" s="408" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="AJ1" s="419"/>
-      <c r="AK1" s="419"/>
-      <c r="AL1" s="420"/>
+      <c r="AJ1" s="409"/>
+      <c r="AK1" s="409"/>
+      <c r="AL1" s="410"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="425"/>
-      <c r="B2" s="423"/>
-      <c r="C2" s="423"/>
-      <c r="D2" s="423"/>
-      <c r="E2" s="423"/>
-      <c r="F2" s="423"/>
-      <c r="G2" s="423"/>
-      <c r="H2" s="423"/>
-      <c r="I2" s="423"/>
-      <c r="J2" s="423"/>
-      <c r="K2" s="423"/>
-      <c r="L2" s="423"/>
-      <c r="M2" s="423"/>
-      <c r="N2" s="423"/>
-      <c r="O2" s="423"/>
-      <c r="P2" s="423"/>
-      <c r="Q2" s="423"/>
-      <c r="R2" s="423"/>
-      <c r="S2" s="423"/>
-      <c r="T2" s="423"/>
-      <c r="U2" s="423"/>
-      <c r="V2" s="423"/>
-      <c r="W2" s="423"/>
-      <c r="X2" s="423"/>
-      <c r="Y2" s="423"/>
-      <c r="Z2" s="423"/>
-      <c r="AA2" s="423"/>
-      <c r="AB2" s="423"/>
-      <c r="AC2" s="423"/>
-      <c r="AD2" s="423"/>
-      <c r="AE2" s="423"/>
-      <c r="AF2" s="423"/>
-      <c r="AG2" s="423"/>
-      <c r="AH2" s="423"/>
-      <c r="AI2" s="415" t="str">
+      <c r="A2" s="415"/>
+      <c r="B2" s="413"/>
+      <c r="C2" s="413"/>
+      <c r="D2" s="413"/>
+      <c r="E2" s="413"/>
+      <c r="F2" s="413"/>
+      <c r="G2" s="413"/>
+      <c r="H2" s="413"/>
+      <c r="I2" s="413"/>
+      <c r="J2" s="413"/>
+      <c r="K2" s="413"/>
+      <c r="L2" s="413"/>
+      <c r="M2" s="413"/>
+      <c r="N2" s="413"/>
+      <c r="O2" s="413"/>
+      <c r="P2" s="413"/>
+      <c r="Q2" s="413"/>
+      <c r="R2" s="413"/>
+      <c r="S2" s="413"/>
+      <c r="T2" s="413"/>
+      <c r="U2" s="413"/>
+      <c r="V2" s="413"/>
+      <c r="W2" s="413"/>
+      <c r="X2" s="413"/>
+      <c r="Y2" s="413"/>
+      <c r="Z2" s="413"/>
+      <c r="AA2" s="413"/>
+      <c r="AB2" s="413"/>
+      <c r="AC2" s="413"/>
+      <c r="AD2" s="413"/>
+      <c r="AE2" s="413"/>
+      <c r="AF2" s="413"/>
+      <c r="AG2" s="413"/>
+      <c r="AH2" s="413"/>
+      <c r="AI2" s="405" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="AJ2" s="416"/>
-      <c r="AK2" s="416"/>
-      <c r="AL2" s="417"/>
+      <c r="AJ2" s="406"/>
+      <c r="AK2" s="406"/>
+      <c r="AL2" s="407"/>
     </row>
     <row r="3" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="426" t="s">
+      <c r="B3" s="417" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="426"/>
-      <c r="D3" s="426"/>
-      <c r="E3" s="426" t="s">
+      <c r="C3" s="417"/>
+      <c r="D3" s="417"/>
+      <c r="E3" s="417" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="426"/>
-      <c r="G3" s="426"/>
-      <c r="H3" s="426" t="s">
+      <c r="F3" s="417"/>
+      <c r="G3" s="417"/>
+      <c r="H3" s="417" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="426"/>
-      <c r="J3" s="426"/>
-      <c r="K3" s="426" t="s">
+      <c r="I3" s="417"/>
+      <c r="J3" s="417"/>
+      <c r="K3" s="417" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="426"/>
-      <c r="M3" s="426"/>
-      <c r="N3" s="426" t="s">
+      <c r="L3" s="417"/>
+      <c r="M3" s="417"/>
+      <c r="N3" s="417" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="426"/>
-      <c r="P3" s="426"/>
-      <c r="Q3" s="426" t="s">
+      <c r="O3" s="417"/>
+      <c r="P3" s="417"/>
+      <c r="Q3" s="417" t="s">
         <v>99</v>
       </c>
-      <c r="R3" s="426"/>
-      <c r="S3" s="426"/>
-      <c r="T3" s="426" t="s">
+      <c r="R3" s="417"/>
+      <c r="S3" s="417"/>
+      <c r="T3" s="417" t="s">
         <v>100</v>
       </c>
-      <c r="U3" s="426"/>
-      <c r="V3" s="426"/>
-      <c r="W3" s="426" t="s">
+      <c r="U3" s="417"/>
+      <c r="V3" s="417"/>
+      <c r="W3" s="417" t="s">
         <v>101</v>
       </c>
-      <c r="X3" s="426"/>
-      <c r="Y3" s="426"/>
-      <c r="Z3" s="426" t="s">
+      <c r="X3" s="417"/>
+      <c r="Y3" s="417"/>
+      <c r="Z3" s="417" t="s">
         <v>102</v>
       </c>
-      <c r="AA3" s="426"/>
-      <c r="AB3" s="426"/>
-      <c r="AC3" s="426" t="s">
+      <c r="AA3" s="417"/>
+      <c r="AB3" s="417"/>
+      <c r="AC3" s="417" t="s">
         <v>103</v>
       </c>
-      <c r="AD3" s="426"/>
-      <c r="AE3" s="426"/>
-      <c r="AF3" s="426" t="s">
+      <c r="AD3" s="417"/>
+      <c r="AE3" s="417"/>
+      <c r="AF3" s="417" t="s">
         <v>104</v>
       </c>
-      <c r="AG3" s="426"/>
-      <c r="AH3" s="426"/>
-      <c r="AI3" s="426" t="s">
+      <c r="AG3" s="417"/>
+      <c r="AH3" s="417"/>
+      <c r="AI3" s="417" t="s">
         <v>105</v>
       </c>
-      <c r="AJ3" s="426"/>
-      <c r="AK3" s="426"/>
+      <c r="AJ3" s="417"/>
+      <c r="AK3" s="417"/>
       <c r="AL3" s="72" t="s">
         <v>77</v>
       </c>
@@ -21310,9 +21310,9 @@
         <f>April!A21</f>
         <v>44303</v>
       </c>
-      <c r="L21" s="134" t="str">
+      <c r="L21" s="134">
         <f>IF(April!K21&gt;0,April!K21,"")</f>
-        <v/>
+        <v>0.21875</v>
       </c>
       <c r="M21" s="126" t="str">
         <f>IF(OR(April!C21="",April!J21&lt;&gt;""),UPPER(April!J21),"F")</f>
@@ -23398,77 +23398,77 @@
       <c r="A35" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="411">
+      <c r="B35" s="419">
         <f ca="1">Januar!F37</f>
         <v>0</v>
       </c>
-      <c r="C35" s="411"/>
+      <c r="C35" s="419"/>
       <c r="D35" s="259"/>
-      <c r="E35" s="411">
+      <c r="E35" s="419">
         <f ca="1">Februar!F37</f>
         <v>0</v>
       </c>
-      <c r="F35" s="411"/>
+      <c r="F35" s="419"/>
       <c r="G35" s="260"/>
-      <c r="H35" s="412">
+      <c r="H35" s="416">
         <f ca="1">März!F37</f>
         <v>0</v>
       </c>
-      <c r="I35" s="412"/>
+      <c r="I35" s="416"/>
       <c r="J35" s="261"/>
-      <c r="K35" s="411">
+      <c r="K35" s="419">
         <f ca="1">April!F37</f>
         <v>0</v>
       </c>
-      <c r="L35" s="411"/>
+      <c r="L35" s="419"/>
       <c r="M35" s="260"/>
-      <c r="N35" s="412">
+      <c r="N35" s="416">
         <f ca="1">Mai!F37</f>
         <v>0</v>
       </c>
-      <c r="O35" s="412"/>
+      <c r="O35" s="416"/>
       <c r="P35" s="261"/>
-      <c r="Q35" s="411">
+      <c r="Q35" s="419">
         <f ca="1">Juni!F37</f>
         <v>3.125</v>
       </c>
-      <c r="R35" s="411"/>
+      <c r="R35" s="419"/>
       <c r="S35" s="260"/>
-      <c r="T35" s="412">
+      <c r="T35" s="416">
         <f ca="1">Juli!F37</f>
         <v>0</v>
       </c>
-      <c r="U35" s="412"/>
+      <c r="U35" s="416"/>
       <c r="V35" s="261"/>
-      <c r="W35" s="411">
+      <c r="W35" s="419">
         <f ca="1">August!F37</f>
         <v>0</v>
       </c>
-      <c r="X35" s="411"/>
+      <c r="X35" s="419"/>
       <c r="Y35" s="260"/>
-      <c r="Z35" s="412">
+      <c r="Z35" s="416">
         <f ca="1">September!F37</f>
         <v>0</v>
       </c>
-      <c r="AA35" s="412"/>
+      <c r="AA35" s="416"/>
       <c r="AB35" s="261"/>
-      <c r="AC35" s="411">
+      <c r="AC35" s="419">
         <f ca="1">Oktober!F37</f>
         <v>0</v>
       </c>
-      <c r="AD35" s="411"/>
+      <c r="AD35" s="419"/>
       <c r="AE35" s="260"/>
-      <c r="AF35" s="412">
+      <c r="AF35" s="416">
         <f ca="1">November!F37</f>
         <v>0</v>
       </c>
-      <c r="AG35" s="412"/>
+      <c r="AG35" s="416"/>
       <c r="AH35" s="261"/>
-      <c r="AI35" s="411">
+      <c r="AI35" s="419">
         <f ca="1">Dezember!F37</f>
         <v>0</v>
       </c>
-      <c r="AJ35" s="411"/>
+      <c r="AJ35" s="419"/>
       <c r="AK35" s="260"/>
       <c r="AL35" s="262">
         <f t="shared" ref="AL35:AL50" ca="1" si="0">SUM(B35:AK35)</f>
@@ -23479,243 +23479,243 @@
       <c r="A36" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="413">
+      <c r="B36" s="420">
         <f>Januar!F38</f>
         <v>0</v>
       </c>
-      <c r="C36" s="413"/>
+      <c r="C36" s="420"/>
       <c r="D36" s="263"/>
-      <c r="E36" s="413">
+      <c r="E36" s="420">
         <f>Februar!F38</f>
         <v>0</v>
       </c>
-      <c r="F36" s="413"/>
+      <c r="F36" s="420"/>
       <c r="G36" s="264"/>
-      <c r="H36" s="414">
+      <c r="H36" s="421">
         <f>März!F38</f>
         <v>0.80208333333333337</v>
       </c>
-      <c r="I36" s="414"/>
+      <c r="I36" s="421"/>
       <c r="J36" s="265"/>
-      <c r="K36" s="413">
+      <c r="K36" s="420">
         <f>April!F38</f>
-        <v>0.28125000000000011</v>
-      </c>
-      <c r="L36" s="413"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="L36" s="420"/>
       <c r="M36" s="264"/>
-      <c r="N36" s="414">
+      <c r="N36" s="421">
         <f>Mai!F38</f>
         <v>0</v>
       </c>
-      <c r="O36" s="414"/>
+      <c r="O36" s="421"/>
       <c r="P36" s="265"/>
-      <c r="Q36" s="413">
+      <c r="Q36" s="420">
         <f>Juni!F38</f>
         <v>0</v>
       </c>
-      <c r="R36" s="413"/>
+      <c r="R36" s="420"/>
       <c r="S36" s="264"/>
-      <c r="T36" s="414">
+      <c r="T36" s="421">
         <f>Juli!F38</f>
         <v>0</v>
       </c>
-      <c r="U36" s="414"/>
+      <c r="U36" s="421"/>
       <c r="V36" s="265"/>
-      <c r="W36" s="413">
+      <c r="W36" s="420">
         <f>August!F38</f>
         <v>0</v>
       </c>
-      <c r="X36" s="413"/>
+      <c r="X36" s="420"/>
       <c r="Y36" s="264"/>
-      <c r="Z36" s="414">
+      <c r="Z36" s="421">
         <f>September!F38</f>
         <v>0</v>
       </c>
-      <c r="AA36" s="414"/>
+      <c r="AA36" s="421"/>
       <c r="AB36" s="265"/>
-      <c r="AC36" s="413">
+      <c r="AC36" s="420">
         <f>Oktober!F38</f>
         <v>0</v>
       </c>
-      <c r="AD36" s="413"/>
+      <c r="AD36" s="420"/>
       <c r="AE36" s="264"/>
-      <c r="AF36" s="414">
+      <c r="AF36" s="421">
         <f>November!F38</f>
         <v>0</v>
       </c>
-      <c r="AG36" s="414"/>
+      <c r="AG36" s="421"/>
       <c r="AH36" s="265"/>
-      <c r="AI36" s="413">
+      <c r="AI36" s="420">
         <f>Dezember!F38</f>
         <v>0</v>
       </c>
-      <c r="AJ36" s="413"/>
+      <c r="AJ36" s="420"/>
       <c r="AK36" s="264"/>
       <c r="AL36" s="266">
         <f t="shared" si="0"/>
-        <v>1.0833333333333335</v>
+        <v>1.3020833333333335</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="408">
+      <c r="B37" s="423">
         <f ca="1">ROUND(B36-B35,10)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="408"/>
+      <c r="C37" s="423"/>
       <c r="D37" s="258"/>
-      <c r="E37" s="408">
+      <c r="E37" s="423">
         <f ca="1">ROUND(E36-E35,10)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="408"/>
+      <c r="F37" s="423"/>
       <c r="G37" s="82"/>
-      <c r="H37" s="409">
+      <c r="H37" s="418">
         <f ca="1">ROUND(H36-H35,10)</f>
         <v>0.80208333330000003</v>
       </c>
-      <c r="I37" s="409"/>
+      <c r="I37" s="418"/>
       <c r="J37" s="83"/>
-      <c r="K37" s="408">
+      <c r="K37" s="423">
         <f ca="1">ROUND(K36-K35,10)</f>
-        <v>0.28125</v>
-      </c>
-      <c r="L37" s="408"/>
+        <v>0.5</v>
+      </c>
+      <c r="L37" s="423"/>
       <c r="M37" s="82"/>
-      <c r="N37" s="409">
+      <c r="N37" s="418">
         <f ca="1">ROUND(N36-N35,10)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="409"/>
+      <c r="O37" s="418"/>
       <c r="P37" s="83"/>
-      <c r="Q37" s="408">
+      <c r="Q37" s="423">
         <f ca="1">ROUND(Q36-Q35,10)</f>
         <v>-3.125</v>
       </c>
-      <c r="R37" s="408"/>
+      <c r="R37" s="423"/>
       <c r="S37" s="82"/>
-      <c r="T37" s="409">
+      <c r="T37" s="418">
         <f ca="1">ROUND(T36-T35,10)</f>
         <v>0</v>
       </c>
-      <c r="U37" s="409"/>
+      <c r="U37" s="418"/>
       <c r="V37" s="83"/>
-      <c r="W37" s="408">
+      <c r="W37" s="423">
         <f ca="1">ROUND(W36-W35,10)</f>
         <v>0</v>
       </c>
-      <c r="X37" s="408"/>
+      <c r="X37" s="423"/>
       <c r="Y37" s="82"/>
-      <c r="Z37" s="409">
+      <c r="Z37" s="418">
         <f ca="1">ROUND(Z36-Z35,10)</f>
         <v>0</v>
       </c>
-      <c r="AA37" s="409"/>
+      <c r="AA37" s="418"/>
       <c r="AB37" s="83"/>
-      <c r="AC37" s="408">
+      <c r="AC37" s="423">
         <f ca="1">ROUND(AC36-AC35,10)</f>
         <v>0</v>
       </c>
-      <c r="AD37" s="408"/>
+      <c r="AD37" s="423"/>
       <c r="AE37" s="82"/>
-      <c r="AF37" s="409">
+      <c r="AF37" s="418">
         <f ca="1">ROUND(AF36-AF35,10)</f>
         <v>0</v>
       </c>
-      <c r="AG37" s="409"/>
+      <c r="AG37" s="418"/>
       <c r="AH37" s="83"/>
-      <c r="AI37" s="408">
+      <c r="AI37" s="423">
         <f ca="1">ROUND(AI36-AI35,10)</f>
         <v>0</v>
       </c>
-      <c r="AJ37" s="408"/>
+      <c r="AJ37" s="423"/>
       <c r="AK37" s="82"/>
       <c r="AL37" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0416666666999999</v>
+        <v>-1.8229166666999999</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="342" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="410">
+      <c r="B38" s="424">
         <f>Januar!J40</f>
         <v>0</v>
       </c>
-      <c r="C38" s="410"/>
-      <c r="D38" s="410"/>
-      <c r="E38" s="410">
+      <c r="C38" s="424"/>
+      <c r="D38" s="424"/>
+      <c r="E38" s="424">
         <f>Februar!J40</f>
         <v>0</v>
       </c>
-      <c r="F38" s="410"/>
-      <c r="G38" s="410"/>
-      <c r="H38" s="410">
+      <c r="F38" s="424"/>
+      <c r="G38" s="424"/>
+      <c r="H38" s="424">
         <f>März!J40</f>
         <v>7</v>
       </c>
-      <c r="I38" s="410"/>
-      <c r="J38" s="410"/>
-      <c r="K38" s="410">
+      <c r="I38" s="424"/>
+      <c r="J38" s="424"/>
+      <c r="K38" s="424">
         <f>April!J40</f>
-        <v>2</v>
-      </c>
-      <c r="L38" s="410"/>
-      <c r="M38" s="410"/>
-      <c r="N38" s="410">
+        <v>3</v>
+      </c>
+      <c r="L38" s="424"/>
+      <c r="M38" s="424"/>
+      <c r="N38" s="424">
         <f>Mai!J40</f>
         <v>0</v>
       </c>
-      <c r="O38" s="410"/>
-      <c r="P38" s="410"/>
-      <c r="Q38" s="410">
+      <c r="O38" s="424"/>
+      <c r="P38" s="424"/>
+      <c r="Q38" s="424">
         <f>Juni!J40</f>
         <v>0</v>
       </c>
-      <c r="R38" s="410"/>
-      <c r="S38" s="410"/>
-      <c r="T38" s="410">
+      <c r="R38" s="424"/>
+      <c r="S38" s="424"/>
+      <c r="T38" s="424">
         <f>Juli!J40</f>
         <v>0</v>
       </c>
-      <c r="U38" s="410"/>
-      <c r="V38" s="410"/>
-      <c r="W38" s="410">
+      <c r="U38" s="424"/>
+      <c r="V38" s="424"/>
+      <c r="W38" s="424">
         <f>August!J40</f>
         <v>0</v>
       </c>
-      <c r="X38" s="410"/>
-      <c r="Y38" s="410"/>
-      <c r="Z38" s="410">
+      <c r="X38" s="424"/>
+      <c r="Y38" s="424"/>
+      <c r="Z38" s="424">
         <f>September!J40</f>
         <v>0</v>
       </c>
-      <c r="AA38" s="410"/>
-      <c r="AB38" s="410"/>
-      <c r="AC38" s="410">
+      <c r="AA38" s="424"/>
+      <c r="AB38" s="424"/>
+      <c r="AC38" s="424">
         <f>Oktober!J40</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="410"/>
-      <c r="AE38" s="410"/>
-      <c r="AF38" s="410">
+      <c r="AD38" s="424"/>
+      <c r="AE38" s="424"/>
+      <c r="AF38" s="424">
         <f>November!J40</f>
         <v>0</v>
       </c>
-      <c r="AG38" s="410"/>
-      <c r="AH38" s="410"/>
-      <c r="AI38" s="410">
+      <c r="AG38" s="424"/>
+      <c r="AH38" s="424"/>
+      <c r="AI38" s="424">
         <f>Dezember!J40</f>
         <v>0</v>
       </c>
-      <c r="AJ38" s="410"/>
-      <c r="AK38" s="410"/>
+      <c r="AJ38" s="424"/>
+      <c r="AK38" s="424"/>
       <c r="AL38" s="343">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -23723,78 +23723,78 @@
         <f>Voreinstellungen!A27&amp;" ("&amp;Voreinstellungen!B27&amp;")"</f>
         <v>Homeoffice (H)</v>
       </c>
-      <c r="B39" s="405">
+      <c r="B39" s="422">
         <f>Januar!J41</f>
         <v>0</v>
       </c>
-      <c r="C39" s="405"/>
-      <c r="D39" s="405"/>
-      <c r="E39" s="405">
+      <c r="C39" s="422"/>
+      <c r="D39" s="422"/>
+      <c r="E39" s="422">
         <f>Februar!J41</f>
         <v>0</v>
       </c>
-      <c r="F39" s="405"/>
-      <c r="G39" s="405"/>
-      <c r="H39" s="405">
+      <c r="F39" s="422"/>
+      <c r="G39" s="422"/>
+      <c r="H39" s="422">
         <f>März!J41</f>
         <v>0</v>
       </c>
-      <c r="I39" s="405"/>
-      <c r="J39" s="405"/>
-      <c r="K39" s="405">
+      <c r="I39" s="422"/>
+      <c r="J39" s="422"/>
+      <c r="K39" s="422">
         <f>April!J41</f>
         <v>0</v>
       </c>
-      <c r="L39" s="405"/>
-      <c r="M39" s="405"/>
-      <c r="N39" s="405">
+      <c r="L39" s="422"/>
+      <c r="M39" s="422"/>
+      <c r="N39" s="422">
         <f>Mai!J41</f>
         <v>0</v>
       </c>
-      <c r="O39" s="405"/>
-      <c r="P39" s="405"/>
-      <c r="Q39" s="405">
+      <c r="O39" s="422"/>
+      <c r="P39" s="422"/>
+      <c r="Q39" s="422">
         <f>Juni!J41</f>
         <v>0</v>
       </c>
-      <c r="R39" s="405"/>
-      <c r="S39" s="405"/>
-      <c r="T39" s="405">
+      <c r="R39" s="422"/>
+      <c r="S39" s="422"/>
+      <c r="T39" s="422">
         <f>Juli!J41</f>
         <v>0</v>
       </c>
-      <c r="U39" s="405"/>
-      <c r="V39" s="405"/>
-      <c r="W39" s="405">
+      <c r="U39" s="422"/>
+      <c r="V39" s="422"/>
+      <c r="W39" s="422">
         <f>August!J41</f>
         <v>0</v>
       </c>
-      <c r="X39" s="405"/>
-      <c r="Y39" s="405"/>
-      <c r="Z39" s="405">
+      <c r="X39" s="422"/>
+      <c r="Y39" s="422"/>
+      <c r="Z39" s="422">
         <f>September!J41</f>
         <v>0</v>
       </c>
-      <c r="AA39" s="405"/>
-      <c r="AB39" s="405"/>
-      <c r="AC39" s="405">
+      <c r="AA39" s="422"/>
+      <c r="AB39" s="422"/>
+      <c r="AC39" s="422">
         <f>Oktober!J41</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="405"/>
-      <c r="AE39" s="405"/>
-      <c r="AF39" s="405">
+      <c r="AD39" s="422"/>
+      <c r="AE39" s="422"/>
+      <c r="AF39" s="422">
         <f>November!J41</f>
         <v>0</v>
       </c>
-      <c r="AG39" s="405"/>
-      <c r="AH39" s="405"/>
-      <c r="AI39" s="405">
+      <c r="AG39" s="422"/>
+      <c r="AH39" s="422"/>
+      <c r="AI39" s="422">
         <f>Dezember!J41</f>
         <v>0</v>
       </c>
-      <c r="AJ39" s="405"/>
-      <c r="AK39" s="405"/>
+      <c r="AJ39" s="422"/>
+      <c r="AK39" s="422"/>
       <c r="AL39" s="256">
         <f t="shared" ref="AL39" si="1">SUM(B39:AK39)</f>
         <v>0</v>
@@ -23805,78 +23805,78 @@
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="B40" s="405">
+      <c r="B40" s="422">
         <f>Januar!J38</f>
         <v>0</v>
       </c>
-      <c r="C40" s="405"/>
-      <c r="D40" s="405"/>
-      <c r="E40" s="405">
+      <c r="C40" s="422"/>
+      <c r="D40" s="422"/>
+      <c r="E40" s="422">
         <f>Februar!J38</f>
         <v>0</v>
       </c>
-      <c r="F40" s="405"/>
-      <c r="G40" s="405"/>
-      <c r="H40" s="405">
+      <c r="F40" s="422"/>
+      <c r="G40" s="422"/>
+      <c r="H40" s="422">
         <f>März!J38</f>
         <v>0</v>
       </c>
-      <c r="I40" s="405"/>
-      <c r="J40" s="405"/>
-      <c r="K40" s="405">
+      <c r="I40" s="422"/>
+      <c r="J40" s="422"/>
+      <c r="K40" s="422">
         <f>April!J38</f>
         <v>0</v>
       </c>
-      <c r="L40" s="405"/>
-      <c r="M40" s="405"/>
-      <c r="N40" s="405">
+      <c r="L40" s="422"/>
+      <c r="M40" s="422"/>
+      <c r="N40" s="422">
         <f>Mai!J38</f>
         <v>0</v>
       </c>
-      <c r="O40" s="405"/>
-      <c r="P40" s="405"/>
-      <c r="Q40" s="405">
+      <c r="O40" s="422"/>
+      <c r="P40" s="422"/>
+      <c r="Q40" s="422">
         <f>Juni!J38</f>
         <v>0</v>
       </c>
-      <c r="R40" s="405"/>
-      <c r="S40" s="405"/>
-      <c r="T40" s="405">
+      <c r="R40" s="422"/>
+      <c r="S40" s="422"/>
+      <c r="T40" s="422">
         <f>Juli!J38</f>
         <v>0</v>
       </c>
-      <c r="U40" s="405"/>
-      <c r="V40" s="405"/>
-      <c r="W40" s="405">
+      <c r="U40" s="422"/>
+      <c r="V40" s="422"/>
+      <c r="W40" s="422">
         <f>August!J38</f>
         <v>0</v>
       </c>
-      <c r="X40" s="405"/>
-      <c r="Y40" s="405"/>
-      <c r="Z40" s="405">
+      <c r="X40" s="422"/>
+      <c r="Y40" s="422"/>
+      <c r="Z40" s="422">
         <f>September!J38</f>
         <v>0</v>
       </c>
-      <c r="AA40" s="405"/>
-      <c r="AB40" s="405"/>
-      <c r="AC40" s="405">
+      <c r="AA40" s="422"/>
+      <c r="AB40" s="422"/>
+      <c r="AC40" s="422">
         <f>Oktober!J38</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="405"/>
-      <c r="AE40" s="405"/>
-      <c r="AF40" s="405">
+      <c r="AD40" s="422"/>
+      <c r="AE40" s="422"/>
+      <c r="AF40" s="422">
         <f>November!J38</f>
         <v>0</v>
       </c>
-      <c r="AG40" s="405"/>
-      <c r="AH40" s="405"/>
-      <c r="AI40" s="405">
+      <c r="AG40" s="422"/>
+      <c r="AH40" s="422"/>
+      <c r="AI40" s="422">
         <f>Dezember!J38</f>
         <v>0</v>
       </c>
-      <c r="AJ40" s="405"/>
-      <c r="AK40" s="405"/>
+      <c r="AJ40" s="422"/>
+      <c r="AK40" s="422"/>
       <c r="AL40" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23887,78 +23887,78 @@
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;")"&amp;"/("&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K)/(KR)</v>
       </c>
-      <c r="B41" s="405">
+      <c r="B41" s="422">
         <f>Januar!J36</f>
         <v>0</v>
       </c>
-      <c r="C41" s="405"/>
-      <c r="D41" s="405"/>
-      <c r="E41" s="405">
+      <c r="C41" s="422"/>
+      <c r="D41" s="422"/>
+      <c r="E41" s="422">
         <f>Februar!J36</f>
         <v>0</v>
       </c>
-      <c r="F41" s="405"/>
-      <c r="G41" s="405"/>
-      <c r="H41" s="405">
+      <c r="F41" s="422"/>
+      <c r="G41" s="422"/>
+      <c r="H41" s="422">
         <f>März!J36</f>
         <v>0</v>
       </c>
-      <c r="I41" s="405"/>
-      <c r="J41" s="405"/>
-      <c r="K41" s="405">
+      <c r="I41" s="422"/>
+      <c r="J41" s="422"/>
+      <c r="K41" s="422">
         <f>April!J36</f>
         <v>0</v>
       </c>
-      <c r="L41" s="405"/>
-      <c r="M41" s="405"/>
-      <c r="N41" s="405">
+      <c r="L41" s="422"/>
+      <c r="M41" s="422"/>
+      <c r="N41" s="422">
         <f>Mai!J36</f>
         <v>0</v>
       </c>
-      <c r="O41" s="405"/>
-      <c r="P41" s="405"/>
-      <c r="Q41" s="405">
+      <c r="O41" s="422"/>
+      <c r="P41" s="422"/>
+      <c r="Q41" s="422">
         <f>Juni!J36</f>
         <v>0</v>
       </c>
-      <c r="R41" s="405"/>
-      <c r="S41" s="405"/>
-      <c r="T41" s="405">
+      <c r="R41" s="422"/>
+      <c r="S41" s="422"/>
+      <c r="T41" s="422">
         <f>Juli!J36</f>
         <v>0</v>
       </c>
-      <c r="U41" s="405"/>
-      <c r="V41" s="405"/>
-      <c r="W41" s="405">
+      <c r="U41" s="422"/>
+      <c r="V41" s="422"/>
+      <c r="W41" s="422">
         <f>August!J36</f>
         <v>0</v>
       </c>
-      <c r="X41" s="405"/>
-      <c r="Y41" s="405"/>
-      <c r="Z41" s="405">
+      <c r="X41" s="422"/>
+      <c r="Y41" s="422"/>
+      <c r="Z41" s="422">
         <f>September!J36</f>
         <v>0</v>
       </c>
-      <c r="AA41" s="405"/>
-      <c r="AB41" s="405"/>
-      <c r="AC41" s="405">
+      <c r="AA41" s="422"/>
+      <c r="AB41" s="422"/>
+      <c r="AC41" s="422">
         <f>Oktober!J36</f>
         <v>0</v>
       </c>
-      <c r="AD41" s="405"/>
-      <c r="AE41" s="405"/>
-      <c r="AF41" s="405">
+      <c r="AD41" s="422"/>
+      <c r="AE41" s="422"/>
+      <c r="AF41" s="422">
         <f>November!J36</f>
         <v>0</v>
       </c>
-      <c r="AG41" s="405"/>
-      <c r="AH41" s="405"/>
-      <c r="AI41" s="405">
+      <c r="AG41" s="422"/>
+      <c r="AH41" s="422"/>
+      <c r="AI41" s="422">
         <f>Dezember!J36</f>
         <v>0</v>
       </c>
-      <c r="AJ41" s="405"/>
-      <c r="AK41" s="405"/>
+      <c r="AJ41" s="422"/>
+      <c r="AK41" s="422"/>
       <c r="AL41" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23969,78 +23969,78 @@
         <f>Voreinstellungen!A23&amp;" ("&amp;Voreinstellungen!B23&amp;")"&amp;"/("&amp;Voreinstellungen!B24&amp;")"</f>
         <v>Kurzarbeit (KU)/(KA)</v>
       </c>
-      <c r="B42" s="405">
+      <c r="B42" s="422">
         <f>Januar!J39</f>
         <v>0</v>
       </c>
-      <c r="C42" s="405"/>
-      <c r="D42" s="405"/>
-      <c r="E42" s="405">
+      <c r="C42" s="422"/>
+      <c r="D42" s="422"/>
+      <c r="E42" s="422">
         <f>Februar!J39</f>
         <v>0</v>
       </c>
-      <c r="F42" s="405"/>
-      <c r="G42" s="405"/>
-      <c r="H42" s="405">
+      <c r="F42" s="422"/>
+      <c r="G42" s="422"/>
+      <c r="H42" s="422">
         <f>März!J39</f>
         <v>0</v>
       </c>
-      <c r="I42" s="405"/>
-      <c r="J42" s="405"/>
-      <c r="K42" s="405">
+      <c r="I42" s="422"/>
+      <c r="J42" s="422"/>
+      <c r="K42" s="422">
         <f>April!J39</f>
         <v>0</v>
       </c>
-      <c r="L42" s="405"/>
-      <c r="M42" s="405"/>
-      <c r="N42" s="405">
+      <c r="L42" s="422"/>
+      <c r="M42" s="422"/>
+      <c r="N42" s="422">
         <f>Mai!J39</f>
         <v>0</v>
       </c>
-      <c r="O42" s="405"/>
-      <c r="P42" s="405"/>
-      <c r="Q42" s="405">
+      <c r="O42" s="422"/>
+      <c r="P42" s="422"/>
+      <c r="Q42" s="422">
         <f>Juni!J39</f>
         <v>0</v>
       </c>
-      <c r="R42" s="405"/>
-      <c r="S42" s="405"/>
-      <c r="T42" s="405">
+      <c r="R42" s="422"/>
+      <c r="S42" s="422"/>
+      <c r="T42" s="422">
         <f>Juli!J39</f>
         <v>0</v>
       </c>
-      <c r="U42" s="405"/>
-      <c r="V42" s="405"/>
-      <c r="W42" s="405">
+      <c r="U42" s="422"/>
+      <c r="V42" s="422"/>
+      <c r="W42" s="422">
         <f>August!J39</f>
         <v>0</v>
       </c>
-      <c r="X42" s="405"/>
-      <c r="Y42" s="405"/>
-      <c r="Z42" s="405">
+      <c r="X42" s="422"/>
+      <c r="Y42" s="422"/>
+      <c r="Z42" s="422">
         <f>September!J39</f>
         <v>0</v>
       </c>
-      <c r="AA42" s="405"/>
-      <c r="AB42" s="405"/>
-      <c r="AC42" s="405">
+      <c r="AA42" s="422"/>
+      <c r="AB42" s="422"/>
+      <c r="AC42" s="422">
         <f>Oktober!J39</f>
         <v>0</v>
       </c>
-      <c r="AD42" s="405"/>
-      <c r="AE42" s="405"/>
-      <c r="AF42" s="405">
+      <c r="AD42" s="422"/>
+      <c r="AE42" s="422"/>
+      <c r="AF42" s="422">
         <f>November!J39</f>
         <v>0</v>
       </c>
-      <c r="AG42" s="405"/>
-      <c r="AH42" s="405"/>
-      <c r="AI42" s="405">
+      <c r="AG42" s="422"/>
+      <c r="AH42" s="422"/>
+      <c r="AI42" s="422">
         <f>Dezember!J39</f>
         <v>0</v>
       </c>
-      <c r="AJ42" s="405"/>
-      <c r="AK42" s="405"/>
+      <c r="AJ42" s="422"/>
+      <c r="AK42" s="422"/>
       <c r="AL42" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24051,78 +24051,78 @@
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;")"&amp;"/("&amp;Voreinstellungen!B26&amp;")"</f>
         <v>Urlaub (U)/(UH)</v>
       </c>
-      <c r="B43" s="405">
+      <c r="B43" s="422">
         <f>Januar!J37</f>
         <v>0</v>
       </c>
-      <c r="C43" s="405"/>
-      <c r="D43" s="405"/>
-      <c r="E43" s="405">
+      <c r="C43" s="422"/>
+      <c r="D43" s="422"/>
+      <c r="E43" s="422">
         <f>Februar!J37</f>
         <v>0</v>
       </c>
-      <c r="F43" s="405"/>
-      <c r="G43" s="405"/>
-      <c r="H43" s="405">
+      <c r="F43" s="422"/>
+      <c r="G43" s="422"/>
+      <c r="H43" s="422">
         <f>März!J37</f>
         <v>0</v>
       </c>
-      <c r="I43" s="405"/>
-      <c r="J43" s="405"/>
-      <c r="K43" s="405">
+      <c r="I43" s="422"/>
+      <c r="J43" s="422"/>
+      <c r="K43" s="422">
         <f>April!J37</f>
         <v>0</v>
       </c>
-      <c r="L43" s="405"/>
-      <c r="M43" s="405"/>
-      <c r="N43" s="405">
+      <c r="L43" s="422"/>
+      <c r="M43" s="422"/>
+      <c r="N43" s="422">
         <f>Mai!J37</f>
         <v>0</v>
       </c>
-      <c r="O43" s="405"/>
-      <c r="P43" s="405"/>
-      <c r="Q43" s="405">
+      <c r="O43" s="422"/>
+      <c r="P43" s="422"/>
+      <c r="Q43" s="422">
         <f>Juni!J37</f>
         <v>0</v>
       </c>
-      <c r="R43" s="405"/>
-      <c r="S43" s="405"/>
-      <c r="T43" s="405">
+      <c r="R43" s="422"/>
+      <c r="S43" s="422"/>
+      <c r="T43" s="422">
         <f>Juli!J37</f>
         <v>0</v>
       </c>
-      <c r="U43" s="405"/>
-      <c r="V43" s="405"/>
-      <c r="W43" s="405">
+      <c r="U43" s="422"/>
+      <c r="V43" s="422"/>
+      <c r="W43" s="422">
         <f>August!J37</f>
         <v>0</v>
       </c>
-      <c r="X43" s="405"/>
-      <c r="Y43" s="405"/>
-      <c r="Z43" s="405">
+      <c r="X43" s="422"/>
+      <c r="Y43" s="422"/>
+      <c r="Z43" s="422">
         <f>September!J37</f>
         <v>0</v>
       </c>
-      <c r="AA43" s="405"/>
-      <c r="AB43" s="405"/>
-      <c r="AC43" s="405">
+      <c r="AA43" s="422"/>
+      <c r="AB43" s="422"/>
+      <c r="AC43" s="422">
         <f>Oktober!J37</f>
         <v>0</v>
       </c>
-      <c r="AD43" s="405"/>
-      <c r="AE43" s="405"/>
-      <c r="AF43" s="405">
+      <c r="AD43" s="422"/>
+      <c r="AE43" s="422"/>
+      <c r="AF43" s="422">
         <f>November!J37</f>
         <v>0</v>
       </c>
-      <c r="AG43" s="405"/>
-      <c r="AH43" s="405"/>
-      <c r="AI43" s="405">
+      <c r="AG43" s="422"/>
+      <c r="AH43" s="422"/>
+      <c r="AI43" s="422">
         <f>Dezember!J37</f>
         <v>0</v>
       </c>
-      <c r="AJ43" s="405"/>
-      <c r="AK43" s="405"/>
+      <c r="AJ43" s="422"/>
+      <c r="AK43" s="422"/>
       <c r="AL43" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24133,78 +24133,78 @@
         <f>IF(Voreinstellungen!A28="","",Voreinstellungen!A28&amp;" ("&amp;Voreinstellungen!B28&amp;")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="B44" s="405">
+      <c r="B44" s="422">
         <f>Januar!J42</f>
         <v>0</v>
       </c>
-      <c r="C44" s="405"/>
-      <c r="D44" s="405"/>
-      <c r="E44" s="405">
+      <c r="C44" s="422"/>
+      <c r="D44" s="422"/>
+      <c r="E44" s="422">
         <f>Februar!J42</f>
         <v>0</v>
       </c>
-      <c r="F44" s="405"/>
-      <c r="G44" s="405"/>
-      <c r="H44" s="405">
+      <c r="F44" s="422"/>
+      <c r="G44" s="422"/>
+      <c r="H44" s="422">
         <f>März!J42</f>
         <v>0</v>
       </c>
-      <c r="I44" s="405"/>
-      <c r="J44" s="405"/>
-      <c r="K44" s="405">
+      <c r="I44" s="422"/>
+      <c r="J44" s="422"/>
+      <c r="K44" s="422">
         <f>April!J42</f>
         <v>0</v>
       </c>
-      <c r="L44" s="405"/>
-      <c r="M44" s="405"/>
-      <c r="N44" s="405">
+      <c r="L44" s="422"/>
+      <c r="M44" s="422"/>
+      <c r="N44" s="422">
         <f>Mai!J42</f>
         <v>0</v>
       </c>
-      <c r="O44" s="405"/>
-      <c r="P44" s="405"/>
-      <c r="Q44" s="405">
+      <c r="O44" s="422"/>
+      <c r="P44" s="422"/>
+      <c r="Q44" s="422">
         <f>Juni!J42</f>
         <v>0</v>
       </c>
-      <c r="R44" s="405"/>
-      <c r="S44" s="405"/>
-      <c r="T44" s="405">
+      <c r="R44" s="422"/>
+      <c r="S44" s="422"/>
+      <c r="T44" s="422">
         <f>Juli!J42</f>
         <v>0</v>
       </c>
-      <c r="U44" s="405"/>
-      <c r="V44" s="405"/>
-      <c r="W44" s="405">
+      <c r="U44" s="422"/>
+      <c r="V44" s="422"/>
+      <c r="W44" s="422">
         <f>August!J42</f>
         <v>0</v>
       </c>
-      <c r="X44" s="405"/>
-      <c r="Y44" s="405"/>
-      <c r="Z44" s="405">
+      <c r="X44" s="422"/>
+      <c r="Y44" s="422"/>
+      <c r="Z44" s="422">
         <f>September!J42</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="405"/>
-      <c r="AB44" s="405"/>
-      <c r="AC44" s="405">
+      <c r="AA44" s="422"/>
+      <c r="AB44" s="422"/>
+      <c r="AC44" s="422">
         <f>Oktober!J42</f>
         <v>0</v>
       </c>
-      <c r="AD44" s="405"/>
-      <c r="AE44" s="405"/>
-      <c r="AF44" s="405">
+      <c r="AD44" s="422"/>
+      <c r="AE44" s="422"/>
+      <c r="AF44" s="422">
         <f>November!J42</f>
         <v>0</v>
       </c>
-      <c r="AG44" s="405"/>
-      <c r="AH44" s="405"/>
-      <c r="AI44" s="405">
+      <c r="AG44" s="422"/>
+      <c r="AH44" s="422"/>
+      <c r="AI44" s="422">
         <f>Dezember!J42</f>
         <v>0</v>
       </c>
-      <c r="AJ44" s="405"/>
-      <c r="AK44" s="405"/>
+      <c r="AJ44" s="422"/>
+      <c r="AK44" s="422"/>
       <c r="AL44" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24215,78 +24215,78 @@
         <f>IF(Voreinstellungen!A29="","",Voreinstellungen!A29&amp;" ("&amp;Voreinstellungen!B29&amp;")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="B45" s="405">
+      <c r="B45" s="422">
         <f>Januar!J43</f>
         <v>0</v>
       </c>
-      <c r="C45" s="405"/>
-      <c r="D45" s="405"/>
-      <c r="E45" s="405">
+      <c r="C45" s="422"/>
+      <c r="D45" s="422"/>
+      <c r="E45" s="422">
         <f>Februar!J43</f>
         <v>0</v>
       </c>
-      <c r="F45" s="405"/>
-      <c r="G45" s="405"/>
-      <c r="H45" s="405">
+      <c r="F45" s="422"/>
+      <c r="G45" s="422"/>
+      <c r="H45" s="422">
         <f>März!J43</f>
         <v>0</v>
       </c>
-      <c r="I45" s="405"/>
-      <c r="J45" s="405"/>
-      <c r="K45" s="405">
+      <c r="I45" s="422"/>
+      <c r="J45" s="422"/>
+      <c r="K45" s="422">
         <f>April!J43</f>
         <v>0</v>
       </c>
-      <c r="L45" s="405"/>
-      <c r="M45" s="405"/>
-      <c r="N45" s="405">
+      <c r="L45" s="422"/>
+      <c r="M45" s="422"/>
+      <c r="N45" s="422">
         <f>Mai!J43</f>
         <v>0</v>
       </c>
-      <c r="O45" s="405"/>
-      <c r="P45" s="405"/>
-      <c r="Q45" s="405">
+      <c r="O45" s="422"/>
+      <c r="P45" s="422"/>
+      <c r="Q45" s="422">
         <f>Juni!J43</f>
         <v>0</v>
       </c>
-      <c r="R45" s="405"/>
-      <c r="S45" s="405"/>
-      <c r="T45" s="405">
+      <c r="R45" s="422"/>
+      <c r="S45" s="422"/>
+      <c r="T45" s="422">
         <f>Juli!J43</f>
         <v>0</v>
       </c>
-      <c r="U45" s="405"/>
-      <c r="V45" s="405"/>
-      <c r="W45" s="405">
+      <c r="U45" s="422"/>
+      <c r="V45" s="422"/>
+      <c r="W45" s="422">
         <f>August!J43</f>
         <v>0</v>
       </c>
-      <c r="X45" s="405"/>
-      <c r="Y45" s="405"/>
-      <c r="Z45" s="405">
+      <c r="X45" s="422"/>
+      <c r="Y45" s="422"/>
+      <c r="Z45" s="422">
         <f>September!J43</f>
         <v>0</v>
       </c>
-      <c r="AA45" s="405"/>
-      <c r="AB45" s="405"/>
-      <c r="AC45" s="405">
+      <c r="AA45" s="422"/>
+      <c r="AB45" s="422"/>
+      <c r="AC45" s="422">
         <f>Oktober!J43</f>
         <v>0</v>
       </c>
-      <c r="AD45" s="405"/>
-      <c r="AE45" s="405"/>
-      <c r="AF45" s="405">
+      <c r="AD45" s="422"/>
+      <c r="AE45" s="422"/>
+      <c r="AF45" s="422">
         <f>November!J43</f>
         <v>0</v>
       </c>
-      <c r="AG45" s="405"/>
-      <c r="AH45" s="405"/>
-      <c r="AI45" s="405">
+      <c r="AG45" s="422"/>
+      <c r="AH45" s="422"/>
+      <c r="AI45" s="422">
         <f>Dezember!J43</f>
         <v>0</v>
       </c>
-      <c r="AJ45" s="405"/>
-      <c r="AK45" s="405"/>
+      <c r="AJ45" s="422"/>
+      <c r="AK45" s="422"/>
       <c r="AL45" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24297,78 +24297,78 @@
         <f>IF(Voreinstellungen!A30="","",Voreinstellungen!A30&amp;" ("&amp;Voreinstellungen!B30&amp;")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="B46" s="405">
+      <c r="B46" s="422">
         <f>Januar!J44</f>
         <v>0</v>
       </c>
-      <c r="C46" s="405"/>
-      <c r="D46" s="405"/>
-      <c r="E46" s="405">
+      <c r="C46" s="422"/>
+      <c r="D46" s="422"/>
+      <c r="E46" s="422">
         <f>Februar!J44</f>
         <v>0</v>
       </c>
-      <c r="F46" s="405"/>
-      <c r="G46" s="405"/>
-      <c r="H46" s="405">
+      <c r="F46" s="422"/>
+      <c r="G46" s="422"/>
+      <c r="H46" s="422">
         <f>März!J44</f>
         <v>0</v>
       </c>
-      <c r="I46" s="405"/>
-      <c r="J46" s="405"/>
-      <c r="K46" s="405">
+      <c r="I46" s="422"/>
+      <c r="J46" s="422"/>
+      <c r="K46" s="422">
         <f>April!J44</f>
         <v>0</v>
       </c>
-      <c r="L46" s="405"/>
-      <c r="M46" s="405"/>
-      <c r="N46" s="405">
+      <c r="L46" s="422"/>
+      <c r="M46" s="422"/>
+      <c r="N46" s="422">
         <f>Mai!J44</f>
         <v>0</v>
       </c>
-      <c r="O46" s="405"/>
-      <c r="P46" s="405"/>
-      <c r="Q46" s="405">
+      <c r="O46" s="422"/>
+      <c r="P46" s="422"/>
+      <c r="Q46" s="422">
         <f>Juni!J44</f>
         <v>0</v>
       </c>
-      <c r="R46" s="405"/>
-      <c r="S46" s="405"/>
-      <c r="T46" s="405">
+      <c r="R46" s="422"/>
+      <c r="S46" s="422"/>
+      <c r="T46" s="422">
         <f>Juli!J44</f>
         <v>0</v>
       </c>
-      <c r="U46" s="405"/>
-      <c r="V46" s="405"/>
-      <c r="W46" s="405">
+      <c r="U46" s="422"/>
+      <c r="V46" s="422"/>
+      <c r="W46" s="422">
         <f>August!J44</f>
         <v>0</v>
       </c>
-      <c r="X46" s="405"/>
-      <c r="Y46" s="405"/>
-      <c r="Z46" s="405">
+      <c r="X46" s="422"/>
+      <c r="Y46" s="422"/>
+      <c r="Z46" s="422">
         <f>September!J44</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="405"/>
-      <c r="AB46" s="405"/>
-      <c r="AC46" s="405">
+      <c r="AA46" s="422"/>
+      <c r="AB46" s="422"/>
+      <c r="AC46" s="422">
         <f>Oktober!J44</f>
         <v>0</v>
       </c>
-      <c r="AD46" s="405"/>
-      <c r="AE46" s="405"/>
-      <c r="AF46" s="405">
+      <c r="AD46" s="422"/>
+      <c r="AE46" s="422"/>
+      <c r="AF46" s="422">
         <f>November!J44</f>
         <v>0</v>
       </c>
-      <c r="AG46" s="405"/>
-      <c r="AH46" s="405"/>
-      <c r="AI46" s="405">
+      <c r="AG46" s="422"/>
+      <c r="AH46" s="422"/>
+      <c r="AI46" s="422">
         <f>Dezember!J44</f>
         <v>0</v>
       </c>
-      <c r="AJ46" s="405"/>
-      <c r="AK46" s="405"/>
+      <c r="AJ46" s="422"/>
+      <c r="AK46" s="422"/>
       <c r="AL46" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24379,78 +24379,78 @@
         <f>IF(Voreinstellungen!A31="","",Voreinstellungen!A31&amp;" ("&amp;Voreinstellungen!B31&amp;")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="B47" s="405">
+      <c r="B47" s="422">
         <f>Januar!J45</f>
         <v>0</v>
       </c>
-      <c r="C47" s="405"/>
-      <c r="D47" s="405"/>
-      <c r="E47" s="405">
+      <c r="C47" s="422"/>
+      <c r="D47" s="422"/>
+      <c r="E47" s="422">
         <f>Februar!J45</f>
         <v>0</v>
       </c>
-      <c r="F47" s="405"/>
-      <c r="G47" s="405"/>
-      <c r="H47" s="405">
+      <c r="F47" s="422"/>
+      <c r="G47" s="422"/>
+      <c r="H47" s="422">
         <f>März!J45</f>
         <v>0</v>
       </c>
-      <c r="I47" s="405"/>
-      <c r="J47" s="405"/>
-      <c r="K47" s="405">
+      <c r="I47" s="422"/>
+      <c r="J47" s="422"/>
+      <c r="K47" s="422">
         <f>April!J45</f>
         <v>0</v>
       </c>
-      <c r="L47" s="405"/>
-      <c r="M47" s="405"/>
-      <c r="N47" s="405">
+      <c r="L47" s="422"/>
+      <c r="M47" s="422"/>
+      <c r="N47" s="422">
         <f>Mai!J45</f>
         <v>0</v>
       </c>
-      <c r="O47" s="405"/>
-      <c r="P47" s="405"/>
-      <c r="Q47" s="405">
+      <c r="O47" s="422"/>
+      <c r="P47" s="422"/>
+      <c r="Q47" s="422">
         <f>Juni!J45</f>
         <v>0</v>
       </c>
-      <c r="R47" s="405"/>
-      <c r="S47" s="405"/>
-      <c r="T47" s="405">
+      <c r="R47" s="422"/>
+      <c r="S47" s="422"/>
+      <c r="T47" s="422">
         <f>Juli!J45</f>
         <v>0</v>
       </c>
-      <c r="U47" s="405"/>
-      <c r="V47" s="405"/>
-      <c r="W47" s="405">
+      <c r="U47" s="422"/>
+      <c r="V47" s="422"/>
+      <c r="W47" s="422">
         <f>August!J45</f>
         <v>0</v>
       </c>
-      <c r="X47" s="405"/>
-      <c r="Y47" s="405"/>
-      <c r="Z47" s="405">
+      <c r="X47" s="422"/>
+      <c r="Y47" s="422"/>
+      <c r="Z47" s="422">
         <f>September!J45</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="405"/>
-      <c r="AB47" s="405"/>
-      <c r="AC47" s="405">
+      <c r="AA47" s="422"/>
+      <c r="AB47" s="422"/>
+      <c r="AC47" s="422">
         <f>Oktober!J45</f>
         <v>0</v>
       </c>
-      <c r="AD47" s="405"/>
-      <c r="AE47" s="405"/>
-      <c r="AF47" s="405">
+      <c r="AD47" s="422"/>
+      <c r="AE47" s="422"/>
+      <c r="AF47" s="422">
         <f>November!J45</f>
         <v>0</v>
       </c>
-      <c r="AG47" s="405"/>
-      <c r="AH47" s="405"/>
-      <c r="AI47" s="405">
+      <c r="AG47" s="422"/>
+      <c r="AH47" s="422"/>
+      <c r="AI47" s="422">
         <f>Dezember!J45</f>
         <v>0</v>
       </c>
-      <c r="AJ47" s="405"/>
-      <c r="AK47" s="405"/>
+      <c r="AJ47" s="422"/>
+      <c r="AK47" s="422"/>
       <c r="AL47" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24461,78 +24461,78 @@
         <f>IF(Voreinstellungen!A32="","",Voreinstellungen!A32&amp;" ("&amp;Voreinstellungen!B32&amp;")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="B48" s="405">
+      <c r="B48" s="422">
         <f>Januar!J46</f>
         <v>0</v>
       </c>
-      <c r="C48" s="405"/>
-      <c r="D48" s="405"/>
-      <c r="E48" s="405">
+      <c r="C48" s="422"/>
+      <c r="D48" s="422"/>
+      <c r="E48" s="422">
         <f>Februar!J46</f>
         <v>0</v>
       </c>
-      <c r="F48" s="405"/>
-      <c r="G48" s="405"/>
-      <c r="H48" s="405">
+      <c r="F48" s="422"/>
+      <c r="G48" s="422"/>
+      <c r="H48" s="422">
         <f>März!J46</f>
         <v>0</v>
       </c>
-      <c r="I48" s="405"/>
-      <c r="J48" s="405"/>
-      <c r="K48" s="405">
+      <c r="I48" s="422"/>
+      <c r="J48" s="422"/>
+      <c r="K48" s="422">
         <f>April!J46</f>
         <v>0</v>
       </c>
-      <c r="L48" s="405"/>
-      <c r="M48" s="405"/>
-      <c r="N48" s="405">
+      <c r="L48" s="422"/>
+      <c r="M48" s="422"/>
+      <c r="N48" s="422">
         <f>Mai!J46</f>
         <v>0</v>
       </c>
-      <c r="O48" s="405"/>
-      <c r="P48" s="405"/>
-      <c r="Q48" s="405">
+      <c r="O48" s="422"/>
+      <c r="P48" s="422"/>
+      <c r="Q48" s="422">
         <f>Juni!J46</f>
         <v>0</v>
       </c>
-      <c r="R48" s="405"/>
-      <c r="S48" s="405"/>
-      <c r="T48" s="405">
+      <c r="R48" s="422"/>
+      <c r="S48" s="422"/>
+      <c r="T48" s="422">
         <f>Juli!J46</f>
         <v>0</v>
       </c>
-      <c r="U48" s="405"/>
-      <c r="V48" s="405"/>
-      <c r="W48" s="405">
+      <c r="U48" s="422"/>
+      <c r="V48" s="422"/>
+      <c r="W48" s="422">
         <f>August!J46</f>
         <v>0</v>
       </c>
-      <c r="X48" s="405"/>
-      <c r="Y48" s="405"/>
-      <c r="Z48" s="405">
+      <c r="X48" s="422"/>
+      <c r="Y48" s="422"/>
+      <c r="Z48" s="422">
         <f>September!J46</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="405"/>
-      <c r="AB48" s="405"/>
-      <c r="AC48" s="405">
+      <c r="AA48" s="422"/>
+      <c r="AB48" s="422"/>
+      <c r="AC48" s="422">
         <f>Oktober!J46</f>
         <v>0</v>
       </c>
-      <c r="AD48" s="405"/>
-      <c r="AE48" s="405"/>
-      <c r="AF48" s="405">
+      <c r="AD48" s="422"/>
+      <c r="AE48" s="422"/>
+      <c r="AF48" s="422">
         <f>November!J46</f>
         <v>0</v>
       </c>
-      <c r="AG48" s="405"/>
-      <c r="AH48" s="405"/>
-      <c r="AI48" s="405">
+      <c r="AG48" s="422"/>
+      <c r="AH48" s="422"/>
+      <c r="AI48" s="422">
         <f>Dezember!J46</f>
         <v>0</v>
       </c>
-      <c r="AJ48" s="405"/>
-      <c r="AK48" s="405"/>
+      <c r="AJ48" s="422"/>
+      <c r="AK48" s="422"/>
       <c r="AL48" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24543,78 +24543,78 @@
         <f>IF(Voreinstellungen!A33="","",Voreinstellungen!A33&amp;" ("&amp;Voreinstellungen!B33&amp;")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="B49" s="406">
+      <c r="B49" s="425">
         <f>Januar!J47</f>
         <v>0</v>
       </c>
-      <c r="C49" s="406"/>
-      <c r="D49" s="406"/>
-      <c r="E49" s="406">
+      <c r="C49" s="425"/>
+      <c r="D49" s="425"/>
+      <c r="E49" s="425">
         <f>Februar!J47</f>
         <v>0</v>
       </c>
-      <c r="F49" s="406"/>
-      <c r="G49" s="406"/>
-      <c r="H49" s="406">
+      <c r="F49" s="425"/>
+      <c r="G49" s="425"/>
+      <c r="H49" s="425">
         <f>März!J47</f>
         <v>0</v>
       </c>
-      <c r="I49" s="406"/>
-      <c r="J49" s="406"/>
-      <c r="K49" s="406">
+      <c r="I49" s="425"/>
+      <c r="J49" s="425"/>
+      <c r="K49" s="425">
         <f>April!J47</f>
         <v>0</v>
       </c>
-      <c r="L49" s="406"/>
-      <c r="M49" s="406"/>
-      <c r="N49" s="406">
+      <c r="L49" s="425"/>
+      <c r="M49" s="425"/>
+      <c r="N49" s="425">
         <f>Mai!J47</f>
         <v>0</v>
       </c>
-      <c r="O49" s="406"/>
-      <c r="P49" s="406"/>
-      <c r="Q49" s="406">
+      <c r="O49" s="425"/>
+      <c r="P49" s="425"/>
+      <c r="Q49" s="425">
         <f>Juni!J47</f>
         <v>0</v>
       </c>
-      <c r="R49" s="406"/>
-      <c r="S49" s="406"/>
-      <c r="T49" s="406">
+      <c r="R49" s="425"/>
+      <c r="S49" s="425"/>
+      <c r="T49" s="425">
         <f>Juli!J47</f>
         <v>0</v>
       </c>
-      <c r="U49" s="406"/>
-      <c r="V49" s="406"/>
-      <c r="W49" s="406">
+      <c r="U49" s="425"/>
+      <c r="V49" s="425"/>
+      <c r="W49" s="425">
         <f>August!J47</f>
         <v>0</v>
       </c>
-      <c r="X49" s="406"/>
-      <c r="Y49" s="406"/>
-      <c r="Z49" s="406">
+      <c r="X49" s="425"/>
+      <c r="Y49" s="425"/>
+      <c r="Z49" s="425">
         <f>September!J47</f>
         <v>0</v>
       </c>
-      <c r="AA49" s="406"/>
-      <c r="AB49" s="406"/>
-      <c r="AC49" s="406">
+      <c r="AA49" s="425"/>
+      <c r="AB49" s="425"/>
+      <c r="AC49" s="425">
         <f>Oktober!J47</f>
         <v>0</v>
       </c>
-      <c r="AD49" s="406"/>
-      <c r="AE49" s="406"/>
-      <c r="AF49" s="406">
+      <c r="AD49" s="425"/>
+      <c r="AE49" s="425"/>
+      <c r="AF49" s="425">
         <f>November!J47</f>
         <v>0</v>
       </c>
-      <c r="AG49" s="406"/>
-      <c r="AH49" s="406"/>
-      <c r="AI49" s="406">
+      <c r="AG49" s="425"/>
+      <c r="AH49" s="425"/>
+      <c r="AI49" s="425">
         <f>Dezember!J47</f>
         <v>0</v>
       </c>
-      <c r="AJ49" s="406"/>
-      <c r="AK49" s="406"/>
+      <c r="AJ49" s="425"/>
+      <c r="AK49" s="425"/>
       <c r="AL49" s="345">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24625,78 +24625,78 @@
         <f>Voreinstellungen!A23&amp;" ("&amp;Voreinstellungen!B23&amp;"/"&amp;Voreinstellungen!B24&amp;")"</f>
         <v>Kurzarbeit (KU/KA)</v>
       </c>
-      <c r="B50" s="407">
+      <c r="B50" s="426">
         <f>Januar!P39</f>
         <v>0</v>
       </c>
-      <c r="C50" s="407"/>
-      <c r="D50" s="407"/>
-      <c r="E50" s="407">
+      <c r="C50" s="426"/>
+      <c r="D50" s="426"/>
+      <c r="E50" s="426">
         <f>Februar!P39</f>
         <v>0</v>
       </c>
-      <c r="F50" s="407"/>
-      <c r="G50" s="407"/>
-      <c r="H50" s="407">
+      <c r="F50" s="426"/>
+      <c r="G50" s="426"/>
+      <c r="H50" s="426">
         <f>März!P39</f>
         <v>0</v>
       </c>
-      <c r="I50" s="407"/>
-      <c r="J50" s="407"/>
-      <c r="K50" s="407">
+      <c r="I50" s="426"/>
+      <c r="J50" s="426"/>
+      <c r="K50" s="426">
         <f>April!P39</f>
         <v>0</v>
       </c>
-      <c r="L50" s="407"/>
-      <c r="M50" s="407"/>
-      <c r="N50" s="407">
+      <c r="L50" s="426"/>
+      <c r="M50" s="426"/>
+      <c r="N50" s="426">
         <f>Mai!P39</f>
         <v>0</v>
       </c>
-      <c r="O50" s="407"/>
-      <c r="P50" s="407"/>
-      <c r="Q50" s="407">
+      <c r="O50" s="426"/>
+      <c r="P50" s="426"/>
+      <c r="Q50" s="426">
         <f>Juni!P39</f>
         <v>0</v>
       </c>
-      <c r="R50" s="407"/>
-      <c r="S50" s="407"/>
-      <c r="T50" s="407">
+      <c r="R50" s="426"/>
+      <c r="S50" s="426"/>
+      <c r="T50" s="426">
         <f>Juli!P39</f>
         <v>0</v>
       </c>
-      <c r="U50" s="407"/>
-      <c r="V50" s="407"/>
-      <c r="W50" s="407">
+      <c r="U50" s="426"/>
+      <c r="V50" s="426"/>
+      <c r="W50" s="426">
         <f>August!P39</f>
         <v>0</v>
       </c>
-      <c r="X50" s="407"/>
-      <c r="Y50" s="407"/>
-      <c r="Z50" s="407">
+      <c r="X50" s="426"/>
+      <c r="Y50" s="426"/>
+      <c r="Z50" s="426">
         <f>September!P39</f>
         <v>0</v>
       </c>
-      <c r="AA50" s="407"/>
-      <c r="AB50" s="407"/>
-      <c r="AC50" s="407">
+      <c r="AA50" s="426"/>
+      <c r="AB50" s="426"/>
+      <c r="AC50" s="426">
         <f>Oktober!P39</f>
         <v>0</v>
       </c>
-      <c r="AD50" s="407"/>
-      <c r="AE50" s="407"/>
-      <c r="AF50" s="407">
+      <c r="AD50" s="426"/>
+      <c r="AE50" s="426"/>
+      <c r="AF50" s="426">
         <f>November!P39</f>
         <v>0</v>
       </c>
-      <c r="AG50" s="407"/>
-      <c r="AH50" s="407"/>
-      <c r="AI50" s="407">
+      <c r="AG50" s="426"/>
+      <c r="AH50" s="426"/>
+      <c r="AI50" s="426">
         <f>Dezember!P39</f>
         <v>0</v>
       </c>
-      <c r="AJ50" s="407"/>
-      <c r="AK50" s="407"/>
+      <c r="AJ50" s="426"/>
+      <c r="AK50" s="426"/>
       <c r="AL50" s="257">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24705,23 +24705,173 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ULs8CaE8jYKyq0Qm0xansyOebF3btUSqUz6IOiad1Adl94OHsV4iwVCV23Ea2hIZUZuXiwTKCyndrGMaAIXqpg==" saltValue="DQP1StXmrS+ACnfAoqZYYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="208">
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="E1:AH2"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="AF39:AH39"/>
+    <mergeCell ref="AI39:AK39"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="AC50:AE50"/>
+    <mergeCell ref="AF50:AH50"/>
+    <mergeCell ref="AC48:AE48"/>
+    <mergeCell ref="AF48:AH48"/>
+    <mergeCell ref="AI48:AK48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="AI50:AK50"/>
+    <mergeCell ref="AI49:AK49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="AF49:AH49"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="W50:Y50"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AK46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AC47:AE47"/>
+    <mergeCell ref="AF47:AH47"/>
+    <mergeCell ref="AI47:AK47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AC44:AE44"/>
+    <mergeCell ref="AF44:AH44"/>
+    <mergeCell ref="AI44:AK44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AC45:AE45"/>
+    <mergeCell ref="AF45:AH45"/>
+    <mergeCell ref="AI45:AK45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="AF42:AH42"/>
+    <mergeCell ref="AI42:AK42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="AF43:AH43"/>
+    <mergeCell ref="AI43:AK43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="AF40:AH40"/>
+    <mergeCell ref="AI40:AK40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="AF41:AH41"/>
+    <mergeCell ref="AI41:AK41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="AF38:AH38"/>
+    <mergeCell ref="AI38:AK38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:X37"/>
     <mergeCell ref="Z37:AA37"/>
     <mergeCell ref="AC35:AD35"/>
     <mergeCell ref="AF35:AG35"/>
@@ -24746,173 +24896,23 @@
     <mergeCell ref="Q35:R35"/>
     <mergeCell ref="T35:U35"/>
     <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="AF38:AH38"/>
-    <mergeCell ref="AI38:AK38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="AF40:AH40"/>
-    <mergeCell ref="AI40:AK40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="AF41:AH41"/>
-    <mergeCell ref="AI41:AK41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="AF42:AH42"/>
-    <mergeCell ref="AI42:AK42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="AF43:AH43"/>
-    <mergeCell ref="AI43:AK43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AC44:AE44"/>
-    <mergeCell ref="AF44:AH44"/>
-    <mergeCell ref="AI44:AK44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AC45:AE45"/>
-    <mergeCell ref="AF45:AH45"/>
-    <mergeCell ref="AI45:AK45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AK46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AC47:AE47"/>
-    <mergeCell ref="AF47:AH47"/>
-    <mergeCell ref="AI47:AK47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="W46:Y46"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="AC50:AE50"/>
-    <mergeCell ref="AF50:AH50"/>
-    <mergeCell ref="AC48:AE48"/>
-    <mergeCell ref="AF48:AH48"/>
-    <mergeCell ref="AI48:AK48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="AI50:AK50"/>
-    <mergeCell ref="AI49:AK49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="AF49:AH49"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="W50:Y50"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="AF39:AH39"/>
-    <mergeCell ref="AI39:AK39"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="E1:AH2"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:D34">
     <cfRule type="expression" dxfId="117" priority="127">
@@ -26070,7 +26070,7 @@
       <c r="D2" s="92"/>
       <c r="E2" s="93">
         <f>Jahresübersicht!AL38</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -26775,16 +26775,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,1,1)</f>
         <v>44196</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -26795,20 +26795,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -26816,11 +26816,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="287" t="s">
@@ -26842,10 +26842,10 @@
       <c r="G3" s="290" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="390" t="s">
+      <c r="H3" s="398" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="391"/>
+      <c r="I3" s="399"/>
       <c r="J3" s="291" t="s">
         <v>24</v>
       </c>
@@ -28299,14 +28299,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -28331,14 +28331,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -28363,14 +28363,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28395,7 +28395,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -28422,10 +28422,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28437,10 +28437,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28454,14 +28454,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -28478,14 +28478,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -28506,14 +28506,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -28530,14 +28530,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -28554,14 +28554,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -28582,14 +28582,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -28598,6 +28598,14 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="oBN0r51dDECZFls/TRAJAd27W+TgL0++D9lshzBuMe37JDIPjzAnm/4XFLohKLime/fBemTKFXqJa2/SVgSDMA==" saltValue="9rbClIGXtx70peLMTAtvDA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K38:O38"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K47:O47"/>
     <mergeCell ref="K42:O42"/>
@@ -28606,14 +28614,6 @@
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K38:O38"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="303" priority="15">
@@ -28786,16 +28786,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,2,1)</f>
         <v>44227</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -28806,20 +28806,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -28827,11 +28827,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -30310,14 +30310,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -30342,14 +30342,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -30374,14 +30374,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30406,7 +30406,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -30433,10 +30433,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30448,10 +30448,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30465,14 +30465,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -30489,14 +30489,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -30517,14 +30517,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -30541,14 +30541,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -30565,14 +30565,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -30593,14 +30593,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -30609,6 +30609,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y6rmxDLPAughoR7jJQ0sYbv9kfWJhTEX26xayEFtXRyn02iMymx2d2if1VzL9B00xl/4Ttqic0gGXCy8h+ZU0Q==" saltValue="ycOUgX715xjWc1uyEcsw+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -30618,13 +30625,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="287" priority="9">
@@ -30797,16 +30797,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,3,1)</f>
         <v>44255</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -30817,20 +30817,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -30838,11 +30838,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -32363,14 +32363,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -32395,14 +32395,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -32427,14 +32427,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32459,7 +32459,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -32486,10 +32486,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32501,10 +32501,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32518,14 +32518,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -32542,14 +32542,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -32570,14 +32570,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -32594,14 +32594,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -32618,14 +32618,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -32646,14 +32646,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -32662,6 +32662,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ium0EoF68XxSI58RkPIJpAIl5Av08x4FXPIFpsrYuZ63ieW47f8XBZIqtWetTTOx10wRSo+z4hLxZUXvJC7Akw==" saltValue="zOg4DvyRe2VbbS4PWEwW1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -32671,13 +32678,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="271" priority="9">
@@ -32828,7 +32828,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -32850,16 +32850,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,4,1)</f>
         <v>44286</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -32870,20 +32870,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -32891,11 +32891,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -33733,8 +33733,12 @@
         <f t="shared" si="1"/>
         <v>Karfreitag</v>
       </c>
-      <c r="D21" s="325"/>
-      <c r="E21" s="325"/>
+      <c r="D21" s="325">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E21" s="325">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="F21" s="325"/>
       <c r="G21" s="325"/>
       <c r="H21" s="326"/>
@@ -33745,7 +33749,7 @@
       <c r="J21" s="163"/>
       <c r="K21" s="319">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.21875</v>
       </c>
       <c r="L21" s="320">
         <f t="shared" ca="1" si="3"/>
@@ -33753,16 +33757,18 @@
       </c>
       <c r="M21" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>0.21875</v>
       </c>
       <c r="N21" s="360">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="O21" s="165"/>
+      <c r="O21" s="165" t="s">
+        <v>144</v>
+      </c>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33807,7 +33813,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33852,7 +33858,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33897,7 +33903,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33942,7 +33948,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33987,7 +33993,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34032,7 +34038,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34077,7 +34083,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34122,7 +34128,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34167,7 +34173,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34212,7 +34218,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34257,7 +34263,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34302,7 +34308,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34386,14 +34392,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -34418,14 +34424,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -34442,7 +34448,7 @@
       </c>
       <c r="F38" s="171">
         <f>SUM(K4:K34)</f>
-        <v>0.28125000000000011</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="G38" s="53"/>
       <c r="I38" s="68"/>
@@ -34450,14 +34456,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34482,7 +34488,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -34498,21 +34504,21 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
       <c r="J40" s="210">
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34524,10 +34530,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34541,14 +34547,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -34565,14 +34571,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -34593,14 +34599,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -34617,14 +34623,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -34641,14 +34647,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -34669,14 +34675,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -34685,6 +34691,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="HdZ3F0mjmoV5DFx28D4MVNbjsTHEK/EhqlBMbQcFz3QaDVTjPn59ZfolJDNZ8ZZq73r/ru7s7K5k+lJnmNqcOg==" saltValue="HgrPnpOBPHk1rRzox3VdGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -34694,13 +34707,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="255" priority="9">
@@ -34873,16 +34879,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,5,1)</f>
         <v>44316</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -34893,20 +34899,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -34914,11 +34920,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -35008,7 +35014,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35053,7 +35059,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35098,7 +35104,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35143,7 +35149,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35188,7 +35194,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35233,7 +35239,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35278,7 +35284,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35323,7 +35329,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35368,7 +35374,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35413,7 +35419,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35458,7 +35464,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35503,7 +35509,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35548,7 +35554,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35593,7 +35599,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35638,7 +35644,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35683,7 +35689,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35728,7 +35734,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35773,7 +35779,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35818,7 +35824,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35863,7 +35869,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35908,7 +35914,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35953,7 +35959,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35998,7 +36004,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36043,7 +36049,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36088,7 +36094,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36133,7 +36139,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36178,7 +36184,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36223,7 +36229,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36268,7 +36274,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36313,7 +36319,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36358,7 +36364,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -36389,7 +36395,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">April!F40</f>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -36397,14 +36403,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -36429,14 +36435,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -36461,14 +36467,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36493,7 +36499,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -36509,7 +36515,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -36520,10 +36526,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36535,10 +36541,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36552,14 +36558,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -36576,14 +36582,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -36604,14 +36610,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -36628,14 +36634,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -36652,14 +36658,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -36680,14 +36686,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -36696,6 +36702,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QRQqXIlNhc+OQAiDPNu1TK+Ynzbi1gFXP6QsGKNA/9FZcHaHcYmGZ4msAg9wXPWQ5ACbbOQ+pHM1KuUwb/ARmw==" saltValue="6kgwADYOzywLgL2Yai7cyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -36705,13 +36718,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="239" priority="9">
@@ -36884,16 +36890,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,6,1)</f>
         <v>44347</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -36904,20 +36910,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -36925,11 +36931,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -37019,7 +37025,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37064,7 +37070,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37109,7 +37115,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37154,7 +37160,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37199,7 +37205,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37244,7 +37250,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37289,7 +37295,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37334,7 +37340,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37379,7 +37385,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37424,7 +37430,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37469,7 +37475,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37514,7 +37520,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37559,7 +37565,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37604,7 +37610,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37649,7 +37655,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37694,7 +37700,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37739,7 +37745,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37784,7 +37790,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37829,7 +37835,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37874,7 +37880,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37919,7 +37925,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37964,7 +37970,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38009,7 +38015,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38054,7 +38060,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38099,7 +38105,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38144,7 +38150,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38189,7 +38195,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38234,7 +38240,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38279,7 +38285,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38324,7 +38330,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38400,7 +38406,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Mai!F40</f>
-        <v>1.0833333333333299</v>
+        <v>1.3020833333333299</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -38408,14 +38414,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -38440,14 +38446,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -38472,14 +38478,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38504,7 +38510,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -38520,7 +38526,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -38531,10 +38537,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38546,10 +38552,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38563,14 +38569,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -38587,14 +38593,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -38615,14 +38621,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -38639,14 +38645,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -38663,14 +38669,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -38691,14 +38697,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -38707,6 +38713,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="fhTrPY6THDrD8+4Vt5qeYzFzpiAhzJFQvbKEJqo2+Ga2thRbk9rIndDcaxDkbPVaB0fvdXFGbxdyHG/oskG6VA==" saltValue="kL7dVike1ELP/RmEdcYUoA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -38716,13 +38729,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="223" priority="9">
@@ -38895,16 +38901,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,7,1)</f>
         <v>44377</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 23</v>
@@ -38915,20 +38921,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -38936,11 +38942,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -39030,7 +39036,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39075,7 +39081,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39120,7 +39126,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39165,7 +39171,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39210,7 +39216,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39255,7 +39261,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39300,7 +39306,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39345,7 +39351,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39390,7 +39396,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39435,7 +39441,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39480,7 +39486,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39525,7 +39531,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39570,7 +39576,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39615,7 +39621,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39660,7 +39666,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39705,7 +39711,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39750,7 +39756,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39795,7 +39801,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39840,7 +39846,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39885,7 +39891,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39930,7 +39936,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39975,7 +39981,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40020,7 +40026,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40065,7 +40071,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40110,7 +40116,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40155,7 +40161,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40200,7 +40206,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40245,7 +40251,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40290,7 +40296,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40335,7 +40341,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40380,7 +40386,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -40411,7 +40417,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juni!F40</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -40419,14 +40425,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -40451,14 +40457,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -40483,14 +40489,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40515,7 +40521,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -40531,7 +40537,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-2.0416666666666701</v>
+        <v>-1.8229166666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -40542,10 +40548,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40557,10 +40563,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40574,14 +40580,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -40598,14 +40604,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -40626,14 +40632,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -40650,14 +40656,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -40674,14 +40680,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -40702,14 +40708,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -40718,6 +40724,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="5JrgeHwuAVIPtwH1U07o0PqVK6YXu2rFbc1AuNL2akSFcmRQ/M9+mvVLNApYMuEj6Qoj/yZecDy4C6fld700HA==" saltValue="SzMXRk1wWUdzBCExZHeB2g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -40727,13 +40740,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="207" priority="9">

--- a/Arbeitszeit.xlsx
+++ b/Arbeitszeit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Philipp\Studium\Molecular-Test-Time-Adaptation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AA81EA-3E75-4C3E-9327-EF82AFE1F620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB7214B-EEDC-424E-A183-A3570E4FD87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="HCoKw4gRij0gV6dkJfNeqDY8SK+w2PMaLYVl2wyqiuSEdbwXoxG0BpbDJ/qeWfNHoSNSKsH2JW6N7mRDHC8t+w==" workbookSaltValue="AxSev/HzJnlnx2x5wdOaWw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="933" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="145">
   <si>
     <t>Benutzer-Voreinstellungen</t>
   </si>
@@ -5206,30 +5206,6 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="168" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -5284,6 +5260,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="168" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="170" fontId="2" fillId="7" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -5292,6 +5292,46 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="188" fontId="0" fillId="2" borderId="112" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="2" borderId="205" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="8" fillId="2" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="2" borderId="113" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="2" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="2" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
@@ -5329,47 +5369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="1" fillId="2" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="1" fillId="2" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="1" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="1" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="2" borderId="112" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="2" borderId="113" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="2" borderId="205" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="8" fillId="2" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -8458,16 +8458,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,8,1)</f>
         <v>44408</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -8478,20 +8478,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -8499,11 +8499,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -8593,7 +8593,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8638,7 +8638,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8683,7 +8683,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8728,7 +8728,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8773,7 +8773,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8818,7 +8818,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8863,7 +8863,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8908,7 +8908,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8953,7 +8953,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8998,7 +8998,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9043,7 +9043,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9088,7 +9088,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9133,7 +9133,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9178,7 +9178,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9223,7 +9223,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9268,7 +9268,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9313,7 +9313,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9358,7 +9358,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9403,7 +9403,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9448,7 +9448,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9493,7 +9493,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9538,7 +9538,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9583,7 +9583,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9628,7 +9628,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9673,7 +9673,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9718,7 +9718,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9763,7 +9763,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9808,7 +9808,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9853,7 +9853,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9898,7 +9898,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9943,7 +9943,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -9974,7 +9974,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juli!F40</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -9982,14 +9982,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -10014,14 +10014,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -10046,14 +10046,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10078,7 +10078,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -10105,10 +10105,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10120,10 +10120,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10137,14 +10137,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -10161,14 +10161,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -10189,14 +10189,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -10213,14 +10213,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -10237,14 +10237,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -10265,14 +10265,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -10281,13 +10281,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="u9sw9Wp4FxWrrZw2gOfkGI7WDfwQ2wzVzpXiQtTY4/flADuSruZDhtkNpKsXPRieyhxYdM1K4kVDyBMMhvPWXQ==" saltValue="ahMBA+MAYyJY9Z70TI5l7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -10297,6 +10290,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="191" priority="9">
@@ -10469,16 +10469,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,9,1)</f>
         <v>44439</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -10489,20 +10489,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -10510,11 +10510,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -10604,7 +10604,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10649,7 +10649,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10694,7 +10694,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10739,7 +10739,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10784,7 +10784,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10829,7 +10829,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10874,7 +10874,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10919,7 +10919,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10964,7 +10964,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11009,7 +11009,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11054,7 +11054,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11099,7 +11099,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11144,7 +11144,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11189,7 +11189,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11234,7 +11234,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11279,7 +11279,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11324,7 +11324,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11369,7 +11369,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11414,7 +11414,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11459,7 +11459,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11504,7 +11504,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11549,7 +11549,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11594,7 +11594,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11639,7 +11639,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11684,7 +11684,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11729,7 +11729,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11774,7 +11774,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11819,7 +11819,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11864,7 +11864,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11909,7 +11909,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">August!F40</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -11993,14 +11993,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -12025,14 +12025,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -12057,14 +12057,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12089,7 +12089,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -12116,10 +12116,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12131,10 +12131,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12148,14 +12148,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -12172,14 +12172,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -12200,14 +12200,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -12224,14 +12224,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -12248,14 +12248,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -12276,14 +12276,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -12292,13 +12292,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZwadLNizQthu+TvLNfXLzHOxARw83BIKNXnXY+M0ilE4dNWC9Xi45W9RUbnFnWYY/YjuB/TQHV534uE6uxgXzA==" saltValue="AZ6xCuoaQ+vRzuHj27R1+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -12308,6 +12301,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="175" priority="9">
@@ -12480,16 +12480,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,10,1)</f>
         <v>44469</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -12500,20 +12500,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -12521,11 +12521,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -12615,7 +12615,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12660,7 +12660,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12705,7 +12705,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12750,7 +12750,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12795,7 +12795,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12840,7 +12840,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12885,7 +12885,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12930,7 +12930,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12975,7 +12975,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13020,7 +13020,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13065,7 +13065,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13110,7 +13110,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13155,7 +13155,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13200,7 +13200,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13245,7 +13245,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13290,7 +13290,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13335,7 +13335,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13380,7 +13380,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13425,7 +13425,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13470,7 +13470,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13515,7 +13515,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13560,7 +13560,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13605,7 +13605,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13650,7 +13650,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13695,7 +13695,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13740,7 +13740,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13785,7 +13785,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13830,7 +13830,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13875,7 +13875,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13920,7 +13920,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13965,7 +13965,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">September!F40</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -14004,14 +14004,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -14036,14 +14036,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -14068,14 +14068,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14100,7 +14100,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -14116,7 +14116,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -14127,10 +14127,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14142,10 +14142,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14159,14 +14159,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -14183,14 +14183,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -14211,14 +14211,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -14235,14 +14235,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -14259,14 +14259,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -14287,14 +14287,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -14303,13 +14303,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ckjAp3M0inqzooLEfZdc4f/HjPsEfDCTdLAnZaayrnftQ4dctyoJ+NgDJqJCYUgWfqTF5VR9ZwUyJG5krlCuzg==" saltValue="ZTo5PKb7eGW+1GxNqRU9vw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -14319,6 +14312,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="159" priority="9">
@@ -14491,16 +14491,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,11,1)</f>
         <v>44500</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -14511,20 +14511,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -14532,11 +14532,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -14626,7 +14626,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14671,7 +14671,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14716,7 +14716,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14761,7 +14761,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14806,7 +14806,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14851,7 +14851,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14896,7 +14896,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14941,7 +14941,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14986,7 +14986,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15031,7 +15031,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15076,7 +15076,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15121,7 +15121,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15166,7 +15166,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15211,7 +15211,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15256,7 +15256,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15301,7 +15301,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15346,7 +15346,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15391,7 +15391,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15436,7 +15436,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15481,7 +15481,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15526,7 +15526,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15571,7 +15571,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15616,7 +15616,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15661,7 +15661,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15706,7 +15706,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15751,7 +15751,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15796,7 +15796,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15841,7 +15841,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15886,7 +15886,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15931,7 +15931,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16007,7 +16007,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Oktober!F40</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -16015,14 +16015,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -16047,14 +16047,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -16079,14 +16079,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16111,7 +16111,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -16138,10 +16138,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16153,10 +16153,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16170,14 +16170,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -16194,14 +16194,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -16222,14 +16222,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -16246,14 +16246,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -16270,14 +16270,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -16298,14 +16298,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -16314,13 +16314,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yUnueG6AI0b+TwSq9iNG4Cwzf8Hchd7cijzybRrJpWYCHjIcsKNjecErnlKgA/wi+14DH+HiWNKblmoAUs2xWw==" saltValue="QFUx+Ct/5TiVBTgg+aZ9AA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -16330,6 +16323,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="143" priority="9">
@@ -16502,16 +16502,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,12,1)</f>
         <v>44530</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 18</v>
@@ -16522,20 +16522,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -16543,11 +16543,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -16637,7 +16637,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16682,7 +16682,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16727,7 +16727,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16772,7 +16772,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16817,7 +16817,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16862,7 +16862,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16907,7 +16907,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16952,7 +16952,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16997,7 +16997,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17042,7 +17042,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17087,7 +17087,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17132,7 +17132,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17177,7 +17177,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17222,7 +17222,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17267,7 +17267,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17312,7 +17312,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17357,7 +17357,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17402,7 +17402,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17447,7 +17447,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17492,7 +17492,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17537,7 +17537,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17582,7 +17582,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17627,7 +17627,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17672,7 +17672,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17717,7 +17717,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17762,7 +17762,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17807,7 +17807,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17852,7 +17852,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17897,7 +17897,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17942,7 +17942,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17987,7 +17987,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">November!F40</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -18026,14 +18026,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -18058,14 +18058,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -18090,14 +18090,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18122,7 +18122,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -18138,7 +18138,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -18149,10 +18149,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18164,10 +18164,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18181,14 +18181,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -18205,14 +18205,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -18233,14 +18233,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -18257,14 +18257,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -18281,14 +18281,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -18309,14 +18309,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -18325,13 +18325,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="syEdLlnr28ns1fephgrXktWpnwhQWCu/FJXIwINCXvVXUg9m9LaQ/XmkW0xsT7j209xW7Ddhk6QbBT/eb2/MOw==" saltValue="twEufrt+yH545MWin4OFfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -18341,6 +18334,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="127" priority="9">
@@ -18526,158 +18526,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="414"/>
-      <c r="B1" s="412"/>
-      <c r="C1" s="412"/>
-      <c r="D1" s="412"/>
-      <c r="E1" s="411" t="str">
+      <c r="A1" s="424"/>
+      <c r="B1" s="422"/>
+      <c r="C1" s="422"/>
+      <c r="D1" s="422"/>
+      <c r="E1" s="421" t="str">
         <f>"Jahresübersicht "&amp;Jahr</f>
         <v>Jahresübersicht 2025</v>
       </c>
-      <c r="F1" s="412"/>
-      <c r="G1" s="412"/>
-      <c r="H1" s="412"/>
-      <c r="I1" s="412"/>
-      <c r="J1" s="412"/>
-      <c r="K1" s="412"/>
-      <c r="L1" s="412"/>
-      <c r="M1" s="412"/>
-      <c r="N1" s="412"/>
-      <c r="O1" s="412"/>
-      <c r="P1" s="412"/>
-      <c r="Q1" s="412"/>
-      <c r="R1" s="412"/>
-      <c r="S1" s="412"/>
-      <c r="T1" s="412"/>
-      <c r="U1" s="412"/>
-      <c r="V1" s="412"/>
-      <c r="W1" s="412"/>
-      <c r="X1" s="412"/>
-      <c r="Y1" s="412"/>
-      <c r="Z1" s="412"/>
-      <c r="AA1" s="412"/>
-      <c r="AB1" s="412"/>
-      <c r="AC1" s="412"/>
-      <c r="AD1" s="412"/>
-      <c r="AE1" s="412"/>
-      <c r="AF1" s="412"/>
-      <c r="AG1" s="412"/>
-      <c r="AH1" s="412"/>
-      <c r="AI1" s="408" t="str">
+      <c r="F1" s="422"/>
+      <c r="G1" s="422"/>
+      <c r="H1" s="422"/>
+      <c r="I1" s="422"/>
+      <c r="J1" s="422"/>
+      <c r="K1" s="422"/>
+      <c r="L1" s="422"/>
+      <c r="M1" s="422"/>
+      <c r="N1" s="422"/>
+      <c r="O1" s="422"/>
+      <c r="P1" s="422"/>
+      <c r="Q1" s="422"/>
+      <c r="R1" s="422"/>
+      <c r="S1" s="422"/>
+      <c r="T1" s="422"/>
+      <c r="U1" s="422"/>
+      <c r="V1" s="422"/>
+      <c r="W1" s="422"/>
+      <c r="X1" s="422"/>
+      <c r="Y1" s="422"/>
+      <c r="Z1" s="422"/>
+      <c r="AA1" s="422"/>
+      <c r="AB1" s="422"/>
+      <c r="AC1" s="422"/>
+      <c r="AD1" s="422"/>
+      <c r="AE1" s="422"/>
+      <c r="AF1" s="422"/>
+      <c r="AG1" s="422"/>
+      <c r="AH1" s="422"/>
+      <c r="AI1" s="418" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="AJ1" s="409"/>
-      <c r="AK1" s="409"/>
-      <c r="AL1" s="410"/>
+      <c r="AJ1" s="419"/>
+      <c r="AK1" s="419"/>
+      <c r="AL1" s="420"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="415"/>
-      <c r="B2" s="413"/>
-      <c r="C2" s="413"/>
-      <c r="D2" s="413"/>
-      <c r="E2" s="413"/>
-      <c r="F2" s="413"/>
-      <c r="G2" s="413"/>
-      <c r="H2" s="413"/>
-      <c r="I2" s="413"/>
-      <c r="J2" s="413"/>
-      <c r="K2" s="413"/>
-      <c r="L2" s="413"/>
-      <c r="M2" s="413"/>
-      <c r="N2" s="413"/>
-      <c r="O2" s="413"/>
-      <c r="P2" s="413"/>
-      <c r="Q2" s="413"/>
-      <c r="R2" s="413"/>
-      <c r="S2" s="413"/>
-      <c r="T2" s="413"/>
-      <c r="U2" s="413"/>
-      <c r="V2" s="413"/>
-      <c r="W2" s="413"/>
-      <c r="X2" s="413"/>
-      <c r="Y2" s="413"/>
-      <c r="Z2" s="413"/>
-      <c r="AA2" s="413"/>
-      <c r="AB2" s="413"/>
-      <c r="AC2" s="413"/>
-      <c r="AD2" s="413"/>
-      <c r="AE2" s="413"/>
-      <c r="AF2" s="413"/>
-      <c r="AG2" s="413"/>
-      <c r="AH2" s="413"/>
-      <c r="AI2" s="405" t="str">
+      <c r="A2" s="425"/>
+      <c r="B2" s="423"/>
+      <c r="C2" s="423"/>
+      <c r="D2" s="423"/>
+      <c r="E2" s="423"/>
+      <c r="F2" s="423"/>
+      <c r="G2" s="423"/>
+      <c r="H2" s="423"/>
+      <c r="I2" s="423"/>
+      <c r="J2" s="423"/>
+      <c r="K2" s="423"/>
+      <c r="L2" s="423"/>
+      <c r="M2" s="423"/>
+      <c r="N2" s="423"/>
+      <c r="O2" s="423"/>
+      <c r="P2" s="423"/>
+      <c r="Q2" s="423"/>
+      <c r="R2" s="423"/>
+      <c r="S2" s="423"/>
+      <c r="T2" s="423"/>
+      <c r="U2" s="423"/>
+      <c r="V2" s="423"/>
+      <c r="W2" s="423"/>
+      <c r="X2" s="423"/>
+      <c r="Y2" s="423"/>
+      <c r="Z2" s="423"/>
+      <c r="AA2" s="423"/>
+      <c r="AB2" s="423"/>
+      <c r="AC2" s="423"/>
+      <c r="AD2" s="423"/>
+      <c r="AE2" s="423"/>
+      <c r="AF2" s="423"/>
+      <c r="AG2" s="423"/>
+      <c r="AH2" s="423"/>
+      <c r="AI2" s="415" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="AJ2" s="406"/>
-      <c r="AK2" s="406"/>
-      <c r="AL2" s="407"/>
+      <c r="AJ2" s="416"/>
+      <c r="AK2" s="416"/>
+      <c r="AL2" s="417"/>
     </row>
     <row r="3" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="417" t="s">
+      <c r="B3" s="426" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="417"/>
-      <c r="D3" s="417"/>
-      <c r="E3" s="417" t="s">
+      <c r="C3" s="426"/>
+      <c r="D3" s="426"/>
+      <c r="E3" s="426" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="417"/>
-      <c r="G3" s="417"/>
-      <c r="H3" s="417" t="s">
+      <c r="F3" s="426"/>
+      <c r="G3" s="426"/>
+      <c r="H3" s="426" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="417"/>
-      <c r="J3" s="417"/>
-      <c r="K3" s="417" t="s">
+      <c r="I3" s="426"/>
+      <c r="J3" s="426"/>
+      <c r="K3" s="426" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="417"/>
-      <c r="M3" s="417"/>
-      <c r="N3" s="417" t="s">
+      <c r="L3" s="426"/>
+      <c r="M3" s="426"/>
+      <c r="N3" s="426" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="417"/>
-      <c r="P3" s="417"/>
-      <c r="Q3" s="417" t="s">
+      <c r="O3" s="426"/>
+      <c r="P3" s="426"/>
+      <c r="Q3" s="426" t="s">
         <v>99</v>
       </c>
-      <c r="R3" s="417"/>
-      <c r="S3" s="417"/>
-      <c r="T3" s="417" t="s">
+      <c r="R3" s="426"/>
+      <c r="S3" s="426"/>
+      <c r="T3" s="426" t="s">
         <v>100</v>
       </c>
-      <c r="U3" s="417"/>
-      <c r="V3" s="417"/>
-      <c r="W3" s="417" t="s">
+      <c r="U3" s="426"/>
+      <c r="V3" s="426"/>
+      <c r="W3" s="426" t="s">
         <v>101</v>
       </c>
-      <c r="X3" s="417"/>
-      <c r="Y3" s="417"/>
-      <c r="Z3" s="417" t="s">
+      <c r="X3" s="426"/>
+      <c r="Y3" s="426"/>
+      <c r="Z3" s="426" t="s">
         <v>102</v>
       </c>
-      <c r="AA3" s="417"/>
-      <c r="AB3" s="417"/>
-      <c r="AC3" s="417" t="s">
+      <c r="AA3" s="426"/>
+      <c r="AB3" s="426"/>
+      <c r="AC3" s="426" t="s">
         <v>103</v>
       </c>
-      <c r="AD3" s="417"/>
-      <c r="AE3" s="417"/>
-      <c r="AF3" s="417" t="s">
+      <c r="AD3" s="426"/>
+      <c r="AE3" s="426"/>
+      <c r="AF3" s="426" t="s">
         <v>104</v>
       </c>
-      <c r="AG3" s="417"/>
-      <c r="AH3" s="417"/>
-      <c r="AI3" s="417" t="s">
+      <c r="AG3" s="426"/>
+      <c r="AH3" s="426"/>
+      <c r="AI3" s="426" t="s">
         <v>105</v>
       </c>
-      <c r="AJ3" s="417"/>
-      <c r="AK3" s="417"/>
+      <c r="AJ3" s="426"/>
+      <c r="AK3" s="426"/>
       <c r="AL3" s="72" t="s">
         <v>77</v>
       </c>
@@ -21462,9 +21462,9 @@
         <f>April!A22</f>
         <v>44304</v>
       </c>
-      <c r="L22" s="134" t="str">
+      <c r="L22" s="134">
         <f>IF(April!K22&gt;0,April!K22,"")</f>
-        <v/>
+        <v>3.125E-2</v>
       </c>
       <c r="M22" s="126" t="str">
         <f>IF(OR(April!C22="",April!J22&lt;&gt;""),UPPER(April!J22),"F")</f>
@@ -23398,77 +23398,77 @@
       <c r="A35" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="419">
+      <c r="B35" s="411">
         <f ca="1">Januar!F37</f>
         <v>0</v>
       </c>
-      <c r="C35" s="419"/>
+      <c r="C35" s="411"/>
       <c r="D35" s="259"/>
-      <c r="E35" s="419">
+      <c r="E35" s="411">
         <f ca="1">Februar!F37</f>
         <v>0</v>
       </c>
-      <c r="F35" s="419"/>
+      <c r="F35" s="411"/>
       <c r="G35" s="260"/>
-      <c r="H35" s="416">
+      <c r="H35" s="412">
         <f ca="1">März!F37</f>
         <v>0</v>
       </c>
-      <c r="I35" s="416"/>
+      <c r="I35" s="412"/>
       <c r="J35" s="261"/>
-      <c r="K35" s="419">
+      <c r="K35" s="411">
         <f ca="1">April!F37</f>
         <v>0</v>
       </c>
-      <c r="L35" s="419"/>
+      <c r="L35" s="411"/>
       <c r="M35" s="260"/>
-      <c r="N35" s="416">
+      <c r="N35" s="412">
         <f ca="1">Mai!F37</f>
         <v>0</v>
       </c>
-      <c r="O35" s="416"/>
+      <c r="O35" s="412"/>
       <c r="P35" s="261"/>
-      <c r="Q35" s="419">
+      <c r="Q35" s="411">
         <f ca="1">Juni!F37</f>
         <v>3.125</v>
       </c>
-      <c r="R35" s="419"/>
+      <c r="R35" s="411"/>
       <c r="S35" s="260"/>
-      <c r="T35" s="416">
+      <c r="T35" s="412">
         <f ca="1">Juli!F37</f>
         <v>0</v>
       </c>
-      <c r="U35" s="416"/>
+      <c r="U35" s="412"/>
       <c r="V35" s="261"/>
-      <c r="W35" s="419">
+      <c r="W35" s="411">
         <f ca="1">August!F37</f>
         <v>0</v>
       </c>
-      <c r="X35" s="419"/>
+      <c r="X35" s="411"/>
       <c r="Y35" s="260"/>
-      <c r="Z35" s="416">
+      <c r="Z35" s="412">
         <f ca="1">September!F37</f>
         <v>0</v>
       </c>
-      <c r="AA35" s="416"/>
+      <c r="AA35" s="412"/>
       <c r="AB35" s="261"/>
-      <c r="AC35" s="419">
+      <c r="AC35" s="411">
         <f ca="1">Oktober!F37</f>
         <v>0</v>
       </c>
-      <c r="AD35" s="419"/>
+      <c r="AD35" s="411"/>
       <c r="AE35" s="260"/>
-      <c r="AF35" s="416">
+      <c r="AF35" s="412">
         <f ca="1">November!F37</f>
         <v>0</v>
       </c>
-      <c r="AG35" s="416"/>
+      <c r="AG35" s="412"/>
       <c r="AH35" s="261"/>
-      <c r="AI35" s="419">
+      <c r="AI35" s="411">
         <f ca="1">Dezember!F37</f>
         <v>0</v>
       </c>
-      <c r="AJ35" s="419"/>
+      <c r="AJ35" s="411"/>
       <c r="AK35" s="260"/>
       <c r="AL35" s="262">
         <f t="shared" ref="AL35:AL50" ca="1" si="0">SUM(B35:AK35)</f>
@@ -23479,243 +23479,243 @@
       <c r="A36" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="420">
+      <c r="B36" s="413">
         <f>Januar!F38</f>
         <v>0</v>
       </c>
-      <c r="C36" s="420"/>
+      <c r="C36" s="413"/>
       <c r="D36" s="263"/>
-      <c r="E36" s="420">
+      <c r="E36" s="413">
         <f>Februar!F38</f>
         <v>0</v>
       </c>
-      <c r="F36" s="420"/>
+      <c r="F36" s="413"/>
       <c r="G36" s="264"/>
-      <c r="H36" s="421">
+      <c r="H36" s="414">
         <f>März!F38</f>
         <v>0.80208333333333337</v>
       </c>
-      <c r="I36" s="421"/>
+      <c r="I36" s="414"/>
       <c r="J36" s="265"/>
-      <c r="K36" s="420">
+      <c r="K36" s="413">
         <f>April!F38</f>
-        <v>0.50000000000000011</v>
-      </c>
-      <c r="L36" s="420"/>
+        <v>0.53125000000000011</v>
+      </c>
+      <c r="L36" s="413"/>
       <c r="M36" s="264"/>
-      <c r="N36" s="421">
+      <c r="N36" s="414">
         <f>Mai!F38</f>
         <v>0</v>
       </c>
-      <c r="O36" s="421"/>
+      <c r="O36" s="414"/>
       <c r="P36" s="265"/>
-      <c r="Q36" s="420">
+      <c r="Q36" s="413">
         <f>Juni!F38</f>
         <v>0</v>
       </c>
-      <c r="R36" s="420"/>
+      <c r="R36" s="413"/>
       <c r="S36" s="264"/>
-      <c r="T36" s="421">
+      <c r="T36" s="414">
         <f>Juli!F38</f>
         <v>0</v>
       </c>
-      <c r="U36" s="421"/>
+      <c r="U36" s="414"/>
       <c r="V36" s="265"/>
-      <c r="W36" s="420">
+      <c r="W36" s="413">
         <f>August!F38</f>
         <v>0</v>
       </c>
-      <c r="X36" s="420"/>
+      <c r="X36" s="413"/>
       <c r="Y36" s="264"/>
-      <c r="Z36" s="421">
+      <c r="Z36" s="414">
         <f>September!F38</f>
         <v>0</v>
       </c>
-      <c r="AA36" s="421"/>
+      <c r="AA36" s="414"/>
       <c r="AB36" s="265"/>
-      <c r="AC36" s="420">
+      <c r="AC36" s="413">
         <f>Oktober!F38</f>
         <v>0</v>
       </c>
-      <c r="AD36" s="420"/>
+      <c r="AD36" s="413"/>
       <c r="AE36" s="264"/>
-      <c r="AF36" s="421">
+      <c r="AF36" s="414">
         <f>November!F38</f>
         <v>0</v>
       </c>
-      <c r="AG36" s="421"/>
+      <c r="AG36" s="414"/>
       <c r="AH36" s="265"/>
-      <c r="AI36" s="420">
+      <c r="AI36" s="413">
         <f>Dezember!F38</f>
         <v>0</v>
       </c>
-      <c r="AJ36" s="420"/>
+      <c r="AJ36" s="413"/>
       <c r="AK36" s="264"/>
       <c r="AL36" s="266">
         <f t="shared" si="0"/>
-        <v>1.3020833333333335</v>
+        <v>1.3333333333333335</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="423">
+      <c r="B37" s="408">
         <f ca="1">ROUND(B36-B35,10)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="423"/>
+      <c r="C37" s="408"/>
       <c r="D37" s="258"/>
-      <c r="E37" s="423">
+      <c r="E37" s="408">
         <f ca="1">ROUND(E36-E35,10)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="423"/>
+      <c r="F37" s="408"/>
       <c r="G37" s="82"/>
-      <c r="H37" s="418">
+      <c r="H37" s="409">
         <f ca="1">ROUND(H36-H35,10)</f>
         <v>0.80208333330000003</v>
       </c>
-      <c r="I37" s="418"/>
+      <c r="I37" s="409"/>
       <c r="J37" s="83"/>
-      <c r="K37" s="423">
+      <c r="K37" s="408">
         <f ca="1">ROUND(K36-K35,10)</f>
-        <v>0.5</v>
-      </c>
-      <c r="L37" s="423"/>
+        <v>0.53125</v>
+      </c>
+      <c r="L37" s="408"/>
       <c r="M37" s="82"/>
-      <c r="N37" s="418">
+      <c r="N37" s="409">
         <f ca="1">ROUND(N36-N35,10)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="418"/>
+      <c r="O37" s="409"/>
       <c r="P37" s="83"/>
-      <c r="Q37" s="423">
+      <c r="Q37" s="408">
         <f ca="1">ROUND(Q36-Q35,10)</f>
         <v>-3.125</v>
       </c>
-      <c r="R37" s="423"/>
+      <c r="R37" s="408"/>
       <c r="S37" s="82"/>
-      <c r="T37" s="418">
+      <c r="T37" s="409">
         <f ca="1">ROUND(T36-T35,10)</f>
         <v>0</v>
       </c>
-      <c r="U37" s="418"/>
+      <c r="U37" s="409"/>
       <c r="V37" s="83"/>
-      <c r="W37" s="423">
+      <c r="W37" s="408">
         <f ca="1">ROUND(W36-W35,10)</f>
         <v>0</v>
       </c>
-      <c r="X37" s="423"/>
+      <c r="X37" s="408"/>
       <c r="Y37" s="82"/>
-      <c r="Z37" s="418">
+      <c r="Z37" s="409">
         <f ca="1">ROUND(Z36-Z35,10)</f>
         <v>0</v>
       </c>
-      <c r="AA37" s="418"/>
+      <c r="AA37" s="409"/>
       <c r="AB37" s="83"/>
-      <c r="AC37" s="423">
+      <c r="AC37" s="408">
         <f ca="1">ROUND(AC36-AC35,10)</f>
         <v>0</v>
       </c>
-      <c r="AD37" s="423"/>
+      <c r="AD37" s="408"/>
       <c r="AE37" s="82"/>
-      <c r="AF37" s="418">
+      <c r="AF37" s="409">
         <f ca="1">ROUND(AF36-AF35,10)</f>
         <v>0</v>
       </c>
-      <c r="AG37" s="418"/>
+      <c r="AG37" s="409"/>
       <c r="AH37" s="83"/>
-      <c r="AI37" s="423">
+      <c r="AI37" s="408">
         <f ca="1">ROUND(AI36-AI35,10)</f>
         <v>0</v>
       </c>
-      <c r="AJ37" s="423"/>
+      <c r="AJ37" s="408"/>
       <c r="AK37" s="82"/>
       <c r="AL37" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8229166666999999</v>
+        <v>-1.7916666666999999</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="342" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="424">
+      <c r="B38" s="410">
         <f>Januar!J40</f>
         <v>0</v>
       </c>
-      <c r="C38" s="424"/>
-      <c r="D38" s="424"/>
-      <c r="E38" s="424">
+      <c r="C38" s="410"/>
+      <c r="D38" s="410"/>
+      <c r="E38" s="410">
         <f>Februar!J40</f>
         <v>0</v>
       </c>
-      <c r="F38" s="424"/>
-      <c r="G38" s="424"/>
-      <c r="H38" s="424">
+      <c r="F38" s="410"/>
+      <c r="G38" s="410"/>
+      <c r="H38" s="410">
         <f>März!J40</f>
         <v>7</v>
       </c>
-      <c r="I38" s="424"/>
-      <c r="J38" s="424"/>
-      <c r="K38" s="424">
+      <c r="I38" s="410"/>
+      <c r="J38" s="410"/>
+      <c r="K38" s="410">
         <f>April!J40</f>
-        <v>3</v>
-      </c>
-      <c r="L38" s="424"/>
-      <c r="M38" s="424"/>
-      <c r="N38" s="424">
+        <v>4</v>
+      </c>
+      <c r="L38" s="410"/>
+      <c r="M38" s="410"/>
+      <c r="N38" s="410">
         <f>Mai!J40</f>
         <v>0</v>
       </c>
-      <c r="O38" s="424"/>
-      <c r="P38" s="424"/>
-      <c r="Q38" s="424">
+      <c r="O38" s="410"/>
+      <c r="P38" s="410"/>
+      <c r="Q38" s="410">
         <f>Juni!J40</f>
         <v>0</v>
       </c>
-      <c r="R38" s="424"/>
-      <c r="S38" s="424"/>
-      <c r="T38" s="424">
+      <c r="R38" s="410"/>
+      <c r="S38" s="410"/>
+      <c r="T38" s="410">
         <f>Juli!J40</f>
         <v>0</v>
       </c>
-      <c r="U38" s="424"/>
-      <c r="V38" s="424"/>
-      <c r="W38" s="424">
+      <c r="U38" s="410"/>
+      <c r="V38" s="410"/>
+      <c r="W38" s="410">
         <f>August!J40</f>
         <v>0</v>
       </c>
-      <c r="X38" s="424"/>
-      <c r="Y38" s="424"/>
-      <c r="Z38" s="424">
+      <c r="X38" s="410"/>
+      <c r="Y38" s="410"/>
+      <c r="Z38" s="410">
         <f>September!J40</f>
         <v>0</v>
       </c>
-      <c r="AA38" s="424"/>
-      <c r="AB38" s="424"/>
-      <c r="AC38" s="424">
+      <c r="AA38" s="410"/>
+      <c r="AB38" s="410"/>
+      <c r="AC38" s="410">
         <f>Oktober!J40</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="424"/>
-      <c r="AE38" s="424"/>
-      <c r="AF38" s="424">
+      <c r="AD38" s="410"/>
+      <c r="AE38" s="410"/>
+      <c r="AF38" s="410">
         <f>November!J40</f>
         <v>0</v>
       </c>
-      <c r="AG38" s="424"/>
-      <c r="AH38" s="424"/>
-      <c r="AI38" s="424">
+      <c r="AG38" s="410"/>
+      <c r="AH38" s="410"/>
+      <c r="AI38" s="410">
         <f>Dezember!J40</f>
         <v>0</v>
       </c>
-      <c r="AJ38" s="424"/>
-      <c r="AK38" s="424"/>
+      <c r="AJ38" s="410"/>
+      <c r="AK38" s="410"/>
       <c r="AL38" s="343">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -23723,78 +23723,78 @@
         <f>Voreinstellungen!A27&amp;" ("&amp;Voreinstellungen!B27&amp;")"</f>
         <v>Homeoffice (H)</v>
       </c>
-      <c r="B39" s="422">
+      <c r="B39" s="405">
         <f>Januar!J41</f>
         <v>0</v>
       </c>
-      <c r="C39" s="422"/>
-      <c r="D39" s="422"/>
-      <c r="E39" s="422">
+      <c r="C39" s="405"/>
+      <c r="D39" s="405"/>
+      <c r="E39" s="405">
         <f>Februar!J41</f>
         <v>0</v>
       </c>
-      <c r="F39" s="422"/>
-      <c r="G39" s="422"/>
-      <c r="H39" s="422">
+      <c r="F39" s="405"/>
+      <c r="G39" s="405"/>
+      <c r="H39" s="405">
         <f>März!J41</f>
         <v>0</v>
       </c>
-      <c r="I39" s="422"/>
-      <c r="J39" s="422"/>
-      <c r="K39" s="422">
+      <c r="I39" s="405"/>
+      <c r="J39" s="405"/>
+      <c r="K39" s="405">
         <f>April!J41</f>
         <v>0</v>
       </c>
-      <c r="L39" s="422"/>
-      <c r="M39" s="422"/>
-      <c r="N39" s="422">
+      <c r="L39" s="405"/>
+      <c r="M39" s="405"/>
+      <c r="N39" s="405">
         <f>Mai!J41</f>
         <v>0</v>
       </c>
-      <c r="O39" s="422"/>
-      <c r="P39" s="422"/>
-      <c r="Q39" s="422">
+      <c r="O39" s="405"/>
+      <c r="P39" s="405"/>
+      <c r="Q39" s="405">
         <f>Juni!J41</f>
         <v>0</v>
       </c>
-      <c r="R39" s="422"/>
-      <c r="S39" s="422"/>
-      <c r="T39" s="422">
+      <c r="R39" s="405"/>
+      <c r="S39" s="405"/>
+      <c r="T39" s="405">
         <f>Juli!J41</f>
         <v>0</v>
       </c>
-      <c r="U39" s="422"/>
-      <c r="V39" s="422"/>
-      <c r="W39" s="422">
+      <c r="U39" s="405"/>
+      <c r="V39" s="405"/>
+      <c r="W39" s="405">
         <f>August!J41</f>
         <v>0</v>
       </c>
-      <c r="X39" s="422"/>
-      <c r="Y39" s="422"/>
-      <c r="Z39" s="422">
+      <c r="X39" s="405"/>
+      <c r="Y39" s="405"/>
+      <c r="Z39" s="405">
         <f>September!J41</f>
         <v>0</v>
       </c>
-      <c r="AA39" s="422"/>
-      <c r="AB39" s="422"/>
-      <c r="AC39" s="422">
+      <c r="AA39" s="405"/>
+      <c r="AB39" s="405"/>
+      <c r="AC39" s="405">
         <f>Oktober!J41</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="422"/>
-      <c r="AE39" s="422"/>
-      <c r="AF39" s="422">
+      <c r="AD39" s="405"/>
+      <c r="AE39" s="405"/>
+      <c r="AF39" s="405">
         <f>November!J41</f>
         <v>0</v>
       </c>
-      <c r="AG39" s="422"/>
-      <c r="AH39" s="422"/>
-      <c r="AI39" s="422">
+      <c r="AG39" s="405"/>
+      <c r="AH39" s="405"/>
+      <c r="AI39" s="405">
         <f>Dezember!J41</f>
         <v>0</v>
       </c>
-      <c r="AJ39" s="422"/>
-      <c r="AK39" s="422"/>
+      <c r="AJ39" s="405"/>
+      <c r="AK39" s="405"/>
       <c r="AL39" s="256">
         <f t="shared" ref="AL39" si="1">SUM(B39:AK39)</f>
         <v>0</v>
@@ -23805,78 +23805,78 @@
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="B40" s="422">
+      <c r="B40" s="405">
         <f>Januar!J38</f>
         <v>0</v>
       </c>
-      <c r="C40" s="422"/>
-      <c r="D40" s="422"/>
-      <c r="E40" s="422">
+      <c r="C40" s="405"/>
+      <c r="D40" s="405"/>
+      <c r="E40" s="405">
         <f>Februar!J38</f>
         <v>0</v>
       </c>
-      <c r="F40" s="422"/>
-      <c r="G40" s="422"/>
-      <c r="H40" s="422">
+      <c r="F40" s="405"/>
+      <c r="G40" s="405"/>
+      <c r="H40" s="405">
         <f>März!J38</f>
         <v>0</v>
       </c>
-      <c r="I40" s="422"/>
-      <c r="J40" s="422"/>
-      <c r="K40" s="422">
+      <c r="I40" s="405"/>
+      <c r="J40" s="405"/>
+      <c r="K40" s="405">
         <f>April!J38</f>
         <v>0</v>
       </c>
-      <c r="L40" s="422"/>
-      <c r="M40" s="422"/>
-      <c r="N40" s="422">
+      <c r="L40" s="405"/>
+      <c r="M40" s="405"/>
+      <c r="N40" s="405">
         <f>Mai!J38</f>
         <v>0</v>
       </c>
-      <c r="O40" s="422"/>
-      <c r="P40" s="422"/>
-      <c r="Q40" s="422">
+      <c r="O40" s="405"/>
+      <c r="P40" s="405"/>
+      <c r="Q40" s="405">
         <f>Juni!J38</f>
         <v>0</v>
       </c>
-      <c r="R40" s="422"/>
-      <c r="S40" s="422"/>
-      <c r="T40" s="422">
+      <c r="R40" s="405"/>
+      <c r="S40" s="405"/>
+      <c r="T40" s="405">
         <f>Juli!J38</f>
         <v>0</v>
       </c>
-      <c r="U40" s="422"/>
-      <c r="V40" s="422"/>
-      <c r="W40" s="422">
+      <c r="U40" s="405"/>
+      <c r="V40" s="405"/>
+      <c r="W40" s="405">
         <f>August!J38</f>
         <v>0</v>
       </c>
-      <c r="X40" s="422"/>
-      <c r="Y40" s="422"/>
-      <c r="Z40" s="422">
+      <c r="X40" s="405"/>
+      <c r="Y40" s="405"/>
+      <c r="Z40" s="405">
         <f>September!J38</f>
         <v>0</v>
       </c>
-      <c r="AA40" s="422"/>
-      <c r="AB40" s="422"/>
-      <c r="AC40" s="422">
+      <c r="AA40" s="405"/>
+      <c r="AB40" s="405"/>
+      <c r="AC40" s="405">
         <f>Oktober!J38</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="422"/>
-      <c r="AE40" s="422"/>
-      <c r="AF40" s="422">
+      <c r="AD40" s="405"/>
+      <c r="AE40" s="405"/>
+      <c r="AF40" s="405">
         <f>November!J38</f>
         <v>0</v>
       </c>
-      <c r="AG40" s="422"/>
-      <c r="AH40" s="422"/>
-      <c r="AI40" s="422">
+      <c r="AG40" s="405"/>
+      <c r="AH40" s="405"/>
+      <c r="AI40" s="405">
         <f>Dezember!J38</f>
         <v>0</v>
       </c>
-      <c r="AJ40" s="422"/>
-      <c r="AK40" s="422"/>
+      <c r="AJ40" s="405"/>
+      <c r="AK40" s="405"/>
       <c r="AL40" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23887,78 +23887,78 @@
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;")"&amp;"/("&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K)/(KR)</v>
       </c>
-      <c r="B41" s="422">
+      <c r="B41" s="405">
         <f>Januar!J36</f>
         <v>0</v>
       </c>
-      <c r="C41" s="422"/>
-      <c r="D41" s="422"/>
-      <c r="E41" s="422">
+      <c r="C41" s="405"/>
+      <c r="D41" s="405"/>
+      <c r="E41" s="405">
         <f>Februar!J36</f>
         <v>0</v>
       </c>
-      <c r="F41" s="422"/>
-      <c r="G41" s="422"/>
-      <c r="H41" s="422">
+      <c r="F41" s="405"/>
+      <c r="G41" s="405"/>
+      <c r="H41" s="405">
         <f>März!J36</f>
         <v>0</v>
       </c>
-      <c r="I41" s="422"/>
-      <c r="J41" s="422"/>
-      <c r="K41" s="422">
+      <c r="I41" s="405"/>
+      <c r="J41" s="405"/>
+      <c r="K41" s="405">
         <f>April!J36</f>
         <v>0</v>
       </c>
-      <c r="L41" s="422"/>
-      <c r="M41" s="422"/>
-      <c r="N41" s="422">
+      <c r="L41" s="405"/>
+      <c r="M41" s="405"/>
+      <c r="N41" s="405">
         <f>Mai!J36</f>
         <v>0</v>
       </c>
-      <c r="O41" s="422"/>
-      <c r="P41" s="422"/>
-      <c r="Q41" s="422">
+      <c r="O41" s="405"/>
+      <c r="P41" s="405"/>
+      <c r="Q41" s="405">
         <f>Juni!J36</f>
         <v>0</v>
       </c>
-      <c r="R41" s="422"/>
-      <c r="S41" s="422"/>
-      <c r="T41" s="422">
+      <c r="R41" s="405"/>
+      <c r="S41" s="405"/>
+      <c r="T41" s="405">
         <f>Juli!J36</f>
         <v>0</v>
       </c>
-      <c r="U41" s="422"/>
-      <c r="V41" s="422"/>
-      <c r="W41" s="422">
+      <c r="U41" s="405"/>
+      <c r="V41" s="405"/>
+      <c r="W41" s="405">
         <f>August!J36</f>
         <v>0</v>
       </c>
-      <c r="X41" s="422"/>
-      <c r="Y41" s="422"/>
-      <c r="Z41" s="422">
+      <c r="X41" s="405"/>
+      <c r="Y41" s="405"/>
+      <c r="Z41" s="405">
         <f>September!J36</f>
         <v>0</v>
       </c>
-      <c r="AA41" s="422"/>
-      <c r="AB41" s="422"/>
-      <c r="AC41" s="422">
+      <c r="AA41" s="405"/>
+      <c r="AB41" s="405"/>
+      <c r="AC41" s="405">
         <f>Oktober!J36</f>
         <v>0</v>
       </c>
-      <c r="AD41" s="422"/>
-      <c r="AE41" s="422"/>
-      <c r="AF41" s="422">
+      <c r="AD41" s="405"/>
+      <c r="AE41" s="405"/>
+      <c r="AF41" s="405">
         <f>November!J36</f>
         <v>0</v>
       </c>
-      <c r="AG41" s="422"/>
-      <c r="AH41" s="422"/>
-      <c r="AI41" s="422">
+      <c r="AG41" s="405"/>
+      <c r="AH41" s="405"/>
+      <c r="AI41" s="405">
         <f>Dezember!J36</f>
         <v>0</v>
       </c>
-      <c r="AJ41" s="422"/>
-      <c r="AK41" s="422"/>
+      <c r="AJ41" s="405"/>
+      <c r="AK41" s="405"/>
       <c r="AL41" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23969,78 +23969,78 @@
         <f>Voreinstellungen!A23&amp;" ("&amp;Voreinstellungen!B23&amp;")"&amp;"/("&amp;Voreinstellungen!B24&amp;")"</f>
         <v>Kurzarbeit (KU)/(KA)</v>
       </c>
-      <c r="B42" s="422">
+      <c r="B42" s="405">
         <f>Januar!J39</f>
         <v>0</v>
       </c>
-      <c r="C42" s="422"/>
-      <c r="D42" s="422"/>
-      <c r="E42" s="422">
+      <c r="C42" s="405"/>
+      <c r="D42" s="405"/>
+      <c r="E42" s="405">
         <f>Februar!J39</f>
         <v>0</v>
       </c>
-      <c r="F42" s="422"/>
-      <c r="G42" s="422"/>
-      <c r="H42" s="422">
+      <c r="F42" s="405"/>
+      <c r="G42" s="405"/>
+      <c r="H42" s="405">
         <f>März!J39</f>
         <v>0</v>
       </c>
-      <c r="I42" s="422"/>
-      <c r="J42" s="422"/>
-      <c r="K42" s="422">
+      <c r="I42" s="405"/>
+      <c r="J42" s="405"/>
+      <c r="K42" s="405">
         <f>April!J39</f>
         <v>0</v>
       </c>
-      <c r="L42" s="422"/>
-      <c r="M42" s="422"/>
-      <c r="N42" s="422">
+      <c r="L42" s="405"/>
+      <c r="M42" s="405"/>
+      <c r="N42" s="405">
         <f>Mai!J39</f>
         <v>0</v>
       </c>
-      <c r="O42" s="422"/>
-      <c r="P42" s="422"/>
-      <c r="Q42" s="422">
+      <c r="O42" s="405"/>
+      <c r="P42" s="405"/>
+      <c r="Q42" s="405">
         <f>Juni!J39</f>
         <v>0</v>
       </c>
-      <c r="R42" s="422"/>
-      <c r="S42" s="422"/>
-      <c r="T42" s="422">
+      <c r="R42" s="405"/>
+      <c r="S42" s="405"/>
+      <c r="T42" s="405">
         <f>Juli!J39</f>
         <v>0</v>
       </c>
-      <c r="U42" s="422"/>
-      <c r="V42" s="422"/>
-      <c r="W42" s="422">
+      <c r="U42" s="405"/>
+      <c r="V42" s="405"/>
+      <c r="W42" s="405">
         <f>August!J39</f>
         <v>0</v>
       </c>
-      <c r="X42" s="422"/>
-      <c r="Y42" s="422"/>
-      <c r="Z42" s="422">
+      <c r="X42" s="405"/>
+      <c r="Y42" s="405"/>
+      <c r="Z42" s="405">
         <f>September!J39</f>
         <v>0</v>
       </c>
-      <c r="AA42" s="422"/>
-      <c r="AB42" s="422"/>
-      <c r="AC42" s="422">
+      <c r="AA42" s="405"/>
+      <c r="AB42" s="405"/>
+      <c r="AC42" s="405">
         <f>Oktober!J39</f>
         <v>0</v>
       </c>
-      <c r="AD42" s="422"/>
-      <c r="AE42" s="422"/>
-      <c r="AF42" s="422">
+      <c r="AD42" s="405"/>
+      <c r="AE42" s="405"/>
+      <c r="AF42" s="405">
         <f>November!J39</f>
         <v>0</v>
       </c>
-      <c r="AG42" s="422"/>
-      <c r="AH42" s="422"/>
-      <c r="AI42" s="422">
+      <c r="AG42" s="405"/>
+      <c r="AH42" s="405"/>
+      <c r="AI42" s="405">
         <f>Dezember!J39</f>
         <v>0</v>
       </c>
-      <c r="AJ42" s="422"/>
-      <c r="AK42" s="422"/>
+      <c r="AJ42" s="405"/>
+      <c r="AK42" s="405"/>
       <c r="AL42" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24051,78 +24051,78 @@
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;")"&amp;"/("&amp;Voreinstellungen!B26&amp;")"</f>
         <v>Urlaub (U)/(UH)</v>
       </c>
-      <c r="B43" s="422">
+      <c r="B43" s="405">
         <f>Januar!J37</f>
         <v>0</v>
       </c>
-      <c r="C43" s="422"/>
-      <c r="D43" s="422"/>
-      <c r="E43" s="422">
+      <c r="C43" s="405"/>
+      <c r="D43" s="405"/>
+      <c r="E43" s="405">
         <f>Februar!J37</f>
         <v>0</v>
       </c>
-      <c r="F43" s="422"/>
-      <c r="G43" s="422"/>
-      <c r="H43" s="422">
+      <c r="F43" s="405"/>
+      <c r="G43" s="405"/>
+      <c r="H43" s="405">
         <f>März!J37</f>
         <v>0</v>
       </c>
-      <c r="I43" s="422"/>
-      <c r="J43" s="422"/>
-      <c r="K43" s="422">
+      <c r="I43" s="405"/>
+      <c r="J43" s="405"/>
+      <c r="K43" s="405">
         <f>April!J37</f>
         <v>0</v>
       </c>
-      <c r="L43" s="422"/>
-      <c r="M43" s="422"/>
-      <c r="N43" s="422">
+      <c r="L43" s="405"/>
+      <c r="M43" s="405"/>
+      <c r="N43" s="405">
         <f>Mai!J37</f>
         <v>0</v>
       </c>
-      <c r="O43" s="422"/>
-      <c r="P43" s="422"/>
-      <c r="Q43" s="422">
+      <c r="O43" s="405"/>
+      <c r="P43" s="405"/>
+      <c r="Q43" s="405">
         <f>Juni!J37</f>
         <v>0</v>
       </c>
-      <c r="R43" s="422"/>
-      <c r="S43" s="422"/>
-      <c r="T43" s="422">
+      <c r="R43" s="405"/>
+      <c r="S43" s="405"/>
+      <c r="T43" s="405">
         <f>Juli!J37</f>
         <v>0</v>
       </c>
-      <c r="U43" s="422"/>
-      <c r="V43" s="422"/>
-      <c r="W43" s="422">
+      <c r="U43" s="405"/>
+      <c r="V43" s="405"/>
+      <c r="W43" s="405">
         <f>August!J37</f>
         <v>0</v>
       </c>
-      <c r="X43" s="422"/>
-      <c r="Y43" s="422"/>
-      <c r="Z43" s="422">
+      <c r="X43" s="405"/>
+      <c r="Y43" s="405"/>
+      <c r="Z43" s="405">
         <f>September!J37</f>
         <v>0</v>
       </c>
-      <c r="AA43" s="422"/>
-      <c r="AB43" s="422"/>
-      <c r="AC43" s="422">
+      <c r="AA43" s="405"/>
+      <c r="AB43" s="405"/>
+      <c r="AC43" s="405">
         <f>Oktober!J37</f>
         <v>0</v>
       </c>
-      <c r="AD43" s="422"/>
-      <c r="AE43" s="422"/>
-      <c r="AF43" s="422">
+      <c r="AD43" s="405"/>
+      <c r="AE43" s="405"/>
+      <c r="AF43" s="405">
         <f>November!J37</f>
         <v>0</v>
       </c>
-      <c r="AG43" s="422"/>
-      <c r="AH43" s="422"/>
-      <c r="AI43" s="422">
+      <c r="AG43" s="405"/>
+      <c r="AH43" s="405"/>
+      <c r="AI43" s="405">
         <f>Dezember!J37</f>
         <v>0</v>
       </c>
-      <c r="AJ43" s="422"/>
-      <c r="AK43" s="422"/>
+      <c r="AJ43" s="405"/>
+      <c r="AK43" s="405"/>
       <c r="AL43" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24133,78 +24133,78 @@
         <f>IF(Voreinstellungen!A28="","",Voreinstellungen!A28&amp;" ("&amp;Voreinstellungen!B28&amp;")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="B44" s="422">
+      <c r="B44" s="405">
         <f>Januar!J42</f>
         <v>0</v>
       </c>
-      <c r="C44" s="422"/>
-      <c r="D44" s="422"/>
-      <c r="E44" s="422">
+      <c r="C44" s="405"/>
+      <c r="D44" s="405"/>
+      <c r="E44" s="405">
         <f>Februar!J42</f>
         <v>0</v>
       </c>
-      <c r="F44" s="422"/>
-      <c r="G44" s="422"/>
-      <c r="H44" s="422">
+      <c r="F44" s="405"/>
+      <c r="G44" s="405"/>
+      <c r="H44" s="405">
         <f>März!J42</f>
         <v>0</v>
       </c>
-      <c r="I44" s="422"/>
-      <c r="J44" s="422"/>
-      <c r="K44" s="422">
+      <c r="I44" s="405"/>
+      <c r="J44" s="405"/>
+      <c r="K44" s="405">
         <f>April!J42</f>
         <v>0</v>
       </c>
-      <c r="L44" s="422"/>
-      <c r="M44" s="422"/>
-      <c r="N44" s="422">
+      <c r="L44" s="405"/>
+      <c r="M44" s="405"/>
+      <c r="N44" s="405">
         <f>Mai!J42</f>
         <v>0</v>
       </c>
-      <c r="O44" s="422"/>
-      <c r="P44" s="422"/>
-      <c r="Q44" s="422">
+      <c r="O44" s="405"/>
+      <c r="P44" s="405"/>
+      <c r="Q44" s="405">
         <f>Juni!J42</f>
         <v>0</v>
       </c>
-      <c r="R44" s="422"/>
-      <c r="S44" s="422"/>
-      <c r="T44" s="422">
+      <c r="R44" s="405"/>
+      <c r="S44" s="405"/>
+      <c r="T44" s="405">
         <f>Juli!J42</f>
         <v>0</v>
       </c>
-      <c r="U44" s="422"/>
-      <c r="V44" s="422"/>
-      <c r="W44" s="422">
+      <c r="U44" s="405"/>
+      <c r="V44" s="405"/>
+      <c r="W44" s="405">
         <f>August!J42</f>
         <v>0</v>
       </c>
-      <c r="X44" s="422"/>
-      <c r="Y44" s="422"/>
-      <c r="Z44" s="422">
+      <c r="X44" s="405"/>
+      <c r="Y44" s="405"/>
+      <c r="Z44" s="405">
         <f>September!J42</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="422"/>
-      <c r="AB44" s="422"/>
-      <c r="AC44" s="422">
+      <c r="AA44" s="405"/>
+      <c r="AB44" s="405"/>
+      <c r="AC44" s="405">
         <f>Oktober!J42</f>
         <v>0</v>
       </c>
-      <c r="AD44" s="422"/>
-      <c r="AE44" s="422"/>
-      <c r="AF44" s="422">
+      <c r="AD44" s="405"/>
+      <c r="AE44" s="405"/>
+      <c r="AF44" s="405">
         <f>November!J42</f>
         <v>0</v>
       </c>
-      <c r="AG44" s="422"/>
-      <c r="AH44" s="422"/>
-      <c r="AI44" s="422">
+      <c r="AG44" s="405"/>
+      <c r="AH44" s="405"/>
+      <c r="AI44" s="405">
         <f>Dezember!J42</f>
         <v>0</v>
       </c>
-      <c r="AJ44" s="422"/>
-      <c r="AK44" s="422"/>
+      <c r="AJ44" s="405"/>
+      <c r="AK44" s="405"/>
       <c r="AL44" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24215,78 +24215,78 @@
         <f>IF(Voreinstellungen!A29="","",Voreinstellungen!A29&amp;" ("&amp;Voreinstellungen!B29&amp;")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="B45" s="422">
+      <c r="B45" s="405">
         <f>Januar!J43</f>
         <v>0</v>
       </c>
-      <c r="C45" s="422"/>
-      <c r="D45" s="422"/>
-      <c r="E45" s="422">
+      <c r="C45" s="405"/>
+      <c r="D45" s="405"/>
+      <c r="E45" s="405">
         <f>Februar!J43</f>
         <v>0</v>
       </c>
-      <c r="F45" s="422"/>
-      <c r="G45" s="422"/>
-      <c r="H45" s="422">
+      <c r="F45" s="405"/>
+      <c r="G45" s="405"/>
+      <c r="H45" s="405">
         <f>März!J43</f>
         <v>0</v>
       </c>
-      <c r="I45" s="422"/>
-      <c r="J45" s="422"/>
-      <c r="K45" s="422">
+      <c r="I45" s="405"/>
+      <c r="J45" s="405"/>
+      <c r="K45" s="405">
         <f>April!J43</f>
         <v>0</v>
       </c>
-      <c r="L45" s="422"/>
-      <c r="M45" s="422"/>
-      <c r="N45" s="422">
+      <c r="L45" s="405"/>
+      <c r="M45" s="405"/>
+      <c r="N45" s="405">
         <f>Mai!J43</f>
         <v>0</v>
       </c>
-      <c r="O45" s="422"/>
-      <c r="P45" s="422"/>
-      <c r="Q45" s="422">
+      <c r="O45" s="405"/>
+      <c r="P45" s="405"/>
+      <c r="Q45" s="405">
         <f>Juni!J43</f>
         <v>0</v>
       </c>
-      <c r="R45" s="422"/>
-      <c r="S45" s="422"/>
-      <c r="T45" s="422">
+      <c r="R45" s="405"/>
+      <c r="S45" s="405"/>
+      <c r="T45" s="405">
         <f>Juli!J43</f>
         <v>0</v>
       </c>
-      <c r="U45" s="422"/>
-      <c r="V45" s="422"/>
-      <c r="W45" s="422">
+      <c r="U45" s="405"/>
+      <c r="V45" s="405"/>
+      <c r="W45" s="405">
         <f>August!J43</f>
         <v>0</v>
       </c>
-      <c r="X45" s="422"/>
-      <c r="Y45" s="422"/>
-      <c r="Z45" s="422">
+      <c r="X45" s="405"/>
+      <c r="Y45" s="405"/>
+      <c r="Z45" s="405">
         <f>September!J43</f>
         <v>0</v>
       </c>
-      <c r="AA45" s="422"/>
-      <c r="AB45" s="422"/>
-      <c r="AC45" s="422">
+      <c r="AA45" s="405"/>
+      <c r="AB45" s="405"/>
+      <c r="AC45" s="405">
         <f>Oktober!J43</f>
         <v>0</v>
       </c>
-      <c r="AD45" s="422"/>
-      <c r="AE45" s="422"/>
-      <c r="AF45" s="422">
+      <c r="AD45" s="405"/>
+      <c r="AE45" s="405"/>
+      <c r="AF45" s="405">
         <f>November!J43</f>
         <v>0</v>
       </c>
-      <c r="AG45" s="422"/>
-      <c r="AH45" s="422"/>
-      <c r="AI45" s="422">
+      <c r="AG45" s="405"/>
+      <c r="AH45" s="405"/>
+      <c r="AI45" s="405">
         <f>Dezember!J43</f>
         <v>0</v>
       </c>
-      <c r="AJ45" s="422"/>
-      <c r="AK45" s="422"/>
+      <c r="AJ45" s="405"/>
+      <c r="AK45" s="405"/>
       <c r="AL45" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24297,78 +24297,78 @@
         <f>IF(Voreinstellungen!A30="","",Voreinstellungen!A30&amp;" ("&amp;Voreinstellungen!B30&amp;")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="B46" s="422">
+      <c r="B46" s="405">
         <f>Januar!J44</f>
         <v>0</v>
       </c>
-      <c r="C46" s="422"/>
-      <c r="D46" s="422"/>
-      <c r="E46" s="422">
+      <c r="C46" s="405"/>
+      <c r="D46" s="405"/>
+      <c r="E46" s="405">
         <f>Februar!J44</f>
         <v>0</v>
       </c>
-      <c r="F46" s="422"/>
-      <c r="G46" s="422"/>
-      <c r="H46" s="422">
+      <c r="F46" s="405"/>
+      <c r="G46" s="405"/>
+      <c r="H46" s="405">
         <f>März!J44</f>
         <v>0</v>
       </c>
-      <c r="I46" s="422"/>
-      <c r="J46" s="422"/>
-      <c r="K46" s="422">
+      <c r="I46" s="405"/>
+      <c r="J46" s="405"/>
+      <c r="K46" s="405">
         <f>April!J44</f>
         <v>0</v>
       </c>
-      <c r="L46" s="422"/>
-      <c r="M46" s="422"/>
-      <c r="N46" s="422">
+      <c r="L46" s="405"/>
+      <c r="M46" s="405"/>
+      <c r="N46" s="405">
         <f>Mai!J44</f>
         <v>0</v>
       </c>
-      <c r="O46" s="422"/>
-      <c r="P46" s="422"/>
-      <c r="Q46" s="422">
+      <c r="O46" s="405"/>
+      <c r="P46" s="405"/>
+      <c r="Q46" s="405">
         <f>Juni!J44</f>
         <v>0</v>
       </c>
-      <c r="R46" s="422"/>
-      <c r="S46" s="422"/>
-      <c r="T46" s="422">
+      <c r="R46" s="405"/>
+      <c r="S46" s="405"/>
+      <c r="T46" s="405">
         <f>Juli!J44</f>
         <v>0</v>
       </c>
-      <c r="U46" s="422"/>
-      <c r="V46" s="422"/>
-      <c r="W46" s="422">
+      <c r="U46" s="405"/>
+      <c r="V46" s="405"/>
+      <c r="W46" s="405">
         <f>August!J44</f>
         <v>0</v>
       </c>
-      <c r="X46" s="422"/>
-      <c r="Y46" s="422"/>
-      <c r="Z46" s="422">
+      <c r="X46" s="405"/>
+      <c r="Y46" s="405"/>
+      <c r="Z46" s="405">
         <f>September!J44</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="422"/>
-      <c r="AB46" s="422"/>
-      <c r="AC46" s="422">
+      <c r="AA46" s="405"/>
+      <c r="AB46" s="405"/>
+      <c r="AC46" s="405">
         <f>Oktober!J44</f>
         <v>0</v>
       </c>
-      <c r="AD46" s="422"/>
-      <c r="AE46" s="422"/>
-      <c r="AF46" s="422">
+      <c r="AD46" s="405"/>
+      <c r="AE46" s="405"/>
+      <c r="AF46" s="405">
         <f>November!J44</f>
         <v>0</v>
       </c>
-      <c r="AG46" s="422"/>
-      <c r="AH46" s="422"/>
-      <c r="AI46" s="422">
+      <c r="AG46" s="405"/>
+      <c r="AH46" s="405"/>
+      <c r="AI46" s="405">
         <f>Dezember!J44</f>
         <v>0</v>
       </c>
-      <c r="AJ46" s="422"/>
-      <c r="AK46" s="422"/>
+      <c r="AJ46" s="405"/>
+      <c r="AK46" s="405"/>
       <c r="AL46" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24379,78 +24379,78 @@
         <f>IF(Voreinstellungen!A31="","",Voreinstellungen!A31&amp;" ("&amp;Voreinstellungen!B31&amp;")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="B47" s="422">
+      <c r="B47" s="405">
         <f>Januar!J45</f>
         <v>0</v>
       </c>
-      <c r="C47" s="422"/>
-      <c r="D47" s="422"/>
-      <c r="E47" s="422">
+      <c r="C47" s="405"/>
+      <c r="D47" s="405"/>
+      <c r="E47" s="405">
         <f>Februar!J45</f>
         <v>0</v>
       </c>
-      <c r="F47" s="422"/>
-      <c r="G47" s="422"/>
-      <c r="H47" s="422">
+      <c r="F47" s="405"/>
+      <c r="G47" s="405"/>
+      <c r="H47" s="405">
         <f>März!J45</f>
         <v>0</v>
       </c>
-      <c r="I47" s="422"/>
-      <c r="J47" s="422"/>
-      <c r="K47" s="422">
+      <c r="I47" s="405"/>
+      <c r="J47" s="405"/>
+      <c r="K47" s="405">
         <f>April!J45</f>
         <v>0</v>
       </c>
-      <c r="L47" s="422"/>
-      <c r="M47" s="422"/>
-      <c r="N47" s="422">
+      <c r="L47" s="405"/>
+      <c r="M47" s="405"/>
+      <c r="N47" s="405">
         <f>Mai!J45</f>
         <v>0</v>
       </c>
-      <c r="O47" s="422"/>
-      <c r="P47" s="422"/>
-      <c r="Q47" s="422">
+      <c r="O47" s="405"/>
+      <c r="P47" s="405"/>
+      <c r="Q47" s="405">
         <f>Juni!J45</f>
         <v>0</v>
       </c>
-      <c r="R47" s="422"/>
-      <c r="S47" s="422"/>
-      <c r="T47" s="422">
+      <c r="R47" s="405"/>
+      <c r="S47" s="405"/>
+      <c r="T47" s="405">
         <f>Juli!J45</f>
         <v>0</v>
       </c>
-      <c r="U47" s="422"/>
-      <c r="V47" s="422"/>
-      <c r="W47" s="422">
+      <c r="U47" s="405"/>
+      <c r="V47" s="405"/>
+      <c r="W47" s="405">
         <f>August!J45</f>
         <v>0</v>
       </c>
-      <c r="X47" s="422"/>
-      <c r="Y47" s="422"/>
-      <c r="Z47" s="422">
+      <c r="X47" s="405"/>
+      <c r="Y47" s="405"/>
+      <c r="Z47" s="405">
         <f>September!J45</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="422"/>
-      <c r="AB47" s="422"/>
-      <c r="AC47" s="422">
+      <c r="AA47" s="405"/>
+      <c r="AB47" s="405"/>
+      <c r="AC47" s="405">
         <f>Oktober!J45</f>
         <v>0</v>
       </c>
-      <c r="AD47" s="422"/>
-      <c r="AE47" s="422"/>
-      <c r="AF47" s="422">
+      <c r="AD47" s="405"/>
+      <c r="AE47" s="405"/>
+      <c r="AF47" s="405">
         <f>November!J45</f>
         <v>0</v>
       </c>
-      <c r="AG47" s="422"/>
-      <c r="AH47" s="422"/>
-      <c r="AI47" s="422">
+      <c r="AG47" s="405"/>
+      <c r="AH47" s="405"/>
+      <c r="AI47" s="405">
         <f>Dezember!J45</f>
         <v>0</v>
       </c>
-      <c r="AJ47" s="422"/>
-      <c r="AK47" s="422"/>
+      <c r="AJ47" s="405"/>
+      <c r="AK47" s="405"/>
       <c r="AL47" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24461,78 +24461,78 @@
         <f>IF(Voreinstellungen!A32="","",Voreinstellungen!A32&amp;" ("&amp;Voreinstellungen!B32&amp;")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="B48" s="422">
+      <c r="B48" s="405">
         <f>Januar!J46</f>
         <v>0</v>
       </c>
-      <c r="C48" s="422"/>
-      <c r="D48" s="422"/>
-      <c r="E48" s="422">
+      <c r="C48" s="405"/>
+      <c r="D48" s="405"/>
+      <c r="E48" s="405">
         <f>Februar!J46</f>
         <v>0</v>
       </c>
-      <c r="F48" s="422"/>
-      <c r="G48" s="422"/>
-      <c r="H48" s="422">
+      <c r="F48" s="405"/>
+      <c r="G48" s="405"/>
+      <c r="H48" s="405">
         <f>März!J46</f>
         <v>0</v>
       </c>
-      <c r="I48" s="422"/>
-      <c r="J48" s="422"/>
-      <c r="K48" s="422">
+      <c r="I48" s="405"/>
+      <c r="J48" s="405"/>
+      <c r="K48" s="405">
         <f>April!J46</f>
         <v>0</v>
       </c>
-      <c r="L48" s="422"/>
-      <c r="M48" s="422"/>
-      <c r="N48" s="422">
+      <c r="L48" s="405"/>
+      <c r="M48" s="405"/>
+      <c r="N48" s="405">
         <f>Mai!J46</f>
         <v>0</v>
       </c>
-      <c r="O48" s="422"/>
-      <c r="P48" s="422"/>
-      <c r="Q48" s="422">
+      <c r="O48" s="405"/>
+      <c r="P48" s="405"/>
+      <c r="Q48" s="405">
         <f>Juni!J46</f>
         <v>0</v>
       </c>
-      <c r="R48" s="422"/>
-      <c r="S48" s="422"/>
-      <c r="T48" s="422">
+      <c r="R48" s="405"/>
+      <c r="S48" s="405"/>
+      <c r="T48" s="405">
         <f>Juli!J46</f>
         <v>0</v>
       </c>
-      <c r="U48" s="422"/>
-      <c r="V48" s="422"/>
-      <c r="W48" s="422">
+      <c r="U48" s="405"/>
+      <c r="V48" s="405"/>
+      <c r="W48" s="405">
         <f>August!J46</f>
         <v>0</v>
       </c>
-      <c r="X48" s="422"/>
-      <c r="Y48" s="422"/>
-      <c r="Z48" s="422">
+      <c r="X48" s="405"/>
+      <c r="Y48" s="405"/>
+      <c r="Z48" s="405">
         <f>September!J46</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="422"/>
-      <c r="AB48" s="422"/>
-      <c r="AC48" s="422">
+      <c r="AA48" s="405"/>
+      <c r="AB48" s="405"/>
+      <c r="AC48" s="405">
         <f>Oktober!J46</f>
         <v>0</v>
       </c>
-      <c r="AD48" s="422"/>
-      <c r="AE48" s="422"/>
-      <c r="AF48" s="422">
+      <c r="AD48" s="405"/>
+      <c r="AE48" s="405"/>
+      <c r="AF48" s="405">
         <f>November!J46</f>
         <v>0</v>
       </c>
-      <c r="AG48" s="422"/>
-      <c r="AH48" s="422"/>
-      <c r="AI48" s="422">
+      <c r="AG48" s="405"/>
+      <c r="AH48" s="405"/>
+      <c r="AI48" s="405">
         <f>Dezember!J46</f>
         <v>0</v>
       </c>
-      <c r="AJ48" s="422"/>
-      <c r="AK48" s="422"/>
+      <c r="AJ48" s="405"/>
+      <c r="AK48" s="405"/>
       <c r="AL48" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24543,78 +24543,78 @@
         <f>IF(Voreinstellungen!A33="","",Voreinstellungen!A33&amp;" ("&amp;Voreinstellungen!B33&amp;")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="B49" s="425">
+      <c r="B49" s="406">
         <f>Januar!J47</f>
         <v>0</v>
       </c>
-      <c r="C49" s="425"/>
-      <c r="D49" s="425"/>
-      <c r="E49" s="425">
+      <c r="C49" s="406"/>
+      <c r="D49" s="406"/>
+      <c r="E49" s="406">
         <f>Februar!J47</f>
         <v>0</v>
       </c>
-      <c r="F49" s="425"/>
-      <c r="G49" s="425"/>
-      <c r="H49" s="425">
+      <c r="F49" s="406"/>
+      <c r="G49" s="406"/>
+      <c r="H49" s="406">
         <f>März!J47</f>
         <v>0</v>
       </c>
-      <c r="I49" s="425"/>
-      <c r="J49" s="425"/>
-      <c r="K49" s="425">
+      <c r="I49" s="406"/>
+      <c r="J49" s="406"/>
+      <c r="K49" s="406">
         <f>April!J47</f>
         <v>0</v>
       </c>
-      <c r="L49" s="425"/>
-      <c r="M49" s="425"/>
-      <c r="N49" s="425">
+      <c r="L49" s="406"/>
+      <c r="M49" s="406"/>
+      <c r="N49" s="406">
         <f>Mai!J47</f>
         <v>0</v>
       </c>
-      <c r="O49" s="425"/>
-      <c r="P49" s="425"/>
-      <c r="Q49" s="425">
+      <c r="O49" s="406"/>
+      <c r="P49" s="406"/>
+      <c r="Q49" s="406">
         <f>Juni!J47</f>
         <v>0</v>
       </c>
-      <c r="R49" s="425"/>
-      <c r="S49" s="425"/>
-      <c r="T49" s="425">
+      <c r="R49" s="406"/>
+      <c r="S49" s="406"/>
+      <c r="T49" s="406">
         <f>Juli!J47</f>
         <v>0</v>
       </c>
-      <c r="U49" s="425"/>
-      <c r="V49" s="425"/>
-      <c r="W49" s="425">
+      <c r="U49" s="406"/>
+      <c r="V49" s="406"/>
+      <c r="W49" s="406">
         <f>August!J47</f>
         <v>0</v>
       </c>
-      <c r="X49" s="425"/>
-      <c r="Y49" s="425"/>
-      <c r="Z49" s="425">
+      <c r="X49" s="406"/>
+      <c r="Y49" s="406"/>
+      <c r="Z49" s="406">
         <f>September!J47</f>
         <v>0</v>
       </c>
-      <c r="AA49" s="425"/>
-      <c r="AB49" s="425"/>
-      <c r="AC49" s="425">
+      <c r="AA49" s="406"/>
+      <c r="AB49" s="406"/>
+      <c r="AC49" s="406">
         <f>Oktober!J47</f>
         <v>0</v>
       </c>
-      <c r="AD49" s="425"/>
-      <c r="AE49" s="425"/>
-      <c r="AF49" s="425">
+      <c r="AD49" s="406"/>
+      <c r="AE49" s="406"/>
+      <c r="AF49" s="406">
         <f>November!J47</f>
         <v>0</v>
       </c>
-      <c r="AG49" s="425"/>
-      <c r="AH49" s="425"/>
-      <c r="AI49" s="425">
+      <c r="AG49" s="406"/>
+      <c r="AH49" s="406"/>
+      <c r="AI49" s="406">
         <f>Dezember!J47</f>
         <v>0</v>
       </c>
-      <c r="AJ49" s="425"/>
-      <c r="AK49" s="425"/>
+      <c r="AJ49" s="406"/>
+      <c r="AK49" s="406"/>
       <c r="AL49" s="345">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24625,78 +24625,78 @@
         <f>Voreinstellungen!A23&amp;" ("&amp;Voreinstellungen!B23&amp;"/"&amp;Voreinstellungen!B24&amp;")"</f>
         <v>Kurzarbeit (KU/KA)</v>
       </c>
-      <c r="B50" s="426">
+      <c r="B50" s="407">
         <f>Januar!P39</f>
         <v>0</v>
       </c>
-      <c r="C50" s="426"/>
-      <c r="D50" s="426"/>
-      <c r="E50" s="426">
+      <c r="C50" s="407"/>
+      <c r="D50" s="407"/>
+      <c r="E50" s="407">
         <f>Februar!P39</f>
         <v>0</v>
       </c>
-      <c r="F50" s="426"/>
-      <c r="G50" s="426"/>
-      <c r="H50" s="426">
+      <c r="F50" s="407"/>
+      <c r="G50" s="407"/>
+      <c r="H50" s="407">
         <f>März!P39</f>
         <v>0</v>
       </c>
-      <c r="I50" s="426"/>
-      <c r="J50" s="426"/>
-      <c r="K50" s="426">
+      <c r="I50" s="407"/>
+      <c r="J50" s="407"/>
+      <c r="K50" s="407">
         <f>April!P39</f>
         <v>0</v>
       </c>
-      <c r="L50" s="426"/>
-      <c r="M50" s="426"/>
-      <c r="N50" s="426">
+      <c r="L50" s="407"/>
+      <c r="M50" s="407"/>
+      <c r="N50" s="407">
         <f>Mai!P39</f>
         <v>0</v>
       </c>
-      <c r="O50" s="426"/>
-      <c r="P50" s="426"/>
-      <c r="Q50" s="426">
+      <c r="O50" s="407"/>
+      <c r="P50" s="407"/>
+      <c r="Q50" s="407">
         <f>Juni!P39</f>
         <v>0</v>
       </c>
-      <c r="R50" s="426"/>
-      <c r="S50" s="426"/>
-      <c r="T50" s="426">
+      <c r="R50" s="407"/>
+      <c r="S50" s="407"/>
+      <c r="T50" s="407">
         <f>Juli!P39</f>
         <v>0</v>
       </c>
-      <c r="U50" s="426"/>
-      <c r="V50" s="426"/>
-      <c r="W50" s="426">
+      <c r="U50" s="407"/>
+      <c r="V50" s="407"/>
+      <c r="W50" s="407">
         <f>August!P39</f>
         <v>0</v>
       </c>
-      <c r="X50" s="426"/>
-      <c r="Y50" s="426"/>
-      <c r="Z50" s="426">
+      <c r="X50" s="407"/>
+      <c r="Y50" s="407"/>
+      <c r="Z50" s="407">
         <f>September!P39</f>
         <v>0</v>
       </c>
-      <c r="AA50" s="426"/>
-      <c r="AB50" s="426"/>
-      <c r="AC50" s="426">
+      <c r="AA50" s="407"/>
+      <c r="AB50" s="407"/>
+      <c r="AC50" s="407">
         <f>Oktober!P39</f>
         <v>0</v>
       </c>
-      <c r="AD50" s="426"/>
-      <c r="AE50" s="426"/>
-      <c r="AF50" s="426">
+      <c r="AD50" s="407"/>
+      <c r="AE50" s="407"/>
+      <c r="AF50" s="407">
         <f>November!P39</f>
         <v>0</v>
       </c>
-      <c r="AG50" s="426"/>
-      <c r="AH50" s="426"/>
-      <c r="AI50" s="426">
+      <c r="AG50" s="407"/>
+      <c r="AH50" s="407"/>
+      <c r="AI50" s="407">
         <f>Dezember!P39</f>
         <v>0</v>
       </c>
-      <c r="AJ50" s="426"/>
-      <c r="AK50" s="426"/>
+      <c r="AJ50" s="407"/>
+      <c r="AK50" s="407"/>
       <c r="AL50" s="257">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24705,18 +24705,178 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ULs8CaE8jYKyq0Qm0xansyOebF3btUSqUz6IOiad1Adl94OHsV4iwVCV23Ea2hIZUZuXiwTKCyndrGMaAIXqpg==" saltValue="DQP1StXmrS+ACnfAoqZYYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="208">
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="AF39:AH39"/>
-    <mergeCell ref="AI39:AK39"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="E1:AH2"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="AF38:AH38"/>
+    <mergeCell ref="AI38:AK38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="AF40:AH40"/>
+    <mergeCell ref="AI40:AK40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="AF41:AH41"/>
+    <mergeCell ref="AI41:AK41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="AF42:AH42"/>
+    <mergeCell ref="AI42:AK42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="AF43:AH43"/>
+    <mergeCell ref="AI43:AK43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AC44:AE44"/>
+    <mergeCell ref="AF44:AH44"/>
+    <mergeCell ref="AI44:AK44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AC45:AE45"/>
+    <mergeCell ref="AF45:AH45"/>
+    <mergeCell ref="AI45:AK45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AK46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AC47:AE47"/>
+    <mergeCell ref="AF47:AH47"/>
+    <mergeCell ref="AI47:AK47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W48:Y48"/>
     <mergeCell ref="Z49:AB49"/>
     <mergeCell ref="AC50:AE50"/>
     <mergeCell ref="AF50:AH50"/>
@@ -24741,178 +24901,18 @@
     <mergeCell ref="T50:V50"/>
     <mergeCell ref="W50:Y50"/>
     <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AK46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AC47:AE47"/>
-    <mergeCell ref="AF47:AH47"/>
-    <mergeCell ref="AI47:AK47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="W46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AC44:AE44"/>
-    <mergeCell ref="AF44:AH44"/>
-    <mergeCell ref="AI44:AK44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AC45:AE45"/>
-    <mergeCell ref="AF45:AH45"/>
-    <mergeCell ref="AI45:AK45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="AF42:AH42"/>
-    <mergeCell ref="AI42:AK42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="AF43:AH43"/>
-    <mergeCell ref="AI43:AK43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="AF40:AH40"/>
-    <mergeCell ref="AI40:AK40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="AF41:AH41"/>
-    <mergeCell ref="AI41:AK41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="AF38:AH38"/>
-    <mergeCell ref="AI38:AK38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="E1:AH2"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="AF39:AH39"/>
+    <mergeCell ref="AI39:AK39"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:D34">
     <cfRule type="expression" dxfId="117" priority="127">
@@ -26070,7 +26070,7 @@
       <c r="D2" s="92"/>
       <c r="E2" s="93">
         <f>Jahresübersicht!AL38</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -26775,16 +26775,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,1,1)</f>
         <v>44196</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -26795,20 +26795,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -26816,11 +26816,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="287" t="s">
@@ -26842,10 +26842,10 @@
       <c r="G3" s="290" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="398" t="s">
+      <c r="H3" s="390" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="399"/>
+      <c r="I3" s="391"/>
       <c r="J3" s="291" t="s">
         <v>24</v>
       </c>
@@ -28299,14 +28299,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -28331,14 +28331,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -28363,14 +28363,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28395,7 +28395,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -28422,10 +28422,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28437,10 +28437,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28454,14 +28454,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -28478,14 +28478,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -28506,14 +28506,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -28530,14 +28530,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -28554,14 +28554,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -28582,14 +28582,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -28598,6 +28598,14 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="oBN0r51dDECZFls/TRAJAd27W+TgL0++D9lshzBuMe37JDIPjzAnm/4XFLohKLime/fBemTKFXqJa2/SVgSDMA==" saltValue="9rbClIGXtx70peLMTAtvDA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K41:O41"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
@@ -28606,14 +28614,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K41:O41"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="303" priority="15">
@@ -28786,16 +28786,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,2,1)</f>
         <v>44227</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -28806,20 +28806,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -28827,11 +28827,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -30310,14 +30310,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -30342,14 +30342,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -30374,14 +30374,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30406,7 +30406,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -30433,10 +30433,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30448,10 +30448,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30465,14 +30465,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -30489,14 +30489,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -30517,14 +30517,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -30541,14 +30541,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -30565,14 +30565,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -30593,14 +30593,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -30609,13 +30609,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y6rmxDLPAughoR7jJQ0sYbv9kfWJhTEX26xayEFtXRyn02iMymx2d2if1VzL9B00xl/4Ttqic0gGXCy8h+ZU0Q==" saltValue="ycOUgX715xjWc1uyEcsw+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -30625,6 +30618,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="287" priority="9">
@@ -30797,16 +30797,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,3,1)</f>
         <v>44255</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -30817,20 +30817,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -30838,11 +30838,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -32363,14 +32363,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -32395,14 +32395,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -32427,14 +32427,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32459,7 +32459,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -32486,10 +32486,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32501,10 +32501,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32518,14 +32518,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -32542,14 +32542,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -32570,14 +32570,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -32594,14 +32594,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -32618,14 +32618,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -32646,14 +32646,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -32662,13 +32662,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ium0EoF68XxSI58RkPIJpAIl5Av08x4FXPIFpsrYuZ63ieW47f8XBZIqtWetTTOx10wRSo+z4hLxZUXvJC7Akw==" saltValue="zOg4DvyRe2VbbS4PWEwW1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -32678,6 +32671,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="271" priority="9">
@@ -32828,7 +32828,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -32850,16 +32850,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,4,1)</f>
         <v>44286</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -32870,20 +32870,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -32891,11 +32891,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -33784,8 +33784,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D22" s="325"/>
-      <c r="E22" s="325"/>
+      <c r="D22" s="325">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E22" s="325">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F22" s="325"/>
       <c r="G22" s="325"/>
       <c r="H22" s="326"/>
@@ -33796,7 +33800,7 @@
       <c r="J22" s="163"/>
       <c r="K22" s="319">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="L22" s="320">
         <f t="shared" ca="1" si="3"/>
@@ -33804,16 +33808,18 @@
       </c>
       <c r="M22" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="N22" s="360">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="O22" s="165"/>
+      <c r="O22" s="165" t="s">
+        <v>144</v>
+      </c>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33858,7 +33864,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33903,7 +33909,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33948,7 +33954,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33993,7 +33999,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34038,7 +34044,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34083,7 +34089,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34128,7 +34134,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34173,7 +34179,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34218,7 +34224,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34263,7 +34269,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34308,7 +34314,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34392,14 +34398,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -34424,14 +34430,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -34448,7 +34454,7 @@
       </c>
       <c r="F38" s="171">
         <f>SUM(K4:K34)</f>
-        <v>0.50000000000000011</v>
+        <v>0.53125000000000011</v>
       </c>
       <c r="G38" s="53"/>
       <c r="I38" s="68"/>
@@ -34456,14 +34462,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34488,7 +34494,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -34504,21 +34510,21 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
       <c r="J40" s="210">
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34530,10 +34536,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34547,14 +34553,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -34571,14 +34577,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -34599,14 +34605,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -34623,14 +34629,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -34647,14 +34653,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -34675,14 +34681,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -34691,13 +34697,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="HdZ3F0mjmoV5DFx28D4MVNbjsTHEK/EhqlBMbQcFz3QaDVTjPn59ZfolJDNZ8ZZq73r/ru7s7K5k+lJnmNqcOg==" saltValue="HgrPnpOBPHk1rRzox3VdGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -34707,6 +34706,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="255" priority="9">
@@ -34879,16 +34885,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,5,1)</f>
         <v>44316</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -34899,20 +34905,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -34920,11 +34926,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -35014,7 +35020,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35059,7 +35065,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35104,7 +35110,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35149,7 +35155,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35194,7 +35200,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35239,7 +35245,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35284,7 +35290,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35329,7 +35335,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35374,7 +35380,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35419,7 +35425,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35464,7 +35470,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35509,7 +35515,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35554,7 +35560,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35599,7 +35605,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35644,7 +35650,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35689,7 +35695,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35734,7 +35740,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35779,7 +35785,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35824,7 +35830,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35869,7 +35875,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35914,7 +35920,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35959,7 +35965,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36004,7 +36010,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36049,7 +36055,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36094,7 +36100,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36139,7 +36145,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36184,7 +36190,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36229,7 +36235,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36274,7 +36280,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36319,7 +36325,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36364,7 +36370,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -36395,7 +36401,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">April!F40</f>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -36403,14 +36409,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -36435,14 +36441,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -36467,14 +36473,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36499,7 +36505,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -36515,7 +36521,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -36526,10 +36532,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36541,10 +36547,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36558,14 +36564,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -36582,14 +36588,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -36610,14 +36616,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -36634,14 +36640,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -36658,14 +36664,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -36686,14 +36692,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -36702,13 +36708,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QRQqXIlNhc+OQAiDPNu1TK+Ynzbi1gFXP6QsGKNA/9FZcHaHcYmGZ4msAg9wXPWQ5ACbbOQ+pHM1KuUwb/ARmw==" saltValue="6kgwADYOzywLgL2Yai7cyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -36718,6 +36717,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="239" priority="9">
@@ -36890,16 +36896,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,6,1)</f>
         <v>44347</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -36910,20 +36916,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -36931,11 +36937,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -37025,7 +37031,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37070,7 +37076,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37115,7 +37121,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37160,7 +37166,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37205,7 +37211,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37250,7 +37256,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37295,7 +37301,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37340,7 +37346,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37385,7 +37391,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37430,7 +37436,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37475,7 +37481,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37520,7 +37526,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37565,7 +37571,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37610,7 +37616,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37655,7 +37661,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37700,7 +37706,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37745,7 +37751,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37790,7 +37796,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37835,7 +37841,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37880,7 +37886,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37925,7 +37931,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37970,7 +37976,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38015,7 +38021,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38060,7 +38066,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38105,7 +38111,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38150,7 +38156,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38195,7 +38201,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38240,7 +38246,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38285,7 +38291,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38330,7 +38336,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38406,7 +38412,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Mai!F40</f>
-        <v>1.3020833333333299</v>
+        <v>1.3333333333333299</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -38414,14 +38420,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -38446,14 +38452,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -38478,14 +38484,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38510,7 +38516,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -38526,7 +38532,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -38537,10 +38543,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38552,10 +38558,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38569,14 +38575,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -38593,14 +38599,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -38621,14 +38627,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -38645,14 +38651,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -38669,14 +38675,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -38697,14 +38703,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -38713,13 +38719,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="fhTrPY6THDrD8+4Vt5qeYzFzpiAhzJFQvbKEJqo2+Ga2thRbk9rIndDcaxDkbPVaB0fvdXFGbxdyHG/oskG6VA==" saltValue="kL7dVike1ELP/RmEdcYUoA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -38729,6 +38728,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="223" priority="9">
@@ -38901,16 +38907,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="390">
+      <c r="A1" s="382">
         <f>DATE(Jahr,7,1)</f>
         <v>44377</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 23</v>
@@ -38921,20 +38927,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="394" t="str">
+      <c r="O1" s="386" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="395"/>
+      <c r="P1" s="387"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="392"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -38942,11 +38948,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="396" t="str">
+      <c r="O2" s="388" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="397"/>
+      <c r="P2" s="389"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -39036,7 +39042,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39081,7 +39087,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39126,7 +39132,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39171,7 +39177,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39216,7 +39222,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39261,7 +39267,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39306,7 +39312,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39351,7 +39357,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39396,7 +39402,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39441,7 +39447,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39486,7 +39492,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39531,7 +39537,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39576,7 +39582,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39621,7 +39627,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39666,7 +39672,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39711,7 +39717,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39756,7 +39762,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39801,7 +39807,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39846,7 +39852,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39891,7 +39897,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39936,7 +39942,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39981,7 +39987,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40026,7 +40032,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40071,7 +40077,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40116,7 +40122,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40161,7 +40167,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40206,7 +40212,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40251,7 +40257,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40296,7 +40302,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40341,7 +40347,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40386,7 +40392,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -40417,7 +40423,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juni!F40</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -40425,14 +40431,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="401" t="str">
+      <c r="K36" s="393" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
+      <c r="L36" s="394"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
+      <c r="O36" s="394"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -40457,14 +40463,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="389" t="str">
+      <c r="K37" s="381" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="400"/>
-      <c r="M37" s="400"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -40489,14 +40495,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="389" t="str">
+      <c r="K38" s="381" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="400"/>
-      <c r="M38" s="400"/>
-      <c r="N38" s="400"/>
-      <c r="O38" s="400"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
+      <c r="O38" s="392"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40521,7 +40527,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="389"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -40537,7 +40543,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.8229166666666701</v>
+        <v>-1.7916666666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -40548,10 +40554,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="395"/>
+      <c r="O40" s="396"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40563,10 +40569,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="381"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="381"/>
-      <c r="O41" s="382"/>
+      <c r="L41" s="395"/>
+      <c r="M41" s="395"/>
+      <c r="N41" s="395"/>
+      <c r="O41" s="396"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40580,14 +40586,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="400" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="387"/>
-      <c r="M42" s="387"/>
-      <c r="N42" s="387"/>
-      <c r="O42" s="388"/>
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401"/>
+      <c r="O42" s="402"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -40604,14 +40610,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="386" t="str">
+      <c r="K43" s="400" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="388"/>
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401"/>
+      <c r="O43" s="402"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -40632,14 +40638,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="386" t="str">
+      <c r="K44" s="400" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="388"/>
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401"/>
+      <c r="O44" s="402"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -40656,14 +40662,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="386" t="str">
+      <c r="K45" s="400" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="388"/>
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401"/>
+      <c r="O45" s="402"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -40680,14 +40686,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="386" t="str">
+      <c r="K46" s="400" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="388"/>
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401"/>
+      <c r="O46" s="402"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -40708,14 +40714,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="383" t="str">
+      <c r="K47" s="397" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="385"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="399"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -40724,13 +40730,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="5JrgeHwuAVIPtwH1U07o0PqVK6YXu2rFbc1AuNL2akSFcmRQ/M9+mvVLNApYMuEj6Qoj/yZecDy4C6fld700HA==" saltValue="SzMXRk1wWUdzBCExZHeB2g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -40740,6 +40739,13 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="207" priority="9">

--- a/Arbeitszeit.xlsx
+++ b/Arbeitszeit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Philipp\Studium\Molecular-Test-Time-Adaptation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB7214B-EEDC-424E-A183-A3570E4FD87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E5020C-F396-4097-986D-1454847BBA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="HCoKw4gRij0gV6dkJfNeqDY8SK+w2PMaLYVl2wyqiuSEdbwXoxG0BpbDJ/qeWfNHoSNSKsH2JW6N7mRDHC8t+w==" workbookSaltValue="AxSev/HzJnlnx2x5wdOaWw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="933" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="145">
   <si>
     <t>Benutzer-Voreinstellungen</t>
   </si>
@@ -8593,7 +8593,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8638,7 +8638,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8683,7 +8683,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8728,7 +8728,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8773,7 +8773,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8818,7 +8818,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8863,7 +8863,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8908,7 +8908,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8953,7 +8953,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8998,7 +8998,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9043,7 +9043,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9088,7 +9088,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9133,7 +9133,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9178,7 +9178,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9223,7 +9223,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9268,7 +9268,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9313,7 +9313,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9358,7 +9358,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9403,7 +9403,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9448,7 +9448,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9493,7 +9493,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9538,7 +9538,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9583,7 +9583,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9628,7 +9628,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9673,7 +9673,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9718,7 +9718,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9763,7 +9763,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9808,7 +9808,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9853,7 +9853,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9898,7 +9898,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9943,7 +9943,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -9974,7 +9974,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juli!F40</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -10604,7 +10604,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10649,7 +10649,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10694,7 +10694,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10739,7 +10739,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10784,7 +10784,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10829,7 +10829,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10874,7 +10874,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10919,7 +10919,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10964,7 +10964,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11009,7 +11009,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11054,7 +11054,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11099,7 +11099,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11144,7 +11144,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11189,7 +11189,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11234,7 +11234,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11279,7 +11279,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11324,7 +11324,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11369,7 +11369,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11414,7 +11414,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11459,7 +11459,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11504,7 +11504,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11549,7 +11549,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11594,7 +11594,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11639,7 +11639,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11684,7 +11684,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11729,7 +11729,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11774,7 +11774,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11819,7 +11819,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11864,7 +11864,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11909,7 +11909,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">August!F40</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -12615,7 +12615,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12660,7 +12660,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12705,7 +12705,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12750,7 +12750,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12795,7 +12795,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12840,7 +12840,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12885,7 +12885,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12930,7 +12930,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12975,7 +12975,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13020,7 +13020,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13065,7 +13065,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13110,7 +13110,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13155,7 +13155,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13200,7 +13200,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13245,7 +13245,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13290,7 +13290,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13335,7 +13335,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13380,7 +13380,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13425,7 +13425,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13470,7 +13470,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13515,7 +13515,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13560,7 +13560,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13605,7 +13605,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13650,7 +13650,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13695,7 +13695,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13740,7 +13740,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13785,7 +13785,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13830,7 +13830,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13875,7 +13875,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13920,7 +13920,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13965,7 +13965,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">September!F40</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -14116,7 +14116,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -14626,7 +14626,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14671,7 +14671,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14716,7 +14716,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14761,7 +14761,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14806,7 +14806,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14851,7 +14851,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14896,7 +14896,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14941,7 +14941,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14986,7 +14986,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15031,7 +15031,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15076,7 +15076,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15121,7 +15121,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15166,7 +15166,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15211,7 +15211,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15256,7 +15256,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15301,7 +15301,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15346,7 +15346,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15391,7 +15391,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15436,7 +15436,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15481,7 +15481,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15526,7 +15526,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15571,7 +15571,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15616,7 +15616,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15661,7 +15661,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15706,7 +15706,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15751,7 +15751,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15796,7 +15796,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15841,7 +15841,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15886,7 +15886,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15931,7 +15931,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16007,7 +16007,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Oktober!F40</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -16637,7 +16637,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16682,7 +16682,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16727,7 +16727,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16772,7 +16772,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16817,7 +16817,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16862,7 +16862,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16907,7 +16907,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16952,7 +16952,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16997,7 +16997,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17042,7 +17042,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17087,7 +17087,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17132,7 +17132,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17177,7 +17177,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17222,7 +17222,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17267,7 +17267,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17312,7 +17312,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17357,7 +17357,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17402,7 +17402,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17447,7 +17447,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17492,7 +17492,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17537,7 +17537,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17582,7 +17582,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17627,7 +17627,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17672,7 +17672,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17717,7 +17717,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17762,7 +17762,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17807,7 +17807,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17852,7 +17852,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17897,7 +17897,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17942,7 +17942,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17987,7 +17987,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">November!F40</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -18138,7 +18138,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -21918,9 +21918,9 @@
         <f>April!A25</f>
         <v>44307</v>
       </c>
-      <c r="L25" s="134" t="str">
+      <c r="L25" s="134">
         <f>IF(April!K25&gt;0,April!K25,"")</f>
-        <v/>
+        <v>0.10416666666666669</v>
       </c>
       <c r="M25" s="126" t="str">
         <f>IF(OR(April!C25="",April!J25&lt;&gt;""),UPPER(April!J25),"F")</f>
@@ -23499,7 +23499,7 @@
       <c r="J36" s="265"/>
       <c r="K36" s="413">
         <f>April!F38</f>
-        <v>0.53125000000000011</v>
+        <v>0.63541666666666674</v>
       </c>
       <c r="L36" s="413"/>
       <c r="M36" s="264"/>
@@ -23553,7 +23553,7 @@
       <c r="AK36" s="264"/>
       <c r="AL36" s="266">
         <f t="shared" si="0"/>
-        <v>1.3333333333333335</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -23580,7 +23580,7 @@
       <c r="J37" s="83"/>
       <c r="K37" s="408">
         <f ca="1">ROUND(K36-K35,10)</f>
-        <v>0.53125</v>
+        <v>0.63541666669999997</v>
       </c>
       <c r="L37" s="408"/>
       <c r="M37" s="82"/>
@@ -23634,7 +23634,7 @@
       <c r="AK37" s="82"/>
       <c r="AL37" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7916666666999999</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
@@ -23661,7 +23661,7 @@
       <c r="J38" s="410"/>
       <c r="K38" s="410">
         <f>April!J40</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L38" s="410"/>
       <c r="M38" s="410"/>
@@ -23715,7 +23715,7 @@
       <c r="AK38" s="410"/>
       <c r="AL38" s="343">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -26070,7 +26070,7 @@
       <c r="D2" s="92"/>
       <c r="E2" s="93">
         <f>Jahresübersicht!AL38</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -32828,7 +32828,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -33925,8 +33925,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D25" s="325"/>
-      <c r="E25" s="325"/>
+      <c r="D25" s="325">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E25" s="325">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="F25" s="325"/>
       <c r="G25" s="325"/>
       <c r="H25" s="326"/>
@@ -33937,7 +33941,7 @@
       <c r="J25" s="163"/>
       <c r="K25" s="319">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.10416666666666669</v>
       </c>
       <c r="L25" s="320">
         <f t="shared" ca="1" si="3"/>
@@ -33945,16 +33949,18 @@
       </c>
       <c r="M25" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>0.10416666666667</v>
       </c>
       <c r="N25" s="360">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="O25" s="165"/>
+      <c r="O25" s="165" t="s">
+        <v>144</v>
+      </c>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33999,7 +34005,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34044,7 +34050,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34089,7 +34095,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34134,7 +34140,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34179,7 +34185,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34224,7 +34230,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34269,7 +34275,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34314,7 +34320,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34454,7 +34460,7 @@
       </c>
       <c r="F38" s="171">
         <f>SUM(K4:K34)</f>
-        <v>0.53125000000000011</v>
+        <v>0.63541666666666674</v>
       </c>
       <c r="G38" s="53"/>
       <c r="I38" s="68"/>
@@ -34510,13 +34516,13 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
       <c r="J40" s="210">
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K40" s="380" t="s">
         <v>91</v>
@@ -35020,7 +35026,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35065,7 +35071,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35110,7 +35116,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35155,7 +35161,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35200,7 +35206,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35245,7 +35251,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35290,7 +35296,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35335,7 +35341,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35380,7 +35386,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35425,7 +35431,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35470,7 +35476,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35515,7 +35521,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35560,7 +35566,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35605,7 +35611,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35650,7 +35656,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35695,7 +35701,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35740,7 +35746,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35785,7 +35791,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35830,7 +35836,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35875,7 +35881,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35920,7 +35926,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -35965,7 +35971,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36010,7 +36016,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36055,7 +36061,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36100,7 +36106,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36145,7 +36151,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36190,7 +36196,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36235,7 +36241,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36280,7 +36286,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36325,7 +36331,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -36370,7 +36376,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -36401,7 +36407,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">April!F40</f>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -36521,7 +36527,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -37031,7 +37037,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37076,7 +37082,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37121,7 +37127,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37166,7 +37172,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37211,7 +37217,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37256,7 +37262,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37301,7 +37307,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37346,7 +37352,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37391,7 +37397,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37436,7 +37442,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37481,7 +37487,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37526,7 +37532,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37571,7 +37577,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37616,7 +37622,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37661,7 +37667,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37706,7 +37712,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37751,7 +37757,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37796,7 +37802,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37841,7 +37847,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37886,7 +37892,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37931,7 +37937,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37976,7 +37982,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38021,7 +38027,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38066,7 +38072,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38111,7 +38117,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38156,7 +38162,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38201,7 +38207,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38246,7 +38252,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38291,7 +38297,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38336,7 +38342,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38412,7 +38418,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Mai!F40</f>
-        <v>1.3333333333333299</v>
+        <v>1.4375</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -38532,7 +38538,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -39042,7 +39048,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39087,7 +39093,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39132,7 +39138,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39177,7 +39183,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39222,7 +39228,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39267,7 +39273,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39312,7 +39318,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39357,7 +39363,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39402,7 +39408,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39447,7 +39453,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39492,7 +39498,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39537,7 +39543,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39582,7 +39588,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39627,7 +39633,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39672,7 +39678,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39717,7 +39723,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39762,7 +39768,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39807,7 +39813,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39852,7 +39858,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39897,7 +39903,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39942,7 +39948,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39987,7 +39993,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40032,7 +40038,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40077,7 +40083,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40122,7 +40128,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40167,7 +40173,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40212,7 +40218,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40257,7 +40263,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40302,7 +40308,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40347,7 +40353,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40392,7 +40398,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -40423,7 +40429,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juni!F40</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -40543,7 +40549,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.7916666666666701</v>
+        <v>-1.6875</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>

--- a/Arbeitszeit.xlsx
+++ b/Arbeitszeit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Philipp\Studium\Molecular-Test-Time-Adaptation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E5020C-F396-4097-986D-1454847BBA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE07BD5-6D25-41DD-803B-D4D7F0BD8D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="HCoKw4gRij0gV6dkJfNeqDY8SK+w2PMaLYVl2wyqiuSEdbwXoxG0BpbDJ/qeWfNHoSNSKsH2JW6N7mRDHC8t+w==" workbookSaltValue="AxSev/HzJnlnx2x5wdOaWw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="933" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="145">
   <si>
     <t>Benutzer-Voreinstellungen</t>
   </si>
@@ -5206,6 +5206,30 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="168" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -5260,30 +5284,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="168" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="170" fontId="2" fillId="7" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -5292,84 +5292,84 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="2" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="2" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="188" fontId="0" fillId="2" borderId="112" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="2" borderId="113" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="188" fontId="0" fillId="2" borderId="205" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="187" fontId="8" fillId="2" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="2" borderId="113" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="1" fillId="2" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="1" fillId="2" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="1" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="1" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -8458,16 +8458,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,8,1)</f>
         <v>44408</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -8478,20 +8478,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -8499,11 +8499,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -8593,7 +8593,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8638,7 +8638,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8683,7 +8683,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8728,7 +8728,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8773,7 +8773,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8818,7 +8818,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8863,7 +8863,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8908,7 +8908,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8953,7 +8953,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8998,7 +8998,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9043,7 +9043,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9088,7 +9088,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9133,7 +9133,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9178,7 +9178,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9223,7 +9223,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9268,7 +9268,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9313,7 +9313,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9358,7 +9358,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9403,7 +9403,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9448,7 +9448,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9493,7 +9493,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9538,7 +9538,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9583,7 +9583,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9628,7 +9628,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9673,7 +9673,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9718,7 +9718,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9763,7 +9763,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9808,7 +9808,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9853,7 +9853,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9898,7 +9898,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9943,7 +9943,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -9974,7 +9974,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">Juli!F40</f>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -9982,14 +9982,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -10014,14 +10014,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -10046,14 +10046,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10078,7 +10078,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -10105,10 +10105,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10120,10 +10120,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10137,14 +10137,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -10161,14 +10161,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -10189,14 +10189,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -10213,14 +10213,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -10237,14 +10237,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -10265,14 +10265,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -10281,6 +10281,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="u9sw9Wp4FxWrrZw2gOfkGI7WDfwQ2wzVzpXiQtTY4/flADuSruZDhtkNpKsXPRieyhxYdM1K4kVDyBMMhvPWXQ==" saltValue="ahMBA+MAYyJY9Z70TI5l7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -10290,13 +10297,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="191" priority="9">
@@ -10469,16 +10469,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,9,1)</f>
         <v>44439</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -10489,20 +10489,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -10510,11 +10510,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -10604,7 +10604,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10649,7 +10649,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10694,7 +10694,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10739,7 +10739,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10784,7 +10784,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10829,7 +10829,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10874,7 +10874,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10919,7 +10919,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10964,7 +10964,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11009,7 +11009,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11054,7 +11054,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11099,7 +11099,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11144,7 +11144,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11189,7 +11189,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11234,7 +11234,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11279,7 +11279,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11324,7 +11324,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11369,7 +11369,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11414,7 +11414,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11459,7 +11459,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11504,7 +11504,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11549,7 +11549,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11594,7 +11594,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11639,7 +11639,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11684,7 +11684,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11729,7 +11729,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11774,7 +11774,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11819,7 +11819,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11864,7 +11864,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11909,7 +11909,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">August!F40</f>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -11993,14 +11993,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -12025,14 +12025,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -12057,14 +12057,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12089,7 +12089,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -12116,10 +12116,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12131,10 +12131,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12148,14 +12148,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -12172,14 +12172,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -12200,14 +12200,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -12224,14 +12224,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -12248,14 +12248,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -12276,14 +12276,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -12292,6 +12292,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZwadLNizQthu+TvLNfXLzHOxARw83BIKNXnXY+M0ilE4dNWC9Xi45W9RUbnFnWYY/YjuB/TQHV534uE6uxgXzA==" saltValue="AZ6xCuoaQ+vRzuHj27R1+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -12301,13 +12308,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="175" priority="9">
@@ -12480,16 +12480,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,10,1)</f>
         <v>44469</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -12500,20 +12500,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -12521,11 +12521,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -12615,7 +12615,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12660,7 +12660,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12705,7 +12705,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12750,7 +12750,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12795,7 +12795,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12840,7 +12840,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12885,7 +12885,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12930,7 +12930,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12975,7 +12975,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13020,7 +13020,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13065,7 +13065,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13110,7 +13110,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13155,7 +13155,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13200,7 +13200,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13245,7 +13245,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13290,7 +13290,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13335,7 +13335,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13380,7 +13380,7 @@
       <c r="O21" s="165"/>
       <c r="P21" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13425,7 +13425,7 @@
       <c r="O22" s="165"/>
       <c r="P22" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13470,7 +13470,7 @@
       <c r="O23" s="165"/>
       <c r="P23" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13515,7 +13515,7 @@
       <c r="O24" s="165"/>
       <c r="P24" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13560,7 +13560,7 @@
       <c r="O25" s="165"/>
       <c r="P25" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13605,7 +13605,7 @@
       <c r="O26" s="165"/>
       <c r="P26" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13650,7 +13650,7 @@
       <c r="O27" s="165"/>
       <c r="P27" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13695,7 +13695,7 @@
       <c r="O28" s="165"/>
       <c r="P28" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13740,7 +13740,7 @@
       <c r="O29" s="165"/>
       <c r="P29" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13785,7 +13785,7 @@
       <c r="O30" s="165"/>
       <c r="P30" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13830,7 +13830,7 @@
       <c r="O31" s="165"/>
       <c r="P31" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13875,7 +13875,7 @@
       <c r="O32" s="165"/>
       <c r="P32" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13920,7 +13920,7 @@
       <c r="O33" s="165"/>
       <c r="P33" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13965,7 +13965,7 @@
       <c r="O34" s="310"/>
       <c r="P34" s="311">
         <f ca="1">IF(A34="","",IF(M34&lt;&gt;"",ROUND(P33+M34,14),P33))</f>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="F36" s="169">
         <f ca="1">September!F40</f>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
       <c r="G36" s="53"/>
       <c r="I36" s="68"/>
@@ -14004,14 +14004,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+IF(COUNTIF(J4:J34,Voreinstellungen!B22)&gt;0,1-(SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)/SUMIF(J4:J34,Voreinstellungen!B22,N4:N34)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="393" t="str">
+      <c r="K36" s="401" t="str">
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;"/"&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K/KR)</v>
       </c>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="402"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
       <c r="P36" s="242">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -14036,14 +14036,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="389" t="str">
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;"/"&amp;Voreinstellungen!B26&amp;") aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
+      <c r="L37" s="400"/>
+      <c r="M37" s="400"/>
+      <c r="N37" s="400"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="233">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -14068,14 +14068,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B20)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="str">
+      <c r="K38" s="389" t="str">
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="L38" s="392"/>
-      <c r="M38" s="392"/>
-      <c r="N38" s="392"/>
-      <c r="O38" s="392"/>
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400"/>
+      <c r="O38" s="400"/>
       <c r="P38" s="241"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14100,7 +14100,7 @@
       <c r="L39" s="380"/>
       <c r="M39" s="380"/>
       <c r="N39" s="380"/>
-      <c r="O39" s="381"/>
+      <c r="O39" s="389"/>
       <c r="P39" s="232">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -14116,7 +14116,7 @@
       </c>
       <c r="F40" s="172">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
       <c r="G40" s="53"/>
       <c r="I40" s="70"/>
@@ -14127,10 +14127,10 @@
       <c r="K40" s="380" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="396"/>
+      <c r="L40" s="381"/>
+      <c r="M40" s="381"/>
+      <c r="N40" s="381"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="341"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14142,10 +14142,10 @@
         <f>Voreinstellungen!A27</f>
         <v>Homeoffice</v>
       </c>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="396"/>
+      <c r="L41" s="381"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="381"/>
+      <c r="O41" s="382"/>
       <c r="P41" s="341"/>
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14159,14 +14159,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B28,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B28,N4:N34),0),IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28)))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="400" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="401"/>
-      <c r="M42" s="401"/>
-      <c r="N42" s="401"/>
-      <c r="O42" s="402"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="387"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(Voreinstellungen!C28="REST",SUMIF(J4:J34,Voreinstellungen!B28,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),"")))</f>
         <v>0</v>
@@ -14183,14 +14183,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B29,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B29,N4:N34),0),IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29)))))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="400" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="401"/>
-      <c r="M43" s="401"/>
-      <c r="N43" s="401"/>
-      <c r="O43" s="402"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="234">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(Voreinstellungen!C29="REST",SUMIF(J4:J34,Voreinstellungen!B29,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),"")))</f>
         <v>0</v>
@@ -14211,14 +14211,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B30,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B30,N4:N34),0),IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30)))))</f>
         <v>0</v>
       </c>
-      <c r="K44" s="400" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="401"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="402"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="388"/>
       <c r="P44" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(Voreinstellungen!C30="REST",SUMIF(J4:J34,Voreinstellungen!B30,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),"")))</f>
         <v/>
@@ -14235,14 +14235,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B31,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B31,N4:N34),0),IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31)))))</f>
         <v>0</v>
       </c>
-      <c r="K45" s="400" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="401"/>
-      <c r="M45" s="401"/>
-      <c r="N45" s="401"/>
-      <c r="O45" s="402"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="388"/>
       <c r="P45" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(Voreinstellungen!C31="REST",SUMIF(J4:J34,Voreinstellungen!B31,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),"")))</f>
         <v/>
@@ -14259,14 +14259,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B32,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B32,N4:N34),0),IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32)))))</f>
         <v>0</v>
       </c>
-      <c r="K46" s="400" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="401"/>
-      <c r="M46" s="401"/>
-      <c r="N46" s="401"/>
-      <c r="O46" s="402"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="388"/>
       <c r="P46" s="234" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(Voreinstellungen!C32="REST",SUMIF(J4:J34,Voreinstellungen!B32,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),"")))</f>
         <v/>
@@ -14287,14 +14287,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="REST",IFERROR(SUMIF(J4:J34,Voreinstellungen!B33,K4:K34)/SUMIF(J4:J34,Voreinstellungen!B33,N4:N34),0),IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33)))))</f>
         <v>0</v>
       </c>
-      <c r="K47" s="397" t="str">
+      <c r="K47" s="383" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="398"/>
-      <c r="M47" s="398"/>
-      <c r="N47" s="398"/>
-      <c r="O47" s="399"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="385"/>
       <c r="P47" s="340" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(Voreinstellungen!C33="REST",SUMIF(J4:J34,Voreinstellungen!B33,N4:N34)-SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),"")))</f>
         <v/>
@@ -14303,6 +14303,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ckjAp3M0inqzooLEfZdc4f/HjPsEfDCTdLAnZaayrnftQ4dctyoJ+NgDJqJCYUgWfqTF5VR9ZwUyJG5krlCuzg==" saltValue="ZTo5PKb7eGW+1GxNqRU9vw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
     <mergeCell ref="K40:O40"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="A1:G2"/>
@@ -14312,13 +14319,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:P34">
     <cfRule type="expression" dxfId="159" priority="9">
@@ -14491,16 +14491,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382">
+      <c r="A1" s="390">
         <f>DATE(Jahr,11,1)</f>
         <v>44500</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
       <c r="H1" s="286" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -14511,20 +14511,20 @@
       <c r="L1" s="56"/>
       <c r="M1" s="54"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="386" t="str">
+      <c r="O1" s="394" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Sepin, Philipp</v>
       </c>
-      <c r="P1" s="387"/>
+      <c r="P1" s="395"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
@@ -14532,11 +14532,11 @@
       <c r="L2" s="60"/>
       <c r="M2" s="58"/>
       <c r="N2" s="61"/>
-      <c r="O2" s="388" t="str">
+      <c r="O2" s="396" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v>Personal-Nr.: 11918494</v>
       </c>
-      <c r="P2" s="389"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" s="63" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -14626,7 +14626,7 @@
       <c r="O4" s="301"/>
       <c r="P4" s="302">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14671,7 +14671,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="304">
         <f ca="1">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14716,7 +14716,7 @@
       <c r="O6" s="165"/>
       <c r="P6" s="304">
         <f t="shared" ref="P6:P33" ca="1" si="8">IF(A6="","",IF(M6&lt;&gt;"",ROUND(P5+M6,14),P5))</f>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14761,7 +14761,7 @@
       <c r="O7" s="165"/>
       <c r="P7" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14806,7 +14806,7 @@
       <c r="O8" s="165"/>
       <c r="P8" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14851,7 +14851,7 @@
       <c r="O9" s="165"/>
       <c r="P9" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14896,7 +14896,7 @@
       <c r="O10" s="165"/>
       <c r="P10" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14941,7 +14941,7 @@
       <c r="O11" s="165"/>
       <c r="P11" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14986,7 +14986,7 @@
       <c r="O12" s="165"/>
       <c r="P12" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15031,7 +15031,7 @@
       <c r="O13" s="165"/>
       <c r="P13" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15076,7 +15076,7 @@
       <c r="O14" s="165"/>
       <c r="P14" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15121,7 +15121,7 @@
       <c r="O15" s="165"/>
       <c r="P15" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15166,7 +15166,7 @@
       <c r="O16" s="165"/>
       <c r="P16" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15211,7 +15211,7 @@
       <c r="O17" s="165"/>
       <c r="P17" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15256,7 +15256,7 @@
       <c r="O18" s="165"/>
       <c r="P18" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15301,7 +15301,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15346,7 +15346,7 @@
       <c r="O20" s="165"/>
       <c r="P20" s="304">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6875</v>
+        <v>-1.4479166666666701</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15391,7 +15391,7 @@
       <c r="O21" s="165"/>
     